--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4530E821-4819-4F94-B48C-B0F23C6E08D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B323D9F-3542-4E1F-ADB5-2F7D84AED08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
   </bookViews>
   <sheets>
     <sheet name="presentismo" sheetId="1" r:id="rId1"/>
     <sheet name="ventas" sheetId="2" r:id="rId2"/>
+    <sheet name="datos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="IVA">ventas!$A$2</definedName>
+    <definedName name="char">datos!$N$1</definedName>
+    <definedName name="IVA">ventas!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,26 +40,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="84">
   <si>
     <t>Empleado</t>
   </si>
   <si>
-    <t>Cristian Damian, Racedo</t>
-  </si>
-  <si>
     <t>Martinez, Mariano</t>
   </si>
   <si>
-    <t>Belen, Tambella</t>
-  </si>
-  <si>
     <t>Francisca, Casas</t>
   </si>
   <si>
-    <t>Romina, Gurruchaga</t>
-  </si>
-  <si>
     <t>Juan, Perez</t>
   </si>
   <si>
@@ -166,12 +159,6 @@
     <t>Estadisticas</t>
   </si>
   <si>
-    <t>mayor</t>
-  </si>
-  <si>
-    <t>menor</t>
-  </si>
-  <si>
     <t>promedio</t>
   </si>
   <si>
@@ -184,22 +171,127 @@
     <t>total</t>
   </si>
   <si>
-    <t>moda</t>
-  </si>
-  <si>
     <t>codigo</t>
   </si>
   <si>
     <t>precio</t>
   </si>
   <si>
-    <t>total + iva</t>
-  </si>
-  <si>
     <t>iva</t>
   </si>
   <si>
     <t>valor iva</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>MEDIANA</t>
+  </si>
+  <si>
+    <t>MODA</t>
+  </si>
+  <si>
+    <t>CONTAR</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>min total</t>
+  </si>
+  <si>
+    <t>max total</t>
+  </si>
+  <si>
+    <t>max cant.</t>
+  </si>
+  <si>
+    <t>moda cod.</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Nacimiento</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>CUIL</t>
+  </si>
+  <si>
+    <t>20-35336446-5</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>27-36806507-1</t>
+  </si>
+  <si>
+    <t>20-27423190-3</t>
+  </si>
+  <si>
+    <t>20-12839481-2</t>
+  </si>
+  <si>
+    <t>27-94975900-3</t>
+  </si>
+  <si>
+    <t>27-36873001-7</t>
+  </si>
+  <si>
+    <t>20-24717271-9</t>
+  </si>
+  <si>
+    <t>largo</t>
+  </si>
+  <si>
+    <t>separador</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Cristian Damian,Racedo</t>
+  </si>
+  <si>
+    <t>Belen,    Tambella</t>
+  </si>
+  <si>
+    <t>Romina,  Gurruchaga</t>
+  </si>
+  <si>
+    <t>De la Cruz, Miguel</t>
+  </si>
+  <si>
+    <t>d'Arc, Joan</t>
   </si>
 </sst>
 </file>
@@ -208,9 +300,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +319,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,13 +353,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -267,80 +367,305 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -357,7 +682,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="A1:AG9" totalsRowCount="1" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="A1:AG9" totalsRowCount="1" headerRowDxfId="36">
   <autoFilter ref="A1:AG8" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{63E8AE85-7078-42EA-8049-5AA43D1477D3}" name="Empleado" totalsRowFunction="custom">
@@ -369,25 +694,25 @@
     <tableColumn id="3" xr3:uid="{13839942-7C3B-4C39-B28B-AC898EBACE02}" name="2/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[2/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTBLANK(presentismo[3/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTBLANK(presentismo[4/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTBLANK(presentismo[5/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTBLANK(presentismo[6/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTBLANK(presentismo[7/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTBLANK(presentismo[8/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTBLANK(presentismo[9/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{E013540E-F42C-4310-9BD2-372E388003A4}" name="10/9/22" totalsRowFunction="custom">
@@ -408,34 +733,34 @@
     <tableColumn id="16" xr3:uid="{36B417AE-F126-4023-BEBD-61D669212878}" name="15/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[15/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTBLANK(presentismo[16/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTBLANK(presentismo[17/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTBLANK(presentismo[18/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTBLANK(presentismo[19/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTBLANK(presentismo[20/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTBLANK(presentismo[21/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTBLANK(presentismo[22/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTBLANK(presentismo[23/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTBLANK(presentismo[24/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTBLANK(presentismo[25/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{AA931E08-C2D5-4EEC-882D-D051DE15F54E}" name="26/9/22" totalsRowFunction="custom">
@@ -453,10 +778,10 @@
     <tableColumn id="31" xr3:uid="{480A7E2D-67A4-4E7B-B27F-A24C65D91962}" name="30/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[30/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="4">
+    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="18">
       <calculatedColumnFormula>COUNTA(B2:AE2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="3">
+    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="17">
       <calculatedColumnFormula>COUNTBLANK(B2:AE2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -465,7 +790,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="AI1:AK8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="AI1:AK8" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="AI1:AK8" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CE7D112E-6D17-4595-9933-39DA72A6ADB2}" name="Estadisticas"/>
@@ -477,19 +802,61 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A4C6C52-D787-4FC6-AFA0-FD8E50F20616}" name="Tabla3" displayName="Tabla3" ref="D1:I14" totalsRowShown="0">
-  <autoFilter ref="D1:I14" xr:uid="{2A4C6C52-D787-4FC6-AFA0-FD8E50F20616}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{235508B6-CDDA-4EA1-B28D-65EBF7CD1799}" name="codigo"/>
-    <tableColumn id="2" xr3:uid="{8418F708-B989-4B48-A3D5-C3563D76826C}" name="cantidad"/>
-    <tableColumn id="3" xr3:uid="{9A3F2347-F66F-40C9-9D2C-5CBF9E1ABEB0}" name="precio" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{1CDDF001-38DE-47F2-99C3-34245BD5FC13}" name="total" dataDxfId="2">
-      <calculatedColumnFormula>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{8A17BE2C-FF25-4E24-8411-416A465EFECF}" name="valor iva" dataDxfId="0">
-      <calculatedColumnFormula>Tabla3[[#This Row],[total]]*IVA</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{58D7CF16-F506-492A-888F-6176275B68FC}" name="total + iva"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:J16" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="D1:J16" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:J16">
+    <sortCondition ref="D1:D16"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="12">
+      <calculatedColumnFormula>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="11">
+      <calculatedColumnFormula>ventas[[#This Row],[total]]*IVA</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="10">
+      <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="Tabla5" displayName="Tabla5" ref="A1:K10" totalsRowShown="0">
+  <autoFilter ref="A1:K10" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="7">
+      <calculatedColumnFormula>presentismo[[#This Row],[Empleado]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="Apellidos" dataDxfId="2">
+      <calculatedColumnFormula>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="Nombres" dataDxfId="1">
+      <calculatedColumnFormula>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="separador" dataDxfId="0">
+      <calculatedColumnFormula>FIND(char,Tabla5[[#This Row],[Empleado]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="largo" dataDxfId="3">
+      <calculatedColumnFormula>LEN(Tabla5[[#This Row],[Empleado]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7FAAF893-41DD-4433-9412-06936F9828E5}" name="Nacimiento"/>
+    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="Edad"/>
+    <tableColumn id="6" xr3:uid="{F74EB26B-27B2-49FB-9BCC-72F74AE29654}" name="CUIL"/>
+    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="6">
+      <calculatedColumnFormula>LEFT(Tabla5[[#This Row],[CUIL]],2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="4">
+      <calculatedColumnFormula>MID(Tabla5[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="5">
+      <calculatedColumnFormula>RIGHT(Tabla5[[#This Row],[CUIL]],1)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -795,10 +1162,10 @@
   <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO2" sqref="AO2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,198 +1185,198 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF2">
-        <f>COUNTA(B2:AE2)</f>
+        <f t="shared" ref="AF2:AF8" si="0">COUNTA(B2:AE2)</f>
         <v>22</v>
       </c>
       <c r="AG2">
-        <f>COUNTBLANK(B2:AE2)</f>
+        <f t="shared" ref="AG2:AG8" si="1">COUNTBLANK(B2:AE2)</f>
         <v>8</v>
       </c>
       <c r="AI2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AJ2">
         <f>MAX(presentismo[asist])</f>
@@ -1022,95 +1389,95 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF3">
-        <f>COUNTA(B3:AE3)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AG3">
-        <f>COUNTBLANK(B3:AE3)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AI3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AJ3">
         <f>MIN(presentismo[asist])</f>
@@ -1123,84 +1490,84 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF4">
-        <f>COUNTA(B4:AE4)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AG4">
-        <f>COUNTBLANK(B4:AE4)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AI4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AJ4" s="5">
         <f>AVERAGE(presentismo[asist])</f>
@@ -1213,94 +1580,94 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF5">
-        <f>COUNTA(B5:AE5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AG5">
-        <f>COUNTBLANK(B5:AE5)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AI5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ5">
         <f>MEDIAN(presentismo[asist])</f>
@@ -1313,99 +1680,99 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE6" s="1" t="str">
         <f>TRIM(AE7)</f>
         <v/>
       </c>
       <c r="AF6">
-        <f>COUNTA(B6:AE6)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="AG6">
-        <f>COUNTBLANK(B6:AE6)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AI6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ6">
         <f>MODE(presentismo[asist])</f>
@@ -1418,82 +1785,82 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF7">
-        <f>COUNTA(B7:AE7)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AG7">
-        <f>COUNTBLANK(B7:AE7)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AI7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AJ7">
         <f>COUNT(presentismo[asist])</f>
@@ -1506,76 +1873,76 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF8">
-        <f>COUNTA(B8:AE8)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AG8">
-        <f>COUNTBLANK(B8:AE8)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AI8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AJ8">
         <f>SUM(presentismo[asist])</f>
@@ -1745,289 +2112,900 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A83380-975D-48C5-88E7-EB8DA010B416}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="B1" s="7">
+        <v>0.21</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8">
+        <f>SUM(ventas[final])</f>
+        <v>5782396.3274000008</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5600</v>
+      </c>
+      <c r="H2" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>11200</v>
+      </c>
+      <c r="I2" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>2352</v>
+      </c>
+      <c r="J2" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>13552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <f>COUNT(ventas[codigo])</f>
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>30</v>
+      </c>
+      <c r="F3" s="9">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10">
+        <v>25399.99</v>
+      </c>
+      <c r="H3" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>76199.97</v>
+      </c>
+      <c r="I3" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>16001.993699999999</v>
+      </c>
+      <c r="J3" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>92201.963699999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <f>MAX(ventas[cantidad])</f>
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>65480</v>
+      </c>
+      <c r="H4" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>327400</v>
+      </c>
+      <c r="I4" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>68754</v>
+      </c>
+      <c r="J4" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>396154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <f>MODE(ventas[codigo])</f>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5600</v>
+      </c>
+      <c r="H5" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>39200</v>
+      </c>
+      <c r="I5" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>8232</v>
+      </c>
+      <c r="J5" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>47432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="6">
+        <f>MAX(ventas[total])</f>
+        <v>2097152</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>34</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5600</v>
+      </c>
+      <c r="H6" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>190400</v>
+      </c>
+      <c r="I6" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>39984</v>
+      </c>
+      <c r="J6" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>230384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6">
+        <f>MIN(ventas[total])</f>
+        <v>8192</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10">
+        <v>65480</v>
+      </c>
+      <c r="H7" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>785760</v>
+      </c>
+      <c r="I7" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>165009.60000000001</v>
+      </c>
+      <c r="J7" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>950769.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6">
+        <f>AVERAGE(ventas[total])</f>
+        <v>318589.3293333333</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4096</v>
+      </c>
+      <c r="H8" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>16384</v>
+      </c>
+      <c r="I8" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>3440.64</v>
+      </c>
+      <c r="J8" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>19824.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6">
+        <f>MEDIAN(ventas[total])</f>
+        <v>81920</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="10">
+        <v>32768</v>
+      </c>
+      <c r="H9" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>262144</v>
+      </c>
+      <c r="I9" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>55050.239999999998</v>
+      </c>
+      <c r="J9" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>317194.23999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1048576</v>
+      </c>
+      <c r="H10" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>2097152</v>
+      </c>
+      <c r="I10" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>440401.91999999998</v>
+      </c>
+      <c r="J10" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>2537553.9199999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5</v>
+      </c>
+      <c r="G11" s="10">
+        <v>16384</v>
+      </c>
+      <c r="H11" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>81920</v>
+      </c>
+      <c r="I11" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>17203.2</v>
+      </c>
+      <c r="J11" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>99123.199999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>8192</v>
+      </c>
+      <c r="H12" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>8192</v>
+      </c>
+      <c r="I12" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>1720.32</v>
+      </c>
+      <c r="J12" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>9912.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10">
+        <v>25399.99</v>
+      </c>
+      <c r="H13" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>76199.97</v>
+      </c>
+      <c r="I13" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>16001.993699999999</v>
+      </c>
+      <c r="J13" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>92201.963699999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9">
+        <v>33</v>
+      </c>
+      <c r="F14" s="9">
+        <v>8</v>
+      </c>
+      <c r="G14" s="10">
+        <v>65536</v>
+      </c>
+      <c r="H14" s="11">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>524288</v>
+      </c>
+      <c r="I14" s="11">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>110100.48</v>
+      </c>
+      <c r="J14" s="11">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>634388.47999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <v>20</v>
+      </c>
+      <c r="F15" s="13">
+        <v>4</v>
+      </c>
+      <c r="G15" s="14">
+        <v>65480</v>
+      </c>
+      <c r="H15" s="15">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>261920</v>
+      </c>
+      <c r="I15" s="15">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>55003.199999999997</v>
+      </c>
+      <c r="J15" s="15">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>316923.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="13">
+        <v>15</v>
+      </c>
+      <c r="E16" s="13">
+        <v>26</v>
+      </c>
+      <c r="F16" s="13">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14">
+        <v>4096</v>
+      </c>
+      <c r="H16" s="15">
+        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+        <v>20480</v>
+      </c>
+      <c r="I16" s="15">
+        <f>ventas[[#This Row],[total]]*IVA</f>
+        <v>4300.8</v>
+      </c>
+      <c r="J16" s="15">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
+        <v>24780.799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA646FC-82A8-41CA-871F-23683B80785F}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="0.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>0.21</v>
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Cristian Damian,Racedo</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <v>Racedo</v>
+      </c>
+      <c r="C2" t="str">
+        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <v>Cristian Damian</v>
       </c>
       <c r="D2">
+        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <v>22</v>
+      </c>
+      <c r="F2" s="16">
+        <v>33346</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="str">
+        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="J2" t="str">
+        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+        <v>35336446</v>
+      </c>
+      <c r="K2" t="str">
+        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Martinez, Mariano</v>
+      </c>
+      <c r="B3" t="str">
+        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <v>Mariano</v>
+      </c>
+      <c r="C3" t="str">
+        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <v>Martinez</v>
+      </c>
+      <c r="D3">
+        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="str">
+        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="J3" t="str">
+        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+        <v>24717271</v>
+      </c>
+      <c r="K3" t="str">
+        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Belen,    Tambella</v>
+      </c>
+      <c r="B4" t="str">
+        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <v>Tambella</v>
+      </c>
+      <c r="C4" t="str">
+        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <v>Belen</v>
+      </c>
+      <c r="D4">
+        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="str">
+        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="J4" t="str">
+        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+        <v>36806507</v>
+      </c>
+      <c r="K4" t="str">
+        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Francisca, Casas</v>
+      </c>
+      <c r="B5" t="str">
+        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <v>Casas</v>
+      </c>
+      <c r="C5" t="str">
+        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <v>Francisca</v>
+      </c>
+      <c r="D5">
+        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E5">
+        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="str">
+        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="J5" t="str">
+        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+        <v>94975900</v>
+      </c>
+      <c r="K5" t="str">
+        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Romina,  Gurruchaga</v>
+      </c>
+      <c r="B6" t="str">
+        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <v>Gurruchaga</v>
+      </c>
+      <c r="C6" t="str">
+        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <v>Romina</v>
+      </c>
+      <c r="D6">
+        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="str">
+        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="J6" t="str">
+        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+        <v>36873001</v>
+      </c>
+      <c r="K6" t="str">
+        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Juan, Perez</v>
+      </c>
+      <c r="B7" t="str">
+        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <v>Perez</v>
+      </c>
+      <c r="C7" t="str">
+        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <v>Juan</v>
+      </c>
+      <c r="D7">
+        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="str">
+        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="J7" t="str">
+        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+        <v>27423190</v>
+      </c>
+      <c r="K7" t="str">
+        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Gonzalez, Gonzalo</v>
+      </c>
+      <c r="B8" t="str">
+        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <v>Gonzalo</v>
+      </c>
+      <c r="C8" t="str">
+        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <v>Gonzalez</v>
+      </c>
+      <c r="D8">
+        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="str">
+        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="J8" t="str">
+        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+        <v>12839481</v>
+      </c>
+      <c r="K8" t="str">
+        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="6">
-        <v>5600</v>
-      </c>
-      <c r="G2" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>11200</v>
-      </c>
-      <c r="H2" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6">
-        <v>25399.99</v>
-      </c>
-      <c r="G3" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>76199.97</v>
-      </c>
-      <c r="H3" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>16001.993699999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6">
-        <v>65480</v>
-      </c>
-      <c r="G4" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>327400</v>
-      </c>
-      <c r="H4" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>68754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6">
-        <v>5600</v>
-      </c>
-      <c r="G5" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>39200</v>
-      </c>
-      <c r="H5" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>8232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6">
-        <v>5600</v>
-      </c>
-      <c r="G6" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>190400</v>
-      </c>
-      <c r="H6" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>39984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6">
-        <v>65480</v>
-      </c>
-      <c r="G7" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>785760</v>
-      </c>
-      <c r="H7" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>165009.60000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4096</v>
-      </c>
-      <c r="G8" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>16384</v>
-      </c>
-      <c r="H8" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>3440.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6">
-        <v>32768</v>
-      </c>
-      <c r="G9" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>262144</v>
-      </c>
-      <c r="H9" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>55050.239999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1048576</v>
-      </c>
-      <c r="G10" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>2097152</v>
-      </c>
-      <c r="H10" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>440401.91999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>16384</v>
-      </c>
-      <c r="G11" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>81920</v>
-      </c>
-      <c r="H11" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>17203.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>8192</v>
-      </c>
-      <c r="G12" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>8192</v>
-      </c>
-      <c r="H12" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>1720.32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6">
-        <v>25399.99</v>
-      </c>
-      <c r="G13" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>76199.97</v>
-      </c>
-      <c r="H13" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>16001.993699999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>33</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14" s="6">
-        <v>65536</v>
-      </c>
-      <c r="G14" s="8">
-        <f>Tabla3[[#This Row],[cantidad]]*Tabla3[[#This Row],[precio]]</f>
-        <v>524288</v>
-      </c>
-      <c r="H14" s="8">
-        <f>Tabla3[[#This Row],[total]]*IVA</f>
-        <v>110100.48</v>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <v>Miguel</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <v>De la Cruz</v>
+      </c>
+      <c r="D9" s="4">
+        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+        <v/>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+        <v/>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <v>Joan</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <v>d'Arc</v>
+      </c>
+      <c r="D10" s="4">
+        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+        <v/>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+        <v/>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B323D9F-3542-4E1F-ADB5-2F7D84AED08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA9C465-2D10-47B3-8CA6-8952BF5D11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="presentismo" sheetId="1" r:id="rId1"/>
-    <sheet name="ventas" sheetId="2" r:id="rId2"/>
-    <sheet name="datos" sheetId="3" r:id="rId3"/>
+    <sheet name="menu" sheetId="4" r:id="rId1"/>
+    <sheet name="presentismo" sheetId="1" r:id="rId2"/>
+    <sheet name="ventas" sheetId="2" r:id="rId3"/>
+    <sheet name="datos" sheetId="3" r:id="rId4"/>
+    <sheet name="estadisticas" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="char">datos!$N$1</definedName>
+    <definedName name="año">datos!$O$5</definedName>
+    <definedName name="char">datos!$O$1</definedName>
+    <definedName name="dia">datos!$O$3</definedName>
+    <definedName name="hoy">datos!$O$2</definedName>
     <definedName name="IVA">ventas!$B$1</definedName>
+    <definedName name="mes">datos!$O$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="107">
   <si>
     <t>Empleado</t>
   </si>
@@ -225,18 +231,6 @@
     <t>moda cod.</t>
   </si>
   <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Nacimiento</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
     <t>CUIL</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>20-24717271-9</t>
   </si>
   <si>
-    <t>largo</t>
-  </si>
-  <si>
     <t>separador</t>
   </si>
   <si>
@@ -292,17 +283,103 @@
   </si>
   <si>
     <t>d'Arc, Joan</t>
+  </si>
+  <si>
+    <t>APELLIDOS</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>SEPARADOR</t>
+  </si>
+  <si>
+    <t>LARGO</t>
+  </si>
+  <si>
+    <t>NACIMIENTO</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>ahora</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>seg</t>
+  </si>
+  <si>
+    <t>AÑOS</t>
+  </si>
+  <si>
+    <t>20-16835460-6</t>
+  </si>
+  <si>
+    <t>27-12850734-2</t>
+  </si>
+  <si>
+    <t>Presentismo</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Atajos</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>Internos</t>
+  </si>
+  <si>
+    <t>Externos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +408,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,11 +441,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -377,12 +470,34 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -681,8 +796,876 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>670969</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>569765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Lista de comprobación con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2F4367-E666-4D03-9DEB-2418E98C6FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="130969" y="29765"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114282</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>654282</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>570938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Gráfico 4" descr="Aula de clases con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06720D7-8363-4498-BA44-CE6FD87C8F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876282" y="804844"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139266</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>26156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>679266</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>566156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Gráfico 6" descr="Documento con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95CA8BF-0A97-4369-86E1-AD7D779371B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139266" y="800062"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>122578</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>662578</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>555422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Gráfico 8" descr="Correo electrónico con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033437E7-8BEF-4CDB-96B6-19693BA35A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1646578" y="789328"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129704</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>669704</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Gráfico 10" descr="Identificación de empleado con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88935485-1094-4809-874F-DD9D952ECEFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653704" y="47625"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>102282</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>642282</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Gráfico 14" descr="Casa con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879CB430-AB01-4349-8EDE-4448066E7FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1113397" y="1581404"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>109406</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>649406</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Gráfico 16" descr="Dinero con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2400C25-9175-4506-8670-01CC929EE274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="871406" y="49876"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>110578</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>650578</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>581671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Gráfico 18" descr="Presentación con gráfico circular con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57074097-AEF2-46E5-9411-311A09D1E13F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2396578" y="41671"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>659063</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>569766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98C3B94-313B-447B-BEB6-7C8D4028EC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent1">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId27"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2405063" y="803672"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89298</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5334000" cy="540000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CuadroTexto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C829E3-5663-448F-93F6-B5842E07720E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2375298" y="6137671"/>
+          <a:ext cx="5334000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="http://major.io/2014/08/08/use-gist-gem-github-enterprise-github-com"/>
+            </a:rPr>
+            <a:t>Esta foto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900"/>
+            <a:t> de Autor desconocido está bajo licencia </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28" tooltip="https://creativecommons.org/licenses/by-sa/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY-SA</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125016</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>494110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Paralelogramo 25">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F38DBDA-102B-49DD-BF27-1D2B5D4EBD03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3935016" y="863204"/>
+          <a:ext cx="398860" cy="404812"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 66482"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59121</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599121</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>172138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Casa con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52745483-9B10-4548-B5EA-ECD2F93F2A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59121" y="1924707"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>583962</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Casa con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572C05E4-C74D-48CB-BC99-CBC455C934B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43962" y="1692520"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295603</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533431</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Casa con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B5436A-3980-43A1-A020-674B5491341D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568965" y="1694793"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>187575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Casa con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90BD2E4-9C47-4FB6-B9E3-398857DC3FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="28575"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="A1:AG9" totalsRowCount="1" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="A1:AG9" totalsRowCount="1" headerRowDxfId="38">
   <autoFilter ref="A1:AG8" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{63E8AE85-7078-42EA-8049-5AA43D1477D3}" name="Empleado" totalsRowFunction="custom">
@@ -694,25 +1677,25 @@
     <tableColumn id="3" xr3:uid="{13839942-7C3B-4C39-B28B-AC898EBACE02}" name="2/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[2/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="35">
+    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="37">
       <totalsRowFormula>COUNTBLANK(presentismo[3/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="36">
       <totalsRowFormula>COUNTBLANK(presentismo[4/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTBLANK(presentismo[5/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTBLANK(presentismo[6/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTBLANK(presentismo[7/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTBLANK(presentismo[8/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTBLANK(presentismo[9/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{E013540E-F42C-4310-9BD2-372E388003A4}" name="10/9/22" totalsRowFunction="custom">
@@ -733,34 +1716,34 @@
     <tableColumn id="16" xr3:uid="{36B417AE-F126-4023-BEBD-61D669212878}" name="15/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[15/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTBLANK(presentismo[16/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTBLANK(presentismo[17/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTBLANK(presentismo[18/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTBLANK(presentismo[19/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTBLANK(presentismo[20/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTBLANK(presentismo[21/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTBLANK(presentismo[22/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTBLANK(presentismo[23/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTBLANK(presentismo[24/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTBLANK(presentismo[25/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{AA931E08-C2D5-4EEC-882D-D051DE15F54E}" name="26/9/22" totalsRowFunction="custom">
@@ -778,10 +1761,10 @@
     <tableColumn id="31" xr3:uid="{480A7E2D-67A4-4E7B-B27F-A24C65D91962}" name="30/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[30/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="18">
+    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="20">
       <calculatedColumnFormula>COUNTA(B2:AE2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="17">
+    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="19">
       <calculatedColumnFormula>COUNTBLANK(B2:AE2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -790,7 +1773,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="AI1:AK8" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="AI1:AK8" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="AI1:AK8" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CE7D112E-6D17-4595-9933-39DA72A6ADB2}" name="Estadisticas"/>
@@ -802,23 +1785,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:J16" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:J16" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="D1:J16" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:J16">
     <sortCondition ref="D1:D16"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="15" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="14">
       <calculatedColumnFormula>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="13">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*IVA</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="12">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -827,35 +1810,40 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="Tabla5" displayName="Tabla5" ref="A1:K10" totalsRowShown="0">
-  <autoFilter ref="A1:K10" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="datos" displayName="datos" ref="A1:L10" totalsRowShown="0">
+  <autoFilter ref="A1:L10" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="9">
       <calculatedColumnFormula>presentismo[[#This Row],[Empleado]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="Apellidos" dataDxfId="2">
-      <calculatedColumnFormula>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="Nombres" dataDxfId="1">
-      <calculatedColumnFormula>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="separador" dataDxfId="0">
-      <calculatedColumnFormula>FIND(char,Tabla5[[#This Row],[Empleado]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="largo" dataDxfId="3">
-      <calculatedColumnFormula>LEN(Tabla5[[#This Row],[Empleado]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{7FAAF893-41DD-4433-9412-06936F9828E5}" name="Nacimiento"/>
-    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="Edad"/>
+    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="APELLIDOS" dataDxfId="4">
+      <calculatedColumnFormula>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="NOMBRES" dataDxfId="2">
+      <calculatedColumnFormula>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="SEPARADOR" dataDxfId="3">
+      <calculatedColumnFormula>FIND(char,datos[[#This Row],[Empleado]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="LARGO" dataDxfId="5">
+      <calculatedColumnFormula>LEN(datos[[#This Row],[Empleado]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7FAAF893-41DD-4433-9412-06936F9828E5}" name="NACIMIENTO"/>
+    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="EDAD" dataDxfId="0">
+      <calculatedColumnFormula>(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{01515EC2-7B72-403E-A547-32DCA5CEAE28}" name="AÑOS" dataDxfId="1">
+      <calculatedColumnFormula>año - YEAR(datos[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{F74EB26B-27B2-49FB-9BCC-72F74AE29654}" name="CUIL"/>
-    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="6">
-      <calculatedColumnFormula>LEFT(Tabla5[[#This Row],[CUIL]],2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="4">
-      <calculatedColumnFormula>MID(Tabla5[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="5">
-      <calculatedColumnFormula>RIGHT(Tabla5[[#This Row],[CUIL]],1)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="8">
+      <calculatedColumnFormula>LEFT(datos[[#This Row],[CUIL]],2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="6">
+      <calculatedColumnFormula>MID(datos[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="7">
+      <calculatedColumnFormula>RIGHT(datos[[#This Row],[CUIL]],1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1158,14 +2146,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D2F1C7-2AC9-4F12-98F3-C533C654056E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="presentismo!A1" display="Presentismo" xr:uid="{CF2D0E39-D7F2-4FE6-8A89-7F5864A0FA5B}"/>
+    <hyperlink ref="C2" location="ventas!A1" display="Ventas" xr:uid="{CD1BB188-C947-43F3-8FD6-F5734811507F}"/>
+    <hyperlink ref="D2" location="datos!A1" display="Datos" xr:uid="{1768D2CB-8F3E-48E3-9386-BF75FDA88A0B}"/>
+    <hyperlink ref="E2" location="estadisticas!A1" display="Estadisticas" xr:uid="{D351D082-DF2D-4A98-A085-FF6654BC2F48}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274D158F-7E6E-415D-AB2C-1E38F056A653}">
   <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +2366,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
@@ -1490,7 +2564,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>37</v>
@@ -1680,7 +2754,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -2103,14 +3177,15 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A83380-975D-48C5-88E7-EB8DA010B416}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -2118,7 +3193,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,19 +3686,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA646FC-82A8-41CA-871F-23683B80785F}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2631,387 +3705,567 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="0.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
       <c r="N1" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Cristian Damian,Racedo</v>
       </c>
       <c r="B2" t="str">
-        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Racedo</v>
       </c>
       <c r="C2" t="str">
-        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Cristian Damian</v>
       </c>
       <c r="D2">
-        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>16</v>
       </c>
       <c r="E2">
-        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>22</v>
       </c>
       <c r="F2" s="16">
         <v>33346</v>
       </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="str">
-        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+      <c r="G2" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>31.545205479452054</v>
+      </c>
+      <c r="H2" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="J2" t="str">
-        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+      <c r="K2" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>35336446</v>
       </c>
-      <c r="K2" t="str">
-        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+      <c r="L2" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>5</v>
       </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="16">
+        <f ca="1">TODAY()</f>
+        <v>44860</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Martinez, Mariano</v>
       </c>
       <c r="B3" t="str">
-        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Mariano</v>
       </c>
       <c r="C3" t="str">
-        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Martinez</v>
       </c>
       <c r="D3">
-        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>9</v>
       </c>
       <c r="E3">
-        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" t="str">
-        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+      <c r="F3" s="16">
+        <v>31710</v>
+      </c>
+      <c r="G3" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>36.027397260273972</v>
+      </c>
+      <c r="H3" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="J3" t="str">
-        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+      <c r="K3" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>24717271</v>
       </c>
-      <c r="K3" t="str">
-        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+      <c r="L3" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>9</v>
       </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3">
+        <f ca="1">DAY(O2)</f>
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Belen,    Tambella</v>
       </c>
       <c r="B4" t="str">
-        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Tambella</v>
       </c>
       <c r="C4" t="str">
-        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Belen</v>
       </c>
       <c r="D4">
-        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>6</v>
       </c>
       <c r="E4">
-        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="str">
-        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+      <c r="F4" s="16">
+        <v>33674</v>
+      </c>
+      <c r="G4" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>30.646575342465752</v>
+      </c>
+      <c r="H4" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="J4" t="str">
-        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+      <c r="K4" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>36806507</v>
       </c>
-      <c r="K4" t="str">
-        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+      <c r="L4" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>1</v>
       </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4">
+        <f ca="1">MONTH(O2)</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Francisca, Casas</v>
       </c>
       <c r="B5" t="str">
-        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Casas</v>
       </c>
       <c r="C5" t="str">
-        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Francisca</v>
       </c>
       <c r="D5">
-        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>10</v>
       </c>
       <c r="E5">
-        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="str">
-        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+      <c r="F5" s="16">
+        <v>35297</v>
+      </c>
+      <c r="G5" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>26.2</v>
+      </c>
+      <c r="H5" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="J5" t="str">
-        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+      <c r="K5" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>94975900</v>
       </c>
-      <c r="K5" t="str">
-        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+      <c r="L5" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>3</v>
       </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5">
+        <f ca="1">YEAR(O2)</f>
+        <v>2022</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Romina,  Gurruchaga</v>
       </c>
       <c r="B6" t="str">
-        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Gurruchaga</v>
       </c>
       <c r="C6" t="str">
-        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Romina</v>
       </c>
       <c r="D6">
-        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
       <c r="E6">
-        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>19</v>
       </c>
-      <c r="H6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" t="str">
-        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+      <c r="F6" s="16">
+        <v>33708</v>
+      </c>
+      <c r="G6" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>30.553424657534247</v>
+      </c>
+      <c r="H6" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="J6" t="str">
-        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+      <c r="K6" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>36873001</v>
       </c>
-      <c r="K6" t="str">
-        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+      <c r="L6" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>7</v>
       </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="17">
+        <f ca="1">NOW()</f>
+        <v>44860.747346759257</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Juan, Perez</v>
       </c>
       <c r="B7" t="str">
-        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Perez</v>
       </c>
       <c r="C7" t="str">
-        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Juan</v>
       </c>
       <c r="D7">
-        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>5</v>
       </c>
       <c r="E7">
-        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>11</v>
       </c>
-      <c r="H7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" t="str">
-        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+      <c r="F7" s="16">
+        <v>34109</v>
+      </c>
+      <c r="G7" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>29.454794520547946</v>
+      </c>
+      <c r="H7" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="J7" t="str">
-        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+      <c r="K7" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>27423190</v>
       </c>
-      <c r="K7" t="str">
-        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+      <c r="L7" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>3</v>
       </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <f ca="1">HOUR(O6)</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Gonzalez, Gonzalo</v>
       </c>
       <c r="B8" t="str">
-        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Gonzalo</v>
       </c>
       <c r="C8" t="str">
-        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Gonzalez</v>
       </c>
       <c r="D8">
-        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>9</v>
       </c>
       <c r="E8">
-        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="str">
-        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
+      <c r="F8" s="16">
+        <v>36526</v>
+      </c>
+      <c r="G8" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>22.832876712328765</v>
+      </c>
+      <c r="H8" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="J8" t="str">
-        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
+      <c r="K8" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>12839481</v>
       </c>
-      <c r="K8" t="str">
-        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
+      <c r="L8" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>2</v>
       </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="4">
+        <f ca="1">MINUTE(O6)</f>
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Miguel</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>De la Cruz</v>
       </c>
       <c r="D9" s="4">
-        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>11</v>
       </c>
       <c r="E9" s="4">
-        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>18</v>
       </c>
-      <c r="I9" s="4" t="str">
-        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
-        <v/>
+      <c r="F9" s="16">
+        <v>26358</v>
+      </c>
+      <c r="G9" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>50.69041095890411</v>
+      </c>
+      <c r="H9" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
-        <v/>
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
       </c>
       <c r="K9" s="4" t="str">
-        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
-        <v/>
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>16835460</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9">
+        <f ca="1">SECOND(O6)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>TRIM(RIGHT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[largo]] - (Tabla5[[#This Row],[separador]] )))</f>
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Joan</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>TRIM(LEFT(Tabla5[[#This Row],[Empleado]],Tabla5[[#This Row],[separador]] - 1))</f>
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>d'Arc</v>
       </c>
       <c r="D10" s="4">
-        <f>FIND(char,Tabla5[[#This Row],[Empleado]])</f>
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>6</v>
       </c>
       <c r="E10" s="4">
-        <f>LEN(Tabla5[[#This Row],[Empleado]])</f>
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>11</v>
       </c>
-      <c r="I10" s="4" t="str">
-        <f>LEFT(Tabla5[[#This Row],[CUIL]],2)</f>
-        <v/>
+      <c r="F10" s="16">
+        <v>21938</v>
+      </c>
+      <c r="G10" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>62.8</v>
+      </c>
+      <c r="H10" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f>MID(Tabla5[[#This Row],[CUIL]],4,8)</f>
-        <v/>
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
       </c>
       <c r="K10" s="4" t="str">
-        <f>RIGHT(Tabla5[[#This Row],[CUIL]],1)</f>
-        <v/>
-      </c>
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>12850734</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995329D2-6704-4347-93F2-81F7E9527D06}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,27 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA9C465-2D10-47B3-8CA6-8952BF5D11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85250017-3F13-41B1-830D-A3EA3095CE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="4" r:id="rId1"/>
     <sheet name="presentismo" sheetId="1" r:id="rId2"/>
-    <sheet name="ventas" sheetId="2" r:id="rId3"/>
-    <sheet name="datos" sheetId="3" r:id="rId4"/>
-    <sheet name="estadisticas" sheetId="5" r:id="rId5"/>
+    <sheet name="Productos" sheetId="6" r:id="rId3"/>
+    <sheet name="ventas" sheetId="2" r:id="rId4"/>
+    <sheet name="datos" sheetId="3" r:id="rId5"/>
+    <sheet name="estadisticas" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="año">datos!$O$5</definedName>
-    <definedName name="char">datos!$O$1</definedName>
-    <definedName name="dia">datos!$O$3</definedName>
-    <definedName name="hoy">datos!$O$2</definedName>
-    <definedName name="IVA">ventas!$B$1</definedName>
-    <definedName name="mes">datos!$O$4</definedName>
+    <definedName name="año">datos!$B$6</definedName>
+    <definedName name="char">datos!$B$2</definedName>
+    <definedName name="dia">datos!$B$4</definedName>
+    <definedName name="hoy">datos!$B$3</definedName>
+    <definedName name="IVA">ventas!$B$2</definedName>
+    <definedName name="mes">datos!$B$5</definedName>
+    <definedName name="SegmentaciónDeDatos_Categoria">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Marca">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -46,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="178">
   <si>
     <t>Empleado</t>
   </si>
@@ -367,6 +380,219 @@
   </si>
   <si>
     <t>Externos</t>
+  </si>
+  <si>
+    <t>volver al inicio</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>articulo</t>
+  </si>
+  <si>
+    <t>situacion</t>
+  </si>
+  <si>
+    <t>Tostadora</t>
+  </si>
+  <si>
+    <t>Sillon</t>
+  </si>
+  <si>
+    <t>Heladera</t>
+  </si>
+  <si>
+    <t>Remera</t>
+  </si>
+  <si>
+    <t>Teclado Mecanico</t>
+  </si>
+  <si>
+    <t>Batidora</t>
+  </si>
+  <si>
+    <t>ebook</t>
+  </si>
+  <si>
+    <t>Jean Levis</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Electrodomestico</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>Indumentaria</t>
+  </si>
+  <si>
+    <t>Automotor</t>
+  </si>
+  <si>
+    <t>Hogar</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Levis</t>
+  </si>
+  <si>
+    <t>Automovil</t>
+  </si>
+  <si>
+    <t>Lavarropas</t>
+  </si>
+  <si>
+    <t>Secarropas</t>
+  </si>
+  <si>
+    <t>Campera de Jean</t>
+  </si>
+  <si>
+    <t>Capera de Cuero</t>
+  </si>
+  <si>
+    <t>Parabrisas</t>
+  </si>
+  <si>
+    <t>Neumaticos</t>
+  </si>
+  <si>
+    <t>Cubiertas</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Mouse Inalambrico</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Drean</t>
+  </si>
+  <si>
+    <t>Bross</t>
+  </si>
+  <si>
+    <t>Fate</t>
+  </si>
+  <si>
+    <t>Firestone</t>
+  </si>
+  <si>
+    <t>atma</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>Humidificador</t>
+  </si>
+  <si>
+    <t>Horno Electronico</t>
+  </si>
+  <si>
+    <t>Licuadora</t>
+  </si>
+  <si>
+    <t>Modular</t>
+  </si>
+  <si>
+    <t>Placard</t>
+  </si>
+  <si>
+    <t>Cortinas</t>
+  </si>
+  <si>
+    <t>Alfombra</t>
+  </si>
+  <si>
+    <t>Platos</t>
+  </si>
+  <si>
+    <t>Cubiertos</t>
+  </si>
+  <si>
+    <t>Decoracion</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Liliana</t>
+  </si>
+  <si>
+    <t>Tophouse</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Zapatos</t>
+  </si>
+  <si>
+    <t>Tarjeta Grafica</t>
+  </si>
+  <si>
+    <t>Guantes</t>
+  </si>
+  <si>
+    <t>Sombrero</t>
+  </si>
+  <si>
+    <t>Espejo</t>
+  </si>
+  <si>
+    <t>Anteojos</t>
+  </si>
+  <si>
+    <t>Lentes</t>
+  </si>
+  <si>
+    <t>Bufanda</t>
+  </si>
+  <si>
+    <t>iPhone 20g</t>
+  </si>
+  <si>
+    <t>Bridgestone</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Prada</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>Pucci</t>
+  </si>
+  <si>
+    <t>Apple</t>
   </si>
 </sst>
 </file>
@@ -376,8 +602,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -432,11 +658,31 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -446,7 +692,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,8 +716,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,64 +731,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="49">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF8B3535"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -566,9 +836,91 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -696,6 +1048,54 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -785,6 +1185,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8B3535"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1070,15 +1475,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>102282</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87628</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>42750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>642282</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627628</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>3923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1112,7 +1517,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113397" y="1581404"/>
+          <a:off x="3384743" y="42750"/>
           <a:ext cx="540000" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1186,8 +1591,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>650578</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>581671</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1371,7 +1776,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
+      <xdr:colOff>410308</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>494110</xdr:rowOff>
     </xdr:to>
@@ -1389,12 +1794,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3935016" y="863204"/>
-          <a:ext cx="398860" cy="404812"/>
+          <a:off x="3422131" y="858625"/>
+          <a:ext cx="285292" cy="404812"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst>
-            <a:gd name="adj" fmla="val 66482"/>
+            <a:gd name="adj" fmla="val 60578"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1433,15 +1838,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>59121</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13138</xdr:rowOff>
+      <xdr:colOff>52553</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>599121</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>172138</xdr:rowOff>
+      <xdr:colOff>322553</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>375104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1458,7 +1863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1474,8 +1879,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59121" y="1924707"/>
-          <a:ext cx="540000" cy="540000"/>
+          <a:off x="52553" y="105104"/>
+          <a:ext cx="270000" cy="270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1489,26 +1894,187 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>189769</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>486508</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Categoria">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C685A285-D465-4207-8A99-F4CBF764ADF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Categoria"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6395673" y="42496"/>
+              <a:ext cx="1058739" cy="1721827"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>550985</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203689</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Marca">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E948BE95-2F1D-4FCA-B762-7FAEE37AE554}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Marca"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7518889" y="47625"/>
+              <a:ext cx="1176704" cy="1743075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>43962</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>168520</xdr:rowOff>
+      <xdr:colOff>52553</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>583962</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>137020</xdr:rowOff>
+      <xdr:colOff>322553</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>306634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Gráfico 1" descr="Casa con relleno sólido">
+        <xdr:cNvPr id="4" name="Gráfico 3" descr="Casa con relleno sólido">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572C05E4-C74D-48CB-BC99-CBC455C934B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FDBA40-C0D8-4F61-A1A5-6D5BA5705CFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +2083,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1533,8 +2099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43962" y="1692520"/>
-          <a:ext cx="540000" cy="540000"/>
+          <a:off x="52553" y="36634"/>
+          <a:ext cx="270000" cy="270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,17 +2112,17 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295603</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>170793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>533431</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>139293</xdr:rowOff>
@@ -1602,31 +2168,26 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>65691</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>187575</xdr:rowOff>
+      <xdr:colOff>335691</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>672</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Gráfico 1" descr="Casa con relleno sólido">
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Casa con relleno sólido">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90BD2E4-9C47-4FB6-B9E3-398857DC3FAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87789D4-4B76-40B6-8513-611835EF1C46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +2196,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1651,8 +2212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="28575"/>
-          <a:ext cx="540000" cy="540000"/>
+          <a:off x="65691" y="0"/>
+          <a:ext cx="270000" cy="270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,9 +2225,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52553</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322553</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>269138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Casa con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A091F1-08C9-4028-9EC4-CC2B6547F86B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52553" y="329"/>
+          <a:ext cx="270000" cy="270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Categoria" xr10:uid="{1F4662AE-5878-4E28-A069-6249EE1303A1}" sourceName="Categoria">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="3" column="6"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Marca" xr10:uid="{B33F85D2-9E7D-45D3-85A8-2B43EEE4AB66}" sourceName="Marca">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="3" column="7"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Categoria" xr10:uid="{66E9FA4D-D4EE-4227-900A-E05EF2115D4A}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" rowHeight="241300"/>
+  <slicer name="Marca" xr10:uid="{8B807C09-7311-4953-B8B5-965803996B21}" cache="SegmentaciónDeDatos_Marca" caption="Marca" startItem="8" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="A1:AG9" totalsRowCount="1" headerRowDxfId="38">
-  <autoFilter ref="A1:AG8" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="E1:AK9" totalsRowCount="1" headerRowDxfId="48">
+  <autoFilter ref="E1:AK8" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{63E8AE85-7078-42EA-8049-5AA43D1477D3}" name="Empleado" totalsRowFunction="custom">
       <totalsRowFormula>COUNTA(presentismo[Empleado])</totalsRowFormula>
@@ -1677,25 +2324,25 @@
     <tableColumn id="3" xr3:uid="{13839942-7C3B-4C39-B28B-AC898EBACE02}" name="2/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[2/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="47">
       <totalsRowFormula>COUNTBLANK(presentismo[3/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="46">
       <totalsRowFormula>COUNTBLANK(presentismo[4/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="35">
+    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="45">
       <totalsRowFormula>COUNTBLANK(presentismo[5/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="44">
       <totalsRowFormula>COUNTBLANK(presentismo[6/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="43">
       <totalsRowFormula>COUNTBLANK(presentismo[7/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="42">
       <totalsRowFormula>COUNTBLANK(presentismo[8/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="41">
       <totalsRowFormula>COUNTBLANK(presentismo[9/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{E013540E-F42C-4310-9BD2-372E388003A4}" name="10/9/22" totalsRowFunction="custom">
@@ -1716,34 +2363,34 @@
     <tableColumn id="16" xr3:uid="{36B417AE-F126-4023-BEBD-61D669212878}" name="15/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[15/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="40">
       <totalsRowFormula>COUNTBLANK(presentismo[16/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="39">
       <totalsRowFormula>COUNTBLANK(presentismo[17/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="38">
       <totalsRowFormula>COUNTBLANK(presentismo[18/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="37">
       <totalsRowFormula>COUNTBLANK(presentismo[19/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="36">
       <totalsRowFormula>COUNTBLANK(presentismo[20/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTBLANK(presentismo[21/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTBLANK(presentismo[22/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTBLANK(presentismo[23/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTBLANK(presentismo[24/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTBLANK(presentismo[25/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{AA931E08-C2D5-4EEC-882D-D051DE15F54E}" name="26/9/22" totalsRowFunction="custom">
@@ -1761,11 +2408,11 @@
     <tableColumn id="31" xr3:uid="{480A7E2D-67A4-4E7B-B27F-A24C65D91962}" name="30/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[30/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="20">
-      <calculatedColumnFormula>COUNTA(B2:AE2)</calculatedColumnFormula>
+    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="30">
+      <calculatedColumnFormula>COUNTA(F2:AI2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="19">
-      <calculatedColumnFormula>COUNTBLANK(B2:AE2)</calculatedColumnFormula>
+    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="29">
+      <calculatedColumnFormula>COUNTBLANK(F2:AI2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1773,10 +2420,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="AI1:AK8" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="AI1:AK8" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="A2:C9" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A2:C9" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CE7D112E-6D17-4595-9933-39DA72A6ADB2}" name="Estadisticas"/>
+    <tableColumn id="1" xr3:uid="{CE7D112E-6D17-4595-9933-39DA72A6ADB2}" name="Stats"/>
     <tableColumn id="2" xr3:uid="{6325A483-F5AB-48C4-90E7-322EEB007858}" name="asist"/>
     <tableColumn id="3" xr3:uid="{564785AD-6ABD-4027-9AC3-082AAB9A719E}" name="aus"/>
   </tableColumns>
@@ -1785,23 +2432,44 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:J16" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}" name="Tabla3" displayName="Tabla3" ref="A1:G41" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:G41" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
+    <sortCondition descending="1" ref="A1:A41"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3012A9A8-AE20-4298-B8CB-C0983B19D012}" name="codigo" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EFD9D99E-4714-460C-BF3B-2AC4F0DC0D41}" name="articulo" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{6A4244FB-64CF-4A0B-908D-A7A94C4DC0B7}" name="Categoria" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{986E24C9-F192-43AE-A3FD-86BBAF8115E7}" name="Marca" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4139A4ED-29D5-4CB4-816A-1F8F1F44530E}" name="precio" dataDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{E0155690-A444-4800-BCC9-F087E550EB12}" name="stock" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E24F15B3-2387-4EEC-A12C-A07036A858E4}" name="situacion" dataDxfId="2">
+      <calculatedColumnFormula>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:J16" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="D1:J16" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:J16">
     <sortCondition ref="D1:D16"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="15" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="23" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="22">
       <calculatedColumnFormula>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="21">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*IVA</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="20">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1809,40 +2477,40 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="datos" displayName="datos" ref="A1:L10" totalsRowShown="0">
-  <autoFilter ref="A1:L10" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="datos" displayName="datos" ref="D1:O10" totalsRowShown="0">
+  <autoFilter ref="D1:O10" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="19">
       <calculatedColumnFormula>presentismo[[#This Row],[Empleado]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="APELLIDOS" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="APELLIDOS" dataDxfId="18">
       <calculatedColumnFormula>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="NOMBRES" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="NOMBRES" dataDxfId="17">
       <calculatedColumnFormula>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="SEPARADOR" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="SEPARADOR" dataDxfId="16">
       <calculatedColumnFormula>FIND(char,datos[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="LARGO" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="LARGO" dataDxfId="15">
       <calculatedColumnFormula>LEN(datos[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7FAAF893-41DD-4433-9412-06936F9828E5}" name="NACIMIENTO"/>
-    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="EDAD" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="EDAD" dataDxfId="14">
       <calculatedColumnFormula>(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{01515EC2-7B72-403E-A547-32DCA5CEAE28}" name="AÑOS" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{01515EC2-7B72-403E-A547-32DCA5CEAE28}" name="AÑOS" dataDxfId="13">
       <calculatedColumnFormula>año - YEAR(datos[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{F74EB26B-27B2-49FB-9BCC-72F74AE29654}" name="CUIL"/>
-    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="12">
       <calculatedColumnFormula>LEFT(datos[[#This Row],[CUIL]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="11">
       <calculatedColumnFormula>MID(datos[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="10">
       <calculatedColumnFormula>RIGHT(datos[[#This Row],[CUIL]],1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2147,10 +2815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D2F1C7-2AC9-4F12-98F3-C533C654056E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,6 +2849,9 @@
       <c r="E2" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -2210,11 +2881,6 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A4"/>
@@ -2236,147 +2902,146 @@
   <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="31" width="4.85546875" customWidth="1"/>
-    <col min="32" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" customWidth="1"/>
-    <col min="36" max="36" width="5.85546875" customWidth="1"/>
-    <col min="37" max="37" width="5.5703125" customWidth="1"/>
-    <col min="39" max="39" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="35" width="4.85546875" customWidth="1"/>
+    <col min="36" max="37" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.42578125" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" customWidth="1"/>
+    <col min="40" max="40" width="5.85546875" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" customWidth="1"/>
+    <col min="43" max="43" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>37</v>
@@ -2385,129 +3050,127 @@
       <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AF8" si="0">COUNTA(B2:AE2)</f>
+      <c r="AF2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AJ8" si="0">COUNTA(F2:AI2)</f>
         <v>22</v>
       </c>
-      <c r="AG2">
-        <f t="shared" ref="AG2:AG8" si="1">COUNTBLANK(B2:AE2)</f>
+      <c r="AK2">
+        <f t="shared" ref="AK2:AK8" si="1">COUNTBLANK(F2:AI2)</f>
         <v>8</v>
       </c>
-      <c r="AI2" t="s">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2">
+      <c r="B3">
         <f>MAX(presentismo[asist])</f>
         <v>26</v>
       </c>
-      <c r="AK2">
+      <c r="C3">
         <f>MAX(presentismo[aus])</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
         <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2523,7 +3186,10 @@
       <c r="W3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="X3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Z3" s="1" t="s">
@@ -2532,75 +3198,76 @@
       <c r="AA3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF3">
+      <c r="AC3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AG3">
+      <c r="AK3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI3" t="s">
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3">
+      <c r="B4">
         <f>MIN(presentismo[asist])</f>
         <v>18</v>
       </c>
-      <c r="AK3">
+      <c r="C4">
         <f>MIN(presentismo[aus])</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
         <v>37</v>
       </c>
       <c r="T4" s="1"/>
@@ -2608,102 +3275,98 @@
         <v>37</v>
       </c>
       <c r="V4" s="1"/>
-      <c r="W4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" t="s">
-        <v>37</v>
-      </c>
+      <c r="W4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" s="1" t="s">
+      <c r="Z4" s="1"/>
+      <c r="AA4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" t="s">
         <v>37</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF4">
+      <c r="AD4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AG4">
+      <c r="AK4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AI4" t="s">
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="B5" s="5">
         <f>AVERAGE(presentismo[asist])</f>
         <v>21.857142857142858</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="C5" s="5">
         <f>AVERAGE(presentismo[aus])</f>
         <v>8.2857142857142865</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
       <c r="P5" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2716,97 +3379,97 @@
       <c r="Y5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF5">
+      <c r="Z5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AG5">
+      <c r="AK5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI5" t="s">
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ5">
+      <c r="B6">
         <f>MEDIAN(presentismo[asist])</f>
         <v>22</v>
       </c>
-      <c r="AK5">
+      <c r="C6">
         <f>MEDIAN(presentismo[aus])</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" t="s">
         <v>37</v>
       </c>
       <c r="P6" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
         <v>37</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>37</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -2827,354 +3490,372 @@
       <c r="Z6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE6" s="1" t="str">
-        <f>TRIM(AE7)</f>
+      <c r="AA6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI6" s="1" t="str">
+        <f>TRIM(AI7)</f>
         <v/>
       </c>
-      <c r="AF6">
+      <c r="AJ6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AG6">
+      <c r="AK6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI6" t="s">
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="AJ6">
+      <c r="B7">
         <f>MODE(presentismo[asist])</f>
         <v>24</v>
       </c>
-      <c r="AK6">
+      <c r="C7">
         <f>MODE(presentismo[aus])</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>37</v>
-      </c>
+      <c r="Y7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF7">
+      <c r="AD7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AG7">
+      <c r="AK7">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AI7" t="s">
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ7">
+      <c r="B8">
         <f>COUNT(presentismo[asist])</f>
         <v>7</v>
       </c>
-      <c r="AK7">
+      <c r="C8">
         <f>COUNT(presentismo[aus])</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
+      <c r="L8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="1"/>
       <c r="O8" t="s">
         <v>37</v>
       </c>
       <c r="Q8" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB8" s="1"/>
+      <c r="AA8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AC8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF8">
+      <c r="AE8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AG8">
+      <c r="AK8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="AI8" t="s">
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="AJ8">
+      <c r="B9">
         <f>SUM(presentismo[asist])</f>
         <v>153</v>
       </c>
-      <c r="AK8">
+      <c r="C9">
         <f>SUM(presentismo[aus])</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E9">
         <f>COUNTA(presentismo[Empleado])</f>
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="F9">
         <f>COUNTBLANK(presentismo[1/9/22])</f>
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="G9">
         <f>COUNTBLANK(presentismo[2/9/22])</f>
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="H9">
         <f>COUNTBLANK(presentismo[3/9/22])</f>
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="I9">
         <f>COUNTBLANK(presentismo[4/9/22])</f>
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="J9">
         <f>COUNTBLANK(presentismo[5/9/22])</f>
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <f>COUNTBLANK(presentismo[6/9/22])</f>
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <f>COUNTBLANK(presentismo[7/9/22])</f>
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <f>COUNTBLANK(presentismo[8/9/22])</f>
         <v>2</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <f>COUNTBLANK(presentismo[9/9/22])</f>
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <f>COUNTBLANK(presentismo[10/9/22])</f>
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <f>COUNTBLANK(presentismo[11/9/22])</f>
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <f>COUNTBLANK(presentismo[12/9/22])</f>
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <f>COUNTBLANK(presentismo[13/9/22])</f>
         <v>4</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <f>COUNTBLANK(presentismo[14/9/22])</f>
         <v>2</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <f>COUNTBLANK(presentismo[15/9/22])</f>
         <v>4</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <f>COUNTBLANK(presentismo[16/9/22])</f>
         <v>2</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <f>COUNTBLANK(presentismo[17/9/22])</f>
         <v>3</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <f>COUNTBLANK(presentismo[18/9/22])</f>
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <f>COUNTBLANK(presentismo[19/9/22])</f>
         <v>1</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <f>COUNTBLANK(presentismo[20/9/22])</f>
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="Z9">
         <f>COUNTBLANK(presentismo[21/9/22])</f>
         <v>3</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <f>COUNTBLANK(presentismo[22/9/22])</f>
         <v>2</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <f>COUNTBLANK(presentismo[23/9/22])</f>
         <v>1</v>
       </c>
-      <c r="Y9">
+      <c r="AC9">
         <f>COUNTBLANK(presentismo[24/9/22])</f>
         <v>1</v>
       </c>
-      <c r="Z9">
+      <c r="AD9">
         <f>COUNTBLANK(presentismo[25/9/22])</f>
         <v>3</v>
       </c>
-      <c r="AA9">
+      <c r="AE9">
         <f>COUNTBLANK(presentismo[26/9/22])</f>
         <v>1</v>
       </c>
-      <c r="AB9">
+      <c r="AF9">
         <f>COUNTBLANK(presentismo[27/9/22])</f>
         <v>1</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <f>COUNTBLANK(presentismo[28/9/22])</f>
         <v>3</v>
       </c>
-      <c r="AD9">
+      <c r="AH9">
         <f>COUNTBLANK(presentismo[29/9/22])</f>
         <v>1</v>
       </c>
-      <c r="AE9">
+      <c r="AI9">
         <f>COUNTBLANK(presentismo[30/9/22])</f>
         <v>2</v>
       </c>
-      <c r="AF9">
+      <c r="AJ9">
         <f>SUBTOTAL(109,presentismo[asist])</f>
         <v>153</v>
       </c>
-      <c r="AG9">
+      <c r="AK9">
         <f>SUBTOTAL(109,presentismo[aus])</f>
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:C1" location="menu!A1" display="volver al inicio" xr:uid="{926951D3-E7E1-4669-A70E-43429D0EA1E6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3186,14 +3867,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616E4083-2D4F-46A1-9719-B19D9D684BF4}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>40</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="31">
+        <v>32768</v>
+      </c>
+      <c r="F2" s="25">
+        <v>8500</v>
+      </c>
+      <c r="G2" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>39</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="31">
+        <v>56470</v>
+      </c>
+      <c r="F3" s="29">
+        <v>7594</v>
+      </c>
+      <c r="G3" s="29" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>38</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="31">
+        <v>95870</v>
+      </c>
+      <c r="F4" s="29">
+        <v>95843</v>
+      </c>
+      <c r="G4" s="29" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>37</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="31">
+        <v>543200</v>
+      </c>
+      <c r="F5" s="29">
+        <v>7690</v>
+      </c>
+      <c r="G5" s="29" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>36</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="31">
+        <v>34000</v>
+      </c>
+      <c r="F6" s="29">
+        <v>300</v>
+      </c>
+      <c r="G6" s="29" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="31">
+        <v>50199.99</v>
+      </c>
+      <c r="F7" s="29">
+        <v>4000</v>
+      </c>
+      <c r="G7" s="29" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="31">
+        <v>8400</v>
+      </c>
+      <c r="F8" s="29">
+        <v>2349</v>
+      </c>
+      <c r="G8" s="29" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="31">
+        <v>65536</v>
+      </c>
+      <c r="F9" s="29">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="29" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="31">
+        <v>23400</v>
+      </c>
+      <c r="F10" s="25">
+        <v>2934</v>
+      </c>
+      <c r="G10" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="30">
+        <v>25399.99</v>
+      </c>
+      <c r="F11" s="25">
+        <v>500</v>
+      </c>
+      <c r="G11" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="30">
+        <v>46700</v>
+      </c>
+      <c r="F12" s="25">
+        <v>500</v>
+      </c>
+      <c r="G12" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="30">
+        <v>12400</v>
+      </c>
+      <c r="F13" s="25">
+        <v>349</v>
+      </c>
+      <c r="G13" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="30">
+        <v>12800</v>
+      </c>
+      <c r="F14" s="25">
+        <v>2348</v>
+      </c>
+      <c r="G14" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>27</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="30">
+        <v>4096</v>
+      </c>
+      <c r="F15" s="25">
+        <v>4200</v>
+      </c>
+      <c r="G15" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="30">
+        <v>8192</v>
+      </c>
+      <c r="F16" s="25">
+        <v>800</v>
+      </c>
+      <c r="G16" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="30">
+        <v>63200</v>
+      </c>
+      <c r="F17" s="25">
+        <v>2349</v>
+      </c>
+      <c r="G17" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="30">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="25">
+        <v>2384</v>
+      </c>
+      <c r="G18" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="30">
+        <v>6200</v>
+      </c>
+      <c r="F19" s="25">
+        <v>2348</v>
+      </c>
+      <c r="G19" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="30">
+        <v>120420</v>
+      </c>
+      <c r="F20" s="25">
+        <v>3849</v>
+      </c>
+      <c r="G20" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="30">
+        <v>65480</v>
+      </c>
+      <c r="F21" s="25">
+        <v>3400</v>
+      </c>
+      <c r="G21" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="30">
+        <v>87500</v>
+      </c>
+      <c r="F22" s="25">
+        <v>68</v>
+      </c>
+      <c r="G22" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="30">
+        <v>120569.99</v>
+      </c>
+      <c r="F23" s="25">
+        <v>2347</v>
+      </c>
+      <c r="G23" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="30">
+        <v>45380</v>
+      </c>
+      <c r="F24" s="25">
+        <v>2348</v>
+      </c>
+      <c r="G24" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="30">
+        <v>67800</v>
+      </c>
+      <c r="F25" s="25">
+        <v>58349</v>
+      </c>
+      <c r="G25" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="30">
+        <v>16384</v>
+      </c>
+      <c r="F26" s="25">
+        <v>600</v>
+      </c>
+      <c r="G26" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="30">
+        <v>6700</v>
+      </c>
+      <c r="F27" s="25">
+        <v>6500</v>
+      </c>
+      <c r="G27" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="30">
+        <v>56270</v>
+      </c>
+      <c r="F28" s="25">
+        <v>832</v>
+      </c>
+      <c r="G28" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="30">
+        <v>520920</v>
+      </c>
+      <c r="F29" s="25">
+        <v>2938</v>
+      </c>
+      <c r="G29" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="30">
+        <v>1048576</v>
+      </c>
+      <c r="F30" s="25">
+        <v>200</v>
+      </c>
+      <c r="G30" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="30">
+        <v>54780</v>
+      </c>
+      <c r="F31" s="25">
+        <v>2894</v>
+      </c>
+      <c r="G31" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="30">
+        <v>5600</v>
+      </c>
+      <c r="F32" s="25">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="25" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="28">
+        <v>8200</v>
+      </c>
+      <c r="F33">
+        <v>6000</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="28">
+        <v>43560</v>
+      </c>
+      <c r="F34">
+        <v>2500</v>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="32">
+        <v>250328</v>
+      </c>
+      <c r="F35">
+        <v>200</v>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="32">
+        <v>42000</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="32">
+        <v>54600</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="32">
+        <v>25600</v>
+      </c>
+      <c r="F38">
+        <v>2500</v>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="32">
+        <v>25780</v>
+      </c>
+      <c r="F39">
+        <v>1500</v>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="32">
+        <v>56700</v>
+      </c>
+      <c r="F40">
+        <v>3500</v>
+      </c>
+      <c r="G40" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>vender</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="32">
+        <v>150548</v>
+      </c>
+      <c r="F41">
+        <v>2000</v>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <v>reponer</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F7BEEC0C-EAA3-4C97-81A6-C96808968D98}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <cfvo type="num" val="3000"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="reponer">
+      <formula>NOT(ISERROR(SEARCH("reponer",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F7BEEC0C-EAA3-4C97-81A6-C96808968D98}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A83380-975D-48C5-88E7-EB8DA010B416}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,13 +4949,12 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="7">
-        <v>0.21</v>
-      </c>
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" t="s">
         <v>56</v>
       </c>
@@ -3240,11 +4979,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8">
-        <f>SUM(ventas[final])</f>
-        <v>5782396.3274000008</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3273,11 +5011,11 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3">
-        <f>COUNT(ventas[codigo])</f>
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="8">
+        <f>SUM(ventas[final])</f>
+        <v>5782396.3274000008</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3306,11 +5044,11 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4">
-        <f>MAX(ventas[cantidad])</f>
-        <v>34</v>
+        <f>COUNT(ventas[codigo])</f>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3339,11 +5077,11 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
-        <f>MODE(ventas[codigo])</f>
-        <v>10</v>
+        <f>MAX(ventas[cantidad])</f>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3372,11 +5110,11 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="6">
-        <f>MAX(ventas[total])</f>
-        <v>2097152</v>
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <f>MODE(ventas[codigo])</f>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3405,11 +5143,11 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6">
-        <f>MIN(ventas[total])</f>
-        <v>8192</v>
+        <f>MAX(ventas[total])</f>
+        <v>2097152</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -3438,11 +5176,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6">
-        <f>AVERAGE(ventas[total])</f>
-        <v>318589.3293333333</v>
+        <f>MIN(ventas[total])</f>
+        <v>8192</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -3471,11 +5209,11 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6">
-        <f>MEDIAN(ventas[total])</f>
-        <v>81920</v>
+        <f>AVERAGE(ventas[total])</f>
+        <v>318589.3293333333</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -3503,6 +5241,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6">
+        <f>MEDIAN(ventas[total])</f>
+        <v>81920</v>
+      </c>
       <c r="D10">
         <v>9</v>
       </c>
@@ -3685,570 +5430,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA646FC-82A8-41CA-871F-23683B80785F}">
-  <dimension ref="A1:O10"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="0.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="0.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>presentismo[[#This Row],[Empleado]]</f>
-        <v>Cristian Damian,Racedo</v>
-      </c>
-      <c r="B2" t="str">
-        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
-        <v>Racedo</v>
-      </c>
-      <c r="C2" t="str">
-        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
-        <v>Cristian Damian</v>
-      </c>
-      <c r="D2">
-        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <f>LEN(datos[[#This Row],[Empleado]])</f>
-        <v>22</v>
-      </c>
-      <c r="F2" s="16">
-        <v>33346</v>
-      </c>
-      <c r="G2" s="18">
-        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>31.545205479452054</v>
-      </c>
-      <c r="H2" s="19">
-        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="K2" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
-        <v>35336446</v>
-      </c>
-      <c r="L2" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="16">
-        <f ca="1">TODAY()</f>
-        <v>44860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>presentismo[[#This Row],[Empleado]]</f>
-        <v>Martinez, Mariano</v>
-      </c>
-      <c r="B3" t="str">
-        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
-        <v>Mariano</v>
-      </c>
-      <c r="C3" t="str">
-        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
-        <v>Martinez</v>
-      </c>
-      <c r="D3">
-        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <f>LEN(datos[[#This Row],[Empleado]])</f>
-        <v>17</v>
-      </c>
-      <c r="F3" s="16">
-        <v>31710</v>
-      </c>
-      <c r="G3" s="18">
-        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>36.027397260273972</v>
-      </c>
-      <c r="H3" s="19">
-        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="K3" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
-        <v>24717271</v>
-      </c>
-      <c r="L3" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3">
-        <f ca="1">DAY(O2)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>presentismo[[#This Row],[Empleado]]</f>
-        <v>Belen,    Tambella</v>
-      </c>
-      <c r="B4" t="str">
-        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
-        <v>Tambella</v>
-      </c>
-      <c r="C4" t="str">
-        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
-        <v>Belen</v>
-      </c>
-      <c r="D4">
-        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <f>LEN(datos[[#This Row],[Empleado]])</f>
-        <v>18</v>
-      </c>
-      <c r="F4" s="16">
-        <v>33674</v>
-      </c>
-      <c r="G4" s="18">
-        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>30.646575342465752</v>
-      </c>
-      <c r="H4" s="19">
-        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="K4" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
-        <v>36806507</v>
-      </c>
-      <c r="L4" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4">
-        <f ca="1">MONTH(O2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>presentismo[[#This Row],[Empleado]]</f>
-        <v>Francisca, Casas</v>
-      </c>
-      <c r="B5" t="str">
-        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
-        <v>Casas</v>
-      </c>
-      <c r="C5" t="str">
-        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
-        <v>Francisca</v>
-      </c>
-      <c r="D5">
-        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <f>LEN(datos[[#This Row],[Empleado]])</f>
-        <v>16</v>
-      </c>
-      <c r="F5" s="16">
-        <v>35297</v>
-      </c>
-      <c r="G5" s="18">
-        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>26.2</v>
-      </c>
-      <c r="H5" s="19">
-        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="K5" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
-        <v>94975900</v>
-      </c>
-      <c r="L5" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5">
-        <f ca="1">YEAR(O2)</f>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>presentismo[[#This Row],[Empleado]]</f>
-        <v>Romina,  Gurruchaga</v>
-      </c>
-      <c r="B6" t="str">
-        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
-        <v>Gurruchaga</v>
-      </c>
-      <c r="C6" t="str">
-        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
-        <v>Romina</v>
-      </c>
-      <c r="D6">
-        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <f>LEN(datos[[#This Row],[Empleado]])</f>
-        <v>19</v>
-      </c>
-      <c r="F6" s="16">
-        <v>33708</v>
-      </c>
-      <c r="G6" s="18">
-        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>30.553424657534247</v>
-      </c>
-      <c r="H6" s="19">
-        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="K6" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
-        <v>36873001</v>
-      </c>
-      <c r="L6" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
-        <v>7</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" s="17">
-        <f ca="1">NOW()</f>
-        <v>44860.747346759257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>presentismo[[#This Row],[Empleado]]</f>
-        <v>Juan, Perez</v>
-      </c>
-      <c r="B7" t="str">
-        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
-        <v>Perez</v>
-      </c>
-      <c r="C7" t="str">
-        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
-        <v>Juan</v>
-      </c>
-      <c r="D7">
-        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <f>LEN(datos[[#This Row],[Empleado]])</f>
-        <v>11</v>
-      </c>
-      <c r="F7" s="16">
-        <v>34109</v>
-      </c>
-      <c r="G7" s="18">
-        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>29.454794520547946</v>
-      </c>
-      <c r="H7" s="19">
-        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="K7" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
-        <v>27423190</v>
-      </c>
-      <c r="L7" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7">
-        <f ca="1">HOUR(O6)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>presentismo[[#This Row],[Empleado]]</f>
-        <v>Gonzalez, Gonzalo</v>
-      </c>
-      <c r="B8" t="str">
-        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
-        <v>Gonzalo</v>
-      </c>
-      <c r="C8" t="str">
-        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
-        <v>Gonzalez</v>
-      </c>
-      <c r="D8">
-        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <f>LEN(datos[[#This Row],[Empleado]])</f>
-        <v>17</v>
-      </c>
-      <c r="F8" s="16">
-        <v>36526</v>
-      </c>
-      <c r="G8" s="18">
-        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>22.832876712328765</v>
-      </c>
-      <c r="H8" s="19">
-        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="K8" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
-        <v>12839481</v>
-      </c>
-      <c r="L8" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="4">
-        <f ca="1">MINUTE(O6)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="4" t="str">
-        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
-        <v>Miguel</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
-        <v>De la Cruz</v>
-      </c>
-      <c r="D9" s="4">
-        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <f>LEN(datos[[#This Row],[Empleado]])</f>
-        <v>18</v>
-      </c>
-      <c r="F9" s="16">
-        <v>26358</v>
-      </c>
-      <c r="G9" s="18">
-        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>50.69041095890411</v>
-      </c>
-      <c r="H9" s="19">
-        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
-        <v>16835460</v>
-      </c>
-      <c r="L9" s="4" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
-        <v>6</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9">
-        <f ca="1">SECOND(O6)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
-        <v>Joan</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
-        <v>d'Arc</v>
-      </c>
-      <c r="D10" s="4">
-        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
-        <v>6</v>
-      </c>
-      <c r="E10" s="4">
-        <f>LEN(datos[[#This Row],[Empleado]])</f>
-        <v>11</v>
-      </c>
-      <c r="F10" s="16">
-        <v>21938</v>
-      </c>
-      <c r="G10" s="18">
-        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>62.8</v>
-      </c>
-      <c r="H10" s="19">
-        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
-        <v>12850734</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
-        <v>2</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:C1" location="menu!A1" display="volver al inicio" xr:uid="{E3B4D62F-D3B7-43EF-944B-B43EF2F82502}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -4258,13 +5445,606 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995329D2-6704-4347-93F2-81F7E9527D06}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA646FC-82A8-41CA-871F-23683B80785F}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="8" width="0.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Cristian Damian,Racedo</v>
+      </c>
+      <c r="E2" t="str">
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
+        <v>Racedo</v>
+      </c>
+      <c r="F2" t="str">
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
+        <v>Cristian Damian</v>
+      </c>
+      <c r="G2">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>22</v>
+      </c>
+      <c r="I2" s="16">
+        <v>33346</v>
+      </c>
+      <c r="J2" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>31.564383561643837</v>
+      </c>
+      <c r="K2" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="N2" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>35336446</v>
+      </c>
+      <c r="O2" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="16">
+        <f ca="1">TODAY()</f>
+        <v>44867</v>
+      </c>
+      <c r="D3" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Martinez, Mariano</v>
+      </c>
+      <c r="E3" t="str">
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
+        <v>Mariano</v>
+      </c>
+      <c r="F3" t="str">
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
+        <v>Martinez</v>
+      </c>
+      <c r="G3">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>17</v>
+      </c>
+      <c r="I3" s="16">
+        <v>31710</v>
+      </c>
+      <c r="J3" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>36.046575342465751</v>
+      </c>
+      <c r="K3" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="N3" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>24717271</v>
+      </c>
+      <c r="O3" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <f ca="1">DAY(B3)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Belen,    Tambella</v>
+      </c>
+      <c r="E4" t="str">
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
+        <v>Tambella</v>
+      </c>
+      <c r="F4" t="str">
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
+        <v>Belen</v>
+      </c>
+      <c r="G4">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>18</v>
+      </c>
+      <c r="I4" s="16">
+        <v>33674</v>
+      </c>
+      <c r="J4" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>30.665753424657535</v>
+      </c>
+      <c r="K4" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="N4" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>36806507</v>
+      </c>
+      <c r="O4" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <f ca="1">MONTH(B3)</f>
+        <v>11</v>
+      </c>
+      <c r="D5" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Francisca, Casas</v>
+      </c>
+      <c r="E5" t="str">
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
+        <v>Casas</v>
+      </c>
+      <c r="F5" t="str">
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
+        <v>Francisca</v>
+      </c>
+      <c r="G5">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>16</v>
+      </c>
+      <c r="I5" s="16">
+        <v>35297</v>
+      </c>
+      <c r="J5" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>26.219178082191782</v>
+      </c>
+      <c r="K5" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="N5" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>94975900</v>
+      </c>
+      <c r="O5" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <f ca="1">YEAR(B3)</f>
+        <v>2022</v>
+      </c>
+      <c r="D6" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Romina,  Gurruchaga</v>
+      </c>
+      <c r="E6" t="str">
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
+        <v>Gurruchaga</v>
+      </c>
+      <c r="F6" t="str">
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
+        <v>Romina</v>
+      </c>
+      <c r="G6">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>19</v>
+      </c>
+      <c r="I6" s="16">
+        <v>33708</v>
+      </c>
+      <c r="J6" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>30.572602739726026</v>
+      </c>
+      <c r="K6" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="N6" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>36873001</v>
+      </c>
+      <c r="O6" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="17">
+        <f ca="1">NOW()</f>
+        <v>44867.693780671296</v>
+      </c>
+      <c r="D7" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Juan, Perez</v>
+      </c>
+      <c r="E7" t="str">
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
+        <v>Perez</v>
+      </c>
+      <c r="F7" t="str">
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
+        <v>Juan</v>
+      </c>
+      <c r="G7">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>11</v>
+      </c>
+      <c r="I7" s="16">
+        <v>34109</v>
+      </c>
+      <c r="J7" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>29.473972602739725</v>
+      </c>
+      <c r="K7" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="N7" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>27423190</v>
+      </c>
+      <c r="O7" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <f ca="1">HOUR(B7)</f>
+        <v>16</v>
+      </c>
+      <c r="D8" t="str">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>Gonzalez, Gonzalo</v>
+      </c>
+      <c r="E8" t="str">
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
+        <v>Gonzalo</v>
+      </c>
+      <c r="F8" t="str">
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
+        <v>Gonzalez</v>
+      </c>
+      <c r="G8">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>17</v>
+      </c>
+      <c r="I8" s="16">
+        <v>36526</v>
+      </c>
+      <c r="J8" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>22.852054794520548</v>
+      </c>
+      <c r="K8" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="N8" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>12839481</v>
+      </c>
+      <c r="O8" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4">
+        <f ca="1">MINUTE(B7)</f>
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
+        <v>Miguel</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
+        <v>De la Cruz</v>
+      </c>
+      <c r="G9" s="4">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>11</v>
+      </c>
+      <c r="H9" s="4">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>18</v>
+      </c>
+      <c r="I9" s="16">
+        <v>26358</v>
+      </c>
+      <c r="J9" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>50.709589041095889</v>
+      </c>
+      <c r="K9" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>16835460</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <f ca="1">SECOND(B7)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
+        <v>Joan</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
+        <v>d'Arc</v>
+      </c>
+      <c r="G10" s="4">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>6</v>
+      </c>
+      <c r="H10" s="4">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>11</v>
+      </c>
+      <c r="I10" s="16">
+        <v>21938</v>
+      </c>
+      <c r="J10" s="18">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>62.819178082191783</v>
+      </c>
+      <c r="K10" s="19">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>12850734</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="P10" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995329D2-6704-4347-93F2-81F7E9527D06}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:C1" location="menu!A1" display="volver al inicio" xr:uid="{AB5DA35A-54EC-44B5-8578-06F8CEC7A513}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85250017-3F13-41B1-830D-A3EA3095CE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C17468-E310-445C-BD04-1998C11601DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="4" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="180">
   <si>
     <t>Empleado</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>Apple</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -650,15 +656,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -667,8 +679,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
@@ -686,13 +724,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -704,8 +764,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -716,7 +774,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -725,44 +782,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <b/>
@@ -1772,62 +1837,200 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>125016</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>89298</xdr:rowOff>
+      <xdr:rowOff>87833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>410308</xdr:colOff>
+      <xdr:colOff>587845</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>494110</xdr:rowOff>
+      <xdr:rowOff>578083</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Paralelogramo 25">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F38DBDA-102B-49DD-BF27-1D2B5D4EBD03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB95D7A7-6439-4F7A-BEAB-8B19B54DBD38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3422131" y="858625"/>
-          <a:ext cx="285292" cy="404812"/>
+          <a:off x="3422131" y="857160"/>
+          <a:ext cx="462829" cy="490250"/>
+          <a:chOff x="3418661" y="859859"/>
+          <a:chExt cx="462829" cy="490250"/>
         </a:xfrm>
-        <a:prstGeom prst="parallelogram">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 60578"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Paralelogramo 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F38DBDA-102B-49DD-BF27-1D2B5D4EBD03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418661" y="861324"/>
+            <a:ext cx="285292" cy="404812"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 60578"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-AR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Paralelogramo 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6084DCA-D794-4CCF-AE54-931C3C7BCC10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3596748" y="859859"/>
+            <a:ext cx="284742" cy="404812"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 60578"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-AR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Paralelogramo 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E1D76C-9616-4051-B1FC-1340F42BCAF7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="3578586" flipH="1" flipV="1">
+            <a:off x="3639364" y="1136427"/>
+            <a:ext cx="224738" cy="202625"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 60578"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-AR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1896,16 +2099,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>189769</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42496</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>486508</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>49823</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14655</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -1941,8 +2144,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6395673" y="42496"/>
-              <a:ext cx="1058739" cy="1721827"/>
+              <a:off x="1" y="306265"/>
+              <a:ext cx="1538654" cy="1217735"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1974,16 +2177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>550985</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>157531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203689</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29309</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -2019,8 +2222,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7518889" y="47625"/>
-              <a:ext cx="1176704" cy="1743075"/>
+              <a:off x="1" y="1578954"/>
+              <a:ext cx="1553308" cy="1300527"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2048,6 +2251,60 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>65691</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335691</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>267372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Gráfico 4" descr="Casa con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132E62D7-0143-409F-ADB3-EA0CD56EF571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65691" y="0"/>
+          <a:ext cx="270000" cy="267372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2123,7 +2380,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533431</xdr:colOff>
+      <xdr:colOff>533430</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>139293</xdr:rowOff>
     </xdr:to>
@@ -2171,13 +2428,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>65691</xdr:colOff>
+      <xdr:colOff>52553</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>335691</xdr:colOff>
+      <xdr:colOff>322553</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>672</xdr:rowOff>
     </xdr:to>
@@ -2212,7 +2469,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65691" y="0"/>
+          <a:off x="52553" y="0"/>
           <a:ext cx="270000" cy="270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2306,13 +2563,13 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Categoria" xr10:uid="{66E9FA4D-D4EE-4227-900A-E05EF2115D4A}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" rowHeight="241300"/>
-  <slicer name="Marca" xr10:uid="{8B807C09-7311-4953-B8B5-965803996B21}" cache="SegmentaciónDeDatos_Marca" caption="Marca" startItem="8" rowHeight="241300"/>
+  <slicer name="Categoria" xr10:uid="{66E9FA4D-D4EE-4227-900A-E05EF2115D4A}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" startItem="2" rowHeight="241300"/>
+  <slicer name="Marca" xr10:uid="{8B807C09-7311-4953-B8B5-965803996B21}" cache="SegmentaciónDeDatos_Marca" caption="Marca" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="E1:AK9" totalsRowCount="1" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="E1:AK9" totalsRowCount="1" headerRowDxfId="47">
   <autoFilter ref="E1:AK8" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{63E8AE85-7078-42EA-8049-5AA43D1477D3}" name="Empleado" totalsRowFunction="custom">
@@ -2324,25 +2581,25 @@
     <tableColumn id="3" xr3:uid="{13839942-7C3B-4C39-B28B-AC898EBACE02}" name="2/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[2/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="46">
       <totalsRowFormula>COUNTBLANK(presentismo[3/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="45">
       <totalsRowFormula>COUNTBLANK(presentismo[4/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="44">
       <totalsRowFormula>COUNTBLANK(presentismo[5/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="43">
       <totalsRowFormula>COUNTBLANK(presentismo[6/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="42">
       <totalsRowFormula>COUNTBLANK(presentismo[7/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="42">
+    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="41">
       <totalsRowFormula>COUNTBLANK(presentismo[8/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="41">
+    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="40">
       <totalsRowFormula>COUNTBLANK(presentismo[9/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{E013540E-F42C-4310-9BD2-372E388003A4}" name="10/9/22" totalsRowFunction="custom">
@@ -2363,34 +2620,34 @@
     <tableColumn id="16" xr3:uid="{36B417AE-F126-4023-BEBD-61D669212878}" name="15/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[15/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="40">
+    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="39">
       <totalsRowFormula>COUNTBLANK(presentismo[16/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="39">
+    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="38">
       <totalsRowFormula>COUNTBLANK(presentismo[17/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="38">
+    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="37">
       <totalsRowFormula>COUNTBLANK(presentismo[18/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="37">
+    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="36">
       <totalsRowFormula>COUNTBLANK(presentismo[19/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTBLANK(presentismo[20/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="35">
+    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTBLANK(presentismo[21/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTBLANK(presentismo[22/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTBLANK(presentismo[23/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTBLANK(presentismo[24/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTBLANK(presentismo[25/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{AA931E08-C2D5-4EEC-882D-D051DE15F54E}" name="26/9/22" totalsRowFunction="custom">
@@ -2408,10 +2665,10 @@
     <tableColumn id="31" xr3:uid="{480A7E2D-67A4-4E7B-B27F-A24C65D91962}" name="30/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[30/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="30">
+    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="29">
       <calculatedColumnFormula>COUNTA(F2:AI2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="29">
+    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="28">
       <calculatedColumnFormula>COUNTBLANK(F2:AI2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2420,31 +2677,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="A2:C9" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="A2:C9" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A2:C9" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CE7D112E-6D17-4595-9933-39DA72A6ADB2}" name="Stats"/>
-    <tableColumn id="2" xr3:uid="{6325A483-F5AB-48C4-90E7-322EEB007858}" name="asist"/>
-    <tableColumn id="3" xr3:uid="{564785AD-6ABD-4027-9AC3-082AAB9A719E}" name="aus"/>
+    <tableColumn id="2" xr3:uid="{6325A483-F5AB-48C4-90E7-322EEB007858}" name="P"/>
+    <tableColumn id="3" xr3:uid="{564785AD-6ABD-4027-9AC3-082AAB9A719E}" name="A"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}" name="Tabla3" displayName="Tabla3" ref="A1:G41" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:G41" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
-    <sortCondition descending="1" ref="A1:A41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}" name="Tabla3" displayName="Tabla3" ref="D1:J41" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="D1:J41" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:J41">
+    <sortCondition descending="1" ref="D1:D41"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3012A9A8-AE20-4298-B8CB-C0983B19D012}" name="codigo" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EFD9D99E-4714-460C-BF3B-2AC4F0DC0D41}" name="articulo" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{6A4244FB-64CF-4A0B-908D-A7A94C4DC0B7}" name="Categoria" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{986E24C9-F192-43AE-A3FD-86BBAF8115E7}" name="Marca" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4139A4ED-29D5-4CB4-816A-1F8F1F44530E}" name="precio" dataDxfId="7" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{E0155690-A444-4800-BCC9-F087E550EB12}" name="stock" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E24F15B3-2387-4EEC-A12C-A07036A858E4}" name="situacion" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{3012A9A8-AE20-4298-B8CB-C0983B19D012}" name="codigo" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EFD9D99E-4714-460C-BF3B-2AC4F0DC0D41}" name="articulo" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{6A4244FB-64CF-4A0B-908D-A7A94C4DC0B7}" name="Categoria" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{986E24C9-F192-43AE-A3FD-86BBAF8115E7}" name="Marca" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4139A4ED-29D5-4CB4-816A-1F8F1F44530E}" name="precio" dataDxfId="6" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{E0155690-A444-4800-BCC9-F087E550EB12}" name="stock" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E24F15B3-2387-4EEC-A12C-A07036A858E4}" name="situacion" dataDxfId="1">
       <calculatedColumnFormula>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2453,23 +2710,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:J16" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:J16" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="D1:J16" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:J16">
     <sortCondition ref="D1:D16"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="26"/>
-    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="23" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="22" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="21">
       <calculatedColumnFormula>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="20">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*IVA</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="19">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2481,36 +2738,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="datos" displayName="datos" ref="D1:O10" totalsRowShown="0">
   <autoFilter ref="D1:O10" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="18">
       <calculatedColumnFormula>presentismo[[#This Row],[Empleado]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="APELLIDOS" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="APELLIDOS" dataDxfId="17">
       <calculatedColumnFormula>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="NOMBRES" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="NOMBRES" dataDxfId="16">
       <calculatedColumnFormula>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="SEPARADOR" dataDxfId="16">
+    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="SEPARADOR" dataDxfId="15">
       <calculatedColumnFormula>FIND(char,datos[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="LARGO" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="LARGO" dataDxfId="14">
       <calculatedColumnFormula>LEN(datos[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7FAAF893-41DD-4433-9412-06936F9828E5}" name="NACIMIENTO"/>
-    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="EDAD" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="EDAD" dataDxfId="13">
       <calculatedColumnFormula>(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{01515EC2-7B72-403E-A547-32DCA5CEAE28}" name="AÑOS" dataDxfId="13">
+    <tableColumn id="14" xr3:uid="{01515EC2-7B72-403E-A547-32DCA5CEAE28}" name="AÑOS" dataDxfId="12">
       <calculatedColumnFormula>año - YEAR(datos[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{F74EB26B-27B2-49FB-9BCC-72F74AE29654}" name="CUIL"/>
-    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="11">
       <calculatedColumnFormula>LEFT(datos[[#This Row],[CUIL]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="10">
       <calculatedColumnFormula>MID(datos[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="9">
       <calculatedColumnFormula>RIGHT(datos[[#This Row],[CUIL]],1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2817,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D2F1C7-2AC9-4F12-98F3-C533C654056E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,56 +3084,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="30" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2891,9 +3149,15 @@
     <hyperlink ref="C2" location="ventas!A1" display="Ventas" xr:uid="{CD1BB188-C947-43F3-8FD6-F5734811507F}"/>
     <hyperlink ref="D2" location="datos!A1" display="Datos" xr:uid="{1768D2CB-8F3E-48E3-9386-BF75FDA88A0B}"/>
     <hyperlink ref="E2" location="estadisticas!A1" display="Estadisticas" xr:uid="{D351D082-DF2D-4A98-A085-FF6654BC2F48}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{5010A683-4FC2-4B8A-9236-A13C6A258433}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{5994AECA-CC9C-4DE4-BF91-9C967EFF145B}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{2DC23262-2DF5-4544-B763-688E07CB7E66}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{0C9A5DBC-7D8B-49B7-B650-AE3BC05042E9}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{B7A1CC0F-EA38-463D-90FA-47399A1E8740}"/>
+    <hyperlink ref="F2" location="menu!A1" display="Inicio" xr:uid="{5A00CBE5-8C90-4CFE-8730-835C5DC6996E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2905,14 +3169,14 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="35" width="4.85546875" customWidth="1"/>
@@ -2925,11 +3189,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3035,10 +3299,10 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
@@ -3868,1006 +4132,1015 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616E4083-2D4F-46A1-9719-B19D9D684BF4}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2">
         <v>40</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="31">
+      <c r="H2" s="28">
         <v>32768</v>
       </c>
-      <c r="F2" s="25">
+      <c r="I2" s="23">
         <v>8500</v>
       </c>
-      <c r="G2" s="25" t="str">
+      <c r="J2" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3">
         <v>39</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="31">
+      <c r="H3" s="28">
         <v>56470</v>
       </c>
-      <c r="F3" s="29">
+      <c r="I3" s="26">
         <v>7594</v>
       </c>
-      <c r="G3" s="29" t="str">
+      <c r="J3" s="26" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4">
         <v>38</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="E4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="31">
+      <c r="H4" s="28">
         <v>95870</v>
       </c>
-      <c r="F4" s="29">
+      <c r="I4" s="26">
         <v>95843</v>
       </c>
-      <c r="G4" s="29" t="str">
+      <c r="J4" s="26" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>37</v>
-      </c>
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="31">
+      <c r="H5" s="28">
         <v>543200</v>
       </c>
-      <c r="F5" s="29">
+      <c r="I5" s="26">
         <v>7690</v>
       </c>
-      <c r="G5" s="29" t="str">
+      <c r="J5" s="26" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6">
         <v>36</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="E6" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="F6" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="G6" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="31">
+      <c r="H6" s="28">
         <v>34000</v>
       </c>
-      <c r="F6" s="29">
+      <c r="I6" s="26">
         <v>300</v>
       </c>
-      <c r="G6" s="29" t="str">
+      <c r="J6" s="26" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7">
         <v>35</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="E7" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="G7" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="31">
+      <c r="H7" s="28">
         <v>50199.99</v>
       </c>
-      <c r="F7" s="29">
+      <c r="I7" s="26">
         <v>4000</v>
       </c>
-      <c r="G7" s="29" t="str">
+      <c r="J7" s="26" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8">
         <v>34</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="F8" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="G8" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="31">
+      <c r="H8" s="28">
         <v>8400</v>
       </c>
-      <c r="F8" s="29">
+      <c r="I8" s="26">
         <v>2349</v>
       </c>
-      <c r="G8" s="29" t="str">
+      <c r="J8" s="26" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9">
         <v>33</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="F9" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="G9" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="31">
+      <c r="H9" s="28">
         <v>65536</v>
       </c>
-      <c r="F9" s="29">
+      <c r="I9" s="26">
         <v>2500</v>
       </c>
-      <c r="G9" s="29" t="str">
+      <c r="J9" s="26" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10">
         <v>32</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="F10" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="31">
+      <c r="H10" s="28">
         <v>23400</v>
       </c>
-      <c r="F10" s="25">
+      <c r="I10" s="23">
         <v>2934</v>
       </c>
-      <c r="G10" s="25" t="str">
+      <c r="J10" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>31</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="F11" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="G11" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="30">
+      <c r="H11" s="27">
         <v>25399.99</v>
       </c>
-      <c r="F11" s="25">
+      <c r="I11" s="23">
         <v>500</v>
       </c>
-      <c r="G11" s="25" t="str">
+      <c r="J11" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>30</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="F12" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="G12" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="30">
+      <c r="H12" s="27">
         <v>46700</v>
       </c>
-      <c r="F12" s="25">
+      <c r="I12" s="23">
         <v>500</v>
       </c>
-      <c r="G12" s="25" t="str">
+      <c r="J12" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13">
         <v>29</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="F13" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="G13" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="30">
+      <c r="H13" s="27">
         <v>12400</v>
       </c>
-      <c r="F13" s="25">
+      <c r="I13" s="23">
         <v>349</v>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="J13" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14">
         <v>28</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="F14" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="G14" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="30">
+      <c r="H14" s="27">
         <v>12800</v>
       </c>
-      <c r="F14" s="25">
+      <c r="I14" s="23">
         <v>2348</v>
       </c>
-      <c r="G14" s="25" t="str">
+      <c r="J14" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15">
         <v>27</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="F15" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="G15" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="30">
+      <c r="H15" s="27">
         <v>4096</v>
       </c>
-      <c r="F15" s="25">
+      <c r="I15" s="23">
         <v>4200</v>
       </c>
-      <c r="G15" s="25" t="str">
+      <c r="J15" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16">
         <v>26</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="F16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="G16" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="30">
+      <c r="H16" s="27">
         <v>8192</v>
       </c>
-      <c r="F16" s="25">
+      <c r="I16" s="23">
         <v>800</v>
       </c>
-      <c r="G16" s="25" t="str">
+      <c r="J16" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="F17" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="G17" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="30">
+      <c r="H17" s="27">
         <v>63200</v>
       </c>
-      <c r="F17" s="25">
+      <c r="I17" s="23">
         <v>2349</v>
       </c>
-      <c r="G17" s="25" t="str">
+      <c r="J17" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18">
         <v>24</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="F18" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="G18" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="30">
+      <c r="H18" s="27">
         <v>3000</v>
       </c>
-      <c r="F18" s="25">
+      <c r="I18" s="23">
         <v>2384</v>
       </c>
-      <c r="G18" s="25" t="str">
+      <c r="J18" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19">
         <v>23</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="F19" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="G19" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="30">
+      <c r="H19" s="27">
         <v>6200</v>
       </c>
-      <c r="F19" s="25">
+      <c r="I19" s="23">
         <v>2348</v>
       </c>
-      <c r="G19" s="25" t="str">
+      <c r="J19" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20">
         <v>22</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="F20" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="G20" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="30">
+      <c r="H20" s="27">
         <v>120420</v>
       </c>
-      <c r="F20" s="25">
+      <c r="I20" s="23">
         <v>3849</v>
       </c>
-      <c r="G20" s="25" t="str">
+      <c r="J20" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21">
         <v>21</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="F21" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="G21" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="30">
+      <c r="H21" s="27">
         <v>65480</v>
       </c>
-      <c r="F21" s="25">
+      <c r="I21" s="23">
         <v>3400</v>
       </c>
-      <c r="G21" s="25" t="str">
+      <c r="J21" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22">
         <v>20</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="F22" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="G22" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="30">
+      <c r="H22" s="27">
         <v>87500</v>
       </c>
-      <c r="F22" s="25">
+      <c r="I22" s="23">
         <v>68</v>
       </c>
-      <c r="G22" s="25" t="str">
+      <c r="J22" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23">
         <v>19</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="E23" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="F23" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="G23" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="30">
+      <c r="H23" s="27">
         <v>120569.99</v>
       </c>
-      <c r="F23" s="25">
+      <c r="I23" s="23">
         <v>2347</v>
       </c>
-      <c r="G23" s="25" t="str">
+      <c r="J23" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24">
         <v>18</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="E24" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="F24" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="G24" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="30">
+      <c r="H24" s="27">
         <v>45380</v>
       </c>
-      <c r="F24" s="25">
+      <c r="I24" s="23">
         <v>2348</v>
       </c>
-      <c r="G24" s="25" t="str">
+      <c r="J24" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25">
         <v>17</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="E25" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="F25" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="G25" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="30">
+      <c r="H25" s="27">
         <v>67800</v>
       </c>
-      <c r="F25" s="25">
+      <c r="I25" s="23">
         <v>58349</v>
       </c>
-      <c r="G25" s="25" t="str">
+      <c r="J25" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26">
         <v>16</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="F26" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="G26" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="30">
+      <c r="H26" s="27">
         <v>16384</v>
       </c>
-      <c r="F26" s="25">
+      <c r="I26" s="23">
         <v>600</v>
       </c>
-      <c r="G26" s="25" t="str">
+      <c r="J26" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27">
         <v>15</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="F27" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="G27" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="30">
+      <c r="H27" s="27">
         <v>6700</v>
       </c>
-      <c r="F27" s="25">
+      <c r="I27" s="23">
         <v>6500</v>
       </c>
-      <c r="G27" s="25" t="str">
+      <c r="J27" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28">
         <v>14</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="F28" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="G28" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="30">
+      <c r="H28" s="27">
         <v>56270</v>
       </c>
-      <c r="F28" s="25">
+      <c r="I28" s="23">
         <v>832</v>
       </c>
-      <c r="G28" s="25" t="str">
+      <c r="J28" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29">
         <v>13</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="E29" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="F29" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="G29" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="30">
+      <c r="H29" s="27">
         <v>520920</v>
       </c>
-      <c r="F29" s="25">
+      <c r="I29" s="23">
         <v>2938</v>
       </c>
-      <c r="G29" s="25" t="str">
+      <c r="J29" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D30">
         <v>12</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="E30" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="F30" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="G30" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="30">
+      <c r="H30" s="27">
         <v>1048576</v>
       </c>
-      <c r="F30" s="25">
+      <c r="I30" s="23">
         <v>200</v>
       </c>
-      <c r="G30" s="25" t="str">
+      <c r="J30" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31">
         <v>11</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="E31" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="F31" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="G31" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="30">
+      <c r="H31" s="27">
         <v>54780</v>
       </c>
-      <c r="F31" s="25">
+      <c r="I31" s="23">
         <v>2894</v>
       </c>
-      <c r="G31" s="25" t="str">
+      <c r="J31" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="E32" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="F32" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="G32" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="30">
+      <c r="H32" s="27">
         <v>5600</v>
       </c>
-      <c r="F32" s="25">
+      <c r="I32" s="23">
         <v>1000</v>
       </c>
-      <c r="G32" s="25" t="str">
+      <c r="J32" s="23" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
         <v>122</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="28">
+      <c r="H33" s="25">
         <v>8200</v>
       </c>
-      <c r="F33">
+      <c r="I33">
         <v>6000</v>
       </c>
-      <c r="G33" t="str">
+      <c r="J33" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34">
         <v>8</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>138</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" t="s">
         <v>122</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="28">
+      <c r="H34" s="25">
         <v>43560</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>2500</v>
       </c>
-      <c r="G34" t="str">
+      <c r="J34" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
         <v>136</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
         <v>124</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="32">
+      <c r="H35" s="29">
         <v>250328</v>
       </c>
-      <c r="F35">
+      <c r="I35">
         <v>200</v>
       </c>
-      <c r="G35" t="str">
+      <c r="J35" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
         <v>135</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>124</v>
       </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="32">
+      <c r="H36" s="29">
         <v>42000</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>50</v>
       </c>
-      <c r="G36" t="str">
+      <c r="J36" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37">
         <v>5</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>137</v>
       </c>
-      <c r="C37" t="s">
+      <c r="F37" t="s">
         <v>124</v>
       </c>
-      <c r="D37" t="s">
+      <c r="G37" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="32">
+      <c r="H37" s="29">
         <v>54600</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>100</v>
       </c>
-      <c r="G37" t="str">
+      <c r="J37" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>134</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
         <v>123</v>
       </c>
-      <c r="D38" t="s">
+      <c r="G38" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="32">
+      <c r="H38" s="29">
         <v>25600</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>2500</v>
       </c>
-      <c r="G38" t="str">
+      <c r="J38" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39">
         <v>3</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>133</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>123</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="32">
+      <c r="H39" s="29">
         <v>25780</v>
       </c>
-      <c r="F39">
+      <c r="I39">
         <v>1500</v>
       </c>
-      <c r="G39" t="str">
+      <c r="J39" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40">
         <v>2</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E40" t="s">
         <v>132</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>121</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="32">
+      <c r="H40" s="29">
         <v>56700</v>
       </c>
-      <c r="F40">
+      <c r="I40">
         <v>3500</v>
       </c>
-      <c r="G40" t="str">
+      <c r="J40" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E41" t="s">
         <v>131</v>
       </c>
-      <c r="C41" t="s">
+      <c r="F41" t="s">
         <v>121</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="32">
+      <c r="H41" s="29">
         <v>150548</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>2000</v>
       </c>
-      <c r="G41" t="str">
+      <c r="J41" t="str">
         <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E1048576">
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -4881,7 +5154,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4890,9 +5163,9 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="reponer">
-      <formula>NOT(ISERROR(SEARCH("reponer",G1)))</formula>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="reponer">
+      <formula>NOT(ISERROR(SEARCH("reponer",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4912,7 +5185,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4930,15 +5203,15 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G16"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -4950,325 +5223,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="24"/>
       <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="35">
         <v>0.21</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>10</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>2</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>5600</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>11200</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>2352</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>13552</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="37">
         <f>SUM(ventas[final])</f>
         <v>5782396.3274000008</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>30</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>25399.99</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>76199.97</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>16001.993699999999</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>92201.963699999993</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="38">
         <f>COUNT(ventas[codigo])</f>
         <v>15</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>20</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>65480</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>327400</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>68754</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>396154</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="39">
         <f>MAX(ventas[cantidad])</f>
         <v>34</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>10</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>7</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>5600</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>39200</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>8232</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>47432</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="38">
         <f>MODE(ventas[codigo])</f>
         <v>10</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>10</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>34</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>5600</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>190400</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>39984</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>230384</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="40">
         <f>MAX(ventas[total])</f>
         <v>2097152</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>20</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>12</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>65480</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>785760</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>165009.60000000001</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>950769.6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="41">
         <f>MIN(ventas[total])</f>
         <v>8192</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>26</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>4096</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>16384</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>3440.64</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>19824.64</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="40">
         <f>AVERAGE(ventas[total])</f>
         <v>318589.3293333333</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>40</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>8</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>32768</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>262144</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>55050.239999999998</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>317194.23999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="42">
         <f>MEDIAN(ventas[total])</f>
         <v>81920</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>12</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>1048576</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>2097152</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>440401.91999999998</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>2537553.9199999999</v>
       </c>
@@ -5277,24 +5550,24 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>15</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>5</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>16384</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>81920</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>17203.2</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>99123.199999999997</v>
       </c>
@@ -5303,24 +5576,24 @@
       <c r="D12">
         <v>11</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>25</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>8192</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>8192</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>1720.32</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>9912.32</v>
       </c>
@@ -5329,24 +5602,24 @@
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>30</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>25399.99</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>76199.97</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>16001.993699999999</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>92201.963699999993</v>
       </c>
@@ -5355,24 +5628,24 @@
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>33</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>8</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>65536</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>524288</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>110100.48</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>634388.47999999998</v>
       </c>
@@ -5381,60 +5654,60 @@
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>20</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <v>4</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>65480</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>261920</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>55003.199999999997</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>316923.2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>15</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>26</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <v>5</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>4096</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>20480</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="13">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>4300.8</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>24780.799999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="menu!A1" display="volver al inicio" xr:uid="{E3B4D62F-D3B7-43EF-944B-B43EF2F82502}"/>
+    <hyperlink ref="A1:B1" location="menu!A1" display="volver al inicio" xr:uid="{C5D741B1-7E52-474E-9126-D9E1C4C8B51B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5449,21 +5722,20 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="22.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="8" width="0.85546875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -5473,11 +5745,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="24"/>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -5496,10 +5768,10 @@
       <c r="I1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>93</v>
       </c>
       <c r="L1" t="s">
@@ -5516,10 +5788,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="38" t="s">
         <v>73</v>
       </c>
       <c r="D2" t="str">
@@ -5542,14 +5814,14 @@
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>22</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <v>33346</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>31.564383561643837</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>31</v>
       </c>
@@ -5570,10 +5842,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="43">
         <f ca="1">TODAY()</f>
         <v>44867</v>
       </c>
@@ -5597,14 +5869,14 @@
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>17</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>31710</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>36.046575342465751</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>36</v>
       </c>
@@ -5625,10 +5897,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="38">
         <f ca="1">DAY(B3)</f>
         <v>2</v>
       </c>
@@ -5652,14 +5924,14 @@
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>18</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <v>33674</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>30.665753424657535</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>30</v>
       </c>
@@ -5680,10 +5952,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="39">
         <f ca="1">MONTH(B3)</f>
         <v>11</v>
       </c>
@@ -5707,14 +5979,14 @@
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>16</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <v>35297</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>26.219178082191782</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>26</v>
       </c>
@@ -5735,10 +6007,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="38">
         <f ca="1">YEAR(B3)</f>
         <v>2022</v>
       </c>
@@ -5762,14 +6034,14 @@
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>19</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <v>33708</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>30.572602739726026</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>30</v>
       </c>
@@ -5790,12 +6062,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="44">
         <f ca="1">NOW()</f>
-        <v>44867.693780671296</v>
+        <v>44867.70364803241</v>
       </c>
       <c r="D7" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
@@ -5817,14 +6089,14 @@
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>11</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>34109</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>29.473972602739725</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>29</v>
       </c>
@@ -5845,10 +6117,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="38">
         <f ca="1">HOUR(B7)</f>
         <v>16</v>
       </c>
@@ -5872,14 +6144,14 @@
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>17</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <v>36526</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>22.852054794520548</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>22</v>
       </c>
@@ -5900,12 +6172,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="45">
         <f ca="1">MINUTE(B7)</f>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>77</v>
@@ -5926,14 +6198,14 @@
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>18</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>26358</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>50.709589041095889</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>50</v>
       </c>
@@ -5955,12 +6227,12 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="21">
         <f ca="1">SECOND(B7)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>78</v>
@@ -5981,14 +6253,14 @@
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>11</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>21938</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>62.819178082191783</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>62</v>
       </c>
@@ -6013,6 +6285,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:B1" location="menu!A1" display="volver al inicio" xr:uid="{C5369E16-FA7E-4FAC-BB2F-DA6B5D792535}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -6032,11 +6307,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C17468-E310-445C-BD04-1998C11601DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571A5DA-38EE-4544-A6D7-DF8E3710B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="4" r:id="rId1"/>
@@ -22,16 +22,15 @@
   </sheets>
   <definedNames>
     <definedName name="año">datos!$B$6</definedName>
+    <definedName name="categoria">#N/A</definedName>
     <definedName name="char">datos!$B$2</definedName>
     <definedName name="dia">datos!$B$4</definedName>
     <definedName name="hoy">datos!$B$3</definedName>
     <definedName name="IVA">ventas!$B$2</definedName>
+    <definedName name="marca">#N/A</definedName>
     <definedName name="mes">datos!$B$5</definedName>
-    <definedName name="SegmentaciónDeDatos_Categoria">#N/A</definedName>
-    <definedName name="SegmentaciónDeDatos_Marca">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="194">
   <si>
     <t>Empleado</t>
   </si>
@@ -599,6 +598,48 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Recaudado</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -752,7 +793,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -782,14 +823,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -799,12 +834,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -821,58 +850,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF8B3535"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -898,88 +895,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF8B3535"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1161,6 +1122,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1183,6 +1168,150 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1264,6 +1393,4787 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2521637585001445E-2"/>
+          <c:y val="9.7132012191343473E-2"/>
+          <c:w val="0.88227351409400001"/>
+          <c:h val="0.68120924256590287"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Stock de Productos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Productos!$E$2:$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>Jean Levis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mesa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decoracion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iPhone 20g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Licuadora</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Horno Electronico</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bufanda</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ebook</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lentes</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sillon</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Anteojos</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Espejo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Cubiertos</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Remera</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Batidora</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Platos</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Alfombra</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cortinas</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Placard</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Heladera</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Modular</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sombrero</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Guantes</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Tarjeta Grafica</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Teclado Mecanico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Humidificador</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Zapatos</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Motor</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Automovil</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Monitor</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Tostadora</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Mouse Inalambrico</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Tablet 10"</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Neumaticos</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Parabrisas</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Cubiertas</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Capera de Cuero</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Campera de Jean</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Secarropas</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Lavarropas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Productos!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2348</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B724-4CC2-88CA-87D2C13C3D90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1564127312"/>
+        <c:axId val="1564146448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1564127312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1564146448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1564146448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1564127312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4285714285714279E-2"/>
+          <c:y val="3.6459675972237385E-2"/>
+          <c:w val="0.92351590412431916"/>
+          <c:h val="0.81434895328531109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7680844287769567E-2"/>
+                  <c:y val="0.33287603802338961"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -56812"/>
+                        <a:gd name="adj2" fmla="val -389084"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10952380952380955"/>
+                  <c:y val="4.0237762837992033E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 186053"/>
+                        <a:gd name="adj2" fmla="val -332296"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2857142857142858E-2"/>
+                  <c:y val="1.4631913759269879E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 165372"/>
+                        <a:gd name="adj2" fmla="val 172514"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11666666666666667"/>
+                  <c:y val="1.8289892199087349E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -297060"/>
+                        <a:gd name="adj2" fmla="val 122406"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10476190476190468"/>
+                  <c:y val="-4.7553719717627105E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17142857142857143"/>
+                  <c:y val="-9.8765417875071718E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -349435"/>
+                        <a:gd name="adj2" fmla="val 111486"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15000000000000008"/>
+                  <c:y val="0.51211698157444574"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 6369"/>
+                        <a:gd name="adj2" fmla="val -23796"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14404761904761906"/>
+                  <c:y val="0.26703242610667527"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -20579"/>
+                        <a:gd name="adj2" fmla="val -11899"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="9.1846081739782537E-2"/>
+                      <c:h val="9.2231749927920548E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15238095238095239"/>
+                  <c:y val="0.3840877361808343"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 22523"/>
+                        <a:gd name="adj2" fmla="val -1985"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="9.2562617172853398E-2"/>
+                      <c:h val="9.2231749927920548E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-04B2-4E39-838A-C041714355DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>datos!$F$2:$G$10</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>datos!$F$2:$F$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>datos!$F$2:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mariano</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tambella</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Casas</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gurruchaga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Perez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gonzalo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Joan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>datos!$R$2:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>273344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2193831.9700000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1431168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>525992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76199.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04B2-4E39-838A-C041714355DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Recaudaciones</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Mensuales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46037959667852912"/>
+          <c:y val="1.7094017094017096E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18006949309272283"/>
+          <c:y val="0.15850427350427351"/>
+          <c:w val="0.78908827677679083"/>
+          <c:h val="0.6278460865468739"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ventas!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ventas!$A$13:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ventas!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2786499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5923800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3486000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>567299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2868600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8725320</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>548100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3756980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4778839.9399999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DE5-4929-ADC0-AEE30CC2AA3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1681205200"/>
+        <c:axId val="1681197296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1681205200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681197296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1681197296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681205200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Estadisticas de Ventas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>datos!$F$2:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mariano</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tambella</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Casas</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gurruchaga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Perez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gonzalo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Joan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>datos!$Q$2:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1861-4871-AF8C-F770E32F2868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1576074576"/>
+        <c:axId val="1576073744"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>datos!$F$2:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mariano</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tambella</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Casas</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gurruchaga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Perez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gonzalo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Joan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>datos!$R$2:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>273344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2193831.9700000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1431168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>525992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76199.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1861-4871-AF8C-F770E32F2868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1697611088"/>
+        <c:axId val="1697621904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1576074576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1576073744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1576073744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1576074576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1697621904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1697611088"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1697611088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1697621904"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1859,7 +6769,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3422131" y="857160"/>
+          <a:off x="3420261" y="857939"/>
           <a:ext cx="462829" cy="490250"/>
           <a:chOff x="3418661" y="859859"/>
           <a:chExt cx="462829" cy="490250"/>
@@ -2106,12 +7016,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>14655</xdr:colOff>
+      <xdr:colOff>7327</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Categoria">
@@ -2134,7 +7044,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2184,12 +7094,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>29309</xdr:colOff>
+      <xdr:colOff>7327</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>124558</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Marca">
@@ -2212,7 +7122,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2373,60 +7283,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295603</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170793</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533430</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139293</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Gráfico 1" descr="Casa con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B5436A-3980-43A1-A020-674B5491341D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6568965" y="1694793"/>
-          <a:ext cx="540000" cy="540000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>52553</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2538,11 +7394,159 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BE6A0B-18CF-4748-9101-7D2970E2EC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75174638-7C18-4ECE-AD7B-75939ED08614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46E9A18-1CD4-4812-9071-CD7484B336A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F085083C-D079-479B-B9F4-EB4B4597C0B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Categoria" xr10:uid="{1F4662AE-5878-4E28-A069-6249EE1303A1}" sourceName="Categoria">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="categoria" xr10:uid="{1F4662AE-5878-4E28-A069-6249EE1303A1}" sourceName="Categoria">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="3" column="6"/>
@@ -2552,7 +7556,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Marca" xr10:uid="{B33F85D2-9E7D-45D3-85A8-2B43EEE4AB66}" sourceName="Marca">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="marca" xr10:uid="{B33F85D2-9E7D-45D3-85A8-2B43EEE4AB66}" sourceName="Marca">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="3" column="7"/>
@@ -2563,13 +7567,13 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Categoria" xr10:uid="{66E9FA4D-D4EE-4227-900A-E05EF2115D4A}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" startItem="2" rowHeight="241300"/>
-  <slicer name="Marca" xr10:uid="{8B807C09-7311-4953-B8B5-965803996B21}" cache="SegmentaciónDeDatos_Marca" caption="Marca" rowHeight="241300"/>
+  <slicer name="Categoria" xr10:uid="{66E9FA4D-D4EE-4227-900A-E05EF2115D4A}" cache="categoria" caption="Categoria" startItem="2" rowHeight="241300"/>
+  <slicer name="Marca" xr10:uid="{8B807C09-7311-4953-B8B5-965803996B21}" cache="marca" caption="Marca" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="E1:AK9" totalsRowCount="1" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="E1:AK9" totalsRowCount="1" headerRowDxfId="54">
   <autoFilter ref="E1:AK8" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{63E8AE85-7078-42EA-8049-5AA43D1477D3}" name="Empleado" totalsRowFunction="custom">
@@ -2581,25 +7585,25 @@
     <tableColumn id="3" xr3:uid="{13839942-7C3B-4C39-B28B-AC898EBACE02}" name="2/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[2/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="53">
       <totalsRowFormula>COUNTBLANK(presentismo[3/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="52">
       <totalsRowFormula>COUNTBLANK(presentismo[4/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="44">
+    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="51">
       <totalsRowFormula>COUNTBLANK(presentismo[5/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="43">
+    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="50">
       <totalsRowFormula>COUNTBLANK(presentismo[6/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="49">
       <totalsRowFormula>COUNTBLANK(presentismo[7/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="48">
       <totalsRowFormula>COUNTBLANK(presentismo[8/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="40">
+    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="47">
       <totalsRowFormula>COUNTBLANK(presentismo[9/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{E013540E-F42C-4310-9BD2-372E388003A4}" name="10/9/22" totalsRowFunction="custom">
@@ -2620,34 +7624,34 @@
     <tableColumn id="16" xr3:uid="{36B417AE-F126-4023-BEBD-61D669212878}" name="15/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[15/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="39">
+    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="46">
       <totalsRowFormula>COUNTBLANK(presentismo[16/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="38">
+    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="45">
       <totalsRowFormula>COUNTBLANK(presentismo[17/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="37">
+    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="44">
       <totalsRowFormula>COUNTBLANK(presentismo[18/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="43">
       <totalsRowFormula>COUNTBLANK(presentismo[19/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="35">
+    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="42">
       <totalsRowFormula>COUNTBLANK(presentismo[20/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="41">
       <totalsRowFormula>COUNTBLANK(presentismo[21/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="40">
       <totalsRowFormula>COUNTBLANK(presentismo[22/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="39">
       <totalsRowFormula>COUNTBLANK(presentismo[23/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="38">
       <totalsRowFormula>COUNTBLANK(presentismo[24/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="37">
       <totalsRowFormula>COUNTBLANK(presentismo[25/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{AA931E08-C2D5-4EEC-882D-D051DE15F54E}" name="26/9/22" totalsRowFunction="custom">
@@ -2665,10 +7669,10 @@
     <tableColumn id="31" xr3:uid="{480A7E2D-67A4-4E7B-B27F-A24C65D91962}" name="30/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[30/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="29">
+    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="36">
       <calculatedColumnFormula>COUNTA(F2:AI2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="28">
+    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="35">
       <calculatedColumnFormula>COUNTBLANK(F2:AI2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2677,7 +7681,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="A2:C9" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="A2:C9" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A2:C9" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CE7D112E-6D17-4595-9933-39DA72A6ADB2}" name="Stats"/>
@@ -2689,20 +7693,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}" name="Tabla3" displayName="Tabla3" ref="D1:J41" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}" name="productos" displayName="productos" ref="D1:J41" totalsRowShown="0" dataDxfId="33">
   <autoFilter ref="D1:J41" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:J41">
     <sortCondition descending="1" ref="D1:D41"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3012A9A8-AE20-4298-B8CB-C0983B19D012}" name="codigo" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{EFD9D99E-4714-460C-BF3B-2AC4F0DC0D41}" name="articulo" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{6A4244FB-64CF-4A0B-908D-A7A94C4DC0B7}" name="Categoria" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{986E24C9-F192-43AE-A3FD-86BBAF8115E7}" name="Marca" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4139A4ED-29D5-4CB4-816A-1F8F1F44530E}" name="precio" dataDxfId="6" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{E0155690-A444-4800-BCC9-F087E550EB12}" name="stock" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E24F15B3-2387-4EEC-A12C-A07036A858E4}" name="situacion" dataDxfId="1">
-      <calculatedColumnFormula>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3012A9A8-AE20-4298-B8CB-C0983B19D012}" name="codigo" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{EFD9D99E-4714-460C-BF3B-2AC4F0DC0D41}" name="articulo" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{6A4244FB-64CF-4A0B-908D-A7A94C4DC0B7}" name="Categoria" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{986E24C9-F192-43AE-A3FD-86BBAF8115E7}" name="Marca" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{4139A4ED-29D5-4CB4-816A-1F8F1F44530E}" name="precio" dataDxfId="28" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{E0155690-A444-4800-BCC9-F087E550EB12}" name="stock" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{E24F15B3-2387-4EEC-A12C-A07036A858E4}" name="situacion" dataDxfId="26">
+      <calculatedColumnFormula>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2710,23 +7714,24 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:J16" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="D1:J16" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:J16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:K16" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="D1:K16" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:K16">
     <sortCondition ref="D1:D16"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="25"/>
-    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="22" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="21">
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{4D469D01-2070-4A0E-A7F7-DAE78D72A40E}" name="Empleado" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="11" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="10">
       <calculatedColumnFormula>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="9">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*IVA</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="8">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2735,40 +7740,58 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="datos" displayName="datos" ref="D1:O10" totalsRowShown="0">
-  <autoFilter ref="D1:O10" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C8059272-EFFD-413A-B27A-5AE10C015DCA}" name="Tabla6" displayName="Tabla6" ref="A12:B22" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A12:B22" xr:uid="{C8059272-EFFD-413A-B27A-5AE10C015DCA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7F214FDA-80EF-4898-9A6B-920CC82C4117}" name="Mes"/>
+    <tableColumn id="2" xr3:uid="{689FDF2F-4D46-4E15-855D-8F9DD5E8BEDB}" name="Total" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="datos" displayName="datos" ref="D1:R10" totalsRowShown="0">
+  <autoFilter ref="D1:R10" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
+  <tableColumns count="15">
+    <tableColumn id="15" xr3:uid="{0F3AF9C1-CDB6-4AAB-A767-4F89B616CF90}" name="Cod"/>
+    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="7">
       <calculatedColumnFormula>presentismo[[#This Row],[Empleado]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="APELLIDOS" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="APELLIDOS" dataDxfId="25">
       <calculatedColumnFormula>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="NOMBRES" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="NOMBRES" dataDxfId="24">
       <calculatedColumnFormula>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="SEPARADOR" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="SEPARADOR" dataDxfId="23">
       <calculatedColumnFormula>FIND(char,datos[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="LARGO" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="LARGO" dataDxfId="22">
       <calculatedColumnFormula>LEN(datos[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7FAAF893-41DD-4433-9412-06936F9828E5}" name="NACIMIENTO"/>
-    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="EDAD" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="EDAD" dataDxfId="21">
       <calculatedColumnFormula>(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{01515EC2-7B72-403E-A547-32DCA5CEAE28}" name="AÑOS" dataDxfId="12">
+    <tableColumn id="14" xr3:uid="{01515EC2-7B72-403E-A547-32DCA5CEAE28}" name="AÑOS" dataDxfId="20">
       <calculatedColumnFormula>año - YEAR(datos[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{F74EB26B-27B2-49FB-9BCC-72F74AE29654}" name="CUIL"/>
-    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="19">
       <calculatedColumnFormula>LEFT(datos[[#This Row],[CUIL]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="18">
       <calculatedColumnFormula>MID(datos[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="17">
       <calculatedColumnFormula>RIGHT(datos[[#This Row],[CUIL]],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{A491D3F6-002A-4B02-B028-EBCA76DED861}" name="Ventas" dataDxfId="6">
+      <calculatedColumnFormula>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{787C7548-5283-459C-B371-9415455985DB}" name="Recaudado" dataCellStyle="Moneda">
+      <calculatedColumnFormula>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3074,8 +8097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D2F1C7-2AC9-4F12-98F3-C533C654056E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,7 +8107,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="17"/>
@@ -3093,25 +8116,25 @@
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="2"/>
@@ -3121,20 +8144,20 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="28" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3189,11 +8212,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4134,8 +9157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616E4083-2D4F-46A1-9719-B19D9D684BF4}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,11 +9172,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="29"/>
       <c r="D1" t="s">
         <v>43</v>
       </c>
@@ -4180,23 +9203,23 @@
       <c r="D2">
         <v>40</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="26">
         <v>32768</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="21">
         <v>8500</v>
       </c>
-      <c r="J2" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J2" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4204,23 +9227,23 @@
       <c r="D3">
         <v>39</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="26">
         <v>56470</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>7594</v>
       </c>
-      <c r="J3" s="26" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J3" s="24" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4228,23 +9251,23 @@
       <c r="D4">
         <v>38</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="26">
         <v>95870</v>
       </c>
-      <c r="I4" s="26">
-        <v>95843</v>
-      </c>
-      <c r="J4" s="26" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="I4" s="24">
+        <v>9584</v>
+      </c>
+      <c r="J4" s="24" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4252,23 +9275,23 @@
       <c r="D5">
         <v>37</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <v>543200</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="24">
         <v>7690</v>
       </c>
-      <c r="J5" s="26" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J5" s="24" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4276,23 +9299,23 @@
       <c r="D6">
         <v>36</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>34000</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <v>300</v>
       </c>
-      <c r="J6" s="26" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J6" s="24" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4300,23 +9323,23 @@
       <c r="D7">
         <v>35</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <v>50199.99</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <v>4000</v>
       </c>
-      <c r="J7" s="26" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J7" s="24" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4324,23 +9347,23 @@
       <c r="D8">
         <v>34</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>8400</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>2349</v>
       </c>
-      <c r="J8" s="26" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J8" s="24" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4348,23 +9371,23 @@
       <c r="D9">
         <v>33</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <v>65536</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <v>2500</v>
       </c>
-      <c r="J9" s="26" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J9" s="24" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4372,23 +9395,23 @@
       <c r="D10">
         <v>32</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <v>23400</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="21">
         <v>2934</v>
       </c>
-      <c r="J10" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J10" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4396,23 +9419,23 @@
       <c r="D11">
         <v>31</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="25">
         <v>25399.99</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="21">
         <v>500</v>
       </c>
-      <c r="J11" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J11" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4420,23 +9443,23 @@
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="25">
         <v>46700</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>500</v>
       </c>
-      <c r="J12" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J12" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4444,23 +9467,23 @@
       <c r="D13">
         <v>29</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="25">
         <v>12400</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="21">
         <v>349</v>
       </c>
-      <c r="J13" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J13" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4468,23 +9491,23 @@
       <c r="D14">
         <v>28</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="25">
         <v>12800</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="21">
         <v>2348</v>
       </c>
-      <c r="J14" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J14" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4492,23 +9515,23 @@
       <c r="D15">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="25">
         <v>4096</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>4200</v>
       </c>
-      <c r="J15" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J15" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4516,23 +9539,23 @@
       <c r="D16">
         <v>26</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="25">
         <v>8192</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="21">
         <v>800</v>
       </c>
-      <c r="J16" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J16" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4540,23 +9563,23 @@
       <c r="D17">
         <v>25</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="25">
         <v>63200</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>2349</v>
       </c>
-      <c r="J17" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J17" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4564,23 +9587,23 @@
       <c r="D18">
         <v>24</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="25">
         <v>3000</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <v>2384</v>
       </c>
-      <c r="J18" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J18" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4588,23 +9611,23 @@
       <c r="D19">
         <v>23</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="25">
         <v>6200</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>2348</v>
       </c>
-      <c r="J19" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J19" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4612,23 +9635,23 @@
       <c r="D20">
         <v>22</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="25">
         <v>120420</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="21">
         <v>3849</v>
       </c>
-      <c r="J20" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J20" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4636,23 +9659,23 @@
       <c r="D21">
         <v>21</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="25">
         <v>65480</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="21">
         <v>3400</v>
       </c>
-      <c r="J21" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J21" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4660,23 +9683,23 @@
       <c r="D22">
         <v>20</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="25">
         <v>87500</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="21">
         <v>68</v>
       </c>
-      <c r="J22" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J22" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4684,23 +9707,23 @@
       <c r="D23">
         <v>19</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="25">
         <v>120569.99</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="21">
         <v>2347</v>
       </c>
-      <c r="J23" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J23" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4708,23 +9731,23 @@
       <c r="D24">
         <v>18</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="25">
         <v>45380</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="21">
         <v>2348</v>
       </c>
-      <c r="J24" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J24" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4732,23 +9755,23 @@
       <c r="D25">
         <v>17</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="25">
         <v>67800</v>
       </c>
-      <c r="I25" s="23">
-        <v>58349</v>
-      </c>
-      <c r="J25" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="I25" s="21">
+        <v>5849</v>
+      </c>
+      <c r="J25" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4756,23 +9779,23 @@
       <c r="D26">
         <v>16</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="25">
         <v>16384</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="21">
         <v>600</v>
       </c>
-      <c r="J26" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J26" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4780,23 +9803,23 @@
       <c r="D27">
         <v>15</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="25">
         <v>6700</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="21">
         <v>6500</v>
       </c>
-      <c r="J27" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J27" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4804,23 +9827,23 @@
       <c r="D28">
         <v>14</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="25">
         <v>56270</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="21">
         <v>832</v>
       </c>
-      <c r="J28" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J28" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4828,23 +9851,23 @@
       <c r="D29">
         <v>13</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="25">
         <v>520920</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="21">
         <v>2938</v>
       </c>
-      <c r="J29" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J29" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4852,23 +9875,23 @@
       <c r="D30">
         <v>12</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="25">
         <v>1048576</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="21">
         <v>200</v>
       </c>
-      <c r="J30" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J30" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4876,23 +9899,23 @@
       <c r="D31">
         <v>11</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="25">
         <v>54780</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="21">
         <v>2894</v>
       </c>
-      <c r="J31" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J31" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4900,23 +9923,23 @@
       <c r="D32">
         <v>10</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="25">
         <v>5600</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="21">
         <v>1000</v>
       </c>
-      <c r="J32" s="23" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+      <c r="J32" s="21" t="str">
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4933,14 +9956,14 @@
       <c r="G33" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="23">
         <v>8200</v>
       </c>
       <c r="I33">
         <v>6000</v>
       </c>
       <c r="J33" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -4957,14 +9980,14 @@
       <c r="G34" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="23">
         <v>43560</v>
       </c>
       <c r="I34">
         <v>2500</v>
       </c>
       <c r="J34" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -4981,14 +10004,14 @@
       <c r="G35" t="s">
         <v>144</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="27">
         <v>250328</v>
       </c>
       <c r="I35">
         <v>200</v>
       </c>
       <c r="J35" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -5005,14 +10028,14 @@
       <c r="G36" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="27">
         <v>42000</v>
       </c>
       <c r="I36">
         <v>50</v>
       </c>
       <c r="J36" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -5029,14 +10052,14 @@
       <c r="G37" t="s">
         <v>143</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="27">
         <v>54600</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -5053,14 +10076,14 @@
       <c r="G38" t="s">
         <v>142</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="27">
         <v>25600</v>
       </c>
       <c r="I38">
         <v>2500</v>
       </c>
       <c r="J38" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -5077,14 +10100,14 @@
       <c r="G39" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="27">
         <v>25780</v>
       </c>
       <c r="I39">
         <v>1500</v>
       </c>
       <c r="J39" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -5101,14 +10124,14 @@
       <c r="G40" t="s">
         <v>141</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="27">
         <v>56700</v>
       </c>
       <c r="I40">
         <v>3500</v>
       </c>
       <c r="J40" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>vender</v>
       </c>
     </row>
@@ -5125,14 +10148,14 @@
       <c r="G41" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="27">
         <v>150548</v>
       </c>
       <c r="I41">
         <v>2000</v>
       </c>
       <c r="J41" t="str">
-        <f>IF(Tabla3[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
+        <f>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</f>
         <v>reponer</v>
       </c>
     </row>
@@ -5164,7 +10187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="reponer">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="reponer">
       <formula>NOT(ISERROR(SEARCH("reponer",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5200,13 +10223,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A83380-975D-48C5-88E7-EB8DA010B416}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5215,19 +10238,20 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="22"/>
       <c r="D1" t="s">
         <v>56</v>
       </c>
@@ -5235,26 +10259,29 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="31">
         <v>0.21</v>
       </c>
       <c r="D2">
@@ -5264,31 +10291,34 @@
         <v>10</v>
       </c>
       <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>5600</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>11200</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J2" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>2352</v>
       </c>
-      <c r="J2" s="9">
+      <c r="K2" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>13552</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="37">
-        <f>SUM(ventas[final])</f>
-        <v>5782396.3274000008</v>
+      <c r="B3" s="33">
+        <f>SUM(ventas[total])</f>
+        <v>4778839.9399999995</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5297,29 +10327,32 @@
         <v>30</v>
       </c>
       <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>25399.99</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>76199.97</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>16001.993699999999</v>
       </c>
-      <c r="J3" s="9">
+      <c r="K3" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>92201.963699999993</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="34">
         <f>COUNT(ventas[codigo])</f>
         <v>15</v>
       </c>
@@ -5332,27 +10365,30 @@
       <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8">
         <v>65480</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>327400</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>68754</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>396154</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="35">
         <f>MAX(ventas[cantidad])</f>
         <v>34</v>
       </c>
@@ -5363,29 +10399,32 @@
         <v>10</v>
       </c>
       <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
         <v>7</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>5600</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>39200</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>8232</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K5" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>47432</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="34">
         <f>MODE(ventas[codigo])</f>
         <v>10</v>
       </c>
@@ -5396,29 +10435,32 @@
         <v>10</v>
       </c>
       <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
         <v>34</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>5600</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>190400</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>39984</v>
       </c>
-      <c r="J6" s="9">
+      <c r="K6" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>230384</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="36">
         <f>MAX(ventas[total])</f>
         <v>2097152</v>
       </c>
@@ -5429,29 +10471,32 @@
         <v>20</v>
       </c>
       <c r="F7" s="7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7">
         <v>12</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>65480</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>785760</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>165009.60000000001</v>
       </c>
-      <c r="J7" s="9">
+      <c r="K7" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>950769.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="37">
         <f>MIN(ventas[total])</f>
         <v>8192</v>
       </c>
@@ -5464,27 +10509,30 @@
       <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8">
         <v>4096</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>16384</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>3440.64</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K8" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>19824.64</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="36">
         <f>AVERAGE(ventas[total])</f>
         <v>318589.3293333333</v>
       </c>
@@ -5495,29 +10543,32 @@
         <v>40</v>
       </c>
       <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
         <v>8</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>32768</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>262144</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>55050.239999999998</v>
       </c>
-      <c r="J9" s="9">
+      <c r="K9" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>317194.23999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="38">
         <f>MEDIAN(ventas[total])</f>
         <v>81920</v>
       </c>
@@ -5530,23 +10581,26 @@
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8">
         <v>1048576</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>2097152</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>440401.91999999998</v>
       </c>
-      <c r="J10" s="9">
+      <c r="K10" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>2537553.9199999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>10</v>
       </c>
@@ -5554,25 +10608,34 @@
         <v>15</v>
       </c>
       <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
         <v>5</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>16384</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>81920</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>17203.2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="K11" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>99123.199999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>193</v>
+      </c>
       <c r="D12">
         <v>11</v>
       </c>
@@ -5580,25 +10643,34 @@
         <v>25</v>
       </c>
       <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>8192</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>8192</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>1720.32</v>
       </c>
-      <c r="J12" s="9">
+      <c r="K12" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>9912.32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="33">
+        <v>2786499</v>
+      </c>
       <c r="D13">
         <v>12</v>
       </c>
@@ -5606,25 +10678,34 @@
         <v>30</v>
       </c>
       <c r="F13" s="7">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>25399.99</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>76199.97</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>16001.993699999999</v>
       </c>
-      <c r="J13" s="9">
+      <c r="K13" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>92201.963699999993</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="33">
+        <v>5923800</v>
+      </c>
       <c r="D14">
         <v>13</v>
       </c>
@@ -5632,25 +10713,34 @@
         <v>33</v>
       </c>
       <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7">
         <v>8</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>65536</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>524288</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="9">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>110100.48</v>
       </c>
-      <c r="J14" s="9">
+      <c r="K14" s="9">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>634388.47999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="33">
+        <v>3486000</v>
+      </c>
       <c r="D15">
         <v>14</v>
       </c>
@@ -5660,23 +10750,32 @@
       <c r="F15" s="11">
         <v>4</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
+        <v>4</v>
+      </c>
+      <c r="H15" s="12">
         <v>65480</v>
       </c>
-      <c r="H15" s="13">
+      <c r="I15" s="13">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>261920</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J15" s="13">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>55003.199999999997</v>
       </c>
-      <c r="J15" s="13">
+      <c r="K15" s="13">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>316923.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="33">
+        <v>567299</v>
+      </c>
       <c r="D16" s="11">
         <v>15</v>
       </c>
@@ -5684,602 +10783,778 @@
         <v>26</v>
       </c>
       <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11">
         <v>5</v>
       </c>
-      <c r="G16" s="12">
+      <c r="H16" s="12">
         <v>4096</v>
       </c>
-      <c r="H16" s="13">
+      <c r="I16" s="13">
         <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
         <v>20480</v>
       </c>
-      <c r="I16" s="13">
+      <c r="J16" s="13">
         <f>ventas[[#This Row],[total]]*IVA</f>
         <v>4300.8</v>
       </c>
-      <c r="J16" s="13">
+      <c r="K16" s="13">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</f>
         <v>24780.799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="33">
+        <v>1200576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="33">
+        <v>2868600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="33">
+        <v>8725320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="33">
+        <v>548100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="33">
+        <v>3756980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="33">
+        <f>SUM(ventas[total])</f>
+        <v>4778839.9399999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>50000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+      <formula>100000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>50000</formula>
+      <formula>100000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1:B1" location="menu!A1" display="volver al inicio" xr:uid="{C5D741B1-7E52-474E-9126-D9E1C4C8B51B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA646FC-82A8-41CA-871F-23683B80785F}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="8" width="0.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="14" style="16" customWidth="1"/>
+    <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="22"/>
       <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Cristian Damian,Racedo</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Racedo</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Cristian Damian</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>22</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>33346</v>
       </c>
-      <c r="J2" s="15">
+      <c r="K2" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>31.564383561643837</v>
       </c>
-      <c r="K2" s="16">
+      <c r="L2" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>35336446</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>5</v>
       </c>
+      <c r="Q2" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>2</v>
+      </c>
+      <c r="R2" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>273344</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="39">
         <f ca="1">TODAY()</f>
         <v>44867</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Martinez, Mariano</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Mariano</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Martinez</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>9</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>17</v>
       </c>
-      <c r="I3" s="14">
+      <c r="J3" s="14">
         <v>31710</v>
       </c>
-      <c r="J3" s="15">
+      <c r="K3" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>36.046575342465751</v>
       </c>
-      <c r="K3" s="16">
+      <c r="L3" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>71</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>24717271</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>9</v>
       </c>
+      <c r="Q3" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>3</v>
+      </c>
+      <c r="R3" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>2193831.9700000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="34">
         <f ca="1">DAY(B3)</f>
         <v>2</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Belen,    Tambella</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Tambella</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Belen</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>18</v>
       </c>
-      <c r="I4" s="14">
+      <c r="J4" s="14">
         <v>33674</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>30.665753424657535</v>
       </c>
-      <c r="K4" s="16">
+      <c r="L4" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>30</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>36806507</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>1</v>
       </c>
+      <c r="Q4" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>4</v>
+      </c>
+      <c r="R4" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>1431168</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="35">
         <f ca="1">MONTH(B3)</f>
         <v>11</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Francisca, Casas</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Casas</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Francisca</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>16</v>
       </c>
-      <c r="I5" s="14">
+      <c r="J5" s="14">
         <v>35297</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>26.219178082191782</v>
       </c>
-      <c r="K5" s="16">
+      <c r="L5" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>26</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>69</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>94975900</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>3</v>
       </c>
+      <c r="Q5" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>2</v>
+      </c>
+      <c r="R5" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>278304</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="34">
         <f ca="1">YEAR(B3)</f>
         <v>2022</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Romina,  Gurruchaga</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Gurruchaga</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Romina</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>19</v>
       </c>
-      <c r="I6" s="14">
+      <c r="J6" s="14">
         <v>33708</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>30.572602739726026</v>
       </c>
-      <c r="K6" s="16">
+      <c r="L6" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>30</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>36873001</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>7</v>
       </c>
+      <c r="Q6" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>3</v>
+      </c>
+      <c r="R6" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>525992</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="40">
         <f ca="1">NOW()</f>
-        <v>44867.70364803241</v>
-      </c>
-      <c r="D7" t="str">
+        <v>44867.747971180557</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Juan, Perez</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F7" t="str">
         <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Perez</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Juan</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>11</v>
       </c>
-      <c r="I7" s="14">
+      <c r="J7" s="14">
         <v>34109</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>29.473972602739725</v>
       </c>
-      <c r="K7" s="16">
+      <c r="L7" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>29</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>67</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>27423190</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>3</v>
       </c>
+      <c r="Q7" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>76199.97</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="34">
         <f ca="1">HOUR(B7)</f>
-        <v>16</v>
-      </c>
-      <c r="D8" t="str">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
         <f>presentismo[[#This Row],[Empleado]]</f>
         <v>Gonzalez, Gonzalo</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Gonzalo</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>Gonzalez</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>17</v>
       </c>
-      <c r="I8" s="14">
+      <c r="J8" s="14">
         <v>36526</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>22.852054794520548</v>
       </c>
-      <c r="K8" s="16">
+      <c r="L8" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>22</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>68</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>12839481</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>2</v>
       </c>
+      <c r="Q8" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="41">
         <f ca="1">MINUTE(B7)</f>
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="F9" s="4" t="str">
         <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Miguel</v>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="G9" s="4" t="str">
         <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>De la Cruz</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>11</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>18</v>
       </c>
-      <c r="I9" s="14">
+      <c r="J9" s="14">
         <v>26358</v>
       </c>
-      <c r="J9" s="15">
+      <c r="K9" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>50.709589041095889</v>
       </c>
-      <c r="K9" s="16">
+      <c r="L9" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>50</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="4" t="str">
+      <c r="N9" s="4" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="N9" s="4" t="str">
+      <c r="O9" s="4" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>16835460</v>
       </c>
-      <c r="O9" s="4" t="str">
+      <c r="P9" s="4" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>6</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <f ca="1">SECOND(B7)</f>
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="F10" s="4" t="str">
         <f>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</f>
         <v>Joan</v>
       </c>
-      <c r="F10" s="4" t="str">
+      <c r="G10" s="4" t="str">
         <f>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</f>
         <v>d'Arc</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>6</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>11</v>
       </c>
-      <c r="I10" s="14">
+      <c r="J10" s="14">
         <v>21938</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
         <v>62.819178082191783</v>
       </c>
-      <c r="K10" s="16">
+      <c r="L10" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>62</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="4" t="str">
+      <c r="N10" s="4" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="N10" s="4" t="str">
+      <c r="O10" s="4" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>12850734</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="P10" s="4" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>2</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6300,18 +11575,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995329D2-6704-4347-93F2-81F7E9527D06}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571A5DA-38EE-4544-A6D7-DF8E3710B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52D1DC3-0F43-41F0-AFB1-5C76675C7710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{3E9C49A6-A9BE-4135-BB45-FA066360A8CA}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="4" r:id="rId1"/>
     <sheet name="presentismo" sheetId="1" r:id="rId2"/>
-    <sheet name="Productos" sheetId="6" r:id="rId3"/>
-    <sheet name="ventas" sheetId="2" r:id="rId4"/>
-    <sheet name="datos" sheetId="3" r:id="rId5"/>
-    <sheet name="estadisticas" sheetId="5" r:id="rId6"/>
+    <sheet name="D.Productos" sheetId="7" r:id="rId3"/>
+    <sheet name="Productos" sheetId="6" r:id="rId4"/>
+    <sheet name="D.Ventas" sheetId="8" r:id="rId5"/>
+    <sheet name="ventas" sheetId="2" r:id="rId6"/>
+    <sheet name="D.datos" sheetId="11" r:id="rId7"/>
+    <sheet name="datos" sheetId="3" r:id="rId8"/>
+    <sheet name="estadisticas" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="año">datos!$B$6</definedName>
@@ -31,14 +34,19 @@
     <definedName name="mes">datos!$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="24" r:id="rId10"/>
+    <pivotCache cacheId="25" r:id="rId11"/>
+    <pivotCache cacheId="101" r:id="rId12"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId7"/>
-        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="211">
   <si>
     <t>Empleado</t>
   </si>
@@ -462,9 +470,6 @@
     <t>Campera de Jean</t>
   </si>
   <si>
-    <t>Capera de Cuero</t>
-  </si>
-  <si>
     <t>Parabrisas</t>
   </si>
   <si>
@@ -640,17 +645,72 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Campera de Cuero</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>Marcas</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>venta</t>
+  </si>
+  <si>
+    <t>empleado</t>
+  </si>
+  <si>
+    <t>cantidades</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Racedo</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>Abel Alejandro</t>
+  </si>
+  <si>
+    <t>20-38885470-1</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>NAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -793,7 +853,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -850,6 +910,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -862,21 +934,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="65">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -911,42 +1013,11 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF8B3535"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1170,31 +1241,36 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1209,9 +1285,48 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1267,9 +1382,63 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1310,6 +1479,18 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF8B3535"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1376,6 +1557,13 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1476,126 +1664,33 @@
             <c:strRef>
               <c:f>Productos!$E$2:$E$41</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Jean Levis</c:v>
+                  <c:v>Mesa</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mesa</c:v>
+                  <c:v>Decoracion</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Decoracion</c:v>
+                  <c:v>Sillon</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iPhone 20g</c:v>
+                  <c:v>Cubiertos</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Licuadora</c:v>
+                  <c:v>Platos</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Horno Electronico</c:v>
+                  <c:v>Alfombra</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Bufanda</c:v>
+                  <c:v>Cortinas</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ebook</c:v>
+                  <c:v>Placard</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Lentes</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sillon</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Anteojos</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Espejo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Cubiertos</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Remera</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Batidora</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Platos</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Alfombra</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Cortinas</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Placard</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Heladera</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>Modular</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Sombrero</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Guantes</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Tarjeta Grafica</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Teclado Mecanico</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Humidificador</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Zapatos</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Motor</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Automovil</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Monitor</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Tostadora</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Mouse Inalambrico</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Tablet 10"</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Neumaticos</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Parabrisas</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Cubiertas</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Capera de Cuero</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Campera de Jean</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Secarropas</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Lavarropas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1605,48 +1700,18 @@
               <c:f>Productos!$I$2:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8500</c:v>
+                  <c:v>7594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7594</c:v>
+                  <c:v>9584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9584</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7690</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2349</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2934</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2348</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,8 +1908,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.4285714285714279E-2"/>
-          <c:y val="3.6459675972237385E-2"/>
+          <c:x val="5.0174629629629632E-2"/>
+          <c:y val="3.6459567901234564E-2"/>
           <c:w val="0.92351590412431916"/>
           <c:h val="0.81434895328531109"/>
         </c:manualLayout>
@@ -2066,6 +2131,50 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-04B2-4E39-838A-C041714355DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-8EC6-43D2-9F84-B5F42F7F15D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-8EC6-43D2-9F84-B5F42F7F15D0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2939,10 +3048,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>datos!$R$2:$R$10</c:f>
+              <c:f>datos!$R$2:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>273344</c:v>
                 </c:pt>
@@ -2968,6 +3077,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3105,8 +3220,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46037959667852912"/>
-          <c:y val="1.7094017094017096E-2"/>
+          <c:x val="0.46037962962962964"/>
+          <c:y val="1.4151234567901241E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3539,9 +3654,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>datos!$F$2:$F$10</c:f>
+              <c:f>datos!$F$2:$F$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Racedo</c:v>
                 </c:pt>
@@ -3569,15 +3684,21 @@
                 <c:pt idx="8">
                   <c:v>Joan</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>Racedo</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Miguel</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>datos!$Q$2:$Q$10</c:f>
+              <c:f>datos!$Q$2:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3603,6 +3724,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3646,9 +3773,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>datos!$F$2:$F$10</c:f>
+              <c:f>datos!$F$2:$F$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Racedo</c:v>
                 </c:pt>
@@ -3676,15 +3803,21 @@
                 <c:pt idx="8">
                   <c:v>Joan</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>Racedo</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Miguel</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>datos!$R$2:$R$10</c:f>
+              <c:f>datos!$R$2:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>273344</c:v>
                 </c:pt>
@@ -3710,6 +3843,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3896,6 +4035,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1697621904"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6671,77 +6811,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89298</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>17858</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5334000" cy="540000"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CuadroTexto 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C829E3-5663-448F-93F6-B5842E07720E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2375298" y="6137671"/>
-          <a:ext cx="5334000" cy="540000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-AR" sz="900">
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="http://major.io/2014/08/08/use-gist-gem-github-enterprise-github-com"/>
-            </a:rPr>
-            <a:t>Esta foto</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="900"/>
-            <a:t> de Autor desconocido está bajo licencia </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="900">
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28" tooltip="https://creativecommons.org/licenses/by-sa/3.0/"/>
-            </a:rPr>
-            <a:t>CC BY-SA</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -6758,7 +6827,7 @@
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Grupo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB95D7A7-6439-4F7A-BEAB-8B19B54DBD38}"/>
@@ -6769,7 +6838,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3420261" y="857939"/>
+          <a:off x="3422131" y="857160"/>
           <a:ext cx="462829" cy="490250"/>
           <a:chOff x="3418661" y="859859"/>
           <a:chExt cx="462829" cy="490250"/>
@@ -7010,15 +7079,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>27842</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7054,8 +7123,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1" y="306265"/>
-              <a:ext cx="1538654" cy="1217735"/>
+              <a:off x="0" y="278423"/>
+              <a:ext cx="1524000" cy="1223596"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7088,15 +7157,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>157531</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>124558</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7132,8 +7201,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1" y="1578954"/>
-              <a:ext cx="1553308" cy="1300527"/>
+              <a:off x="0" y="1498358"/>
+              <a:ext cx="1524000" cy="1447065"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7397,15 +7466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>282718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>66000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>188968</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7433,15 +7502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>70138</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>281853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136138</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>188103</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7470,14 +7539,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>187036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>66000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>188536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7507,15 +7576,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>70139</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>187902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136139</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>189402</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7545,6 +7614,1510 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="EducacionIT" refreshedDate="44874.642604398148" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="40" xr:uid="{4888172C-5177-4E48-9B94-8297466EC2A6}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="productos"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="codigo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="40" count="40">
+        <n v="40"/>
+        <n v="39"/>
+        <n v="38"/>
+        <n v="37"/>
+        <n v="36"/>
+        <n v="35"/>
+        <n v="34"/>
+        <n v="33"/>
+        <n v="32"/>
+        <n v="31"/>
+        <n v="30"/>
+        <n v="29"/>
+        <n v="28"/>
+        <n v="27"/>
+        <n v="26"/>
+        <n v="25"/>
+        <n v="24"/>
+        <n v="23"/>
+        <n v="22"/>
+        <n v="21"/>
+        <n v="20"/>
+        <n v="19"/>
+        <n v="18"/>
+        <n v="17"/>
+        <n v="16"/>
+        <n v="15"/>
+        <n v="14"/>
+        <n v="13"/>
+        <n v="12"/>
+        <n v="11"/>
+        <n v="10"/>
+        <n v="9"/>
+        <n v="8"/>
+        <n v="7"/>
+        <n v="6"/>
+        <n v="5"/>
+        <n v="4"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="articulo" numFmtId="0">
+      <sharedItems count="40">
+        <s v="Jean Levis"/>
+        <s v="Mesa"/>
+        <s v="Decoracion"/>
+        <s v="iPhone 20g"/>
+        <s v="Licuadora"/>
+        <s v="Horno Electronico"/>
+        <s v="Bufanda"/>
+        <s v="ebook"/>
+        <s v="Lentes"/>
+        <s v="Sillon"/>
+        <s v="Anteojos"/>
+        <s v="Espejo"/>
+        <s v="Cubiertos"/>
+        <s v="Remera"/>
+        <s v="Batidora"/>
+        <s v="Platos"/>
+        <s v="Alfombra"/>
+        <s v="Cortinas"/>
+        <s v="Placard"/>
+        <s v="Heladera"/>
+        <s v="Modular"/>
+        <s v="Sombrero"/>
+        <s v="Guantes"/>
+        <s v="Tarjeta Grafica"/>
+        <s v="Teclado Mecanico"/>
+        <s v="Humidificador"/>
+        <s v="Zapatos"/>
+        <s v="Motor"/>
+        <s v="Automovil"/>
+        <s v="Monitor"/>
+        <s v="Tostadora"/>
+        <s v="Mouse Inalambrico"/>
+        <s v="Tablet 10&quot;"/>
+        <s v="Neumaticos"/>
+        <s v="Parabrisas"/>
+        <s v="Cubiertas"/>
+        <s v="Campera de Cuero"/>
+        <s v="Campera de Jean"/>
+        <s v="Secarropas"/>
+        <s v="Lavarropas"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Categoria" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Indumentaria"/>
+        <s v="Hogar"/>
+        <s v="Tecnologia"/>
+        <s v="Electrodomestico"/>
+        <s v="Automotor"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Marca" numFmtId="0">
+      <sharedItems count="19">
+        <s v="Levis"/>
+        <s v="Easy"/>
+        <s v="Apple"/>
+        <s v="Phillips"/>
+        <s v="Pucci"/>
+        <s v="Raven"/>
+        <s v="Bridgestone"/>
+        <s v="HP"/>
+        <s v="Liliana"/>
+        <s v="Tophouse"/>
+        <s v="Prada"/>
+        <s v="LV"/>
+        <s v="Nvidia"/>
+        <s v="samsung"/>
+        <s v="atma"/>
+        <s v="Firestone"/>
+        <s v="Fate"/>
+        <s v="Bross"/>
+        <s v="Drean"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="precio" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3000" maxValue="1048576"/>
+    </cacheField>
+    <cacheField name="stock" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="9584"/>
+    </cacheField>
+    <cacheField name="situacion" numFmtId="0">
+      <sharedItems count="2">
+        <s v="vender"/>
+        <s v="reponer"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="EducacionIT" refreshedDate="44874.656428703704" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="15" xr:uid="{7ABA6A33-6BF2-4FA2-8A48-522B6C92E06F}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="ventas"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="N°" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15" count="15">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="codigo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="40" count="9">
+        <n v="10"/>
+        <n v="30"/>
+        <n v="20"/>
+        <n v="26"/>
+        <n v="40"/>
+        <n v="12"/>
+        <n v="15"/>
+        <n v="25"/>
+        <n v="33"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Empleado" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="5"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cantidad" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="34"/>
+    </cacheField>
+    <cacheField name="precio" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4096" maxValue="1048576"/>
+    </cacheField>
+    <cacheField name="total" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8192" maxValue="2097152"/>
+    </cacheField>
+    <cacheField name="valor iva" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1720.32" maxValue="440401.91999999998"/>
+    </cacheField>
+    <cacheField name="final" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9912.32" maxValue="2537553.9199999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="EducacionIT" refreshedDate="44874.672519791668" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="11" xr:uid="{E167D5E9-7551-443F-9142-868900141FAB}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="datos"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="Cod" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="11"/>
+    </cacheField>
+    <cacheField name="Empleado" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="APELLIDOS" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Racedo"/>
+        <s v="Mariano"/>
+        <s v="Tambella"/>
+        <s v="Casas"/>
+        <s v="Gurruchaga"/>
+        <s v="Perez"/>
+        <s v="Gonzalo"/>
+        <s v="Miguel"/>
+        <s v="Joan"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="NOMBRES" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Cristian Damian"/>
+        <s v="Martinez"/>
+        <s v="Belen"/>
+        <s v="Francisca"/>
+        <s v="Romina"/>
+        <s v="Juan"/>
+        <s v="Gonzalez"/>
+        <s v="De la Cruz"/>
+        <s v="d'Arc"/>
+        <s v="Abel Alejandro"/>
+        <s v="Angel"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SEPARADOR" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="16"/>
+    </cacheField>
+    <cacheField name="LARGO" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="11" maxValue="22"/>
+    </cacheField>
+    <cacheField name="NACIMIENTO" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1960-01-23T00:00:00" maxDate="2000-01-02T00:00:00"/>
+    </cacheField>
+    <cacheField name="EDAD" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="22.87123287671233" maxValue="62.838356164383562"/>
+    </cacheField>
+    <cacheField name="AÑOS" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="62"/>
+    </cacheField>
+    <cacheField name="CUIL" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="G" numFmtId="0">
+      <sharedItems count="3">
+        <s v="20"/>
+        <s v="27"/>
+        <s v=""/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="V" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Ventas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Recaudado" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2193831.9700000002"/>
+    </cacheField>
+    <cacheField name="NAC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1960" maxValue="2000" count="9">
+        <n v="1991"/>
+        <n v="1986"/>
+        <n v="1992"/>
+        <n v="1996"/>
+        <n v="1993"/>
+        <n v="2000"/>
+        <n v="1972"/>
+        <n v="1960"/>
+        <n v="1980"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32768"/>
+    <n v="8500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="56470"/>
+    <n v="7594"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="95870"/>
+    <n v="9584"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="543200"/>
+    <n v="7690"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="34000"/>
+    <n v="300"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="50199.99"/>
+    <n v="4000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8400"/>
+    <n v="2349"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="65536"/>
+    <n v="2500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="23400"/>
+    <n v="2934"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="25399.99"/>
+    <n v="500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="46700"/>
+    <n v="500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="12400"/>
+    <n v="349"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12800"/>
+    <n v="2348"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4096"/>
+    <n v="4200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="8192"/>
+    <n v="800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="63200"/>
+    <n v="2349"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="3000"/>
+    <n v="2384"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="6200"/>
+    <n v="2348"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="120420"/>
+    <n v="3849"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="65480"/>
+    <n v="3400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="87500"/>
+    <n v="68"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="120569.99"/>
+    <n v="2347"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="45380"/>
+    <n v="2348"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="12"/>
+    <n v="67800"/>
+    <n v="5849"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="16384"/>
+    <n v="600"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="6700"/>
+    <n v="6500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="56270"/>
+    <n v="832"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="520920"/>
+    <n v="2938"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1048576"/>
+    <n v="200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="54780"/>
+    <n v="2894"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5600"/>
+    <n v="1000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="8200"/>
+    <n v="6000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="43560"/>
+    <n v="2500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="4"/>
+    <x v="15"/>
+    <n v="250328"/>
+    <n v="200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="4"/>
+    <x v="15"/>
+    <n v="42000"/>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="4"/>
+    <x v="16"/>
+    <n v="54600"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="17"/>
+    <n v="25600"/>
+    <n v="2500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25780"/>
+    <n v="1500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="3"/>
+    <x v="18"/>
+    <n v="56700"/>
+    <n v="3500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="3"/>
+    <x v="18"/>
+    <n v="150548"/>
+    <n v="2000"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="5600"/>
+    <n v="11200"/>
+    <n v="2352"/>
+    <n v="13552"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="25399.99"/>
+    <n v="76199.97"/>
+    <n v="16001.993699999999"/>
+    <n v="92201.963699999993"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="65480"/>
+    <n v="327400"/>
+    <n v="68754"/>
+    <n v="396154"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="5600"/>
+    <n v="39200"/>
+    <n v="8232"/>
+    <n v="47432"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="34"/>
+    <n v="5600"/>
+    <n v="190400"/>
+    <n v="39984"/>
+    <n v="230384"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="65480"/>
+    <n v="785760"/>
+    <n v="165009.60000000001"/>
+    <n v="950769.6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="4096"/>
+    <n v="16384"/>
+    <n v="3440.64"/>
+    <n v="19824.64"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="32768"/>
+    <n v="262144"/>
+    <n v="55050.239999999998"/>
+    <n v="317194.23999999999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1048576"/>
+    <n v="2097152"/>
+    <n v="440401.91999999998"/>
+    <n v="2537553.9199999999"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="16384"/>
+    <n v="81920"/>
+    <n v="17203.2"/>
+    <n v="99123.199999999997"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="8192"/>
+    <n v="8192"/>
+    <n v="1720.32"/>
+    <n v="9912.32"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="25399.99"/>
+    <n v="76199.97"/>
+    <n v="16001.993699999999"/>
+    <n v="92201.963699999993"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="65536"/>
+    <n v="524288"/>
+    <n v="110100.48"/>
+    <n v="634388.47999999998"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="65480"/>
+    <n v="261920"/>
+    <n v="55003.199999999997"/>
+    <n v="316923.2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="4096"/>
+    <n v="20480"/>
+    <n v="4300.8"/>
+    <n v="24780.799999999999"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
+  <r>
+    <n v="1"/>
+    <s v="Cristian Damian,Racedo"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="22"/>
+    <d v="1991-04-18T00:00:00"/>
+    <n v="31.583561643835615"/>
+    <n v="31"/>
+    <s v="20-35336446-5"/>
+    <x v="0"/>
+    <s v="35336446"/>
+    <s v="5"/>
+    <n v="2"/>
+    <n v="273344"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Martinez, Mariano"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="17"/>
+    <d v="1986-10-25T00:00:00"/>
+    <n v="36.065753424657537"/>
+    <n v="36"/>
+    <s v="20-24717271-9"/>
+    <x v="0"/>
+    <s v="24717271"/>
+    <s v="9"/>
+    <n v="3"/>
+    <n v="2193831.9700000002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Belen,    Tambella"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="18"/>
+    <d v="1992-03-11T00:00:00"/>
+    <n v="30.684931506849313"/>
+    <n v="30"/>
+    <s v="27-36806507-1"/>
+    <x v="1"/>
+    <s v="36806507"/>
+    <s v="1"/>
+    <n v="4"/>
+    <n v="1431168"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Francisca, Casas"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="16"/>
+    <d v="1996-08-20T00:00:00"/>
+    <n v="26.238356164383561"/>
+    <n v="26"/>
+    <s v="27-94975900-3"/>
+    <x v="1"/>
+    <s v="94975900"/>
+    <s v="3"/>
+    <n v="2"/>
+    <n v="278304"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Romina,  Gurruchaga"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="19"/>
+    <d v="1992-04-14T00:00:00"/>
+    <n v="30.591780821917808"/>
+    <n v="30"/>
+    <s v="27-36873001-7"/>
+    <x v="1"/>
+    <s v="36873001"/>
+    <s v="7"/>
+    <n v="3"/>
+    <n v="525992"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Juan, Perez"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="5"/>
+    <n v="11"/>
+    <d v="1993-05-20T00:00:00"/>
+    <n v="29.493150684931507"/>
+    <n v="29"/>
+    <s v="20-27423190-3"/>
+    <x v="0"/>
+    <s v="27423190"/>
+    <s v="3"/>
+    <n v="1"/>
+    <n v="76199.97"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Gonzalez, Gonzalo"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="9"/>
+    <n v="17"/>
+    <d v="2000-01-01T00:00:00"/>
+    <n v="22.87123287671233"/>
+    <n v="22"/>
+    <s v="20-12839481-2"/>
+    <x v="0"/>
+    <s v="12839481"/>
+    <s v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="De la Cruz, Miguel"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="11"/>
+    <n v="18"/>
+    <d v="1972-02-29T00:00:00"/>
+    <n v="50.728767123287675"/>
+    <n v="50"/>
+    <s v="20-16835460-6"/>
+    <x v="0"/>
+    <s v="16835460"/>
+    <s v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="d'Arc, Joan"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="6"/>
+    <n v="11"/>
+    <d v="1960-01-23T00:00:00"/>
+    <n v="62.838356164383562"/>
+    <n v="62"/>
+    <s v="27-12850734-2"/>
+    <x v="1"/>
+    <s v="12850734"/>
+    <s v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <e v="#VALUE!"/>
+    <x v="0"/>
+    <x v="9"/>
+    <e v="#VALUE!"/>
+    <e v="#VALUE!"/>
+    <d v="1993-10-12T00:00:00"/>
+    <n v="29.095890410958905"/>
+    <n v="29"/>
+    <s v="20-38885470-1"/>
+    <x v="0"/>
+    <s v="38885470"/>
+    <s v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <e v="#VALUE!"/>
+    <x v="7"/>
+    <x v="10"/>
+    <e v="#VALUE!"/>
+    <e v="#VALUE!"/>
+    <d v="1980-12-25T00:00:00"/>
+    <n v="41.901369863013699"/>
+    <n v="42"/>
+    <m/>
+    <x v="2"/>
+    <s v=""/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="8"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78EA3227-C2F3-4FD1-AB52-277339338B50}" name="TablaDinámica1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Marcas" colHeaderCaption="Categorias">
+  <location ref="A3:C7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="41">
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="41">
+        <item x="16"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="17"/>
+        <item x="35"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="39"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="38"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="32"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item sd="0" x="2"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="7"/>
+        <item x="0"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item x="3"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="4"/>
+        <item x="5"/>
+        <item sd="0" x="13"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="21" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="stocks" fld="5" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2290D12-07BE-48F5-948B-7DEB486EF55E}" name="TablaDinámica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="empleado" colHeaderCaption="venta">
+  <location ref="A3:K13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="cantidades" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="26">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{503A6193-27A6-4D4F-AD02-968D1F346477}" name="TablaDinámica4" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="genero">
+  <location ref="A1:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item sd="0" x="3"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="4"/>
+        <item x="8"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="9"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item sd="0" x="7"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="15"/>
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="cantidad" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="categoria" xr10:uid="{1F4662AE-5878-4E28-A069-6249EE1303A1}" sourceName="Categoria">
   <extLst>
@@ -7567,13 +9140,13 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Categoria" xr10:uid="{66E9FA4D-D4EE-4227-900A-E05EF2115D4A}" cache="categoria" caption="Categoria" startItem="2" rowHeight="241300"/>
+  <slicer name="Categoria" xr10:uid="{66E9FA4D-D4EE-4227-900A-E05EF2115D4A}" cache="categoria" caption="Categoria" rowHeight="241300"/>
   <slicer name="Marca" xr10:uid="{8B807C09-7311-4953-B8B5-965803996B21}" cache="marca" caption="Marca" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="E1:AK9" totalsRowCount="1" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}" name="presentismo" displayName="presentismo" ref="E1:AK9" totalsRowCount="1" headerRowDxfId="63">
   <autoFilter ref="E1:AK8" xr:uid="{ABC39B5D-32B5-4255-83E1-E29C47CE9F2B}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{63E8AE85-7078-42EA-8049-5AA43D1477D3}" name="Empleado" totalsRowFunction="custom">
@@ -7585,25 +9158,25 @@
     <tableColumn id="3" xr3:uid="{13839942-7C3B-4C39-B28B-AC898EBACE02}" name="2/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[2/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="53">
+    <tableColumn id="4" xr3:uid="{9A72A611-7760-462B-A7C7-BD0D332F5CA9}" name="3/9/22" totalsRowFunction="custom" dataDxfId="62">
       <totalsRowFormula>COUNTBLANK(presentismo[3/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="52">
+    <tableColumn id="5" xr3:uid="{AC62A34A-0D01-470A-AB5F-268BDE4B1AD7}" name="4/9/22" totalsRowFunction="custom" dataDxfId="61">
       <totalsRowFormula>COUNTBLANK(presentismo[4/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="51">
+    <tableColumn id="6" xr3:uid="{39BC89E1-33D7-4B87-A051-3A42F7FD183C}" name="5/9/22" totalsRowFunction="custom" dataDxfId="60">
       <totalsRowFormula>COUNTBLANK(presentismo[5/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="50">
+    <tableColumn id="7" xr3:uid="{FD1A76DA-6C14-47F4-B7DE-192BC1144799}" name="6/9/22" totalsRowFunction="custom" dataDxfId="59">
       <totalsRowFormula>COUNTBLANK(presentismo[6/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="49">
+    <tableColumn id="8" xr3:uid="{72EE9BAD-45DB-49B3-BC94-2F2023604AC1}" name="7/9/22" totalsRowFunction="custom" dataDxfId="58">
       <totalsRowFormula>COUNTBLANK(presentismo[7/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="48">
+    <tableColumn id="9" xr3:uid="{AEB66E77-4AC8-4C77-84DC-301D9C357E10}" name="8/9/22" totalsRowFunction="custom" dataDxfId="57">
       <totalsRowFormula>COUNTBLANK(presentismo[8/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="47">
+    <tableColumn id="10" xr3:uid="{D7BBB940-F1FD-469E-99D4-E0E8F08DA48C}" name="9/9/22" totalsRowFunction="custom" dataDxfId="56">
       <totalsRowFormula>COUNTBLANK(presentismo[9/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{E013540E-F42C-4310-9BD2-372E388003A4}" name="10/9/22" totalsRowFunction="custom">
@@ -7624,34 +9197,34 @@
     <tableColumn id="16" xr3:uid="{36B417AE-F126-4023-BEBD-61D669212878}" name="15/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[15/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="46">
+    <tableColumn id="17" xr3:uid="{E12E6B64-259F-4DA7-B839-F31717D40A22}" name="16/9/22" totalsRowFunction="custom" dataDxfId="55">
       <totalsRowFormula>COUNTBLANK(presentismo[16/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="45">
+    <tableColumn id="18" xr3:uid="{58362C88-F69A-43C0-9D9A-684A8905968E}" name="17/9/22" totalsRowFunction="custom" dataDxfId="54">
       <totalsRowFormula>COUNTBLANK(presentismo[17/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="44">
+    <tableColumn id="19" xr3:uid="{C3058D62-1CAE-47E2-8346-A028F946A203}" name="18/9/22" totalsRowFunction="custom" dataDxfId="53">
       <totalsRowFormula>COUNTBLANK(presentismo[18/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="43">
+    <tableColumn id="20" xr3:uid="{A533AA87-A012-4B18-93F9-B7554A868A7C}" name="19/9/22" totalsRowFunction="custom" dataDxfId="52">
       <totalsRowFormula>COUNTBLANK(presentismo[19/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="42">
+    <tableColumn id="21" xr3:uid="{7D16EBB2-4A0A-40CE-B424-0DA3F09EB849}" name="20/9/22" totalsRowFunction="custom" dataDxfId="51">
       <totalsRowFormula>COUNTBLANK(presentismo[20/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="41">
+    <tableColumn id="22" xr3:uid="{27C05328-2466-48CF-AD99-1C66D6AF5B21}" name="21/9/22" totalsRowFunction="custom" dataDxfId="50">
       <totalsRowFormula>COUNTBLANK(presentismo[21/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="40">
+    <tableColumn id="23" xr3:uid="{7EA9120E-0252-4278-9845-2325FC6A55DB}" name="22/9/22" totalsRowFunction="custom" dataDxfId="49">
       <totalsRowFormula>COUNTBLANK(presentismo[22/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="39">
+    <tableColumn id="24" xr3:uid="{F327F5D0-2B53-4E47-9DB6-4B3AFEA7020F}" name="23/9/22" totalsRowFunction="custom" dataDxfId="48">
       <totalsRowFormula>COUNTBLANK(presentismo[23/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="38">
+    <tableColumn id="25" xr3:uid="{E2B3D0DD-E9FE-47CE-9300-9DEF701345F6}" name="24/9/22" totalsRowFunction="custom" dataDxfId="47">
       <totalsRowFormula>COUNTBLANK(presentismo[24/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="37">
+    <tableColumn id="26" xr3:uid="{624B1A60-489E-4F85-B8A7-06DD389AF174}" name="25/9/22" totalsRowFunction="custom" dataDxfId="46">
       <totalsRowFormula>COUNTBLANK(presentismo[25/9/22])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{AA931E08-C2D5-4EEC-882D-D051DE15F54E}" name="26/9/22" totalsRowFunction="custom">
@@ -7669,10 +9242,10 @@
     <tableColumn id="31" xr3:uid="{480A7E2D-67A4-4E7B-B27F-A24C65D91962}" name="30/9/22" totalsRowFunction="custom">
       <totalsRowFormula>COUNTBLANK(presentismo[30/9/22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="36">
+    <tableColumn id="32" xr3:uid="{133DF08D-95F8-4230-91B5-56B9A79C2352}" name="asist" totalsRowFunction="sum" dataDxfId="45">
       <calculatedColumnFormula>COUNTA(F2:AI2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="35">
+    <tableColumn id="33" xr3:uid="{133D5CC8-5838-4915-83E6-667360020595}" name="aus" totalsRowFunction="sum" dataDxfId="44">
       <calculatedColumnFormula>COUNTBLANK(F2:AI2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7681,7 +9254,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="A2:C9" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}" name="estadisticas" displayName="estadisticas" ref="A2:C9" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="A2:C9" xr:uid="{AC0E4641-B35C-4CD9-92FE-750A373E4194}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CE7D112E-6D17-4595-9933-39DA72A6ADB2}" name="Stats"/>
@@ -7693,19 +9266,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}" name="productos" displayName="productos" ref="D1:J41" totalsRowShown="0" dataDxfId="33">
-  <autoFilter ref="D1:J41" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}" name="productos" displayName="productos" ref="D1:J41" dataDxfId="41">
+  <autoFilter ref="D1:J41" xr:uid="{AB920C78-9DEE-4C21-9866-8D7ECF529580}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Hogar"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:J41">
     <sortCondition descending="1" ref="D1:D41"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3012A9A8-AE20-4298-B8CB-C0983B19D012}" name="codigo" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{EFD9D99E-4714-460C-BF3B-2AC4F0DC0D41}" name="articulo" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{6A4244FB-64CF-4A0B-908D-A7A94C4DC0B7}" name="Categoria" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{986E24C9-F192-43AE-A3FD-86BBAF8115E7}" name="Marca" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{4139A4ED-29D5-4CB4-816A-1F8F1F44530E}" name="precio" dataDxfId="28" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{E0155690-A444-4800-BCC9-F087E550EB12}" name="stock" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{E24F15B3-2387-4EEC-A12C-A07036A858E4}" name="situacion" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{3012A9A8-AE20-4298-B8CB-C0983B19D012}" name="codigo" totalsRowLabel="Total" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{EFD9D99E-4714-460C-BF3B-2AC4F0DC0D41}" name="articulo" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{6A4244FB-64CF-4A0B-908D-A7A94C4DC0B7}" name="Categoria" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{986E24C9-F192-43AE-A3FD-86BBAF8115E7}" name="Marca" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{4139A4ED-29D5-4CB4-816A-1F8F1F44530E}" name="precio" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{E0155690-A444-4800-BCC9-F087E550EB12}" name="stock" totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{E24F15B3-2387-4EEC-A12C-A07036A858E4}" name="situacion" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>IF(productos[[#This Row],[stock]]&gt;=3000,"vender","reponer")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7714,24 +9293,24 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:K16" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}" name="ventas" displayName="ventas" ref="D1:K16" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="D1:K16" xr:uid="{A1AA9159-1798-41AE-AFF3-57BB5EA4C1B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:K16">
     <sortCondition ref="D1:D16"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{4D469D01-2070-4A0E-A7F7-DAE78D72A40E}" name="Empleado" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="11" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{A381330E-F4A8-4BBD-BC64-9A73EEDCC392}" name="N°" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{F6E76D89-322E-4D75-A74E-68AF06F7DC96}" name="codigo" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{4D469D01-2070-4A0E-A7F7-DAE78D72A40E}" name="Empleado" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{353A13BB-3BAF-4C06-84B7-15F34265E66A}" name="cantidad" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{C670BE43-C0CE-469D-BC40-FE36881E39EE}" name="precio" dataDxfId="17" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{50C45626-2809-4E8F-B36B-CB4DC8B3CF65}" name="total" dataDxfId="16">
       <calculatedColumnFormula>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{52CA682E-6371-4436-B810-96AF5C14054D}" name="valor iva" dataDxfId="15">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*IVA</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{24C973B9-A956-4128-BB6E-482433A106CB}" name="final" dataDxfId="14">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[valor iva]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7740,58 +9319,61 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C8059272-EFFD-413A-B27A-5AE10C015DCA}" name="Tabla6" displayName="Tabla6" ref="A12:B22" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C8059272-EFFD-413A-B27A-5AE10C015DCA}" name="Tabla6" displayName="Tabla6" ref="A12:B22" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A12:B22" xr:uid="{C8059272-EFFD-413A-B27A-5AE10C015DCA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7F214FDA-80EF-4898-9A6B-920CC82C4117}" name="Mes"/>
-    <tableColumn id="2" xr3:uid="{689FDF2F-4D46-4E15-855D-8F9DD5E8BEDB}" name="Total" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{689FDF2F-4D46-4E15-855D-8F9DD5E8BEDB}" name="Total" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="datos" displayName="datos" ref="D1:R10" totalsRowShown="0">
-  <autoFilter ref="D1:R10" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}" name="datos" displayName="datos" ref="D1:S12" totalsRowShown="0">
+  <autoFilter ref="D1:S12" xr:uid="{060AA4B2-FF21-487E-8D52-AA51A2DABCAE}"/>
+  <tableColumns count="16">
     <tableColumn id="15" xr3:uid="{0F3AF9C1-CDB6-4AAB-A767-4F89B616CF90}" name="Cod"/>
-    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{03647A69-AB09-4546-9A35-01FA5748E881}" name="Empleado" dataDxfId="11">
       <calculatedColumnFormula>presentismo[[#This Row],[Empleado]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="APELLIDOS" dataDxfId="25">
+    <tableColumn id="2" xr3:uid="{FD070192-FBFB-4B5F-891C-4B781E8A5CE1}" name="APELLIDOS" dataDxfId="10">
       <calculatedColumnFormula>TRIM(RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[LARGO]] - (datos[[#This Row],[SEPARADOR]] )))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="NOMBRES" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{8D99A318-2A34-4385-91F0-D58E9DC1BA52}" name="NOMBRES" dataDxfId="9">
       <calculatedColumnFormula>TRIM(LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[SEPARADOR]] - 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="SEPARADOR" dataDxfId="23">
+    <tableColumn id="11" xr3:uid="{5B59A7AC-F2FF-4996-A456-5F560134E495}" name="SEPARADOR" dataDxfId="8">
       <calculatedColumnFormula>FIND(char,datos[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="LARGO" dataDxfId="22">
+    <tableColumn id="10" xr3:uid="{FECA3361-4790-44C8-853D-4D9FCFFEA811}" name="LARGO" dataDxfId="7">
       <calculatedColumnFormula>LEN(datos[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7FAAF893-41DD-4433-9412-06936F9828E5}" name="NACIMIENTO"/>
-    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="EDAD" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{07169215-0BC4-44E9-856D-395AE2C6EBC8}" name="EDAD" dataDxfId="6">
       <calculatedColumnFormula>(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{01515EC2-7B72-403E-A547-32DCA5CEAE28}" name="AÑOS" dataDxfId="20">
+    <tableColumn id="14" xr3:uid="{01515EC2-7B72-403E-A547-32DCA5CEAE28}" name="AÑOS" dataDxfId="5">
       <calculatedColumnFormula>año - YEAR(datos[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{F74EB26B-27B2-49FB-9BCC-72F74AE29654}" name="CUIL"/>
-    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{2805789B-91CA-409C-BDAB-62BB352F0D98}" name="G" dataDxfId="4">
       <calculatedColumnFormula>LEFT(datos[[#This Row],[CUIL]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{14DD5C08-8CFD-42C3-BE14-A5CF04E19F9E}" name="ID" dataDxfId="3">
       <calculatedColumnFormula>MID(datos[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{C8B77CAE-4CF5-4504-96D2-38F6205616D6}" name="V" dataDxfId="2">
       <calculatedColumnFormula>RIGHT(datos[[#This Row],[CUIL]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A491D3F6-002A-4B02-B028-EBCA76DED861}" name="Ventas" dataDxfId="6">
+    <tableColumn id="12" xr3:uid="{A491D3F6-002A-4B02-B028-EBCA76DED861}" name="Ventas" dataDxfId="1">
       <calculatedColumnFormula>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{787C7548-5283-459C-B371-9415455985DB}" name="Recaudado" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{159705F5-8A56-4A05-B300-AE128FAEA30F}" name="NAC" dataDxfId="0">
+      <calculatedColumnFormula>YEAR(datos[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8097,8 +9679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D2F1C7-2AC9-4F12-98F3-C533C654056E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8107,7 +9689,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="17"/>
@@ -8116,7 +9698,7 @@
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="28" t="s">
         <v>96</v>
       </c>
@@ -8134,7 +9716,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="48" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="2"/>
@@ -8144,7 +9726,7 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="28" t="s">
         <v>99</v>
       </c>
@@ -8180,7 +9762,8 @@
     <hyperlink ref="F2" location="menu!A1" display="Inicio" xr:uid="{5A00CBE5-8C90-4CFE-8730-835C5DC6996E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -8188,11 +9771,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274D158F-7E6E-415D-AB2C-1E38F056A653}">
   <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AD9" activeCellId="3" sqref="I2:I9 P2:P9 W2:W9 AD2:AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8212,11 +9795,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8322,10 +9905,10 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
@@ -9124,6 +10707,126 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f>TEXT(presentismo[[#Headers],[1/9/22]],"ddd")</f>
+        <v>jue</v>
+      </c>
+      <c r="G10" t="str">
+        <f>TEXT(presentismo[[#Headers],[2/9/22]],"ddd")</f>
+        <v>vie</v>
+      </c>
+      <c r="H10" t="str">
+        <f>TEXT(presentismo[[#Headers],[3/9/22]],"ddd")</f>
+        <v>sáb</v>
+      </c>
+      <c r="I10" t="str">
+        <f>TEXT(presentismo[[#Headers],[4/9/22]],"ddd")</f>
+        <v>dom</v>
+      </c>
+      <c r="J10" t="str">
+        <f>TEXT(presentismo[[#Headers],[5/9/22]],"ddd")</f>
+        <v>lun</v>
+      </c>
+      <c r="K10" t="str">
+        <f>TEXT(presentismo[[#Headers],[6/9/22]],"ddd")</f>
+        <v>mar</v>
+      </c>
+      <c r="L10" t="str">
+        <f>TEXT(presentismo[[#Headers],[7/9/22]],"ddd")</f>
+        <v>mié</v>
+      </c>
+      <c r="M10" t="str">
+        <f>TEXT(presentismo[[#Headers],[8/9/22]],"ddd")</f>
+        <v>jue</v>
+      </c>
+      <c r="N10" t="str">
+        <f>TEXT(presentismo[[#Headers],[9/9/22]],"ddd")</f>
+        <v>vie</v>
+      </c>
+      <c r="O10" t="str">
+        <f>TEXT(presentismo[[#Headers],[10/9/22]],"ddd")</f>
+        <v>sáb</v>
+      </c>
+      <c r="P10" t="str">
+        <f>TEXT(presentismo[[#Headers],[11/9/22]],"ddd")</f>
+        <v>dom</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>TEXT(presentismo[[#Headers],[12/9/22]],"ddd")</f>
+        <v>lun</v>
+      </c>
+      <c r="R10" t="str">
+        <f>TEXT(presentismo[[#Headers],[13/9/22]],"ddd")</f>
+        <v>mar</v>
+      </c>
+      <c r="S10" t="str">
+        <f>TEXT(presentismo[[#Headers],[14/9/22]],"ddd")</f>
+        <v>mié</v>
+      </c>
+      <c r="T10" t="str">
+        <f>TEXT(presentismo[[#Headers],[15/9/22]],"ddd")</f>
+        <v>jue</v>
+      </c>
+      <c r="U10" t="str">
+        <f>TEXT(presentismo[[#Headers],[16/9/22]],"ddd")</f>
+        <v>vie</v>
+      </c>
+      <c r="V10" t="str">
+        <f>TEXT(presentismo[[#Headers],[17/9/22]],"ddd")</f>
+        <v>sáb</v>
+      </c>
+      <c r="W10" t="str">
+        <f>TEXT(presentismo[[#Headers],[18/9/22]],"ddd")</f>
+        <v>dom</v>
+      </c>
+      <c r="X10" t="str">
+        <f>TEXT(presentismo[[#Headers],[19/9/22]],"ddd")</f>
+        <v>lun</v>
+      </c>
+      <c r="Y10" t="str">
+        <f>TEXT(presentismo[[#Headers],[20/9/22]],"ddd")</f>
+        <v>mar</v>
+      </c>
+      <c r="Z10" t="str">
+        <f>TEXT(presentismo[[#Headers],[21/9/22]],"ddd")</f>
+        <v>mié</v>
+      </c>
+      <c r="AA10" t="str">
+        <f>TEXT(presentismo[[#Headers],[22/9/22]],"ddd")</f>
+        <v>jue</v>
+      </c>
+      <c r="AB10" t="str">
+        <f>TEXT(presentismo[[#Headers],[9/9/22]],"ddd")</f>
+        <v>vie</v>
+      </c>
+      <c r="AC10" t="str">
+        <f>TEXT(presentismo[[#Headers],[10/9/22]],"ddd")</f>
+        <v>sáb</v>
+      </c>
+      <c r="AD10" t="str">
+        <f>TEXT(presentismo[[#Headers],[11/9/22]],"ddd")</f>
+        <v>dom</v>
+      </c>
+      <c r="AE10" t="str">
+        <f>TEXT(presentismo[[#Headers],[12/9/22]],"ddd")</f>
+        <v>lun</v>
+      </c>
+      <c r="AF10" t="str">
+        <f>TEXT(presentismo[[#Headers],[13/9/22]],"ddd")</f>
+        <v>mar</v>
+      </c>
+      <c r="AG10" t="str">
+        <f>TEXT(presentismo[[#Headers],[14/9/22]],"ddd")</f>
+        <v>mié</v>
+      </c>
+      <c r="AH10" t="str">
+        <f>TEXT(presentismo[[#Headers],[15/9/22]],"ddd")</f>
+        <v>jue</v>
+      </c>
+      <c r="AI10" t="str">
+        <f>TEXT(presentismo[[#Headers],[16/9/22]],"ddd")</f>
+        <v>vie</v>
+      </c>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
     </row>
@@ -9140,6 +10843,11 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="F10:AI10">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="dom">
+      <formula>NOT(ISERROR(SEARCH("dom",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1:C1" location="menu!A1" display="volver al inicio" xr:uid="{926951D3-E7E1-4669-A70E-43429D0EA1E6}"/>
   </hyperlinks>
@@ -9154,11 +10862,200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8B0F27-ACF8-4625-B755-A12AD835BFA4}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="40" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3849</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3849</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3849</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616E4083-2D4F-46A1-9719-B19D9D684BF4}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9172,10 +11069,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="29"/>
       <c r="D1" t="s">
         <v>43</v>
@@ -9199,7 +11096,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>40</v>
       </c>
@@ -9228,13 +11125,13 @@
         <v>39</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>125</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="26">
         <v>56470</v>
@@ -9252,13 +11149,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>125</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" s="26">
         <v>95870</v>
@@ -9271,18 +11168,18 @@
         <v>vender</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>37</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>122</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="26">
         <v>543200</v>
@@ -9295,12 +11192,12 @@
         <v>vender</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>36</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>121</v>
@@ -9319,12 +11216,12 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>121</v>
@@ -9343,18 +11240,18 @@
         <v>vender</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>34</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>123</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H8" s="26">
         <v>8400</v>
@@ -9367,7 +11264,7 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>33</v>
       </c>
@@ -9391,18 +11288,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>32</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>123</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="26">
         <v>23400</v>
@@ -9439,18 +11336,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>30</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="25">
         <v>46700</v>
@@ -9463,18 +11360,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>29</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="25">
         <v>12400</v>
@@ -9492,13 +11389,13 @@
         <v>28</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>125</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="25">
         <v>12800</v>
@@ -9511,7 +11408,7 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>27</v>
       </c>
@@ -9535,7 +11432,7 @@
         <v>vender</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>26</v>
       </c>
@@ -9564,13 +11461,13 @@
         <v>25</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>125</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H17" s="25">
         <v>63200</v>
@@ -9588,13 +11485,13 @@
         <v>24</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>125</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H18" s="25">
         <v>3000</v>
@@ -9612,13 +11509,13 @@
         <v>23</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>125</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" s="25">
         <v>6200</v>
@@ -9636,13 +11533,13 @@
         <v>22</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>125</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H20" s="25">
         <v>120420</v>
@@ -9655,7 +11552,7 @@
         <v>vender</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>21</v>
       </c>
@@ -9684,13 +11581,13 @@
         <v>20</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>125</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="25">
         <v>87500</v>
@@ -9703,18 +11600,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>19</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>123</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="25">
         <v>120569.99</v>
@@ -9727,18 +11624,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>18</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>123</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H24" s="25">
         <v>45380</v>
@@ -9751,18 +11648,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>17</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>122</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H25" s="25">
         <v>67800</v>
@@ -9775,7 +11672,7 @@
         <v>vender</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>16</v>
       </c>
@@ -9799,12 +11696,12 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>15</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>121</v>
@@ -9823,18 +11720,18 @@
         <v>vender</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>14</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>123</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H28" s="25">
         <v>56270</v>
@@ -9847,18 +11744,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>13</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>124</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H29" s="25">
         <v>520920</v>
@@ -9871,7 +11768,7 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>12</v>
       </c>
@@ -9895,18 +11792,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>11</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>122</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H31" s="25">
         <v>54780</v>
@@ -9919,7 +11816,7 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>10</v>
       </c>
@@ -9943,18 +11840,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
         <v>122</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H33" s="23">
         <v>8200</v>
@@ -9967,12 +11864,12 @@
         <v>vender</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
         <v>122</v>
@@ -9991,18 +11888,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
         <v>124</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H35" s="27">
         <v>250328</v>
@@ -10015,18 +11912,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
         <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H36" s="27">
         <v>42000</v>
@@ -10039,18 +11936,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
         <v>124</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H37" s="27">
         <v>54600</v>
@@ -10063,18 +11960,18 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
         <v>123</v>
       </c>
       <c r="G38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H38" s="27">
         <v>25600</v>
@@ -10087,7 +11984,7 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>3</v>
       </c>
@@ -10111,7 +12008,7 @@
         <v>reponer</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>2</v>
       </c>
@@ -10122,7 +12019,7 @@
         <v>121</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" s="27">
         <v>56700</v>
@@ -10135,7 +12032,7 @@
         <v>vender</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>1</v>
       </c>
@@ -10146,7 +12043,7 @@
         <v>121</v>
       </c>
       <c r="G41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="27">
         <v>150548</v>
@@ -10187,7 +12084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="reponer">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="reponer">
       <formula>NOT(ISERROR(SEARCH("reponer",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10221,15 +12118,346 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3FB050-B421-45F8-A54B-688D6B7D9949}">
+  <dimension ref="A3:K26"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="3.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>8</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <v>8</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="47">
+        <v>43</v>
+      </c>
+      <c r="C13" s="47">
+        <v>2</v>
+      </c>
+      <c r="D13" s="47">
+        <v>5</v>
+      </c>
+      <c r="E13" s="47">
+        <v>21</v>
+      </c>
+      <c r="F13" s="47">
+        <v>1</v>
+      </c>
+      <c r="G13" s="47">
+        <v>9</v>
+      </c>
+      <c r="H13" s="47">
+        <v>6</v>
+      </c>
+      <c r="I13" s="47">
+        <v>8</v>
+      </c>
+      <c r="J13" s="47">
+        <v>8</v>
+      </c>
+      <c r="K13" s="47">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A83380-975D-48C5-88E7-EB8DA010B416}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:B22"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10247,10 +12475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="22"/>
       <c r="D1" t="s">
         <v>56</v>
@@ -10631,10 +12859,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>192</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>193</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -10665,8 +12893,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>182</v>
+      <c r="A13" s="42" t="s">
+        <v>181</v>
       </c>
       <c r="B13" s="33">
         <v>2786499</v>
@@ -10701,7 +12929,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" s="33">
         <v>5923800</v>
@@ -10735,8 +12963,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>184</v>
+      <c r="A15" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="B15" s="33">
         <v>3486000</v>
@@ -10771,7 +12999,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="33">
         <v>567299</v>
@@ -10805,8 +13033,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>186</v>
+      <c r="A17" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="B17" s="33">
         <v>1200576</v>
@@ -10814,15 +13042,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="33">
         <v>2868600</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>188</v>
+      <c r="A19" s="42" t="s">
+        <v>187</v>
       </c>
       <c r="B19" s="33">
         <v>8725320</v>
@@ -10830,15 +13058,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="33">
         <v>548100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
-        <v>190</v>
+      <c r="A21" s="42" t="s">
+        <v>189</v>
       </c>
       <c r="B21" s="33">
         <v>3756980</v>
@@ -10846,7 +13074,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="33">
         <f>SUM(ventas[total])</f>
@@ -10859,13 +13087,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>50000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThanOrEqual">
       <formula>100000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="between">
       <formula>50000</formula>
       <formula>100000</formula>
     </cfRule>
@@ -10883,12 +13111,194 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BECD00-D020-42CE-8019-28E264014682}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1960</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>1972</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>1980</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>1986</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>1991</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>1992</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>1993</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>1996</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA646FC-82A8-41CA-871F-23683B80785F}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10909,18 +13319,19 @@
     <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="16" width="4.5703125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="22"/>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -10962,10 +13373,13 @@
         <v>97</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="S1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>72</v>
       </c>
@@ -11000,7 +13414,7 @@
       </c>
       <c r="K2" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>31.564383561643837</v>
+        <v>31.583561643835615</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
@@ -11029,14 +13443,18 @@
         <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
         <v>273344</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="39">
         <f ca="1">TODAY()</f>
-        <v>44867</v>
+        <v>44874</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -11066,7 +13484,7 @@
       </c>
       <c r="K3" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>36.046575342465751</v>
+        <v>36.065753424657537</v>
       </c>
       <c r="L3" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
@@ -11095,14 +13513,18 @@
         <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
         <v>2193831.9700000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="34">
         <f ca="1">DAY(B3)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -11132,7 +13554,7 @@
       </c>
       <c r="K4" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>30.665753424657535</v>
+        <v>30.684931506849313</v>
       </c>
       <c r="L4" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
@@ -11161,8 +13583,12 @@
         <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
         <v>1431168</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>87</v>
       </c>
@@ -11198,7 +13624,7 @@
       </c>
       <c r="K5" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>26.219178082191782</v>
+        <v>26.238356164383561</v>
       </c>
       <c r="L5" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
@@ -11227,8 +13653,12 @@
         <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
         <v>278304</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>88</v>
       </c>
@@ -11264,7 +13694,7 @@
       </c>
       <c r="K6" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>30.572602739726026</v>
+        <v>30.591780821917808</v>
       </c>
       <c r="L6" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
@@ -11293,14 +13723,18 @@
         <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
         <v>525992</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="40">
         <f ca="1">NOW()</f>
-        <v>44867.747971180557</v>
+        <v>44874.673368171294</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -11330,7 +13764,7 @@
       </c>
       <c r="K7" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>29.473972602739725</v>
+        <v>29.493150684931507</v>
       </c>
       <c r="L7" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
@@ -11359,14 +13793,18 @@
         <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
         <v>76199.97</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="34">
         <f ca="1">HOUR(B7)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -11396,7 +13834,7 @@
       </c>
       <c r="K8" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>22.852054794520548</v>
+        <v>22.87123287671233</v>
       </c>
       <c r="L8" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
@@ -11425,14 +13863,18 @@
         <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="41">
         <f ca="1">MINUTE(B7)</f>
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -11461,7 +13903,7 @@
       </c>
       <c r="K9" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>50.709589041095889</v>
+        <v>50.728767123287675</v>
       </c>
       <c r="L9" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
@@ -11490,14 +13932,18 @@
         <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="20">
         <f ca="1">SECOND(B7)</f>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -11526,7 +13972,7 @@
       </c>
       <c r="K10" s="15">
         <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>62.819178082191783</v>
+        <v>62.838356164383562</v>
       </c>
       <c r="L10" s="16">
         <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
@@ -11554,6 +14000,129 @@
       <c r="R10" s="6">
         <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
         <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="e">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="4" t="e">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="4" t="e">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="14">
+        <v>34254</v>
+      </c>
+      <c r="K11" s="15">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>29.095890410958905</v>
+      </c>
+      <c r="L11" s="16">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>29</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="O11" s="4" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v>38885470</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="e">
+        <f>presentismo[[#This Row],[Empleado]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="4" t="e">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="4" t="e">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="14">
+        <v>29580</v>
+      </c>
+      <c r="K12" s="15">
+        <f ca="1">(hoy - datos[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>41.901369863013699</v>
+      </c>
+      <c r="L12" s="16">
+        <f ca="1">año - YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>42</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <v/>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <v/>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="4">
+        <f>COUNTIF(ventas[Empleado],datos[[#This Row],[Cod]])</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <f>SUMIF(ventas[Empleado],datos[[#This Row],[Cod]],ventas[total])</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <v>1980</v>
       </c>
     </row>
   </sheetData>
@@ -11571,30 +14140,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995329D2-6704-4347-93F2-81F7E9527D06}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1:C1" location="menu!A1" display="volver al inicio" xr:uid="{AB5DA35A-54EC-44B5-8578-06F8CEC7A513}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DBE0935-A7B9-4C4D-8DA6-56C25DC8EFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9466853C-68AE-4BA2-BF48-C6CA0A4FFCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{FBF13C54-EAF5-48F7-B675-6702B08EF7EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{FBF13C54-EAF5-48F7-B675-6702B08EF7EF}"/>
   </bookViews>
   <sheets>
     <sheet name="empleados" sheetId="1" r:id="rId1"/>
-    <sheet name="productos" sheetId="2" r:id="rId2"/>
-    <sheet name="ventas" sheetId="3" r:id="rId3"/>
+    <sheet name="presentismo" sheetId="4" r:id="rId2"/>
+    <sheet name="productos" sheetId="2" r:id="rId3"/>
+    <sheet name="ventas" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="cant">ventas!$D:$D</definedName>
+    <definedName name="iva">ventas!$J$2</definedName>
+    <definedName name="precio">ventas!$E:$E</definedName>
+    <definedName name="precio_iva">ventas!$G:$G</definedName>
+    <definedName name="total">ventas!$F:$F</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>codigo</t>
   </si>
@@ -92,9 +100,6 @@
     <t>producto</t>
   </si>
   <si>
-    <t>cantidad</t>
-  </si>
-  <si>
     <t>precio</t>
   </si>
   <si>
@@ -108,17 +113,162 @@
   </si>
   <si>
     <t>final</t>
+  </si>
+  <si>
+    <t>cant</t>
+  </si>
+  <si>
+    <t>Aguilera</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>ace85939</t>
+  </si>
+  <si>
+    <t>27-14093915-9</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>1/11/22</t>
+  </si>
+  <si>
+    <t>2/11/22</t>
+  </si>
+  <si>
+    <t>3/11/22</t>
+  </si>
+  <si>
+    <t>4/11/22</t>
+  </si>
+  <si>
+    <t>5/11/22</t>
+  </si>
+  <si>
+    <t>6/11/22</t>
+  </si>
+  <si>
+    <t>7/11/22</t>
+  </si>
+  <si>
+    <t>8/11/22</t>
+  </si>
+  <si>
+    <t>9/11/22</t>
+  </si>
+  <si>
+    <t>10/11/22</t>
+  </si>
+  <si>
+    <t>11/11/22</t>
+  </si>
+  <si>
+    <t>12/11/22</t>
+  </si>
+  <si>
+    <t>13/11/22</t>
+  </si>
+  <si>
+    <t>14/11/22</t>
+  </si>
+  <si>
+    <t>15/11/22</t>
+  </si>
+  <si>
+    <t>16/11/22</t>
+  </si>
+  <si>
+    <t>17/11/22</t>
+  </si>
+  <si>
+    <t>18/11/22</t>
+  </si>
+  <si>
+    <t>19/11/22</t>
+  </si>
+  <si>
+    <t>20/11/22</t>
+  </si>
+  <si>
+    <t>21/11/22</t>
+  </si>
+  <si>
+    <t>22/11/22</t>
+  </si>
+  <si>
+    <t>23/11/22</t>
+  </si>
+  <si>
+    <t>24/11/22</t>
+  </si>
+  <si>
+    <t>25/11/22</t>
+  </si>
+  <si>
+    <t>26/11/22</t>
+  </si>
+  <si>
+    <t>27/11/22</t>
+  </si>
+  <si>
+    <t>28/11/22</t>
+  </si>
+  <si>
+    <t>29/11/22</t>
+  </si>
+  <si>
+    <t>30/11/22</t>
+  </si>
+  <si>
+    <t>ASIST</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Estadisticas</t>
+  </si>
+  <si>
+    <t>Ausentes</t>
+  </si>
+  <si>
+    <t>Presentes</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediana </t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>Suma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +279,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF7C80"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,18 +319,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="75" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -176,6 +485,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}" name="empleados" displayName="empleados" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9B2FABCB-122E-4021-BCB9-1ABCF38F08D1}" name="codigo"/>
+    <tableColumn id="2" xr3:uid="{48BCCCB0-2E0A-4212-A44B-A72FF9EFADA4}" name="apellido"/>
+    <tableColumn id="3" xr3:uid="{8E2D81A4-6B1C-4EE6-B057-EC49A27E5F85}" name="nombre"/>
+    <tableColumn id="4" xr3:uid="{FAD0BCDF-63FA-416C-A9FA-7BBA19E4DC2A}" name="legajo"/>
+    <tableColumn id="5" xr3:uid="{FDC1831B-A431-4700-AA4A-2FBE0A96C27E}" name="fecha nac" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{688A04DA-9A69-41C2-B220-48FBDD3AA266}" name="edad"/>
+    <tableColumn id="7" xr3:uid="{B0450268-4DC5-4E02-B6A4-0DBA5EAA50A9}" name="sector"/>
+    <tableColumn id="8" xr3:uid="{926D684E-B855-4F94-973A-B6231FEF889B}" name="cuil"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}" name="presentismo" displayName="presentismo" ref="A1:AG4" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:AG4" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}"/>
+  <tableColumns count="33">
+    <tableColumn id="1" xr3:uid="{83429F3A-0633-41B4-A217-0D30DFCF116B}" name="Empleado" dataDxfId="32">
+      <calculatedColumnFormula>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{887EC86C-1521-40B0-A6C3-0B2B3230C024}" name="1/11/22" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{C8618297-DB24-4382-BD1E-E53E7DB10A63}" name="2/11/22" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{6182BB9D-62C7-4740-9A83-3BF4CE62D8C0}" name="3/11/22" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{C4722C79-3465-44B4-AAFE-AED718DFEF78}" name="4/11/22" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{443CA749-360E-405C-BCF0-3AA088ECB546}" name="5/11/22" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{DDC8BC93-6522-4621-A6CE-E663DAA5E060}" name="6/11/22" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{044D1592-31CC-4BD8-9305-F821CBDE87C3}" name="7/11/22" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{58B8F006-DDC6-45D4-913C-A9728CE4DEEB}" name="8/11/22" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{2E67B63B-C7A3-4447-B240-2206A83EB1AE}" name="9/11/22" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{E063B5BB-2482-4A97-B99C-CEE9E8FBC8AD}" name="10/11/22" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{C388062D-2D19-400D-9799-432AF612D74D}" name="11/11/22" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{AC73BB9A-6A78-4DB1-885C-194594FB6F10}" name="12/11/22" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{06A3A94F-6999-487D-ABBD-26DFBE539387}" name="13/11/22" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{50DAE1CB-9B50-4836-80C2-0F7D5D1DBF7E}" name="14/11/22" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{BA731102-2D66-4B65-A41F-E60E74E4BC71}" name="15/11/22" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{B971CE8E-7E54-4964-AB64-E900A025F05F}" name="16/11/22" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{F3A47F16-27A5-4C5D-BF2D-83E030C5E47F}" name="17/11/22" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{2DD162DD-96E2-41F4-AD3B-2ACC01BBF7A8}" name="18/11/22" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{55AD600E-9E3F-4481-BAF3-174F391E80B6}" name="19/11/22" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{CB5594F7-50A6-4AB3-8C66-47AE394E8A42}" name="20/11/22" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{9BAC2972-6A5B-4717-B16D-0F035A83C001}" name="21/11/22" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{2C7E1E57-A0FD-43F5-A1C0-D9CEF839010F}" name="22/11/22" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{BF09FF2E-08CF-4C77-B995-FA552B07331C}" name="23/11/22" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{F95FD232-FFA9-4C2A-8A79-A314A99627B1}" name="24/11/22" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{4157B269-FC1E-4344-80EE-594F0938411C}" name="25/11/22" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{500155F2-C488-4E91-95A3-7525D567F566}" name="26/11/22" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{5743E408-8FAC-44AE-81BD-FE1F0BA91CEB}" name="27/11/22" dataDxfId="5"/>
+    <tableColumn id="29" xr3:uid="{919A6993-970F-452F-9B2D-9D06989985BF}" name="28/11/22" dataDxfId="4"/>
+    <tableColumn id="30" xr3:uid="{6FCC3D91-E530-49DC-9803-12984CBA6BE9}" name="29/11/22" dataDxfId="3"/>
+    <tableColumn id="31" xr3:uid="{E6DAAE99-A983-4374-B5B5-FA292704266A}" name="30/11/22" dataDxfId="2"/>
+    <tableColumn id="32" xr3:uid="{9612EC83-2684-4EAF-A263-5FD181F5472E}" name="ASIST" dataDxfId="1">
+      <calculatedColumnFormula>COUNTA(B2:AE2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" xr3:uid="{CF4CC9FE-4916-47D6-BF2F-CC31868C00D4}" name="AUS" dataDxfId="0">
+      <calculatedColumnFormula>COUNTBLANK(B2:AE2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,14 +849,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F639E3-C47A-43D0-A8C0-9681F10A43EB}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,12 +939,546 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>29573</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FFAE78-438E-4183-90FE-F9F4BDD2CD47}">
+  <dimension ref="A1:AK31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.42578125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="str">
+        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
+        <v>racedo; cristian</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="12">
+        <f>COUNTA(B2:AE2)</f>
+        <v>19</v>
+      </c>
+      <c r="AG2" s="12">
+        <f>COUNTBLANK(B2:AE2)</f>
+        <v>11</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2">
+        <f>SUM(presentismo[ASIST])</f>
+        <v>53</v>
+      </c>
+      <c r="AK2">
+        <f>SUM(presentismo[AUS])</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="str">
+        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
+        <v>racedo; abel</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="12">
+        <f t="shared" ref="AF2:AF4" si="0">COUNTA(B3:AE3)</f>
+        <v>16</v>
+      </c>
+      <c r="AG3" s="12">
+        <f t="shared" ref="AG2:AG4" si="1">COUNTBLANK(B3:AE3)</f>
+        <v>14</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3">
+        <f>MAX(presentismo[ASIST])</f>
+        <v>19</v>
+      </c>
+      <c r="AK3">
+        <f>MAX(presentismo[AUS])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="str">
+        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
+        <v>Aguilera; Cristina</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AG4" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ4">
+        <f>MIN(presentismo[ASIST])</f>
+        <v>16</v>
+      </c>
+      <c r="AK4">
+        <f>MIN(presentismo[AUS])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="AI5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ5" s="13">
+        <f>AVERAGE(presentismo[ASIST])</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="AK5" s="13">
+        <f>AVERAGE(presentismo[AUS])</f>
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="AI6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ6">
+        <f>MEDIAN(presentismo[ASIST])</f>
+        <v>18</v>
+      </c>
+      <c r="AK6">
+        <f>MEDIAN(presentismo[AUS])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="AI7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ7" t="e">
+        <f>MODE(presentismo[ASIST])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK7" t="e">
+        <f>MODE(presentismo[AUS])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BCF59A-9D0C-4ADD-8102-A58A6DC81599}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -575,12 +1490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FF01-9040-4806-AC6E-6DE86411CAF8}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +1503,7 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -598,28 +1513,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -639,15 +1554,15 @@
         <v>15000</v>
       </c>
       <c r="F2" s="3">
-        <f>$D2*$E2</f>
+        <f>cant*precio</f>
         <v>30000</v>
       </c>
       <c r="G2" s="3">
-        <f>F2*$J$2</f>
+        <f>total*iva</f>
         <v>6300</v>
       </c>
       <c r="H2" s="3">
-        <f>SUM(F2:G2)</f>
+        <f>total +precio_iva</f>
         <v>36300</v>
       </c>
       <c r="J2" s="2">
@@ -671,15 +1586,15 @@
         <v>5400</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F11" si="0">D3*E3</f>
+        <f>cant*precio</f>
         <v>21600</v>
       </c>
       <c r="G3" s="3">
-        <f>F3*$J$2</f>
+        <f>total*iva</f>
         <v>4536</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H11" si="1">SUM(F3:G3)</f>
+        <f>total +precio_iva</f>
         <v>26136</v>
       </c>
     </row>
@@ -700,15 +1615,15 @@
         <v>3800</v>
       </c>
       <c r="F4" s="3">
-        <f>D4*E4</f>
+        <f>cant*precio</f>
         <v>11400</v>
       </c>
       <c r="G4" s="3">
-        <f>F4*$J$2</f>
+        <f>total*iva</f>
         <v>2394</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f>total +precio_iva</f>
         <v>13794</v>
       </c>
     </row>
@@ -729,15 +1644,15 @@
         <v>600</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>600</v>
       </c>
       <c r="G5" s="3">
-        <f>F5*$J$2</f>
+        <f>total*iva</f>
         <v>126</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f>total +precio_iva</f>
         <v>726</v>
       </c>
     </row>
@@ -758,15 +1673,15 @@
         <v>8800</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>52800</v>
       </c>
       <c r="G6" s="3">
-        <f>F6*$J$2</f>
+        <f>total*iva</f>
         <v>11088</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f>total +precio_iva</f>
         <v>63888</v>
       </c>
     </row>
@@ -787,15 +1702,15 @@
         <v>8800</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>88000</v>
       </c>
       <c r="G7" s="3">
-        <f>F7*$J$2</f>
+        <f>total*iva</f>
         <v>18480</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f>total +precio_iva</f>
         <v>106480</v>
       </c>
     </row>
@@ -816,15 +1731,15 @@
         <v>600</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>18000</v>
       </c>
       <c r="G8" s="3">
-        <f>F8*$J$2</f>
+        <f>total*iva</f>
         <v>3780</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f>total +precio_iva</f>
         <v>21780</v>
       </c>
     </row>
@@ -845,15 +1760,15 @@
         <v>3800</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>7600</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G3:G11" si="2">F9*$J$2</f>
+        <f>total*iva</f>
         <v>1596</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f>total +precio_iva</f>
         <v>9196</v>
       </c>
     </row>
@@ -874,15 +1789,15 @@
         <v>15000</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>15000</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="2"/>
+        <f>total*iva</f>
         <v>3150</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f>total +precio_iva</f>
         <v>18150</v>
       </c>
     </row>
@@ -903,15 +1818,15 @@
         <v>3800</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>7600</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="2"/>
+        <f>total*iva</f>
         <v>1596</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f>total +precio_iva</f>
         <v>9196</v>
       </c>
     </row>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-x13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B393C3-BCE2-4ECF-BB25-64BEEEB81FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61DBBCB-828A-4FAD-8E2E-DA3B0C4D9606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="231" xr2:uid="{1DA75BA2-53DD-4B3C-AE8C-377B388164D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="231" firstSheet="2" activeTab="2" xr2:uid="{1DA75BA2-53DD-4B3C-AE8C-377B388164D9}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
   <si>
     <t>Internos</t>
   </si>
@@ -78,13 +78,154 @@
   </si>
   <si>
     <t>Estadisticas</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Nacimiento</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>CUIL</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Racedo</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>20-35336446-4</t>
+  </si>
+  <si>
+    <t>11-0303-4567</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>20-38883536-2</t>
+  </si>
+  <si>
+    <t>11-0301-8293</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>Rosaura</t>
+  </si>
+  <si>
+    <t>27-30827345-1</t>
+  </si>
+  <si>
+    <t>11-8327-4922</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>20-32192380-6</t>
+  </si>
+  <si>
+    <t>11-9238-0401</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>20-43128319-5</t>
+  </si>
+  <si>
+    <t>11-3849-7232</t>
+  </si>
+  <si>
+    <t>Cabello</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>27-45239482-2</t>
+  </si>
+  <si>
+    <t>11-2384-2039</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Blanca</t>
+  </si>
+  <si>
+    <t>27-40102392-5</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Aus</t>
+  </si>
+  <si>
+    <t>Asist</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>Estadistica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +255,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +277,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA50021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,24 +298,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -163,6 +373,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA50021"/>
+      <color rgb="FFEB1D75"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -172,6 +388,917 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>745440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Gráfico 4" descr="Dinero con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528CCA6A-FDF0-44C2-87CD-7DA47D081E15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2560555" y="65942"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21577</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>153463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>741577</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Gráfico 6" descr="Camión con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E87AE73-7EFF-4C82-9DEC-4DC32B12F06B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1794692" y="153463"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>32365</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752365</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>749308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Gráfico 8" descr="Lista con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9599D39F-9003-4B99-A221-60DBA0125F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1043480" y="29308"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>748499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>749308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Gráfico 10" descr="Identificación de empleado con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BF92BC-2DCF-4B66-9041-64FFD3C4A9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277614" y="29308"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>741981</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>741981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Gráfico 12" descr="Lápiz con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017848A6-BF4F-4FB6-B00D-D8422827AB39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1795096" y="974481"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>208615</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>736154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166615</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>503654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Gráfico 14" descr="Atrás con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9472A2-F50E-471E-AF9B-C4539C503D74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553730" y="736154"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21577</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>741577</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>734251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Gráfico 16" descr="Correo electrónico con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC6C48F-1809-42C8-A920-92022D05D6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1032692" y="966751"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32365</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>39692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752365</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>759692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Gráfico 18" descr="Documento con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDF43B9-E5B8-4046-9C42-43BDF3747F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="281480" y="992192"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13846</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>35828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733846</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>755828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Gráfico 20" descr="Gráfico de barras con tendencia alcista con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEFD0C3-17CF-472E-BB3A-C690E6672867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3310961" y="35828"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>105276</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>634411</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>632055</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Grupo 27">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0273303-5948-425E-A8C6-DA213CE80DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2641307" y="1062789"/>
+          <a:ext cx="529135" cy="521766"/>
+          <a:chOff x="2638926" y="1062789"/>
+          <a:chExt cx="529135" cy="521766"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Paralelogramo 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343FCA04-9AA0-4614-855E-3C7703C3FDCA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2638926" y="1062789"/>
+            <a:ext cx="335881" cy="521369"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 55770"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Paralelogramo 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C63773-7FF2-4422-B0B3-3BBCF8FFD3B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2840201" y="1064552"/>
+            <a:ext cx="327860" cy="520003"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 55770"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Paralelogramo 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C3DCEA-9E60-4319-B6EC-CC14739ED814}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2830830" y="1462882"/>
+            <a:ext cx="259280" cy="120316"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>744141</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>749763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16EE27C-8F01-487F-BEFF-DEB02B63B61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent1">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId30">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="-50000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="0"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId31"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6616" t="8268" r="7616" b="7396"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3309937" y="982263"/>
+          <a:ext cx="732235" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="720000" cy="233205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CuadroTexto 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9843DF31-45EB-4239-87C3-C5321B4B359D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3321842" y="6322219"/>
+          <a:ext cx="720000" cy="233205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31" tooltip="http://major.io/2014/08/08/use-gist-gem-github-enterprise-github-com"/>
+            </a:rPr>
+            <a:t>Esta foto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900"/>
+            <a:t> de Autor desconocido está bajo licencia </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32" tooltip="https://creativecommons.org/licenses/by-sa/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY-SA</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74186</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>455186</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>468467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E582CFDA-B840-42E7-8E77-EB0DA06B1311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:saturation sat="66000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514717" y="87467"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CC92CE-D90C-4021-AB3E-C4A13A2DA281}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,35 +1611,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
@@ -522,20 +1649,20 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -558,20 +1685,191 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72B67EB-3256-4033-8E43-B0D71DD3E8D9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7">
+        <v>33346</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7">
+        <v>34254</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7">
+        <v>32030</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7">
+        <v>32695</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7">
+        <v>36192</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7">
+        <v>37963</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7">
+        <v>34464</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -584,22 +1882,723 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B409F788-BBEB-4249-A48C-F9C74F65E7C5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:39" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44896</v>
+      </c>
+      <c r="D1" s="10">
+        <v>44897</v>
+      </c>
+      <c r="E1" s="10">
+        <v>44898</v>
+      </c>
+      <c r="F1" s="11">
+        <v>44899</v>
+      </c>
+      <c r="G1" s="10">
+        <v>44900</v>
+      </c>
+      <c r="H1" s="10">
+        <v>44901</v>
+      </c>
+      <c r="I1" s="10">
+        <v>44902</v>
+      </c>
+      <c r="J1" s="10">
+        <v>44903</v>
+      </c>
+      <c r="K1" s="10">
+        <v>44904</v>
+      </c>
+      <c r="L1" s="10">
+        <v>44905</v>
+      </c>
+      <c r="M1" s="11">
+        <v>44906</v>
+      </c>
+      <c r="N1" s="10">
+        <v>44907</v>
+      </c>
+      <c r="O1" s="10">
+        <v>44908</v>
+      </c>
+      <c r="P1" s="10">
+        <v>44909</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>44910</v>
+      </c>
+      <c r="R1" s="10">
+        <v>44911</v>
+      </c>
+      <c r="S1" s="10">
+        <v>44912</v>
+      </c>
+      <c r="T1" s="11">
+        <v>44913</v>
+      </c>
+      <c r="U1" s="10">
+        <v>44914</v>
+      </c>
+      <c r="V1" s="10">
+        <v>44915</v>
+      </c>
+      <c r="W1" s="10">
+        <v>44916</v>
+      </c>
+      <c r="X1" s="10">
+        <v>44917</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>44918</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>44919</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>44920</v>
+      </c>
+      <c r="AB1" s="10">
+        <v>44921</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>44922</v>
+      </c>
+      <c r="AD1" s="10">
+        <v>44923</v>
+      </c>
+      <c r="AE1" s="10">
+        <v>44924</v>
+      </c>
+      <c r="AF1" s="10">
+        <v>44925</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>44926</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="str">
+        <f>_xlfn.CONCAT(empleados!C2,", ",empleados!D2)</f>
+        <v>Racedo, Cristian</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2">
+        <f>COUNTA($C2:$AG2)</f>
+        <v>18</v>
+      </c>
+      <c r="AI2">
+        <f>COUNTBLANK($C2:$AG2)</f>
+        <v>13</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>SUM(AH:AH)</f>
+        <v>110</v>
+      </c>
+      <c r="AM2" s="1">
+        <f>SUM(AI:AI)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="str">
+        <f>_xlfn.CONCAT(empleados!C3,", ",empleados!D3)</f>
+        <v>Racedo, Abel</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH8" si="0">COUNTA($C3:$AG3)</f>
+        <v>17</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI8" si="1">COUNTBLANK($C3:$AG3)</f>
+        <v>14</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL3" s="1">
+        <f>MIN(AH:AH)</f>
+        <v>12</v>
+      </c>
+      <c r="AM3" s="1">
+        <f>MIN(AI:AI)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="str">
+        <f>_xlfn.CONCAT(empleados!C4,", ",empleados!D4)</f>
+        <v>Marquez, Rosaura</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AK4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" s="1">
+        <f>MAX(AH:AH)</f>
+        <v>18</v>
+      </c>
+      <c r="AM4" s="1">
+        <f>MAX(AI:AI)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="str">
+        <f>_xlfn.CONCAT(empleados!C5,", ",empleados!D5)</f>
+        <v>Alvarez, Tomas</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AK5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL5" s="14">
+        <f>AVERAGE(AH:AH)</f>
+        <v>15.714285714285714</v>
+      </c>
+      <c r="AM5" s="14">
+        <f>AVERAGE(AI:AI)</f>
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="str">
+        <f>_xlfn.CONCAT(empleados!C6,", ",empleados!D6)</f>
+        <v>Gonzalez, Gonzalo</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL6" s="1">
+        <f>MEDIAN(AH:AH)</f>
+        <v>17</v>
+      </c>
+      <c r="AM6" s="1">
+        <f>MEDIAN(AI:AI)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="str">
+        <f>_xlfn.CONCAT(empleados!C7,", ",empleados!D7)</f>
+        <v>Cabello, Camila</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL7" s="1">
+        <f>MODE(AH:AH)</f>
+        <v>18</v>
+      </c>
+      <c r="AM7" s="1">
+        <f>MODE(AI:AI)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="str">
+        <f>_xlfn.CONCAT(empleados!C8,", ",empleados!D8)</f>
+        <v>Rosa, Blanca</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="menu!A1" display="volver" xr:uid="{8BFFDDD7-057F-420F-8C6A-05E57BF65C77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -612,7 +2611,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -633,7 +2632,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -654,7 +2653,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-x13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61DBBCB-828A-4FAD-8E2E-DA3B0C4D9606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B67BA8-B79B-4C5E-8759-35DC419022CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="231" firstSheet="2" activeTab="2" xr2:uid="{1DA75BA2-53DD-4B3C-AE8C-377B388164D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="272" activeTab="1" xr2:uid="{1DA75BA2-53DD-4B3C-AE8C-377B388164D9}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="ventas" sheetId="5" r:id="rId5"/>
     <sheet name="estadisticas" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="ahora">empleados!$K$2</definedName>
+    <definedName name="ventas_iva">ventas!$A$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>Internos</t>
   </si>
@@ -216,16 +220,147 @@
   </si>
   <si>
     <t>Estadistica</t>
+  </si>
+  <si>
+    <t>factura</t>
+  </si>
+  <si>
+    <t>cant</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>A-0001</t>
+  </si>
+  <si>
+    <t>A-0002</t>
+  </si>
+  <si>
+    <t>A-0003</t>
+  </si>
+  <si>
+    <t>A-0004</t>
+  </si>
+  <si>
+    <t>A-0005</t>
+  </si>
+  <si>
+    <t>A-0006</t>
+  </si>
+  <si>
+    <t>A-0007</t>
+  </si>
+  <si>
+    <t>A-0008</t>
+  </si>
+  <si>
+    <t>A-0009</t>
+  </si>
+  <si>
+    <t>A-0010</t>
+  </si>
+  <si>
+    <t>A-0011</t>
+  </si>
+  <si>
+    <t>A-0012</t>
+  </si>
+  <si>
+    <t>A-0013</t>
+  </si>
+  <si>
+    <t>A-0014</t>
+  </si>
+  <si>
+    <t>A-0015</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>total + iva</t>
+  </si>
+  <si>
+    <t>A-0016</t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>A-0017</t>
+  </si>
+  <si>
+    <t>A-0020</t>
+  </si>
+  <si>
+    <t>A-0018</t>
+  </si>
+  <si>
+    <t>A-0019</t>
+  </si>
+  <si>
+    <t>total ventas</t>
+  </si>
+  <si>
+    <t>cant ventas</t>
+  </si>
+  <si>
+    <t>media ventas</t>
+  </si>
+  <si>
+    <t>mediana ventas</t>
+  </si>
+  <si>
+    <t>monto mas bajo</t>
+  </si>
+  <si>
+    <t>monto mas alto</t>
+  </si>
+  <si>
+    <t>emplado con mas ventas</t>
+  </si>
+  <si>
+    <t>producto mas vendido</t>
+  </si>
+  <si>
+    <t>HOY</t>
+  </si>
+  <si>
+    <t>AHORA</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>seg</t>
+  </si>
+  <si>
+    <t>hora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +398,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +445,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -322,12 +490,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,9 +576,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,10 +585,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -366,12 +601,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1301,6 +1597,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{290A5489-9802-4AE4-A76D-7B4FEF5842E9}" name="personal" displayName="personal" ref="B1:H8" totalsRowShown="0">
+  <autoFilter ref="B1:H8" xr:uid="{290A5489-9802-4AE4-A76D-7B4FEF5842E9}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CF711EF4-E704-41B7-BC06-3768E7DEEEE6}" name="Codigo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5B77A079-8110-499A-82AB-CED12796BE91}" name="Apellido"/>
+    <tableColumn id="3" xr3:uid="{D20DA249-3F62-4825-9E78-0D4BC5DB497F}" name="Nombre"/>
+    <tableColumn id="4" xr3:uid="{7673C393-7E26-4319-AFBE-45CFB8ED53FF}" name="Nacimiento" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{758FDE87-D216-4050-A28C-BAB2EE5A017B}" name="Edad" dataDxfId="0" dataCellStyle="Millares">
+      <calculatedColumnFormula>(ahora-personal[[#This Row],[Nacimiento]])/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{54ADCC17-9DC2-428F-ADCD-3890A1C6FA13}" name="CUIL" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{051A56EA-F7CE-4A69-953E-C7743F2C5F26}" name="Telefono" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF11A033-612D-47EF-A83D-0B9A90E74816}" name="ventas" displayName="ventas" ref="B1:I21" totalsRowShown="0">
+  <autoFilter ref="B1:I21" xr:uid="{DF11A033-612D-47EF-A83D-0B9A90E74816}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B9E4408B-9101-43E0-8570-93CB87AE8AE9}" name="factura"/>
+    <tableColumn id="2" xr3:uid="{7E3754F7-A02B-4CF7-B876-3FF872F47002}" name="emp"/>
+    <tableColumn id="3" xr3:uid="{8D748E0C-B095-46AF-BB4D-70E6819EA746}" name="prod"/>
+    <tableColumn id="4" xr3:uid="{EB1BEEE2-9B39-4D23-BC7B-058CAB84A62D}" name="cant"/>
+    <tableColumn id="5" xr3:uid="{5AB6A3B0-764E-46F1-962C-1C7A2FC112FE}" name="precio" dataDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{AFC9C002-F185-48C3-BF63-A3AECD1559A4}" name="total" dataDxfId="7">
+      <calculatedColumnFormula>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F02FEA70-8886-4373-9833-26E1899EBAE5}" name="iva" dataDxfId="6">
+      <calculatedColumnFormula>ventas[[#This Row],[total]]*ventas_iva</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2FD67030-CB5F-4355-8E1F-D2AD2415FF0E}" name="total + iva" dataDxfId="5">
+      <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1611,35 +1948,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
@@ -1649,20 +1986,20 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1691,26 +2028,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72B67EB-3256-4033-8E43-B0D71DD3E8D9}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
@@ -1719,21 +2069,45 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9">
+      <c r="J1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1742,18 +2116,54 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>33346</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="21">
+        <f ca="1">(ahora-personal[[#This Row],[Nacimiento]])/365</f>
+        <v>31.681293958650439</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="J2" s="25">
+        <f ca="1">TODAY()</f>
+        <v>44909</v>
+      </c>
+      <c r="K2" s="26">
+        <f ca="1">NOW()</f>
+        <v>44909.67229490741</v>
+      </c>
+      <c r="L2" s="18">
+        <f ca="1">YEAR(ahora)</f>
+        <v>2022</v>
+      </c>
+      <c r="M2" s="18">
+        <f ca="1">MONTH(ahora)</f>
+        <v>12</v>
+      </c>
+      <c r="N2" s="18">
+        <f ca="1">DAY(ahora)</f>
+        <v>14</v>
+      </c>
+      <c r="O2" s="18">
+        <f ca="1">HOUR(ahora)</f>
+        <v>16</v>
+      </c>
+      <c r="P2" s="18">
+        <f ca="1">MINUTE(ahora)</f>
+        <v>8</v>
+      </c>
+      <c r="Q2" s="20">
+        <f ca="1">SECOND(ahora)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -1762,18 +2172,22 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>34254</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="21">
+        <f ca="1">(ahora-personal[[#This Row],[Nacimiento]])/365</f>
+        <v>29.193622725773725</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -1782,18 +2196,22 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>32030</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="21">
+        <f ca="1">(ahora-personal[[#This Row],[Nacimiento]])/365</f>
+        <v>35.28677341070523</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -1802,18 +2220,22 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>32695</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="21">
+        <f ca="1">(ahora-personal[[#This Row],[Nacimiento]])/365</f>
+        <v>33.464855602486054</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -1822,18 +2244,22 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>36192</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="21">
+        <f ca="1">(ahora-personal[[#This Row],[Nacimiento]])/365</f>
+        <v>23.884033684677835</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -1842,18 +2268,22 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>37963</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="21">
+        <f ca="1">(ahora-personal[[#This Row],[Nacimiento]])/365</f>
+        <v>19.031978890157287</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -1862,13 +2292,17 @@
       <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>34464</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="21">
+        <f ca="1">(ahora-personal[[#This Row],[Nacimiento]])/365</f>
+        <v>28.618280260020303</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1877,6 +2311,10 @@
     <hyperlink ref="A1" location="menu!A1" display="volver" xr:uid="{8E24648B-0421-4A91-80AA-0962E435ABB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1884,11 +2322,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B409F788-BBEB-4249-A48C-F9C74F65E7C5}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,15 +2334,15 @@
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="21" max="25" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="28" max="32" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1915,100 +2353,100 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="9">
         <v>44896</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="9">
         <v>44897</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="9">
         <v>44898</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="10">
         <v>44899</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="9">
         <v>44900</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="9">
         <v>44901</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>44902</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="9">
         <v>44903</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="9">
         <v>44904</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="9">
         <v>44905</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="10">
         <v>44906</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="9">
         <v>44907</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="9">
         <v>44908</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="9">
         <v>44909</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="9">
         <v>44910</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="9">
         <v>44911</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="9">
         <v>44912</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="10">
         <v>44913</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="9">
         <v>44914</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V1" s="9">
         <v>44915</v>
       </c>
-      <c r="W1" s="10">
+      <c r="W1" s="9">
         <v>44916</v>
       </c>
-      <c r="X1" s="10">
+      <c r="X1" s="9">
         <v>44917</v>
       </c>
-      <c r="Y1" s="10">
+      <c r="Y1" s="9">
         <v>44918</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="10">
         <v>44919</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AA1" s="10">
         <v>44920</v>
       </c>
-      <c r="AB1" s="10">
+      <c r="AB1" s="9">
         <v>44921</v>
       </c>
-      <c r="AC1" s="10">
+      <c r="AC1" s="9">
         <v>44922</v>
       </c>
-      <c r="AD1" s="10">
+      <c r="AD1" s="9">
         <v>44923</v>
       </c>
-      <c r="AE1" s="10">
+      <c r="AE1" s="9">
         <v>44924</v>
       </c>
-      <c r="AF1" s="10">
+      <c r="AF1" s="9">
         <v>44925</v>
       </c>
-      <c r="AG1" s="11">
+      <c r="AG1" s="10">
         <v>44926</v>
       </c>
       <c r="AH1" t="s">
@@ -2028,7 +2466,7 @@
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="6" t="str">
         <f>_xlfn.CONCAT(empleados!C2,", ",empleados!D2)</f>
         <v>Racedo, Cristian</v>
       </c>
@@ -2094,7 +2532,7 @@
         <f>COUNTBLANK($C2:$AG2)</f>
         <v>13</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="14" t="s">
         <v>52</v>
       </c>
       <c r="AL2" s="1">
@@ -2107,7 +2545,7 @@
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="6" t="str">
         <f>_xlfn.CONCAT(empleados!C3,", ",empleados!D3)</f>
         <v>Racedo, Abel</v>
       </c>
@@ -2170,7 +2608,7 @@
         <f t="shared" ref="AI3:AI8" si="1">COUNTBLANK($C3:$AG3)</f>
         <v>14</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AK3" s="14" t="s">
         <v>53</v>
       </c>
       <c r="AL3" s="1">
@@ -2183,7 +2621,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="6" t="str">
         <f>_xlfn.CONCAT(empleados!C4,", ",empleados!D4)</f>
         <v>Marquez, Rosaura</v>
       </c>
@@ -2234,7 +2672,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AK4" s="14" t="s">
         <v>54</v>
       </c>
       <c r="AL4" s="1">
@@ -2247,7 +2685,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="6" t="str">
         <f>_xlfn.CONCAT(empleados!C5,", ",empleados!D5)</f>
         <v>Alvarez, Tomas</v>
       </c>
@@ -2310,20 +2748,20 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AK5" s="15" t="s">
+      <c r="AK5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AL5" s="14">
+      <c r="AL5" s="13">
         <f>AVERAGE(AH:AH)</f>
         <v>15.714285714285714</v>
       </c>
-      <c r="AM5" s="14">
+      <c r="AM5" s="13">
         <f>AVERAGE(AI:AI)</f>
         <v>15.285714285714286</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="6" t="str">
         <f>_xlfn.CONCAT(empleados!C6,", ",empleados!D6)</f>
         <v>Gonzalez, Gonzalo</v>
       </c>
@@ -2371,7 +2809,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AK6" s="15" t="s">
+      <c r="AK6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AL6" s="1">
@@ -2384,7 +2822,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="6" t="str">
         <f>_xlfn.CONCAT(empleados!C7,", ",empleados!D7)</f>
         <v>Cabello, Camila</v>
       </c>
@@ -2450,7 +2888,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AK7" s="15" t="s">
+      <c r="AK7" s="14" t="s">
         <v>57</v>
       </c>
       <c r="AL7" s="1">
@@ -2463,7 +2901,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="6" t="str">
         <f>_xlfn.CONCAT(empleados!C8,", ",empleados!D8)</f>
         <v>Rosa, Blanca</v>
       </c>
@@ -2522,76 +2960,76 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2625,22 +3063,714 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3890701A-7CF0-42AE-AC47-1F3723EEBEB3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="K2:L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>20000</v>
+      </c>
+      <c r="H2" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>4200</v>
+      </c>
+      <c r="I2" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>24200</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2">
+        <f>COUNT(ventas[emp])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1500</v>
+      </c>
+      <c r="G3" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>75000</v>
+      </c>
+      <c r="H3" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>15750</v>
+      </c>
+      <c r="I3" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>90750</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="17">
+        <f>SUM(ventas[total])</f>
+        <v>765500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>45000</v>
+      </c>
+      <c r="H4" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>9450</v>
+      </c>
+      <c r="I4" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>54450</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="16">
+        <f>AVERAGE(ventas[total])</f>
+        <v>38275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>60000</v>
+      </c>
+      <c r="H5" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>12600</v>
+      </c>
+      <c r="I5" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>72600</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="16">
+        <f>MEDIAN(ventas[total])</f>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2500</v>
+      </c>
+      <c r="G6" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>37500</v>
+      </c>
+      <c r="H6" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>7875</v>
+      </c>
+      <c r="I6" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>45375</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="16">
+        <f>MIN(ventas[total])</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>8000</v>
+      </c>
+      <c r="H7" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>1680</v>
+      </c>
+      <c r="I7" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>9680</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="16">
+        <f>MAX(ventas[total])</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>50000</v>
+      </c>
+      <c r="H8" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>10500</v>
+      </c>
+      <c r="I8" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>60500</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8">
+        <f>MODE(ventas[emp])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>20000</v>
+      </c>
+      <c r="H9" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>4200</v>
+      </c>
+      <c r="I9" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>24200</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9">
+        <f>MODE(ventas[prod])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>7500</v>
+      </c>
+      <c r="H10" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>1575</v>
+      </c>
+      <c r="I10" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>9075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2500</v>
+      </c>
+      <c r="G11" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>25000</v>
+      </c>
+      <c r="H11" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>5250</v>
+      </c>
+      <c r="I11" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>30250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>60000</v>
+      </c>
+      <c r="H12" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>12600</v>
+      </c>
+      <c r="I12" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>72600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>37500</v>
+      </c>
+      <c r="H13" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>7875</v>
+      </c>
+      <c r="I13" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>45000</v>
+      </c>
+      <c r="H14" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>9450</v>
+      </c>
+      <c r="I14" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>54450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>40000</v>
+      </c>
+      <c r="H15" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>8400</v>
+      </c>
+      <c r="I15" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>20000</v>
+      </c>
+      <c r="H16" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>4200</v>
+      </c>
+      <c r="I16" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>40000</v>
+      </c>
+      <c r="H17" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>8400</v>
+      </c>
+      <c r="I17" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>70000</v>
+      </c>
+      <c r="H18" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>14700</v>
+      </c>
+      <c r="I18" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>84700</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1500</v>
+      </c>
+      <c r="G19" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>30000</v>
+      </c>
+      <c r="H19" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>6300</v>
+      </c>
+      <c r="I19" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>37500</v>
+      </c>
+      <c r="H20" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>7875</v>
+      </c>
+      <c r="I20" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2500</v>
+      </c>
+      <c r="G21" s="17">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>37500</v>
+      </c>
+      <c r="H21" s="17">
+        <f>ventas[[#This Row],[total]]*ventas_iva</f>
+        <v>7875</v>
+      </c>
+      <c r="I21" s="17">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="menu!A1" display="volver" xr:uid="{9C4DC1BB-67D9-46F5-BFCA-0A1FC377567D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-mjv13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:48009_{B6E780E9-92EB-4C79-B1A5-D92523EE25E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE7772A-7D14-4AC9-9864-41B1A77783DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empleados" sheetId="1" r:id="rId1"/>
-    <sheet name="presentismo" sheetId="4" r:id="rId2"/>
-    <sheet name="productos" sheetId="2" r:id="rId3"/>
-    <sheet name="ventas" sheetId="3" r:id="rId4"/>
+    <sheet name="Datos" sheetId="5" r:id="rId2"/>
+    <sheet name="presentismo" sheetId="4" r:id="rId3"/>
+    <sheet name="productos" sheetId="2" r:id="rId4"/>
+    <sheet name="ventas" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="año_actual">empleados!$N$2</definedName>
+    <definedName name="char">Datos!$G$2</definedName>
+    <definedName name="dia_actual">empleados!$P$2</definedName>
+    <definedName name="fecha_actual">empleados!$L$2</definedName>
+    <definedName name="hora_actual">empleados!$Q$2</definedName>
+    <definedName name="hoy">empleados!$L$2</definedName>
+    <definedName name="mes_actual">empleados!$O$2</definedName>
+    <definedName name="min_actual">empleados!$R$2</definedName>
+    <definedName name="seg_actual">empleados!$S$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="109">
   <si>
     <t>Apellido</t>
   </si>
@@ -316,15 +328,62 @@
   </si>
   <si>
     <t>moda</t>
+  </si>
+  <si>
+    <t>HOY</t>
+  </si>
+  <si>
+    <t>AHORA</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Seg</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Separador</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>posicion</t>
+  </si>
+  <si>
+    <t>largo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -466,15 +525,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -498,19 +557,59 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -524,12 +623,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="AI1:AK7" totalsRowShown="0">
-  <autoFilter ref="AI1:AK7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FAF7F421-A303-4292-9998-E17312DF5C4D}" name="empleados" displayName="empleados" ref="A1:J9" totalsRowShown="0">
+  <autoFilter ref="A1:J9" xr:uid="{FAF7F421-A303-4292-9998-E17312DF5C4D}"/>
+  <tableColumns count="10">
+    <tableColumn id="9" xr3:uid="{A3DC2312-AD47-4AAC-8E22-E8B427243A5B}" name="Codigo"/>
+    <tableColumn id="1" xr3:uid="{645ADEB6-B8E8-42E8-AA74-3CE57DF4BF08}" name="Nombre"/>
+    <tableColumn id="8" xr3:uid="{D35B55AE-2BA9-492C-82D5-C765C90247E4}" name="Apellido"/>
+    <tableColumn id="2" xr3:uid="{2B468B38-0B14-4C36-8324-49C05B2F071E}" name="Nacimiento" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D4533D99-3030-48D8-95FA-AB65ECFD7909}" name="Edad" dataDxfId="7" dataCellStyle="Millares">
+      <calculatedColumnFormula>año_actual-YEAR(empleados[[#This Row],[Nacimiento]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B8337F0C-C37F-4DFD-94E6-26A12D426265}" name="CUIL"/>
+    <tableColumn id="12" xr3:uid="{887DDF5F-2191-4315-9EF2-3C899D0F4A1A}" name="G" dataDxfId="6">
+      <calculatedColumnFormula>LEFT(empleados[[#This Row],[CUIL]],2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{FC13B777-A483-475A-8B84-2A386013D7AE}" name="DU" dataDxfId="5" dataCellStyle="Millares">
+      <calculatedColumnFormula>MID(empleados[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{8F4046EF-FE5C-48DC-A976-96DB774EC283}" name="V" dataDxfId="4">
+      <calculatedColumnFormula>RIGHT(empleados[[#This Row],[CUIL]],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{81BCC680-E3A8-445F-A127-EA969D0EB07D}" name="Telefono"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}" name="datos" displayName="datos" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{29B4FC90-C2F0-4B58-BFFA-F95ED0272441}" name="Empleado">
+      <calculatedColumnFormula>TRIM(presentismo!A2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{D3F48162-106C-421E-BE38-BF662E293D6F}" name="Nombre" dataDxfId="0">
+      <calculatedColumnFormula>RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[largo]]-(datos[[#This Row],[posicion]] + 1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E129AACC-862D-4EED-B93F-0A6B9FDD5B4F}" name="Apellido" dataDxfId="1">
+      <calculatedColumnFormula>LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[posicion]]-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2A2B9009-32C3-43F8-B562-B70931954ACA}" name="posicion" dataDxfId="3">
+      <calculatedColumnFormula>FIND(char,datos[[#This Row],[Empleado]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D1BEFD8D-0CE7-4A41-AA4D-42AF9EBA799E}" name="largo" dataDxfId="2">
+      <calculatedColumnFormula>LEN(datos[[#This Row],[Empleado]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="AI1:AK7" totalsRowShown="0">
+  <autoFilter ref="AI1:AK7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Estadisticas"/>
-    <tableColumn id="2" name="a"/>
-    <tableColumn id="3" name="p"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Estadisticas"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="a"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="p"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -831,234 +981,701 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>33346</v>
+      </c>
+      <c r="E2" s="29">
+        <f ca="1">año_actual-YEAR(empleados[[#This Row],[Nacimiento]])</f>
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="30" t="str">
+        <f>LEFT(empleados[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="H2" s="31" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
+        <v>35336336</v>
+      </c>
+      <c r="I2" s="30" t="str">
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="27">
+        <f ca="1">TODAY()</f>
+        <v>44910</v>
+      </c>
+      <c r="M2" s="28">
+        <f ca="1">NOW()</f>
+        <v>44910.642702199075</v>
+      </c>
+      <c r="N2">
+        <f ca="1">YEAR(hoy)</f>
+        <v>2022</v>
+      </c>
+      <c r="O2">
+        <f ca="1">MONTH(hoy)</f>
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <f ca="1">DAY(hoy)</f>
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <f ca="1">HOUR(M2)</f>
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <f ca="1">MINUTE(M2)</f>
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <f ca="1">SECOND(M2)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>34254</v>
+      </c>
+      <c r="E3" s="29">
+        <f ca="1">año_actual-YEAR(empleados[[#This Row],[Nacimiento]])</f>
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="30" t="str">
+        <f>LEFT(empleados[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="H3" s="31" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
+        <v>38883443</v>
+      </c>
+      <c r="I3" s="30" t="str">
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36613</v>
+      </c>
+      <c r="E4" s="29">
+        <f ca="1">año_actual-YEAR(empleados[[#This Row],[Nacimiento]])</f>
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="30" t="str">
+        <f>LEFT(empleados[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="H4" s="31" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
+        <v>91028301</v>
+      </c>
+      <c r="I4" s="30" t="str">
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>31612</v>
+      </c>
+      <c r="E5" s="29">
+        <f ca="1">año_actual-YEAR(empleados[[#This Row],[Nacimiento]])</f>
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="30" t="str">
+        <f>LEFT(empleados[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="H5" s="31" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
+        <v>18273913</v>
+      </c>
+      <c r="I5" s="30" t="str">
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36453</v>
+      </c>
+      <c r="E6" s="29">
+        <f ca="1">año_actual-YEAR(empleados[[#This Row],[Nacimiento]])</f>
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="30" t="str">
+        <f>LEFT(empleados[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
+        <v>19023885</v>
+      </c>
+      <c r="I6" s="30" t="str">
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>37265</v>
+      </c>
+      <c r="E7" s="29">
+        <f ca="1">año_actual-YEAR(empleados[[#This Row],[Nacimiento]])</f>
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="30" t="str">
+        <f>LEFT(empleados[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="H7" s="31" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
+        <v>40279384</v>
+      </c>
+      <c r="I7" s="30" t="str">
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30529</v>
+      </c>
+      <c r="E8" s="29">
+        <f ca="1">año_actual-YEAR(empleados[[#This Row],[Nacimiento]])</f>
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="30" t="str">
+        <f>LEFT(empleados[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="H8" s="31" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
+        <v>84973329</v>
+      </c>
+      <c r="I8" s="30" t="str">
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>34057</v>
+      </c>
+      <c r="E9" s="29">
+        <f ca="1">año_actual-YEAR(empleados[[#This Row],[Nacimiento]])</f>
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="30" t="str">
+        <f>LEFT(empleados[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="H9" s="31" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
+        <v>37891223</v>
+      </c>
+      <c r="I9" s="30" t="str">
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f t="shared" ref="B19:C19" si="0">TRIM(B10)</f>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C368CA-EC1F-4C28-88F2-7559A5997862}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
       </c>
       <c r="G1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>TRIM(presentismo!A2)</f>
+        <v>Racedo, Cristian</v>
+      </c>
+      <c r="B2" t="str">
+        <f>RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[largo]]-(datos[[#This Row],[posicion]] + 1))</f>
+        <v>Cristian</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[posicion]]-1)</f>
+        <v>Racedo</v>
+      </c>
+      <c r="D2">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>TRIM(presentismo!A3)</f>
+        <v>Racedo, Abel</v>
+      </c>
+      <c r="B3" t="str">
+        <f>RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[largo]]-(datos[[#This Row],[posicion]] + 1))</f>
+        <v>Abel</v>
+      </c>
+      <c r="C3" t="str">
+        <f>LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[posicion]]-1)</f>
+        <v>Racedo</v>
+      </c>
+      <c r="D3">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>TRIM(presentismo!A4)</f>
+        <v>Maldonado, Alejandra</v>
+      </c>
+      <c r="B4" t="str">
+        <f>RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[largo]]-(datos[[#This Row],[posicion]] + 1))</f>
+        <v>Alejandra</v>
+      </c>
+      <c r="C4" t="str">
+        <f>LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[posicion]]-1)</f>
+        <v>Maldonado</v>
+      </c>
+      <c r="D4">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>TRIM(presentismo!A5)</f>
+        <v>Juarez, Alberto</v>
+      </c>
+      <c r="B5" t="str">
+        <f>RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[largo]]-(datos[[#This Row],[posicion]] + 1))</f>
+        <v>Alberto</v>
+      </c>
+      <c r="C5" t="str">
+        <f>LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[posicion]]-1)</f>
+        <v>Juarez</v>
+      </c>
+      <c r="D5">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>TRIM(presentismo!A6)</f>
+        <v>Martinez, Mariana</v>
+      </c>
+      <c r="B6" t="str">
+        <f>RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[largo]]-(datos[[#This Row],[posicion]] + 1))</f>
+        <v>Mariana</v>
+      </c>
+      <c r="C6" t="str">
+        <f>LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[posicion]]-1)</f>
+        <v>Martinez</v>
+      </c>
+      <c r="D6">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>TRIM(presentismo!A7)</f>
+        <v>Gomez, Graciela</v>
+      </c>
+      <c r="B7" t="str">
+        <f>RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[largo]]-(datos[[#This Row],[posicion]] + 1))</f>
+        <v>Graciela</v>
+      </c>
+      <c r="C7" t="str">
+        <f>LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[posicion]]-1)</f>
+        <v>Gomez</v>
+      </c>
+      <c r="D7">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E7">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>TRIM(presentismo!A8)</f>
+        <v>Garcia, Demetrio</v>
+      </c>
+      <c r="B8" t="str">
+        <f>RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[largo]]-(datos[[#This Row],[posicion]] + 1))</f>
+        <v>Demetrio</v>
+      </c>
+      <c r="C8" t="str">
+        <f>LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[posicion]]-1)</f>
+        <v>Garcia</v>
+      </c>
+      <c r="D8">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E8">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>TRIM(presentismo!A9)</f>
+        <v>Cabello, Camila</v>
+      </c>
+      <c r="B9" t="str">
+        <f>RIGHT(datos[[#This Row],[Empleado]],datos[[#This Row],[largo]]-(datos[[#This Row],[posicion]] + 1))</f>
+        <v>Camila</v>
+      </c>
+      <c r="C9" t="str">
+        <f>LEFT(datos[[#This Row],[Empleado]],datos[[#This Row],[posicion]]-1)</f>
+        <v>Cabello</v>
+      </c>
+      <c r="D9">
+        <f>FIND(char,datos[[#This Row],[Empleado]])</f>
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>33346</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>34254</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E9">
+        <f>LEN(datos[[#This Row],[Empleado]])</f>
         <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>36613</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>31612</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>36453</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1">
-        <v>37265</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1">
-        <v>30529</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1">
-        <v>34057</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI4" sqref="AI4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="22" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="3" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2.85546875" customWidth="1"/>
@@ -1070,94 +1687,94 @@
       <c r="A1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="25">
+      <c r="B1" s="24">
         <v>44866</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="24">
         <v>44867</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="24">
         <v>44868</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="24">
         <v>44869</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="24">
         <v>44870</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="25">
         <v>44871</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1" s="24">
         <v>44872</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1" s="24">
         <v>44873</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="24">
         <v>44874</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="24">
         <v>44875</v>
       </c>
-      <c r="L1" s="25">
+      <c r="L1" s="24">
         <v>44876</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1" s="24">
         <v>44877</v>
       </c>
-      <c r="N1" s="26">
+      <c r="N1" s="25">
         <v>44878</v>
       </c>
-      <c r="O1" s="25">
+      <c r="O1" s="24">
         <v>44879</v>
       </c>
-      <c r="P1" s="25">
+      <c r="P1" s="24">
         <v>44880</v>
       </c>
-      <c r="Q1" s="25">
+      <c r="Q1" s="24">
         <v>44881</v>
       </c>
-      <c r="R1" s="25">
+      <c r="R1" s="24">
         <v>44882</v>
       </c>
-      <c r="S1" s="25">
+      <c r="S1" s="24">
         <v>44883</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="24">
         <v>44884</v>
       </c>
-      <c r="U1" s="26">
+      <c r="U1" s="25">
         <v>44885</v>
       </c>
-      <c r="V1" s="25">
+      <c r="V1" s="24">
         <v>44886</v>
       </c>
-      <c r="W1" s="25">
+      <c r="W1" s="24">
         <v>44887</v>
       </c>
-      <c r="X1" s="25">
+      <c r="X1" s="24">
         <v>44888</v>
       </c>
-      <c r="Y1" s="25">
+      <c r="Y1" s="24">
         <v>44889</v>
       </c>
-      <c r="Z1" s="25">
+      <c r="Z1" s="24">
         <v>44890</v>
       </c>
-      <c r="AA1" s="25">
+      <c r="AA1" s="24">
         <v>44891</v>
       </c>
-      <c r="AB1" s="26">
+      <c r="AB1" s="25">
         <v>44892</v>
       </c>
-      <c r="AC1" s="25">
+      <c r="AC1" s="24">
         <v>44893</v>
       </c>
-      <c r="AD1" s="25">
+      <c r="AD1" s="24">
         <v>44894</v>
       </c>
-      <c r="AE1" s="25">
+      <c r="AE1" s="24">
         <v>44895</v>
       </c>
       <c r="AF1" t="s">
@@ -1178,7 +1795,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>_xlfn.CONCAT(empleados!B2,", ",empleados!C2)</f>
+        <f>_xlfn.CONCAT(empleados!C2,", ",empleados!B2)</f>
         <v>Racedo, Cristian</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1263,7 +1880,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>_xlfn.CONCAT(empleados!B3,", ",empleados!C3)</f>
+        <f>_xlfn.CONCAT(empleados!C3,", ",empleados!B3)</f>
         <v>Racedo, Abel</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1333,7 +1950,7 @@
         <v>84</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF9" si="0">COUNTBLANK($A3:$AE3)</f>
+        <f t="shared" ref="AF3:AF8" si="0">COUNTBLANK($A3:$AE3)</f>
         <v>8</v>
       </c>
       <c r="AG3">
@@ -1354,7 +1971,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(empleados!B4,", ",empleados!C4)</f>
+        <f>_xlfn.CONCAT(empleados!C4,", ",empleados!B4)</f>
         <v>Maldonado, Alejandra</v>
       </c>
       <c r="B4" s="1"/>
@@ -1437,7 +2054,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(empleados!B5,", ",empleados!C5)</f>
+        <f>_xlfn.CONCAT(empleados!C5,", ",empleados!B5)</f>
         <v>Juarez, Alberto</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1516,7 +2133,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(empleados!B6,", ",empleados!C6)</f>
+        <f>_xlfn.CONCAT(empleados!C6,", ",empleados!B6)</f>
         <v>Martinez, Mariana</v>
       </c>
       <c r="B6" s="1"/>
@@ -1593,7 +2210,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(empleados!B7,", ",empleados!C7)</f>
+        <f>_xlfn.CONCAT(empleados!C7,", ",empleados!B7)</f>
         <v>Gomez, Graciela</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1669,7 +2286,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(empleados!B8,", ",empleados!C8)</f>
+        <f>_xlfn.CONCAT(empleados!C8,", ",empleados!B8)</f>
         <v>Garcia, Demetrio</v>
       </c>
       <c r="B8" s="1"/>
@@ -1735,7 +2352,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(empleados!B9,", ",empleados!C9)</f>
+        <f>_xlfn.CONCAT(empleados!C9,", ",empleados!B9)</f>
         <v>Cabello, Camila</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1873,19 +2490,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -1899,7 +2516,7 @@
       <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1916,7 +2533,7 @@
       <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>25000</v>
       </c>
       <c r="E2" s="2">
@@ -1933,7 +2550,7 @@
       <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>56000</v>
       </c>
       <c r="E3" s="2">
@@ -1950,7 +2567,7 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>124999.99</v>
       </c>
       <c r="E4" s="2">
@@ -1967,7 +2584,7 @@
       <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>35500</v>
       </c>
       <c r="E5" s="2">
@@ -1984,7 +2601,7 @@
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>85750</v>
       </c>
       <c r="E6" s="2">
@@ -2001,7 +2618,7 @@
       <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>8599.99</v>
       </c>
       <c r="E7" s="2">
@@ -2018,7 +2635,7 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>165800</v>
       </c>
       <c r="E8" s="2">
@@ -2035,7 +2652,7 @@
       <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>200530</v>
       </c>
       <c r="E9" s="2">
@@ -2047,13 +2664,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,87 +2686,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>72</v>
       </c>
       <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>1.21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>56000</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <f>$D2*$E2</f>
         <v>112000</v>
       </c>
-      <c r="G2" s="16">
-        <f>$J$1*F2</f>
+      <c r="G2" s="15">
+        <f t="shared" ref="G2:G16" si="0">$J$1*F2</f>
         <v>135520</v>
       </c>
       <c r="I2" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>5</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>85750</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f>D3*E3</f>
         <v>85750</v>
       </c>
-      <c r="G3" s="21">
-        <f>$J$1*F3</f>
+      <c r="G3" s="20">
+        <f t="shared" si="0"/>
         <v>103757.5</v>
       </c>
       <c r="I3" t="s">
@@ -2161,123 +2778,123 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>4</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>3</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>35500</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f>D4*E4</f>
         <v>106500</v>
       </c>
-      <c r="G4" s="16">
-        <f>$J$1*F4</f>
+      <c r="G4" s="15">
+        <f t="shared" si="0"/>
         <v>128865</v>
       </c>
       <c r="I4" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f>SUM($F:$F)</f>
         <v>2264249.94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>3</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>124999.99</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f>D5*E5</f>
         <v>499999.96</v>
       </c>
-      <c r="G5" s="21">
-        <f>$J$1*F5</f>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
         <v>604999.95160000003</v>
       </c>
       <c r="I5" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f>AVERAGE($F:$F)</f>
         <v>150949.99599999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>56000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>D6*E6</f>
         <v>112000</v>
       </c>
-      <c r="G6" s="16">
-        <f>$J$1*F6</f>
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
         <v>135520</v>
       </c>
       <c r="I6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f>MEDIAN($F:$F)</f>
         <v>112000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>25000</v>
       </c>
-      <c r="F7" s="20">
-        <f t="shared" ref="F7:F15" si="0">D7*E7</f>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7:F15" si="1">D7*E7</f>
         <v>25000</v>
       </c>
-      <c r="G7" s="21">
-        <f>$J$1*F7</f>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
         <v>30250</v>
       </c>
       <c r="I7" t="s">
@@ -2289,27 +2906,27 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>56000</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
+        <f t="shared" si="1"/>
+        <v>168000</v>
+      </c>
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
-        <v>168000</v>
-      </c>
-      <c r="G8" s="16">
-        <f>$J$1*F8</f>
         <v>203280</v>
       </c>
       <c r="I8" t="s">
@@ -2321,207 +2938,206 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>3</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>124999.99</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>249999.98</v>
+      </c>
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
-        <v>249999.98</v>
-      </c>
-      <c r="G9" s="21">
-        <f>$J$1*F9</f>
         <v>302499.97580000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>4</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>35500</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>35500</v>
+      </c>
+      <c r="G10" s="15">
         <f t="shared" si="0"/>
-        <v>35500</v>
-      </c>
-      <c r="G10" s="16">
-        <f>$J$1*F10</f>
         <v>42955</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>5</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>4</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>85750</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
+        <f t="shared" si="1"/>
+        <v>343000</v>
+      </c>
+      <c r="G11" s="20">
         <f t="shared" si="0"/>
-        <v>343000</v>
-      </c>
-      <c r="G11" s="21">
-        <f>$J$1*F11</f>
         <v>415030</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>56000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>112000</v>
+      </c>
+      <c r="G12" s="15">
         <f t="shared" si="0"/>
-        <v>112000</v>
-      </c>
-      <c r="G12" s="16">
-        <f>$J$1*F12</f>
         <v>135520</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>1</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>1</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>3</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>25000</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="G13" s="20">
         <f t="shared" si="0"/>
-        <v>75000</v>
-      </c>
-      <c r="G13" s="21">
-        <f>$J$1*F13</f>
         <v>90750</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>1</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>2</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>1</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>56000</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
+        <f t="shared" si="1"/>
+        <v>56000</v>
+      </c>
+      <c r="G14" s="15">
         <f t="shared" si="0"/>
+        <v>67760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2</v>
+      </c>
+      <c r="C15" s="17">
+        <v>5</v>
+      </c>
+      <c r="D15" s="17">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>85750</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>171500</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="0"/>
+        <v>207515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
         <v>56000</v>
       </c>
-      <c r="G14" s="16">
-        <f>$J$1*F14</f>
-        <v>67760</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="18">
-        <v>2</v>
-      </c>
-      <c r="C15" s="18">
-        <v>5</v>
-      </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>85750</v>
-      </c>
-      <c r="F15" s="20">
-        <f t="shared" si="0"/>
-        <v>171500</v>
-      </c>
-      <c r="G15" s="21">
-        <f>$J$1*F15</f>
-        <v>207515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="22">
-        <v>56000</v>
-      </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <f>D16*E16</f>
         <v>112000</v>
       </c>
-      <c r="G16" s="24">
-        <f>$J$1*F16</f>
+      <c r="G16" s="23">
+        <f t="shared" si="0"/>
         <v>135520</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-mjv13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69409F2D-016C-448C-9564-958F08D4D594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B25775-E7D2-4B3F-9D62-8B6FCB515047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="487" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="año_actual">empleados!$O$2</definedName>
-    <definedName name="char">Datos!$G$2</definedName>
+    <definedName name="char">Datos!$H$2</definedName>
     <definedName name="fecha_actual">empleados!$M$2</definedName>
     <definedName name="iva_ventas">ventas!$K$1</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="153">
   <si>
     <t>Apellido</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>atrás</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Intro</t>
   </si>
 </sst>
 </file>
@@ -674,7 +680,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -735,12 +741,18 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1090,6 +1102,1414 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42447</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>39413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25014</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8077A5D7-DE18-4D6B-9A8F-4F3304061BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="31111" y1="26667" x2="26222" y2="67556"/>
+                      <a14:backgroundMark x1="15556" y1="7556" x2="83111" y2="14222"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="4700"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="66000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13194" t="15135" r="10682" b="15676"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4864068" y="801413"/>
+          <a:ext cx="1125567" cy="967154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26362</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>748159</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>749436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99502639-26BA-405E-82FB-50A9A83DB67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent1">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="23149" t="-216" r="24076" b="216"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3323983" y="983898"/>
+          <a:ext cx="721797" cy="718038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542191</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109318</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1055077" cy="514949"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9260CB85-D2E7-4BF1-BCC3-0A4EED3EA405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3077306" y="5062318"/>
+          <a:ext cx="1055077" cy="514949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="http://informationtransfereconomics.blogspot.com/2017/02/information-equilibrium-code.html"/>
+            </a:rPr>
+            <a:t>Esta foto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900"/>
+            <a:t> de Autor desconocido está bajo licencia </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="https://creativecommons.org/licenses/by/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59872</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>707872</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>709448</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Grupo 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA665E1-826F-46DD-8AE3-5BCC3E340EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3357493" y="1011621"/>
+          <a:ext cx="648000" cy="650327"/>
+          <a:chOff x="2596243" y="1011621"/>
+          <a:chExt cx="648000" cy="650327"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Triángulo isósceles 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237492C4-6460-47E5-9E7B-83C93FF949EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2815999" y="1182414"/>
+            <a:ext cx="428244" cy="472965"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-AR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="Grupo 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC26A3D-026F-45C8-AE4B-2238DD665979}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2596243" y="1011621"/>
+            <a:ext cx="489857" cy="650327"/>
+            <a:chOff x="2596243" y="1011621"/>
+            <a:chExt cx="489857" cy="650327"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="Paralelogramo 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AF4F17-B3AE-44AD-B7DC-5D78267E3490}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2596243" y="1011621"/>
+              <a:ext cx="445148" cy="650327"/>
+            </a:xfrm>
+            <a:prstGeom prst="parallelogram">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 72111"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="es-AR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Triángulo isósceles 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93738D76-3A9B-4AB7-8BBF-5C638E0E6F92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2775857" y="1240970"/>
+              <a:ext cx="310243" cy="315875"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="es-AR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203818</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>922327</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>739707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Gráfico 16" descr="Hogar con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D2EF20-7EC0-4FA2-ACF5-5A76F74FBE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5025439" y="19707"/>
+          <a:ext cx="718509" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623252</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>727212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41252</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Gráfico 18" descr="Atrás con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF686EA2-8158-4431-8FB1-20E9B3F6A720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5825873" y="727212"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43239</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1239</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Gráfico 20" descr="Lápiz con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A014007C-0406-4B24-9F57-575E92F2ECF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1815717" y="995739"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19304</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>739304</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>747587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Gráfico 22" descr="Correo electrónico con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD08A190-9E70-4AFF-A8B3-45B09D1B7BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1029782" y="980087"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>740217</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Gráfico 24" descr="Documento con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1FFC59-70E4-48E4-943C-13B3CDA4CBEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="268695" y="1005848"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7707</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>21416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>727707</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>741416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Gráfico 26" descr="Tendencia al alza con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AD432C-FCC0-417E-A9D4-37F00040CBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305328" y="21416"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28613</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748613</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Gráfico 28" descr="Dinero con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6084AA-F53F-468A-9B32-1E695426584A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2564234" y="50319"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>26384</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>124347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>746384</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Gráfico 30" descr="Camión con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA7C475-B37A-4CCE-B2D4-940C1D262ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800005" y="124347"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>737300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Gráfico 32" descr="Lista con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F3F5FD-BAC2-44B2-BB0B-6FFDFEBE3E1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028921" y="0"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29638</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>749638</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>748211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Gráfico 34" descr="Identificación de empleado con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05D4C4E-113F-4FC2-A953-6E2C58AEB2CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279259" y="28211"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>726569</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Gráfico 36" descr="Maestro con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EC6615-3B9D-4625-963F-E79BA1A97CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1780190" y="1018190"/>
+          <a:ext cx="720000" cy="792259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>18622</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>738622</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>752845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Gráfico 38" descr="Base de datos con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5AC3CF-96E8-4D64-933D-5F14965FCE03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId41"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1792243" y="32845"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51566A93-CD6C-405F-8330-9C001880D73F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41672" y="5953"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33A9F8D-2ABF-4A55-AA7E-0BDEAE59C322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41672" y="5953"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>374570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>554570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E6C6AF-DD3F-4AF2-B521-08A15E93FBA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="28575" y="374570"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54E7848-5AE7-4C4C-9124-8375E246E700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41672" y="5953"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43168FF-7D10-4FB7-9DF8-C368ACC2001F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41672" y="5953"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B1C1AA-53DA-485F-A9C4-7BCBE10ACA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41672" y="5953"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FAF7F421-A303-4292-9998-E17312DF5C4D}" name="tabla_empleados" displayName="tabla_empleados" comment="Informacion del Personal de la Empresa" ref="B1:K9" totalsRowShown="0">
   <autoFilter ref="B1:K9" xr:uid="{FAF7F421-A303-4292-9998-E17312DF5C4D}"/>
@@ -1118,8 +2538,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}" name="tabla_datos" displayName="tabla_datos" comment="Tabla con extraccion de Nombre y apellido de Empleados" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}" name="tabla_datos" displayName="tabla_datos" comment="Tabla con extraccion de Nombre y apellido de Empleados" ref="B1:F9" totalsRowShown="0">
+  <autoFilter ref="B1:F9" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{29B4FC90-C2F0-4B58-BFFA-F95ED0272441}" name="Empleado">
       <calculatedColumnFormula>TRIM(presentismo!B2)</calculatedColumnFormula>
@@ -1472,62 +2892,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B73CBFC-728A-4FAD-AF56-CCF163A7BEB8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="49" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="F4" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="G4" s="49" t="s">
         <v>149</v>
       </c>
+      <c r="H4" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1537,16 +2974,19 @@
   <hyperlinks>
     <hyperlink ref="B2" location="empleados!A1" display="Empleados" xr:uid="{8FD0F67B-0881-439C-9B4F-54C2A8484AA9}"/>
     <hyperlink ref="C2" location="presentismo!A1" display="Asistencia" xr:uid="{471CC1BE-FEBC-4201-B514-4678289F0B6C}"/>
-    <hyperlink ref="D2" location="productos!A1" display="Productos" xr:uid="{233EA16B-6356-446D-B3AB-846315C8DBA2}"/>
-    <hyperlink ref="E2" location="ventas!A1" display="Ventas" xr:uid="{2A2E4FDB-9636-456E-8F57-637A5722BD88}"/>
-    <hyperlink ref="F2" location="estadisticas!A1" display="Estadisticas" xr:uid="{9AA00A8F-A601-4768-8A9A-4160D2C4C3C7}"/>
+    <hyperlink ref="E2" location="productos!A1" display="Productos" xr:uid="{233EA16B-6356-446D-B3AB-846315C8DBA2}"/>
+    <hyperlink ref="F2" location="ventas!A1" display="Ventas" xr:uid="{2A2E4FDB-9636-456E-8F57-637A5722BD88}"/>
+    <hyperlink ref="G2" location="estadisticas!A1" display="Estadisticas" xr:uid="{9AA00A8F-A601-4768-8A9A-4160D2C4C3C7}"/>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{573A89D0-82F4-4530-BE07-49F82FCB2F4D}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{2C0E0674-11CA-43DD-8164-972B84133705}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{C4A47B32-ED93-43FC-932A-E249AECE7D9F}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{93934089-63E0-4589-9A50-51B80B978C11}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{12B07B36-8EA2-46DA-BB99-D9FA342E582F}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{C4A47B32-ED93-43FC-932A-E249AECE7D9F}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{93934089-63E0-4589-9A50-51B80B978C11}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{12B07B36-8EA2-46DA-BB99-D9FA342E582F}"/>
+    <hyperlink ref="D2" location="Datos!A1" display="Datos" xr:uid="{E18D4BFF-FE9D-4737-9DAE-DD971379E1F0}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{F43857B0-7367-48EA-A3C3-68B996FAA8A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1554,15 +2994,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
@@ -1584,7 +3024,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>150</v>
       </c>
       <c r="B1" t="s">
@@ -1683,7 +3123,7 @@
       </c>
       <c r="N2" s="43">
         <f ca="1">NOW()</f>
-        <v>44910.699760416668</v>
+        <v>44910.732506134256</v>
       </c>
       <c r="O2" s="6">
         <f ca="1">YEAR(fecha_actual)</f>
@@ -1699,15 +3139,15 @@
       </c>
       <c r="R2" s="6">
         <f ca="1">HOUR(N2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S2" s="6">
         <f ca="1">MINUTE(N2)</f>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="T2" s="19">
         <f ca="1">SECOND(N2)</f>
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2003,231 +3443,238 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C368CA-EC1F-4C28-88F2-7559A5997862}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="50"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
         <f>TRIM(presentismo!B2)</f>
         <v>Racedo, Cristian</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Cristian</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Racedo</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
         <f>TRIM(presentismo!B3)</f>
         <v>Racedo, Abel</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Abel</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Racedo</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
         <f>TRIM(presentismo!B4)</f>
         <v>Maldonado, Alejandra</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Alejandra</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Maldonado</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
         <f>TRIM(presentismo!B5)</f>
         <v>Juarez, Alberto</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Alberto</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Juarez</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
         <f>TRIM(presentismo!B6)</f>
         <v>Martinez, Mariana</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Mariana</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Martinez</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
         <f>TRIM(presentismo!B7)</f>
         <v>Gomez, Graciela</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Graciela</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Gomez</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
         <f>TRIM(presentismo!B8)</f>
         <v>Garcia, Demetrio</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Demetrio</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Garcia</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
         <f>TRIM(presentismo!B9)</f>
         <v>Cabello, Camila</v>
       </c>
-      <c r="B9" t="str">
+      <c r="C9" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Camila</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Cabello</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="menu!A1" display="atrás" xr:uid="{52F5A465-28D2-48CE-B5A6-F404D2F6AE0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2236,16 +3683,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" style="18" bestFit="1" customWidth="1"/>
@@ -3155,10 +4602,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="menu!A1" display="atrás" xr:uid="{8A76C932-1168-442B-BE54-5E2A24977812}"/>
+    <hyperlink ref="A1" location="menu!A1" display="Volver" xr:uid="{6C2EC084-3FEA-47B0-BB6A-501CCE8EF332}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3173,7 +4621,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3182,7 +4630,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>150</v>
       </c>
       <c r="B1" t="s">
@@ -3339,11 +4787,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="menu!A1" display="Volver" xr:uid="{40C2321A-D476-4392-AE61-3EA790DD9B38}"/>
+    <hyperlink ref="A1" location="menu!A1" display="Volver" xr:uid="{ECEF68EC-BB86-47EE-B0F0-A293ECFB4325}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3359,7 +4808,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -3373,7 +4822,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>150</v>
       </c>
       <c r="B1" s="29" t="s">
@@ -3830,11 +5279,12 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="menu!A1" display="Volver" xr:uid="{A2747F96-F73A-47F1-8C49-82AA64078E0A}"/>
+    <hyperlink ref="A1" location="menu!A1" display="Volver" xr:uid="{261F7D50-C145-4C27-AC5E-50FB264B982C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3843,25 +5293,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956760E-99C3-4188-ABA4-1CAAD0DD9EC6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="menu!A1" display="Volver" xr:uid="{A91A2388-E58F-4E26-9A2B-ACFAE4BB8D1C}"/>
+    <hyperlink ref="A1" location="menu!A1" display="Volver" xr:uid="{D14498A6-7B24-4ABE-88AB-4CFAB7CF46A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-mjv13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B25775-E7D2-4B3F-9D62-8B6FCB515047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B21792-60C1-4E7A-85B4-17345710BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="487" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="487" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="6" r:id="rId1"/>
@@ -2894,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B73CBFC-728A-4FAD-AF56-CCF163A7BEB8}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="N2" s="43">
         <f ca="1">NOW()</f>
-        <v>44910.732506134256</v>
+        <v>44910.750106481479</v>
       </c>
       <c r="O2" s="6">
         <f ca="1">YEAR(fecha_actual)</f>
@@ -3139,15 +3139,15 @@
       </c>
       <c r="R2" s="6">
         <f ca="1">HOUR(N2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="6">
         <f ca="1">MINUTE(N2)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="T2" s="19">
         <f ca="1">SECOND(N2)</f>
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -4616,7 +4616,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,21 +4801,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.5703125" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9466853C-68AE-4BA2-BF48-C6CA0A4FFCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B1A19-643B-4089-B1C5-499A7D73E950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{FBF13C54-EAF5-48F7-B675-6702B08EF7EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBF13C54-EAF5-48F7-B675-6702B08EF7EF}"/>
   </bookViews>
   <sheets>
     <sheet name="empleados" sheetId="1" r:id="rId1"/>
-    <sheet name="presentismo" sheetId="4" r:id="rId2"/>
-    <sheet name="productos" sheetId="2" r:id="rId3"/>
-    <sheet name="ventas" sheetId="3" r:id="rId4"/>
+    <sheet name="datos" sheetId="5" r:id="rId2"/>
+    <sheet name="presentismo" sheetId="4" r:id="rId3"/>
+    <sheet name="productos" sheetId="2" r:id="rId4"/>
+    <sheet name="ventas" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="ahora">datos!$P$2</definedName>
+    <definedName name="año">datos!$Q$2</definedName>
     <definedName name="cant">ventas!$D:$D</definedName>
+    <definedName name="hoy">datos!$O$2</definedName>
     <definedName name="iva">ventas!$J$2</definedName>
     <definedName name="precio">ventas!$E:$E</definedName>
     <definedName name="precio_iva">ventas!$G:$G</definedName>
@@ -43,8 +47,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="98">
   <si>
     <t>codigo</t>
   </si>
@@ -58,9 +84,6 @@
     <t>legajo</t>
   </si>
   <si>
-    <t>fecha nac</t>
-  </si>
-  <si>
     <t>edad</t>
   </si>
   <si>
@@ -70,21 +93,12 @@
     <t>cuil</t>
   </si>
   <si>
-    <t>racedo</t>
-  </si>
-  <si>
-    <t>cristian</t>
-  </si>
-  <si>
     <t>cdr18491</t>
   </si>
   <si>
     <t>7g</t>
   </si>
   <si>
-    <t>abel</t>
-  </si>
-  <si>
     <t>aar121093</t>
   </si>
   <si>
@@ -118,12 +132,6 @@
     <t>cant</t>
   </si>
   <si>
-    <t>Aguilera</t>
-  </si>
-  <si>
-    <t>Cristina</t>
-  </si>
-  <si>
     <t>ace85939</t>
   </si>
   <si>
@@ -257,18 +265,119 @@
   </si>
   <si>
     <t>Suma</t>
+  </si>
+  <si>
+    <t>27-45241471-1</t>
+  </si>
+  <si>
+    <t>23-33016244-9</t>
+  </si>
+  <si>
+    <t>Osses</t>
+  </si>
+  <si>
+    <t>osa18329</t>
+  </si>
+  <si>
+    <t>mla9120</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>HOY</t>
+  </si>
+  <si>
+    <t>AHORA</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>años</t>
+  </si>
+  <si>
+    <t>nacimiento</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>docmento</t>
+  </si>
+  <si>
+    <t>empleado</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>largo</t>
+  </si>
+  <si>
+    <t>cristian Damian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">racedo    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    racedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Aguilera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina     </t>
+  </si>
+  <si>
+    <t>Abel      Alejandro</t>
+  </si>
+  <si>
+    <t>Shakira      Alejandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lionel      Andres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messi    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +388,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,16 +422,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,33 +463,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -350,12 +531,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="52">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -459,12 +654,319 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
+      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="75" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
@@ -488,25 +990,97 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}" name="empleados" displayName="empleados" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}" name="empleados" displayName="empleados" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9B2FABCB-122E-4021-BCB9-1ABCF38F08D1}" name="codigo"/>
     <tableColumn id="2" xr3:uid="{48BCCCB0-2E0A-4212-A44B-A72FF9EFADA4}" name="apellido"/>
     <tableColumn id="3" xr3:uid="{8E2D81A4-6B1C-4EE6-B057-EC49A27E5F85}" name="nombre"/>
     <tableColumn id="4" xr3:uid="{FAD0BCDF-63FA-416C-A9FA-7BBA19E4DC2A}" name="legajo"/>
-    <tableColumn id="5" xr3:uid="{FDC1831B-A431-4700-AA4A-2FBE0A96C27E}" name="fecha nac" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{688A04DA-9A69-41C2-B220-48FBDD3AA266}" name="edad"/>
     <tableColumn id="7" xr3:uid="{B0450268-4DC5-4E02-B6A4-0DBA5EAA50A9}" name="sector"/>
-    <tableColumn id="8" xr3:uid="{926D684E-B855-4F94-973A-B6231FEF889B}" name="cuil"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}" name="presentismo" displayName="presentismo" ref="A1:AG4" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:AG4" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21CB7767-E429-4D32-8B4C-B110EB0BC09A}" name="tiempo" displayName="tiempo" ref="O1:V2" totalsRowShown="0">
+  <autoFilter ref="O1:V2" xr:uid="{21CB7767-E429-4D32-8B4C-B110EB0BC09A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D0C157DB-5866-4540-85DA-CA9246E3491C}" name="HOY" dataDxfId="51">
+      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F19B6CA2-44B0-4AA2-94E5-4821559CF825}" name="AHORA" dataDxfId="50">
+      <calculatedColumnFormula>NOW()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E5C1B772-C41D-4F28-BDF3-44DE9CE5F354}" name="AÑO">
+      <calculatedColumnFormula>YEAR(hoy)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D7A2B56F-CDB5-46FE-9F3A-B53F8B320C2C}" name="MES">
+      <calculatedColumnFormula>MONTH(hoy)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BD792C6E-D733-4276-A139-0625F542E532}" name="DIA">
+      <calculatedColumnFormula>DAY(hoy)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C6D520E3-FDB5-4362-891A-E0FCD1A160A0}" name="HH">
+      <calculatedColumnFormula>HOUR(ahora)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7D86770F-F4B1-43B7-B02B-F17DA43F123F}" name="mm">
+      <calculatedColumnFormula>MINUTE(ahora)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C4C57FCE-EDF1-4327-A274-435F95FB651D}" name="ss">
+      <calculatedColumnFormula>SECOND(ahora)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A8CA9039-9259-406D-B167-9DC94801EDAB}" name="datos" displayName="datos" ref="A1:M6" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A1:M6" xr:uid="{A8CA9039-9259-406D-B167-9DC94801EDAB}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{1E40E760-3B7A-46CB-ADE6-9C36221D8FBE}" name="empleado" dataDxfId="47">
+      <calculatedColumnFormula>TRIM(presentismo[[#This Row],[Empleado]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{A673056C-D666-4A82-8F15-DA591ECD51CD}" name="apellido" dataDxfId="46">
+      <calculatedColumnFormula>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{98D588C0-9131-404A-823E-4F312157B4EE}" name="nombre" dataDxfId="45">
+      <calculatedColumnFormula>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DA16E63D-3C7B-4235-BC8E-3EB411EC2AF9}" name="nacimiento" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{D65F57BC-8164-4AB7-8337-DE00B9FD8A3A}" name="años" dataDxfId="43">
+      <calculatedColumnFormula array="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{906FCDA3-636B-4283-9205-7AF46F977290}" name="edad" dataDxfId="42" dataCellStyle="Millares">
+      <calculatedColumnFormula>(hoy-datos[[#This Row],[nacimiento]])/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{019FA1D5-4F09-4717-AE40-B6C31AA7DC9C}" name="cuil" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{FECB634B-7A6D-4C5C-80DC-9D64C533A46D}" name="g" dataDxfId="40">
+      <calculatedColumnFormula>LEFT(datos[[#This Row],[cuil]],2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{4DAF6AA5-E15E-4B0E-A6B3-0413A3FC7025}" name="docmento" dataDxfId="39">
+      <calculatedColumnFormula>MID(datos[[#This Row],[cuil]],4,8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{98242B92-44B0-46D8-B255-BEFE9B217C6E}" name="v" dataDxfId="38">
+      <calculatedColumnFormula>RIGHT(datos[[#This Row],[cuil]],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{96F6AC38-E0D7-4538-BF50-B26B716ECD40}" name="char" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{900EA9DF-7806-4E2A-BE95-A5AA6FF29C93}" name="p" dataDxfId="36">
+      <calculatedColumnFormula>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{7A21E3B8-95EE-4371-95D5-EA3889520837}" name="largo" dataDxfId="35">
+      <calculatedColumnFormula>LEN(datos[[#This Row],[empleado]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}" name="presentismo" displayName="presentismo" ref="A1:AG6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:AG6" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{83429F3A-0633-41B4-A217-0D30DFCF116B}" name="Empleado" dataDxfId="32">
       <calculatedColumnFormula>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</calculatedColumnFormula>
@@ -849,25 +1423,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F639E3-C47A-43D0-A8C0-9681F10A43EB}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -881,391 +1464,791 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>33346</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>34254</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.cuitonline.com/detalle/27452414711/osses-shakira-alejandra.html" xr:uid="{F2232659-C17D-4204-940D-345947882C0E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C54B82-26A3-4EF4-A4EB-E1387A93D0B4}">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <v>racedo ; cristian Damian</v>
+      </c>
+      <c r="B2" t="str">
+        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <v xml:space="preserve">racedo </v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <v>cristian Damian</v>
+      </c>
+      <c r="D2" s="1">
+        <v>33346</v>
+      </c>
+      <c r="E2" s="23" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <v>31</v>
+      </c>
+      <c r="F2" s="24">
+        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
+        <v>31.646575342465752</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="str">
+        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <v>35336446</v>
+      </c>
+      <c r="J2" s="7" t="str">
+        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="26">
+        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <v>8</v>
+      </c>
+      <c r="M2" s="26">
+        <f>LEN(datos[[#This Row],[empleado]])</f>
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="O2" s="1">
+        <f ca="1">TODAY()</f>
+        <v>44897</v>
+      </c>
+      <c r="P2" s="22">
+        <f ca="1">NOW()</f>
+        <v>44897.545370138891</v>
+      </c>
+      <c r="Q2">
+        <f ca="1">YEAR(hoy)</f>
+        <v>2022</v>
+      </c>
+      <c r="R2">
+        <f ca="1">MONTH(hoy)</f>
+        <v>12</v>
+      </c>
+      <c r="S2">
+        <f ca="1">DAY(hoy)</f>
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <f ca="1">HOUR(ahora)</f>
+        <v>13</v>
+      </c>
+      <c r="U2">
+        <f ca="1">MINUTE(ahora)</f>
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <f ca="1">SECOND(ahora)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <v>racedo; Abel Alejandro</v>
+      </c>
+      <c r="B3" t="str">
+        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <v>racedo</v>
+      </c>
+      <c r="C3" t="str">
+        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <v>Abel Alejandro</v>
+      </c>
+      <c r="D3" s="1">
+        <v>34254</v>
+      </c>
+      <c r="E3" s="23" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <v>29</v>
+      </c>
+      <c r="F3" s="24">
+        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
+        <v>29.158904109589042</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <v>38558443</v>
+      </c>
+      <c r="J3" s="9" t="str">
+        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="27">
+        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <v>7</v>
+      </c>
+      <c r="M3" s="27">
+        <f>LEN(datos[[#This Row],[empleado]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <v>Aguilera; Cristina</v>
+      </c>
+      <c r="B4" t="str">
+        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <v>Aguilera</v>
+      </c>
+      <c r="C4" t="str">
+        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <v>Cristina</v>
+      </c>
+      <c r="D4" s="1">
         <v>29573</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="E4" s="23" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <v>42</v>
+      </c>
+      <c r="F4" s="24">
+        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
+        <v>41.983561643835614</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
         <v>27</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <v>14093915</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="26">
+        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <v>9</v>
+      </c>
+      <c r="M4" s="26">
+        <f>LEN(datos[[#This Row],[empleado]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <v>Osses; Shakira Alejandra</v>
+      </c>
+      <c r="B5" t="str">
+        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <v>Osses</v>
+      </c>
+      <c r="C5" t="str">
+        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <v>Shakira Alejandra</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28158</v>
+      </c>
+      <c r="E5" s="23" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <v>45</v>
+      </c>
+      <c r="F5" s="24">
+        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
+        <v>45.860273972602741</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <v>45241471</v>
+      </c>
+      <c r="J5" s="9" t="str">
+        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="27">
+        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="27">
+        <f>LEN(datos[[#This Row],[empleado]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <v>Messi ; Lionel Andres</v>
+      </c>
+      <c r="B6" t="str">
+        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <v xml:space="preserve">Messi </v>
+      </c>
+      <c r="C6" t="str">
+        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <v>Lionel Andres</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31952</v>
+      </c>
+      <c r="E6" s="23" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <v>35</v>
+      </c>
+      <c r="F6" s="24">
+        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
+        <v>35.465753424657535</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
+        <v>23</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <v>33016244</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="26">
+        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <v>7</v>
+      </c>
+      <c r="M6" s="26">
+        <f>LEN(datos[[#This Row],[empleado]])</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FFAE78-438E-4183-90FE-F9F4BDD2CD47}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.42578125" style="5" customWidth="1"/>
-    <col min="32" max="32" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.42578125" style="11" customWidth="1"/>
+    <col min="32" max="32" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="G1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="L1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="M1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="N1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="O1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="P1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="Q1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="R1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="S1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="T1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="U1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="V1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="W1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="X1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="Y1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="Z1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="AA1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AB1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AC1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AD1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AE1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AF1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AG1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AI1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AJ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="str">
+      <c r="A2" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
-        <v>racedo; cristian</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="12">
+        <v>racedo    ; cristian Damian</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="15"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="18">
         <f>COUNTA(B2:AE2)</f>
         <v>19</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="18">
         <f>COUNTBLANK(B2:AE2)</f>
         <v>11</v>
       </c>
       <c r="AI2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AJ2">
         <f>SUM(presentismo[ASIST])</f>
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="AK2">
         <f>SUM(presentismo[AUS])</f>
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="str">
+      <c r="A3" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
-        <v>racedo; abel</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF3" s="12">
-        <f t="shared" ref="AF2:AF4" si="0">COUNTA(B3:AE3)</f>
+        <v xml:space="preserve">    racedo; Abel      Alejandro</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF3" s="18">
+        <f t="shared" ref="AF3:AF4" si="0">COUNTA(B3:AE3)</f>
         <v>16</v>
       </c>
-      <c r="AG3" s="12">
-        <f t="shared" ref="AG2:AG4" si="1">COUNTBLANK(B3:AE3)</f>
+      <c r="AG3" s="18">
+        <f t="shared" ref="AG3:AG4" si="1">COUNTBLANK(B3:AE3)</f>
         <v>14</v>
       </c>
       <c r="AI3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AJ3">
         <f>MAX(presentismo[ASIST])</f>
@@ -1277,75 +2260,79 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="str">
+      <c r="A4" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
-        <v>Aguilera; Cristina</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF4" s="12">
+        <v xml:space="preserve">   Aguilera; Cristina     </v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF4" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AG4" s="12">
+        <v>19</v>
+      </c>
+      <c r="AG4" s="18">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AJ4">
         <f>MIN(presentismo[ASIST])</f>
@@ -1357,23 +2344,155 @@
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="A5" s="17" t="str">
+        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
+        <v>Osses; Shakira      Alejandra</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="18">
+        <f t="shared" ref="AF5:AF6" si="2">COUNTA(B5:AE5)</f>
+        <v>16</v>
+      </c>
+      <c r="AG5" s="18">
+        <f t="shared" ref="AG5" si="3">COUNTBLANK(B5:AE5)</f>
+        <v>14</v>
+      </c>
       <c r="AI5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ5" s="13">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="19">
         <f>AVERAGE(presentismo[ASIST])</f>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="AK5" s="13">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AK5" s="19">
         <f>AVERAGE(presentismo[AUS])</f>
-        <v>12.333333333333334</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="A6" s="17" t="str">
+        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
+        <v xml:space="preserve">Messi    ; Lionel      Andres </v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="18">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AG6" s="18">
+        <f>COUNTBLANK(B6:AE6)</f>
+        <v>12</v>
+      </c>
       <c r="AI6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AJ6">
         <f>MEDIAN(presentismo[ASIST])</f>
@@ -1385,90 +2504,90 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+      <c r="B7" s="14"/>
       <c r="AI7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ7" t="e">
+        <v>63</v>
+      </c>
+      <c r="AJ7">
         <f>MODE(presentismo[ASIST])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK7" t="e">
+        <v>19</v>
+      </c>
+      <c r="AK7">
         <f>MODE(presentismo[AUS])</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
+      <c r="B31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,7 +2597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BCF59A-9D0C-4ADD-8102-A58A6DC81599}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1490,7 +2609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FF01-9040-4806-AC6E-6DE86411CAF8}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1513,28 +2632,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1554,15 +2673,15 @@
         <v>15000</v>
       </c>
       <c r="F2" s="3">
-        <f>cant*precio</f>
+        <f t="shared" ref="F2:F11" si="0">cant*precio</f>
         <v>30000</v>
       </c>
       <c r="G2" s="3">
-        <f>total*iva</f>
+        <f t="shared" ref="G2:G11" si="1">total*iva</f>
         <v>6300</v>
       </c>
       <c r="H2" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" ref="H2:H11" si="2">total +precio_iva</f>
         <v>36300</v>
       </c>
       <c r="J2" s="2">
@@ -1586,15 +2705,15 @@
         <v>5400</v>
       </c>
       <c r="F3" s="3">
-        <f>cant*precio</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
       <c r="G3" s="3">
-        <f>total*iva</f>
+        <f t="shared" si="1"/>
         <v>4536</v>
       </c>
       <c r="H3" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" si="2"/>
         <v>26136</v>
       </c>
     </row>
@@ -1615,15 +2734,15 @@
         <v>3800</v>
       </c>
       <c r="F4" s="3">
-        <f>cant*precio</f>
+        <f t="shared" si="0"/>
         <v>11400</v>
       </c>
       <c r="G4" s="3">
-        <f>total*iva</f>
+        <f t="shared" si="1"/>
         <v>2394</v>
       </c>
       <c r="H4" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" si="2"/>
         <v>13794</v>
       </c>
     </row>
@@ -1644,15 +2763,15 @@
         <v>600</v>
       </c>
       <c r="F5" s="3">
-        <f>cant*precio</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="G5" s="3">
-        <f>total*iva</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="H5" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" si="2"/>
         <v>726</v>
       </c>
     </row>
@@ -1673,15 +2792,15 @@
         <v>8800</v>
       </c>
       <c r="F6" s="3">
-        <f>cant*precio</f>
+        <f t="shared" si="0"/>
         <v>52800</v>
       </c>
       <c r="G6" s="3">
-        <f>total*iva</f>
+        <f t="shared" si="1"/>
         <v>11088</v>
       </c>
       <c r="H6" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" si="2"/>
         <v>63888</v>
       </c>
     </row>
@@ -1702,15 +2821,15 @@
         <v>8800</v>
       </c>
       <c r="F7" s="3">
-        <f>cant*precio</f>
+        <f t="shared" si="0"/>
         <v>88000</v>
       </c>
       <c r="G7" s="3">
-        <f>total*iva</f>
+        <f t="shared" si="1"/>
         <v>18480</v>
       </c>
       <c r="H7" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" si="2"/>
         <v>106480</v>
       </c>
     </row>
@@ -1731,15 +2850,15 @@
         <v>600</v>
       </c>
       <c r="F8" s="3">
-        <f>cant*precio</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="G8" s="3">
-        <f>total*iva</f>
+        <f t="shared" si="1"/>
         <v>3780</v>
       </c>
       <c r="H8" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" si="2"/>
         <v>21780</v>
       </c>
     </row>
@@ -1760,15 +2879,15 @@
         <v>3800</v>
       </c>
       <c r="F9" s="3">
-        <f>cant*precio</f>
+        <f t="shared" si="0"/>
         <v>7600</v>
       </c>
       <c r="G9" s="3">
-        <f>total*iva</f>
+        <f t="shared" si="1"/>
         <v>1596</v>
       </c>
       <c r="H9" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" si="2"/>
         <v>9196</v>
       </c>
     </row>
@@ -1789,15 +2908,15 @@
         <v>15000</v>
       </c>
       <c r="F10" s="3">
-        <f>cant*precio</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="G10" s="3">
-        <f>total*iva</f>
+        <f t="shared" si="1"/>
         <v>3150</v>
       </c>
       <c r="H10" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" si="2"/>
         <v>18150</v>
       </c>
     </row>
@@ -1818,15 +2937,15 @@
         <v>3800</v>
       </c>
       <c r="F11" s="3">
-        <f>cant*precio</f>
+        <f t="shared" si="0"/>
         <v>7600</v>
       </c>
       <c r="G11" s="3">
-        <f>total*iva</f>
+        <f t="shared" si="1"/>
         <v>1596</v>
       </c>
       <c r="H11" s="3">
-        <f>total +precio_iva</f>
+        <f t="shared" si="2"/>
         <v>9196</v>
       </c>
     </row>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B1A19-643B-4089-B1C5-499A7D73E950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2AF0E7-113B-45BD-90D1-632D1485B0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBF13C54-EAF5-48F7-B675-6702B08EF7EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="empleados" sheetId="1" r:id="rId1"/>
-    <sheet name="datos" sheetId="5" r:id="rId2"/>
-    <sheet name="presentismo" sheetId="4" r:id="rId3"/>
-    <sheet name="productos" sheetId="2" r:id="rId4"/>
-    <sheet name="ventas" sheetId="3" r:id="rId5"/>
+    <sheet name="menu" sheetId="6" r:id="rId1"/>
+    <sheet name="empleados" sheetId="1" r:id="rId2"/>
+    <sheet name="datos" sheetId="5" r:id="rId3"/>
+    <sheet name="presentismo" sheetId="4" r:id="rId4"/>
+    <sheet name="productos" sheetId="2" r:id="rId5"/>
+    <sheet name="ventas" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="ahora">datos!$P$2</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,29 +71,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="108">
   <si>
     <t>codigo</t>
   </si>
   <si>
-    <t>apellido</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>legajo</t>
-  </si>
-  <si>
-    <t>edad</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>cuil</t>
-  </si>
-  <si>
     <t>cdr18491</t>
   </si>
   <si>
@@ -303,12 +286,6 @@
     <t>DIA</t>
   </si>
   <si>
-    <t>años</t>
-  </si>
-  <si>
-    <t>nacimiento</t>
-  </si>
-  <si>
     <t>HH</t>
   </si>
   <si>
@@ -318,15 +295,6 @@
     <t>ss</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>docmento</t>
-  </si>
-  <si>
     <t>empleado</t>
   </si>
   <si>
@@ -342,28 +310,91 @@
     <t>cristian Damian</t>
   </si>
   <si>
-    <t xml:space="preserve">racedo    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    racedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Aguilera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristina     </t>
-  </si>
-  <si>
-    <t>Abel      Alejandro</t>
-  </si>
-  <si>
-    <t>Shakira      Alejandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lionel      Andres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messi    </t>
+    <t>racedo</t>
+  </si>
+  <si>
+    <t>Abel Alejandro</t>
+  </si>
+  <si>
+    <t>Aguilera</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Shakira Alejandra</t>
+  </si>
+  <si>
+    <t>Messi</t>
+  </si>
+  <si>
+    <t>Lionel Andres</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>APELLIDO</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>LEGAJO</t>
+  </si>
+  <si>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>NACIMIENTO</t>
+  </si>
+  <si>
+    <t>AÑOS</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>CUIL</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>DOCMENTO</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Asistencia</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Atajos</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>GitHub</t>
   </si>
 </sst>
 </file>
@@ -993,11 +1024,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}" name="empleados" displayName="empleados" ref="A1:E6" totalsRowShown="0">
   <autoFilter ref="A1:E6" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9B2FABCB-122E-4021-BCB9-1ABCF38F08D1}" name="codigo"/>
-    <tableColumn id="2" xr3:uid="{48BCCCB0-2E0A-4212-A44B-A72FF9EFADA4}" name="apellido"/>
-    <tableColumn id="3" xr3:uid="{8E2D81A4-6B1C-4EE6-B057-EC49A27E5F85}" name="nombre"/>
-    <tableColumn id="4" xr3:uid="{FAD0BCDF-63FA-416C-A9FA-7BBA19E4DC2A}" name="legajo"/>
-    <tableColumn id="7" xr3:uid="{B0450268-4DC5-4E02-B6A4-0DBA5EAA50A9}" name="sector"/>
+    <tableColumn id="1" xr3:uid="{9B2FABCB-122E-4021-BCB9-1ABCF38F08D1}" name="CODIGO"/>
+    <tableColumn id="2" xr3:uid="{48BCCCB0-2E0A-4212-A44B-A72FF9EFADA4}" name="APELLIDO"/>
+    <tableColumn id="3" xr3:uid="{8E2D81A4-6B1C-4EE6-B057-EC49A27E5F85}" name="NOMBRE"/>
+    <tableColumn id="4" xr3:uid="{FAD0BCDF-63FA-416C-A9FA-7BBA19E4DC2A}" name="LEGAJO"/>
+    <tableColumn id="7" xr3:uid="{B0450268-4DC5-4E02-B6A4-0DBA5EAA50A9}" name="SECTOR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1043,28 +1074,28 @@
     <tableColumn id="1" xr3:uid="{1E40E760-3B7A-46CB-ADE6-9C36221D8FBE}" name="empleado" dataDxfId="47">
       <calculatedColumnFormula>TRIM(presentismo[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A673056C-D666-4A82-8F15-DA591ECD51CD}" name="apellido" dataDxfId="46">
+    <tableColumn id="2" xr3:uid="{A673056C-D666-4A82-8F15-DA591ECD51CD}" name="APELLIDO" dataDxfId="46">
       <calculatedColumnFormula>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{98D588C0-9131-404A-823E-4F312157B4EE}" name="nombre" dataDxfId="45">
+    <tableColumn id="3" xr3:uid="{98D588C0-9131-404A-823E-4F312157B4EE}" name="NOMBRE" dataDxfId="45">
       <calculatedColumnFormula>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DA16E63D-3C7B-4235-BC8E-3EB411EC2AF9}" name="nacimiento" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{D65F57BC-8164-4AB7-8337-DE00B9FD8A3A}" name="años" dataDxfId="43">
-      <calculatedColumnFormula array="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{DA16E63D-3C7B-4235-BC8E-3EB411EC2AF9}" name="NACIMIENTO" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{D65F57BC-8164-4AB7-8337-DE00B9FD8A3A}" name="AÑOS" dataDxfId="43">
+      <calculatedColumnFormula array="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{906FCDA3-636B-4283-9205-7AF46F977290}" name="edad" dataDxfId="42" dataCellStyle="Millares">
-      <calculatedColumnFormula>(hoy-datos[[#This Row],[nacimiento]])/365</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{906FCDA3-636B-4283-9205-7AF46F977290}" name="EDAD" dataDxfId="42" dataCellStyle="Millares">
+      <calculatedColumnFormula>(hoy-datos[[#This Row],[NACIMIENTO]])/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{019FA1D5-4F09-4717-AE40-B6C31AA7DC9C}" name="cuil" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{FECB634B-7A6D-4C5C-80DC-9D64C533A46D}" name="g" dataDxfId="40">
-      <calculatedColumnFormula>LEFT(datos[[#This Row],[cuil]],2)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{019FA1D5-4F09-4717-AE40-B6C31AA7DC9C}" name="CUIL" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{FECB634B-7A6D-4C5C-80DC-9D64C533A46D}" name="G" dataDxfId="40">
+      <calculatedColumnFormula>LEFT(datos[[#This Row],[CUIL]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4DAF6AA5-E15E-4B0E-A6B3-0413A3FC7025}" name="docmento" dataDxfId="39">
-      <calculatedColumnFormula>MID(datos[[#This Row],[cuil]],4,8)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{4DAF6AA5-E15E-4B0E-A6B3-0413A3FC7025}" name="DOCMENTO" dataDxfId="39">
+      <calculatedColumnFormula>MID(datos[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{98242B92-44B0-46D8-B255-BEFE9B217C6E}" name="v" dataDxfId="38">
-      <calculatedColumnFormula>RIGHT(datos[[#This Row],[cuil]],1)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{98242B92-44B0-46D8-B255-BEFE9B217C6E}" name="V" dataDxfId="38">
+      <calculatedColumnFormula>RIGHT(datos[[#This Row],[CUIL]],1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{96F6AC38-E0D7-4538-BF50-B26B716ECD40}" name="char" dataDxfId="37"/>
     <tableColumn id="12" xr3:uid="{900EA9DF-7806-4E2A-BE95-A5AA6FF29C93}" name="p" dataDxfId="36">
@@ -1083,7 +1114,7 @@
   <autoFilter ref="A1:AG6" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{83429F3A-0633-41B4-A217-0D30DFCF116B}" name="Empleado" dataDxfId="32">
-      <calculatedColumnFormula>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{887EC86C-1521-40B0-A6C3-0B2B3230C024}" name="1/11/22" dataDxfId="31"/>
     <tableColumn id="3" xr3:uid="{C8618297-DB24-4382-BD1E-E53E7DB10A63}" name="2/11/22" dataDxfId="30"/>
@@ -1422,10 +1453,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBB5BBC-F064-4678-AF8C-C3D428764205}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F639E3-C47A-43D0-A8C0-9681F10A43EB}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1436,13 +1518,13 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -1452,19 +1534,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,16 +1554,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1489,16 +1571,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,16 +1588,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -1524,16 +1606,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,16 +1623,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1566,103 +1648,104 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C54B82-26A3-4EF4-A4EB-E1387A93D0B4}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J8" sqref="B8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="0.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="0.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
-        <v>racedo ; cristian Damian</v>
+        <v>racedo; cristian Damian</v>
       </c>
       <c r="B2" t="str">
         <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
-        <v xml:space="preserve">racedo </v>
+        <v>racedo</v>
       </c>
       <c r="C2" t="str">
         <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
@@ -1672,46 +1755,46 @@
         <v>33346</v>
       </c>
       <c r="E2" s="23" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <f t="array" aca="1" ref="E2" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>31</v>
       </c>
       <c r="F2" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
-        <v>31.646575342465752</v>
+        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <v>31.684931506849313</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H2" s="6" t="str">
-        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
       <c r="I2" s="6" t="str">
-        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>35336446</v>
       </c>
       <c r="J2" s="7" t="str">
-        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>5</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L2" s="26">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="26">
         <f>LEN(datos[[#This Row],[empleado]])</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44897</v>
+        <v>44911</v>
       </c>
       <c r="P2" s="22">
         <f ca="1">NOW()</f>
-        <v>44897.545370138891</v>
+        <v>44911.428219675923</v>
       </c>
       <c r="Q2">
         <f ca="1">YEAR(hoy)</f>
@@ -1723,19 +1806,19 @@
       </c>
       <c r="S2">
         <f ca="1">DAY(hoy)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="T2">
         <f ca="1">HOUR(ahora)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U2">
         <f ca="1">MINUTE(ahora)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V2">
         <f ca="1">SECOND(ahora)</f>
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1755,30 +1838,30 @@
         <v>34254</v>
       </c>
       <c r="E3" s="23" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <f t="array" aca="1" ref="E3" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>29</v>
       </c>
       <c r="F3" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
-        <v>29.158904109589042</v>
+        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <v>29.197260273972603</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H3" s="8" t="str">
-        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>38558443</v>
       </c>
       <c r="J3" s="9" t="str">
-        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>6</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L3" s="27">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
@@ -1806,30 +1889,30 @@
         <v>29573</v>
       </c>
       <c r="E4" s="23" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <f t="array" aca="1" ref="E4" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>42</v>
       </c>
       <c r="F4" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
-        <v>41.983561643835614</v>
+        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <v>42.021917808219179</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
       <c r="I4" s="6" t="str">
-        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>14093915</v>
       </c>
       <c r="J4" s="7" t="str">
-        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>9</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L4" s="26">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
@@ -1857,30 +1940,30 @@
         <v>28158</v>
       </c>
       <c r="E5" s="23" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <f t="array" aca="1" ref="E5" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>45</v>
       </c>
       <c r="F5" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
-        <v>45.860273972602741</v>
+        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <v>45.898630136986299</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H5" s="8" t="str">
-        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>45241471</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>1</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L5" s="27">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
@@ -1894,11 +1977,11 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
-        <v>Messi ; Lionel Andres</v>
+        <v>Messi; Lionel Andres</v>
       </c>
       <c r="B6" t="str">
         <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
-        <v xml:space="preserve">Messi </v>
+        <v>Messi</v>
       </c>
       <c r="C6" t="str">
         <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
@@ -1908,38 +1991,38 @@
         <v>31952</v>
       </c>
       <c r="E6" s="23" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[nacimiento]])</f>
+        <f t="array" aca="1" ref="E6" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>35</v>
       </c>
       <c r="F6" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[nacimiento]])/365</f>
-        <v>35.465753424657535</v>
+        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <v>35.504109589041093</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>LEFT(datos[[#This Row],[cuil]],2)</f>
+        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>23</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f>MID(datos[[#This Row],[cuil]],4,8)</f>
+        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>33016244</v>
       </c>
       <c r="J6" s="7" t="str">
-        <f>RIGHT(datos[[#This Row],[cuil]],1)</f>
+        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>9</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L6" s="26">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="26">
         <f>LEN(datos[[#This Row],[empleado]])</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1951,15 +2034,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FFAE78-438E-4183-90FE-F9F4BDD2CD47}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,186 +2064,186 @@
   <sheetData>
     <row r="1" spans="1:37" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="G1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="AA1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="AB1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AI1" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AJ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK1" t="s">
         <v>51</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
-        <v>racedo    ; cristian Damian</v>
+        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <v>racedo; cristian Damian</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P2" s="14"/>
       <c r="Q2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="R2" s="14"/>
       <c r="S2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB2" s="15"/>
       <c r="AC2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AD2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF2" s="18">
         <f>COUNTA(B2:AE2)</f>
@@ -2171,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="AI2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AJ2">
         <f>SUM(presentismo[ASIST])</f>
@@ -2184,60 +2267,60 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
-        <v xml:space="preserve">    racedo; Abel      Alejandro</v>
+        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <v>racedo; Abel Alejandro</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF3" s="18">
         <f t="shared" ref="AF3:AF4" si="0">COUNTA(B3:AE3)</f>
@@ -2248,7 +2331,7 @@
         <v>14</v>
       </c>
       <c r="AI3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AJ3">
         <f>MAX(presentismo[ASIST])</f>
@@ -2261,67 +2344,67 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
-        <v xml:space="preserve">   Aguilera; Cristina     </v>
+        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <v>Aguilera; Cristina</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF4" s="18">
         <f t="shared" si="0"/>
@@ -2332,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="AI4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ4">
         <f>MIN(presentismo[ASIST])</f>
@@ -2345,60 +2428,60 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
-        <v>Osses; Shakira      Alejandra</v>
+        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <v>Osses; Shakira Alejandra</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AF5" s="18">
         <f t="shared" ref="AF5:AF6" si="2">COUNTA(B5:AE5)</f>
@@ -2409,7 +2492,7 @@
         <v>14</v>
       </c>
       <c r="AI5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AJ5" s="19">
         <f>AVERAGE(presentismo[ASIST])</f>
@@ -2422,66 +2505,66 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[apellido]]&amp;"; "&amp;empleados[[#This Row],[nombre]])</f>
-        <v xml:space="preserve">Messi    ; Lionel      Andres </v>
+        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <v>Messi; Lionel Andres</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="U6" s="11"/>
       <c r="V6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="18">
         <f t="shared" si="2"/>
@@ -2492,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="AI6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AJ6">
         <f>MEDIAN(presentismo[ASIST])</f>
@@ -2506,7 +2589,7 @@
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="AI7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AJ7">
         <f>MODE(presentismo[ASIST])</f>
@@ -2597,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BCF59A-9D0C-4ADD-8102-A58A6DC81599}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2609,12 +2692,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FF01-9040-4806-AC6E-6DE86411CAF8}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2681,7 +2764,7 @@
         <v>6300</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H11" si="2">total +precio_iva</f>
+        <f>total +precio_iva</f>
         <v>36300</v>
       </c>
       <c r="J2" s="2">
@@ -2713,7 +2796,7 @@
         <v>4536</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H2:H11" si="2">total +precio_iva</f>
         <v>26136</v>
       </c>
     </row>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2AF0E7-113B-45BD-90D1-632D1485B0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B5502-3280-4E85-8484-0B17BA5C9AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBF13C54-EAF5-48F7-B675-6702B08EF7EF}"/>
   </bookViews>
@@ -19,16 +19,17 @@
     <sheet name="presentismo" sheetId="4" r:id="rId4"/>
     <sheet name="productos" sheetId="2" r:id="rId5"/>
     <sheet name="ventas" sheetId="3" r:id="rId6"/>
+    <sheet name="estadisticas" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ahora">datos!$P$2</definedName>
-    <definedName name="año">datos!$Q$2</definedName>
-    <definedName name="cant">ventas!$D:$D</definedName>
-    <definedName name="hoy">datos!$O$2</definedName>
-    <definedName name="iva">ventas!$J$2</definedName>
-    <definedName name="precio">ventas!$E:$E</definedName>
-    <definedName name="precio_iva">ventas!$G:$G</definedName>
-    <definedName name="total">ventas!$F:$F</definedName>
+    <definedName name="ahora">datos!$Q$2</definedName>
+    <definedName name="año">datos!$R$2</definedName>
+    <definedName name="cant">ventas!$E:$E</definedName>
+    <definedName name="hoy">datos!$P$2</definedName>
+    <definedName name="iva">ventas!$K$2</definedName>
+    <definedName name="precio">ventas!$F:$F</definedName>
+    <definedName name="precio_iva">ventas!$H:$H</definedName>
+    <definedName name="total">ventas!$G:$G</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="112">
   <si>
     <t>codigo</t>
   </si>
@@ -395,6 +396,18 @@
   </si>
   <si>
     <t>GitHub</t>
+  </si>
+  <si>
+    <t>Internos</t>
+  </si>
+  <si>
+    <t>Externos</t>
+  </si>
+  <si>
+    <t>atras</t>
+  </si>
+  <si>
+    <t>Intro</t>
   </si>
 </sst>
 </file>
@@ -408,7 +421,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,8 +478,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +511,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -519,13 +552,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -574,8 +608,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1021,8 +1076,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}" name="empleados" displayName="empleados" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}" name="empleados" displayName="empleados" ref="B1:F6" totalsRowShown="0">
+  <autoFilter ref="B1:F6" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9B2FABCB-122E-4021-BCB9-1ABCF38F08D1}" name="CODIGO"/>
     <tableColumn id="2" xr3:uid="{48BCCCB0-2E0A-4212-A44B-A72FF9EFADA4}" name="APELLIDO"/>
@@ -1035,8 +1090,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21CB7767-E429-4D32-8B4C-B110EB0BC09A}" name="tiempo" displayName="tiempo" ref="O1:V2" totalsRowShown="0">
-  <autoFilter ref="O1:V2" xr:uid="{21CB7767-E429-4D32-8B4C-B110EB0BC09A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21CB7767-E429-4D32-8B4C-B110EB0BC09A}" name="tiempo" displayName="tiempo" ref="P1:W2" totalsRowShown="0">
+  <autoFilter ref="P1:W2" xr:uid="{21CB7767-E429-4D32-8B4C-B110EB0BC09A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D0C157DB-5866-4540-85DA-CA9246E3491C}" name="HOY" dataDxfId="51">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
@@ -1068,8 +1123,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A8CA9039-9259-406D-B167-9DC94801EDAB}" name="datos" displayName="datos" ref="A1:M6" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="A1:M6" xr:uid="{A8CA9039-9259-406D-B167-9DC94801EDAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A8CA9039-9259-406D-B167-9DC94801EDAB}" name="datos" displayName="datos" ref="B1:N6" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="B1:N6" xr:uid="{A8CA9039-9259-406D-B167-9DC94801EDAB}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1E40E760-3B7A-46CB-ADE6-9C36221D8FBE}" name="empleado" dataDxfId="47">
       <calculatedColumnFormula>TRIM(presentismo[[#This Row],[Empleado]])</calculatedColumnFormula>
@@ -1110,8 +1165,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}" name="presentismo" displayName="presentismo" ref="A1:AG6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:AG6" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}" name="presentismo" displayName="presentismo" ref="B1:AH6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="B1:AH6" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{83429F3A-0633-41B4-A217-0D30DFCF116B}" name="Empleado" dataDxfId="32">
       <calculatedColumnFormula>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</calculatedColumnFormula>
@@ -1147,10 +1202,10 @@
     <tableColumn id="30" xr3:uid="{6FCC3D91-E530-49DC-9803-12984CBA6BE9}" name="29/11/22" dataDxfId="3"/>
     <tableColumn id="31" xr3:uid="{E6DAAE99-A983-4374-B5B5-FA292704266A}" name="30/11/22" dataDxfId="2"/>
     <tableColumn id="32" xr3:uid="{9612EC83-2684-4EAF-A263-5FD181F5472E}" name="ASIST" dataDxfId="1">
-      <calculatedColumnFormula>COUNTA(B2:AE2)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTA(C2:AF2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="33" xr3:uid="{CF4CC9FE-4916-47D6-BF2F-CC31868C00D4}" name="AUS" dataDxfId="0">
-      <calculatedColumnFormula>COUNTBLANK(B2:AE2)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTBLANK(C2:AF2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1454,191 +1509,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBB5BBC-F064-4678-AF8C-C3D428764205}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="35" t="s">
         <v>107</v>
       </c>
+      <c r="H4" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="empleados!A1" display="Empleados" xr:uid="{6804FC27-9203-4DBA-8D6C-376C27FE298D}"/>
+    <hyperlink ref="C2" location="datos!A1" display="Datos" xr:uid="{95B4B2CA-F76F-4EDE-AD89-FABD1945827F}"/>
+    <hyperlink ref="D2" location="presentismo!A1" display="Asistencia" xr:uid="{721BE012-66AF-40FB-8AA4-88D83F8A65DF}"/>
+    <hyperlink ref="E2" location="productos!A1" display="Productos" xr:uid="{879548AE-FA71-43F2-A80B-9451463218EE}"/>
+    <hyperlink ref="F2" location="ventas!A1" display="Ventas" xr:uid="{6E77832F-4432-4CDA-92E6-41CCFC5503FD}"/>
+    <hyperlink ref="G2" location="estadisticas!A1" display="Estadisticas" xr:uid="{7EA053B9-79E3-4EA2-901A-779E743F5AFC}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{469E7BDF-AAAE-4702-AFCD-1FFC79427B87}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{580195E5-4F03-40CD-BE17-C7D722BA18BB}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{FFEBE6DB-262E-4357-8099-4D0AA8A0BE5A}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{EFA6FED0-2644-4928-8B05-19C80BA7BDEB}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{9512EF5E-D632-428D-889F-850ADAE7EC32}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{665BA96F-F433-485B-9104-A5BA73049A78}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F639E3-C47A-43D0-A8C0-9681F10A43EB}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>83</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://www.cuitonline.com/detalle/27452414711/osses-shakira-alejandra.html" xr:uid="{F2232659-C17D-4204-940D-345947882C0E}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://www.cuitonline.com/detalle/27452414711/osses-shakira-alejandra.html" xr:uid="{F2232659-C17D-4204-940D-345947882C0E}"/>
+    <hyperlink ref="A1" location="menu!A1" display="atras" xr:uid="{6F69DE94-24BD-458D-80F6-2667C9EE1C40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1650,377 +1754,375 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C54B82-26A3-4EF4-A4EB-E1387A93D0B4}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="B1:W6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="B8:J8"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="0.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" customWidth="1"/>
-    <col min="11" max="11" width="0.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="0.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="0.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="0.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>68</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>70</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>72</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>racedo; cristian Damian</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
         <v>racedo</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
         <v>cristian Damian</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>33346</v>
       </c>
-      <c r="E2" s="23" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+      <c r="F2" s="23" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>31</v>
       </c>
-      <c r="F2" s="24">
+      <c r="G2" s="24">
         <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>31.684931506849313</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="I2" s="6" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="str">
+      <c r="J2" s="6" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>35336446</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="K2" s="7" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>5</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="26">
+      <c r="M2" s="26">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
         <v>7</v>
       </c>
-      <c r="M2" s="26">
+      <c r="N2" s="26">
         <f>LEN(datos[[#This Row],[empleado]])</f>
         <v>23</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <f ca="1">TODAY()</f>
         <v>44911</v>
       </c>
-      <c r="P2" s="22">
+      <c r="Q2" s="22">
         <f ca="1">NOW()</f>
-        <v>44911.428219675923</v>
-      </c>
-      <c r="Q2">
+        <v>44911.450076851848</v>
+      </c>
+      <c r="R2">
         <f ca="1">YEAR(hoy)</f>
         <v>2022</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <f ca="1">MONTH(hoy)</f>
         <v>12</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <f ca="1">DAY(hoy)</f>
         <v>16</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <f ca="1">HOUR(ahora)</f>
         <v>10</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <f ca="1">MINUTE(ahora)</f>
-        <v>16</v>
-      </c>
-      <c r="V2">
+        <v>48</v>
+      </c>
+      <c r="W2">
         <f ca="1">SECOND(ahora)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>racedo; Abel Alejandro</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
         <v>racedo</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
         <v>Abel Alejandro</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>34254</v>
       </c>
-      <c r="E3" s="23" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+      <c r="F3" s="23" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>29</v>
       </c>
-      <c r="F3" s="24">
+      <c r="G3" s="24">
         <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>29.197260273972603</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="I3" s="8" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="str">
+      <c r="J3" s="8" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>38558443</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="K3" s="9" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>6</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="27">
+      <c r="M3" s="27">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
         <v>7</v>
       </c>
-      <c r="M3" s="27">
+      <c r="N3" s="27">
         <f>LEN(datos[[#This Row],[empleado]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>Aguilera; Cristina</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
         <v>Aguilera</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
         <v>Cristina</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>29573</v>
       </c>
-      <c r="E4" s="23" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+      <c r="F4" s="23" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>42</v>
       </c>
-      <c r="F4" s="24">
+      <c r="G4" s="24">
         <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>42.021917808219179</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="str">
+      <c r="I4" s="6" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="I4" s="6" t="str">
+      <c r="J4" s="6" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>14093915</v>
       </c>
-      <c r="J4" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>9</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="L4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="26">
+      <c r="M4" s="26">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
         <v>9</v>
       </c>
-      <c r="M4" s="26">
+      <c r="N4" s="26">
         <f>LEN(datos[[#This Row],[empleado]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>Osses; Shakira Alejandra</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
         <v>Osses</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
         <v>Shakira Alejandra</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>28158</v>
       </c>
-      <c r="E5" s="23" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+      <c r="F5" s="23" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>45</v>
       </c>
-      <c r="F5" s="24">
+      <c r="G5" s="24">
         <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>45.898630136986299</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="8" t="str">
+      <c r="I5" s="8" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="J5" s="8" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>45241471</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="K5" s="9" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="L5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="27">
+      <c r="M5" s="27">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
         <v>6</v>
       </c>
-      <c r="M5" s="27">
+      <c r="N5" s="27">
         <f>LEN(datos[[#This Row],[empleado]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>Messi; Lionel Andres</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
         <v>Messi</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
         <v>Lionel Andres</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>31952</v>
       </c>
-      <c r="E6" s="23" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+      <c r="F6" s="23" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
         <v>35</v>
       </c>
-      <c r="F6" s="24">
+      <c r="G6" s="24">
         <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>35.504109589041093</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="6" t="str">
+      <c r="I6" s="6" t="str">
         <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
         <v>23</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="J6" s="6" t="str">
         <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
         <v>33016244</v>
       </c>
-      <c r="J6" s="7" t="str">
+      <c r="K6" s="7" t="str">
         <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
         <v>9</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="L6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="26">
+      <c r="M6" s="26">
         <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
         <v>6</v>
       </c>
-      <c r="M6" s="26">
+      <c r="N6" s="26">
         <f>LEN(datos[[#This Row],[empleado]])</f>
         <v>20</v>
       </c>
@@ -2036,193 +2138,190 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FFAE78-438E-4183-90FE-F9F4BDD2CD47}">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="B1:AL31"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.42578125" style="11" customWidth="1"/>
-    <col min="32" max="32" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" style="11" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="2:38" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="str">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>racedo; cristian Damian</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="G2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="14"/>
       <c r="M2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="N2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="14"/>
       <c r="T2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="U2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="15"/>
+      <c r="W2" s="14"/>
       <c r="X2" s="14" t="s">
         <v>17</v>
       </c>
@@ -2235,49 +2334,49 @@
       <c r="AA2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="AB2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="15"/>
       <c r="AD2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AE2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="18">
-        <f>COUNTA(B2:AE2)</f>
+      <c r="AF2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="18">
+        <f>COUNTA(C2:AF2)</f>
         <v>19</v>
       </c>
-      <c r="AG2" s="18">
-        <f>COUNTBLANK(B2:AE2)</f>
+      <c r="AH2" s="18">
+        <f>COUNTBLANK(C2:AF2)</f>
         <v>11</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <f>SUM(presentismo[ASIST])</f>
         <v>88</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <f>SUM(presentismo[AUS])</f>
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="str">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>racedo; Abel Alejandro</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -2286,25 +2385,25 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="14"/>
+      <c r="L3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="14"/>
       <c r="R3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="11" t="s">
+      <c r="S3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W3" s="11" t="s">
@@ -2319,38 +2418,38 @@
       <c r="Z3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF3" s="18">
-        <f t="shared" ref="AF3:AF4" si="0">COUNTA(B3:AE3)</f>
+      <c r="AA3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG3" s="18">
+        <f t="shared" ref="AG3:AG4" si="0">COUNTA(C3:AF3)</f>
         <v>16</v>
       </c>
-      <c r="AG3" s="18">
-        <f t="shared" ref="AG3:AG4" si="1">COUNTBLANK(B3:AE3)</f>
+      <c r="AH3" s="18">
+        <f t="shared" ref="AH3:AH4" si="1">COUNTBLANK(C3:AF3)</f>
         <v>14</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>53</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <f>MAX(presentismo[ASIST])</f>
         <v>19</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <f>MAX(presentismo[AUS])</f>
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="str">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>Aguilera; Cristina</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
@@ -2360,23 +2459,23 @@
       <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="11" t="s">
@@ -2385,10 +2484,10 @@
       <c r="T4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="11" t="s">
+      <c r="U4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="Y4" s="11" t="s">
@@ -2400,117 +2499,117 @@
       <c r="AA4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AE4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AH4" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <f>MIN(presentismo[ASIST])</f>
         <v>16</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <f>MIN(presentismo[AUS])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="str">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>Osses; Shakira Alejandra</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="11" t="s">
+      <c r="K5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="V5" s="14"/>
       <c r="W5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="X5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" s="11" t="s">
+      <c r="Y5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AE5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AF5" s="18">
-        <f t="shared" ref="AF5:AF6" si="2">COUNTA(B5:AE5)</f>
+      <c r="AF5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG5" s="18">
+        <f t="shared" ref="AG5:AG6" si="2">COUNTA(C5:AF5)</f>
         <v>16</v>
       </c>
-      <c r="AG5" s="18">
-        <f t="shared" ref="AG5" si="3">COUNTBLANK(B5:AE5)</f>
+      <c r="AH5" s="18">
+        <f t="shared" ref="AH5" si="3">COUNTBLANK(C5:AF5)</f>
         <v>14</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>55</v>
       </c>
-      <c r="AJ5" s="19">
+      <c r="AK5" s="19">
         <f>AVERAGE(presentismo[ASIST])</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="AK5" s="19">
+      <c r="AL5" s="19">
         <f>AVERAGE(presentismo[AUS])</f>
         <v>12.4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="str">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>Messi; Lionel Andres</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2520,12 +2619,12 @@
       <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="F6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="11" t="s">
@@ -2534,143 +2633,146 @@
       <c r="M6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="11" t="s">
+      <c r="N6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="U6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="11"/>
       <c r="W6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>64</v>
+      <c r="Y6" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="AA6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AD6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="18">
+      <c r="AE6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG6" s="18">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AG6" s="18">
-        <f>COUNTBLANK(B6:AE6)</f>
+      <c r="AH6" s="18">
+        <f>COUNTBLANK(C6:AF6)</f>
         <v>12</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>56</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <f>MEDIAN(presentismo[ASIST])</f>
         <v>18</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <f>MEDIAN(presentismo[AUS])</f>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="AI7" t="s">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C7" s="14"/>
+      <c r="AJ7" t="s">
         <v>57</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <f>MODE(presentismo[ASIST])</f>
         <v>19</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <f>MODE(presentismo[AUS])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2694,263 +2796,259 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FF01-9040-4806-AC6E-6DE86411CAF8}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>15000</v>
       </c>
-      <c r="F2" s="3">
-        <f t="shared" ref="F2:F11" si="0">cant*precio</f>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G11" si="0">cant*precio</f>
         <v>30000</v>
       </c>
-      <c r="G2" s="3">
-        <f t="shared" ref="G2:G11" si="1">total*iva</f>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H11" si="1">total*iva</f>
         <v>6300</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <f>total +precio_iva</f>
         <v>36300</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>5400</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <f t="shared" si="1"/>
         <v>4536</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H2:H11" si="2">total +precio_iva</f>
+      <c r="I3" s="3">
+        <f t="shared" ref="I2:I11" si="2">total +precio_iva</f>
         <v>26136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>3800</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>11400</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>2394</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <f t="shared" si="2"/>
         <v>13794</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>600</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f t="shared" si="2"/>
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>8800</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>52800</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>11088</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="2"/>
         <v>63888</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>8800</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>88000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>18480</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="2"/>
         <v>106480</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>30</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>3780</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <f t="shared" si="2"/>
         <v>21780</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2958,76 +3056,79 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>7600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>1596</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="2"/>
         <v>9196</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>3150</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="2"/>
         <v>18150</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
         <v>3800</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>7600</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>1596</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="2"/>
         <v>9196</v>
       </c>
@@ -3035,4 +3136,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A36E50-C0D3-438C-882B-3AEDD4D30357}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B5502-3280-4E85-8484-0B17BA5C9AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC59642-C249-45AD-AE65-AFF07FFAE8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBF13C54-EAF5-48F7-B675-6702B08EF7EF}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
   <si>
     <t>codigo</t>
   </si>
@@ -494,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -559,7 +565,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -608,25 +614,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1073,6 +1077,1240 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>132520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>519311</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>482220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E670DDF4-F253-490A-9DC4-2E8A8BB3DDBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9930" b="89367" l="10000" r="90000">
+                      <a14:foregroundMark x1="25333" y1="70667" x2="33333" y2="29333"/>
+                      <a14:backgroundMark x1="15111" y1="9778" x2="87556" y2="9778"/>
+                      <a14:backgroundMark x1="14667" y1="14667" x2="6222" y2="76444"/>
+                      <a14:backgroundMark x1="6222" y1="76444" x2="72444" y2="88000"/>
+                      <a14:backgroundMark x1="72444" y1="88000" x2="91556" y2="60444"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13580" t="15171" r="10055" b="16457"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="109916" y="72824"/>
+          <a:ext cx="432000" cy="386791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>125072</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>356156</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="430696" cy="1600211"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD1B155-0DE3-4B86-AD56-256B5D492DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-459686" y="940914"/>
+          <a:ext cx="1600211" cy="430696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1800" b="1" cap="none" spc="50">
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47">
+                  <a:tint val="1000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="38100">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>EDUCACION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>740353</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5DEEC3-1F11-4D86-BCFC-BB12464C38ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent1">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="22950" r="24218"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4462255" y="994666"/>
+          <a:ext cx="724541" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70758</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>669468</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>734785</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Grupo 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04C8560-04C7-47AC-B955-FBBEB620BEDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3755742" y="1001486"/>
+          <a:ext cx="598710" cy="685799"/>
+          <a:chOff x="3728358" y="990600"/>
+          <a:chExt cx="598710" cy="685799"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Paralelogramo 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28F8E8F-8D9B-4263-AF2B-D0BD9D861A6A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3799114" y="1164771"/>
+            <a:ext cx="527954" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 43182"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-AR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Paralelogramo 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BB354E-363F-404C-BF4B-3664E5383121}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3728358" y="990600"/>
+            <a:ext cx="511628" cy="685799"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 66506"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-AR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13078</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733078</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Gráfico 13" descr="Maestro con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9996B999-145A-45F4-A720-9E2B239C26A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2936062" y="1042969"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>734250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>758063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Gráfico 15" descr="Lápiz con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C774A7-A4B7-402D-95C0-D87AF477721A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2175234" y="990563"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33281</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>753281</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Gráfico 17" descr="Dinero con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3727E697-0789-435B-B83C-209816C8F6CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3718265" y="69000"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22547</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742547</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>87702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Gráfico 19" descr="Camión con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE834ED-922A-4F17-9942-94EAE4346D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2945531" y="129702"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>731812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>743719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Gráfico 21" descr="Correo electrónico con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143A27E5-9F4C-4CBD-8C66-A337749434C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1410796" y="976219"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>18938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>738937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>738938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Gráfico 23" descr="Base de datos con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F38E259-B720-4E3E-8DB3-0198B1659669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417921" y="18938"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26062</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>43922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>746062</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Gráfico 25" descr="Gráfico circular con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C85EB9-4A4C-4D86-B09C-F77BF5693E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4473046" y="43922"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45093</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3093</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>753188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Gráfico 27" descr="Documento con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6766F2-19E7-4EF0-888E-110A75FB75A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682077" y="985688"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22452</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742452</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>731907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Gráfico 29" descr="Identificación de empleado con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E82619-0467-42A5-AD12-71781D7A70A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="659436" y="11907"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749765</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>743813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Gráfico 31" descr="Lista con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC5E436-E3A7-45D2-B429-62E82AA5F480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId36"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190749" y="23813"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219414</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB9DAF0-CEC1-4DB5-A477-2846CC39CC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39414" y="13138"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219414</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4096E4-E0E7-49B3-9454-D037DEDCBF53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39414" y="13138"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>193138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4B5927-E67D-4999-AECA-1C0A0C936841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39414" y="13138"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219414</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B46604-226C-47FA-8EE9-C0DCE67E64B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39414" y="13138"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219414</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3564A81C-29C9-482A-BDEF-D637F58C8B99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39414" y="13138"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219414</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Atrás con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD560802-8E10-4783-906C-31CC26948173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39414" y="13138"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1511,81 +2749,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBB5BBC-F064-4678-AF8C-C3D428764205}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="29" t="s">
+      <c r="A1" s="30"/>
+      <c r="H1" s="33" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="29" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="33" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="empleados!A1" display="Empleados" xr:uid="{6804FC27-9203-4DBA-8D6C-376C27FE298D}"/>
@@ -1602,6 +2842,7 @@
     <hyperlink ref="G4" r:id="rId6" xr:uid="{665BA96F-F433-485B-9104-A5BA73049A78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1609,7 +2850,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F639E3-C47A-43D0-A8C0-9681F10A43EB}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1633,7 +2877,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>110</v>
       </c>
       <c r="B1" t="s">
@@ -1746,17 +2990,21 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C54B82-26A3-4EF4-A4EB-E1387A93D0B4}">
-  <dimension ref="B1:W6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1775,7 +3023,10 @@
     <col min="14" max="14" width="7.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>110</v>
+      </c>
       <c r="B1" t="s">
         <v>74</v>
       </c>
@@ -1840,7 +3091,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>racedo; cristian Damian</v>
@@ -1896,7 +3147,7 @@
       </c>
       <c r="Q2" s="22">
         <f ca="1">NOW()</f>
-        <v>44911.450076851848</v>
+        <v>44911.487448842592</v>
       </c>
       <c r="R2">
         <f ca="1">YEAR(hoy)</f>
@@ -1912,18 +3163,18 @@
       </c>
       <c r="U2">
         <f ca="1">HOUR(ahora)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2">
         <f ca="1">MINUTE(ahora)</f>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="W2">
         <f ca="1">SECOND(ahora)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>racedo; Abel Alejandro</v>
@@ -1974,7 +3225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>Aguilera; Cristina</v>
@@ -2025,7 +3276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>Osses; Shakira Alejandra</v>
@@ -2076,7 +3327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
         <v>Messi; Lionel Andres</v>
@@ -2128,23 +3379,27 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="menu!A1" display="atras" xr:uid="{C13B0C2E-F2EA-4890-B93A-A2EAF887F4AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FFAE78-438E-4183-90FE-F9F4BDD2CD47}">
-  <dimension ref="B1:AL31"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +3419,10 @@
     <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>110</v>
+      </c>
       <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +3532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>racedo; cristian Damian</v>
@@ -2367,7 +3625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>racedo; Abel Alejandro</v>
@@ -2444,7 +3702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>Aguilera; Cristina</v>
@@ -2528,7 +3786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>Osses; Shakira Alejandra</v>
@@ -2605,7 +3863,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="str">
         <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
         <v>Messi; Lionel Andres</v>
@@ -2688,7 +3946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C7" s="14"/>
       <c r="AJ7" t="s">
         <v>57</v>
@@ -2702,31 +3960,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -2775,9 +4033,13 @@
       <c r="C31" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="menu!A1" display="atras" xr:uid="{F1EAB0D1-36B3-4DE7-8A69-43D9391AAC65}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2786,11 +4048,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BCF59A-9D0C-4ADD-8102-A58A6DC81599}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="menu!A1" display="atras" xr:uid="{0E087567-2D17-47B0-B948-A60227DE6316}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2798,7 +4073,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FF01-9040-4806-AC6E-6DE86411CAF8}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2811,7 +4089,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
+      <c r="A1" s="31" t="s">
+        <v>110</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +4414,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="menu!A1" display="atras" xr:uid="{B77ACD90-79DC-4E97-98F2-9228CD1EFDBA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3142,10 +4426,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A36E50-C0D3-438C-882B-3AEDD4D30357}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="menu!A1" display="atras" xr:uid="{BAEE1280-7C20-467F-A1E1-9F69C0E2B299}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC59642-C249-45AD-AE65-AFF07FFAE8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D789E5EF-2DA8-465D-854E-EEE984E3B9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBF13C54-EAF5-48F7-B675-6702B08EF7EF}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <sheet name="estadisticas" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ventas!$B$1:$I$11</definedName>
     <definedName name="ahora">datos!$Q$2</definedName>
     <definedName name="año">datos!$R$2</definedName>
     <definedName name="cant">ventas!$E:$E</definedName>
@@ -29,10 +30,25 @@
     <definedName name="iva">ventas!$K$2</definedName>
     <definedName name="precio">ventas!$F:$F</definedName>
     <definedName name="precio_iva">ventas!$H:$H</definedName>
+    <definedName name="SegmentaciónDeDatos_Categoria">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Marca">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_producto">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_vendedor">#N/A</definedName>
     <definedName name="total">ventas!$G:$G</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -72,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="144">
   <si>
     <t>codigo</t>
   </si>
@@ -408,18 +424,115 @@
   </si>
   <si>
     <t>Intro</t>
+  </si>
+  <si>
+    <t>Mejor vendedor</t>
+  </si>
+  <si>
+    <t>Producto mas solicitado</t>
+  </si>
+  <si>
+    <t>cantidad ventas</t>
+  </si>
+  <si>
+    <t>Recaudacion total</t>
+  </si>
+  <si>
+    <t>Mediana de ventas</t>
+  </si>
+  <si>
+    <t>Media de ventas</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Tostadora</t>
+  </si>
+  <si>
+    <t>Crema Antiage</t>
+  </si>
+  <si>
+    <t>Belleza</t>
+  </si>
+  <si>
+    <t>Pava Electrica</t>
+  </si>
+  <si>
+    <t>Electrodomestico</t>
+  </si>
+  <si>
+    <t>Vino 500cm</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Whisky</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Atma</t>
+  </si>
+  <si>
+    <t>Liliana</t>
+  </si>
+  <si>
+    <t>Toro</t>
+  </si>
+  <si>
+    <t>Old Smuggler</t>
+  </si>
+  <si>
+    <t>Jabon de tocador</t>
+  </si>
+  <si>
+    <t>Higiene</t>
+  </si>
+  <si>
+    <t>Horno Electrico</t>
+  </si>
+  <si>
+    <t>Horno Microondas</t>
+  </si>
+  <si>
+    <t>Top House</t>
+  </si>
+  <si>
+    <t>Aire Acondicionado</t>
+  </si>
+  <si>
+    <t>Hogar</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -565,7 +678,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -620,9 +733,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,6 +742,16 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
@@ -640,7 +760,214 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2149,7 +2476,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>219414</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2638</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2192,6 +2519,162 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89666</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Categoria">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F9ACF9-C875-4289-BAA3-431D542D4347}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Categoria"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6105525" y="54852"/>
+              <a:ext cx="1470791" cy="2078748"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>183930</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Marca">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DF6E9B-6FCF-42D2-BEAD-F82AF5AE7F37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Marca"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7670580" y="61092"/>
+              <a:ext cx="1359120" cy="2072507"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2208,7 +2691,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>219414</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2638</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2249,6 +2732,162 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD49B7F-83A2-4276-B5A9-1374672153E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10753725" y="66675"/>
+              <a:ext cx="1295399" cy="990600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="producto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715CE36C-4309-46D9-8C81-B27B26AAE4CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="producto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9429750" y="57151"/>
+              <a:ext cx="1257300" cy="1752600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2313,8 +2952,62 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Categoria" xr10:uid="{FC018BE3-B326-4DB0-998A-B4C65195F49E}" sourceName="Categoria">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="6" column="5"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Marca" xr10:uid="{19441E02-1E2B-4DDD-B34E-2E78E16B794D}" sourceName="Marca">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="6" column="6"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_vendedor" xr10:uid="{5261F8EA-6983-4B1C-AED1-983B6A5EF9AB}" sourceName="vendedor">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="5" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_producto" xr10:uid="{29EB8FF4-F237-42CC-9482-897C4037A5AD}" sourceName="producto">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="5" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Categoria" xr10:uid="{23B3EAB9-BB06-428A-9D84-644C0A51A5CF}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" rowHeight="241300"/>
+  <slicer name="Marca" xr10:uid="{F99014BB-0E35-4B1F-8C32-0C84C2E19F05}" cache="SegmentaciónDeDatos_Marca" caption="Marca" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="vendedor" xr10:uid="{C88BB6D9-370A-43D5-A48A-0A572F08DBE9}" cache="SegmentaciónDeDatos_vendedor" caption="vendedor" rowHeight="241300"/>
+  <slicer name="producto" xr10:uid="{9FC707E9-2412-459E-A110-426E697D0EDB}" cache="SegmentaciónDeDatos_producto" caption="producto" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}" name="empleados" displayName="empleados" ref="B1:F6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}" name="Tabla_empleados" displayName="Tabla_empleados" ref="B1:F6" totalsRowShown="0">
   <autoFilter ref="B1:F6" xr:uid="{7DAC5F66-FDAB-4B10-8475-ECE8FAEEF22D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9B2FABCB-122E-4021-BCB9-1ABCF38F08D1}" name="CODIGO"/>
@@ -2331,10 +3024,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21CB7767-E429-4D32-8B4C-B110EB0BC09A}" name="tiempo" displayName="tiempo" ref="P1:W2" totalsRowShown="0">
   <autoFilter ref="P1:W2" xr:uid="{21CB7767-E429-4D32-8B4C-B110EB0BC09A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D0C157DB-5866-4540-85DA-CA9246E3491C}" name="HOY" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{D0C157DB-5866-4540-85DA-CA9246E3491C}" name="HOY" dataDxfId="62">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F19B6CA2-44B0-4AA2-94E5-4821559CF825}" name="AHORA" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{F19B6CA2-44B0-4AA2-94E5-4821559CF825}" name="AHORA" dataDxfId="61">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E5C1B772-C41D-4F28-BDF3-44DE9CE5F354}" name="AÑO">
@@ -2361,41 +3054,41 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A8CA9039-9259-406D-B167-9DC94801EDAB}" name="datos" displayName="datos" ref="B1:N6" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A8CA9039-9259-406D-B167-9DC94801EDAB}" name="Tabla_datos" displayName="Tabla_datos" ref="B1:N6" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="B1:N6" xr:uid="{A8CA9039-9259-406D-B167-9DC94801EDAB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1E40E760-3B7A-46CB-ADE6-9C36221D8FBE}" name="empleado" dataDxfId="47">
-      <calculatedColumnFormula>TRIM(presentismo[[#This Row],[Empleado]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{1E40E760-3B7A-46CB-ADE6-9C36221D8FBE}" name="empleado" dataDxfId="58">
+      <calculatedColumnFormula>TRIM(Tabla_presentismo[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A673056C-D666-4A82-8F15-DA591ECD51CD}" name="APELLIDO" dataDxfId="46">
-      <calculatedColumnFormula>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{A673056C-D666-4A82-8F15-DA591ECD51CD}" name="APELLIDO" dataDxfId="57">
+      <calculatedColumnFormula>LEFT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[p]] - 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{98D588C0-9131-404A-823E-4F312157B4EE}" name="NOMBRE" dataDxfId="45">
-      <calculatedColumnFormula>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{98D588C0-9131-404A-823E-4F312157B4EE}" name="NOMBRE" dataDxfId="56">
+      <calculatedColumnFormula>RIGHT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[largo]] - Tabla_datos[[#This Row],[p]] - 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DA16E63D-3C7B-4235-BC8E-3EB411EC2AF9}" name="NACIMIENTO" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{D65F57BC-8164-4AB7-8337-DE00B9FD8A3A}" name="AÑOS" dataDxfId="43">
-      <calculatedColumnFormula array="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{DA16E63D-3C7B-4235-BC8E-3EB411EC2AF9}" name="NACIMIENTO" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{D65F57BC-8164-4AB7-8337-DE00B9FD8A3A}" name="AÑOS" dataDxfId="54">
+      <calculatedColumnFormula array="1">tiempo[AÑO]-YEAR(Tabla_datos[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{906FCDA3-636B-4283-9205-7AF46F977290}" name="EDAD" dataDxfId="42" dataCellStyle="Millares">
-      <calculatedColumnFormula>(hoy-datos[[#This Row],[NACIMIENTO]])/365</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{906FCDA3-636B-4283-9205-7AF46F977290}" name="EDAD" dataDxfId="53" dataCellStyle="Millares">
+      <calculatedColumnFormula>(hoy-Tabla_datos[[#This Row],[NACIMIENTO]])/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{019FA1D5-4F09-4717-AE40-B6C31AA7DC9C}" name="CUIL" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{FECB634B-7A6D-4C5C-80DC-9D64C533A46D}" name="G" dataDxfId="40">
-      <calculatedColumnFormula>LEFT(datos[[#This Row],[CUIL]],2)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{019FA1D5-4F09-4717-AE40-B6C31AA7DC9C}" name="CUIL" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{FECB634B-7A6D-4C5C-80DC-9D64C533A46D}" name="G" dataDxfId="51">
+      <calculatedColumnFormula>LEFT(Tabla_datos[[#This Row],[CUIL]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4DAF6AA5-E15E-4B0E-A6B3-0413A3FC7025}" name="DOCMENTO" dataDxfId="39">
-      <calculatedColumnFormula>MID(datos[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{4DAF6AA5-E15E-4B0E-A6B3-0413A3FC7025}" name="DOCMENTO" dataDxfId="50">
+      <calculatedColumnFormula>MID(Tabla_datos[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{98242B92-44B0-46D8-B255-BEFE9B217C6E}" name="V" dataDxfId="38">
-      <calculatedColumnFormula>RIGHT(datos[[#This Row],[CUIL]],1)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{98242B92-44B0-46D8-B255-BEFE9B217C6E}" name="V" dataDxfId="49">
+      <calculatedColumnFormula>RIGHT(Tabla_datos[[#This Row],[CUIL]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{96F6AC38-E0D7-4538-BF50-B26B716ECD40}" name="char" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{900EA9DF-7806-4E2A-BE95-A5AA6FF29C93}" name="p" dataDxfId="36">
-      <calculatedColumnFormula>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{96F6AC38-E0D7-4538-BF50-B26B716ECD40}" name="char" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{900EA9DF-7806-4E2A-BE95-A5AA6FF29C93}" name="p" dataDxfId="47">
+      <calculatedColumnFormula>FIND(Tabla_datos[[#This Row],[char]],Tabla_datos[[#This Row],[empleado]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7A21E3B8-95EE-4371-95D5-EA3889520837}" name="largo" dataDxfId="35">
-      <calculatedColumnFormula>LEN(datos[[#This Row],[empleado]])</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{7A21E3B8-95EE-4371-95D5-EA3889520837}" name="largo" dataDxfId="46">
+      <calculatedColumnFormula>LEN(Tabla_datos[[#This Row],[empleado]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2403,47 +3096,102 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}" name="presentismo" displayName="presentismo" ref="B1:AH6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}" name="Tabla_presentismo" displayName="Tabla_presentismo" ref="B1:AH6" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="B1:AH6" xr:uid="{5F56470C-30B4-4EBD-BFC4-C92DB644C2CF}"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{83429F3A-0633-41B4-A217-0D30DFCF116B}" name="Empleado" dataDxfId="32">
-      <calculatedColumnFormula>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{83429F3A-0633-41B4-A217-0D30DFCF116B}" name="Empleado" dataDxfId="43">
+      <calculatedColumnFormula>_xlfn.CONCAT(Tabla_empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;Tabla_empleados[[#This Row],[NOMBRE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{887EC86C-1521-40B0-A6C3-0B2B3230C024}" name="1/11/22" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{C8618297-DB24-4382-BD1E-E53E7DB10A63}" name="2/11/22" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{6182BB9D-62C7-4740-9A83-3BF4CE62D8C0}" name="3/11/22" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{C4722C79-3465-44B4-AAFE-AED718DFEF78}" name="4/11/22" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{443CA749-360E-405C-BCF0-3AA088ECB546}" name="5/11/22" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{DDC8BC93-6522-4621-A6CE-E663DAA5E060}" name="6/11/22" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{044D1592-31CC-4BD8-9305-F821CBDE87C3}" name="7/11/22" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{58B8F006-DDC6-45D4-913C-A9728CE4DEEB}" name="8/11/22" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{2E67B63B-C7A3-4447-B240-2206A83EB1AE}" name="9/11/22" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{E063B5BB-2482-4A97-B99C-CEE9E8FBC8AD}" name="10/11/22" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{C388062D-2D19-400D-9799-432AF612D74D}" name="11/11/22" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{AC73BB9A-6A78-4DB1-885C-194594FB6F10}" name="12/11/22" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{06A3A94F-6999-487D-ABBD-26DFBE539387}" name="13/11/22" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{50DAE1CB-9B50-4836-80C2-0F7D5D1DBF7E}" name="14/11/22" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{BA731102-2D66-4B65-A41F-E60E74E4BC71}" name="15/11/22" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{B971CE8E-7E54-4964-AB64-E900A025F05F}" name="16/11/22" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{F3A47F16-27A5-4C5D-BF2D-83E030C5E47F}" name="17/11/22" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{2DD162DD-96E2-41F4-AD3B-2ACC01BBF7A8}" name="18/11/22" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{55AD600E-9E3F-4481-BAF3-174F391E80B6}" name="19/11/22" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{CB5594F7-50A6-4AB3-8C66-47AE394E8A42}" name="20/11/22" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{9BAC2972-6A5B-4717-B16D-0F035A83C001}" name="21/11/22" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{2C7E1E57-A0FD-43F5-A1C0-D9CEF839010F}" name="22/11/22" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{BF09FF2E-08CF-4C77-B995-FA552B07331C}" name="23/11/22" dataDxfId="9"/>
-    <tableColumn id="25" xr3:uid="{F95FD232-FFA9-4C2A-8A79-A314A99627B1}" name="24/11/22" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{4157B269-FC1E-4344-80EE-594F0938411C}" name="25/11/22" dataDxfId="7"/>
-    <tableColumn id="27" xr3:uid="{500155F2-C488-4E91-95A3-7525D567F566}" name="26/11/22" dataDxfId="6"/>
-    <tableColumn id="28" xr3:uid="{5743E408-8FAC-44AE-81BD-FE1F0BA91CEB}" name="27/11/22" dataDxfId="5"/>
-    <tableColumn id="29" xr3:uid="{919A6993-970F-452F-9B2D-9D06989985BF}" name="28/11/22" dataDxfId="4"/>
-    <tableColumn id="30" xr3:uid="{6FCC3D91-E530-49DC-9803-12984CBA6BE9}" name="29/11/22" dataDxfId="3"/>
-    <tableColumn id="31" xr3:uid="{E6DAAE99-A983-4374-B5B5-FA292704266A}" name="30/11/22" dataDxfId="2"/>
-    <tableColumn id="32" xr3:uid="{9612EC83-2684-4EAF-A263-5FD181F5472E}" name="ASIST" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{887EC86C-1521-40B0-A6C3-0B2B3230C024}" name="1/11/22" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{C8618297-DB24-4382-BD1E-E53E7DB10A63}" name="2/11/22" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{6182BB9D-62C7-4740-9A83-3BF4CE62D8C0}" name="3/11/22" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{C4722C79-3465-44B4-AAFE-AED718DFEF78}" name="4/11/22" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{443CA749-360E-405C-BCF0-3AA088ECB546}" name="5/11/22" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{DDC8BC93-6522-4621-A6CE-E663DAA5E060}" name="6/11/22" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{044D1592-31CC-4BD8-9305-F821CBDE87C3}" name="7/11/22" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{58B8F006-DDC6-45D4-913C-A9728CE4DEEB}" name="8/11/22" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{2E67B63B-C7A3-4447-B240-2206A83EB1AE}" name="9/11/22" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{E063B5BB-2482-4A97-B99C-CEE9E8FBC8AD}" name="10/11/22" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{C388062D-2D19-400D-9799-432AF612D74D}" name="11/11/22" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{AC73BB9A-6A78-4DB1-885C-194594FB6F10}" name="12/11/22" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{06A3A94F-6999-487D-ABBD-26DFBE539387}" name="13/11/22" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{50DAE1CB-9B50-4836-80C2-0F7D5D1DBF7E}" name="14/11/22" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{BA731102-2D66-4B65-A41F-E60E74E4BC71}" name="15/11/22" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{B971CE8E-7E54-4964-AB64-E900A025F05F}" name="16/11/22" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{F3A47F16-27A5-4C5D-BF2D-83E030C5E47F}" name="17/11/22" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{2DD162DD-96E2-41F4-AD3B-2ACC01BBF7A8}" name="18/11/22" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{55AD600E-9E3F-4481-BAF3-174F391E80B6}" name="19/11/22" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{CB5594F7-50A6-4AB3-8C66-47AE394E8A42}" name="20/11/22" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{9BAC2972-6A5B-4717-B16D-0F035A83C001}" name="21/11/22" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{2C7E1E57-A0FD-43F5-A1C0-D9CEF839010F}" name="22/11/22" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{BF09FF2E-08CF-4C77-B995-FA552B07331C}" name="23/11/22" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{F95FD232-FFA9-4C2A-8A79-A314A99627B1}" name="24/11/22" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{4157B269-FC1E-4344-80EE-594F0938411C}" name="25/11/22" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{500155F2-C488-4E91-95A3-7525D567F566}" name="26/11/22" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{5743E408-8FAC-44AE-81BD-FE1F0BA91CEB}" name="27/11/22" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{919A6993-970F-452F-9B2D-9D06989985BF}" name="28/11/22" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{6FCC3D91-E530-49DC-9803-12984CBA6BE9}" name="29/11/22" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{E6DAAE99-A983-4374-B5B5-FA292704266A}" name="30/11/22" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{9612EC83-2684-4EAF-A263-5FD181F5472E}" name="ASIST" dataDxfId="12">
       <calculatedColumnFormula>COUNTA(C2:AF2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{CF4CC9FE-4916-47D6-BF2F-CC31868C00D4}" name="AUS" dataDxfId="0">
+    <tableColumn id="33" xr3:uid="{CF4CC9FE-4916-47D6-BF2F-CC31868C00D4}" name="AUS" dataDxfId="11">
       <calculatedColumnFormula>COUNTBLANK(C2:AF2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3D377C96-8576-4B15-BA17-2BD00049CD30}" name="Tabla_productos" displayName="Tabla_productos" ref="B1:G10" totalsRowShown="0">
+  <autoFilter ref="B1:G10" xr:uid="{3D377C96-8576-4B15-BA17-2BD00049CD30}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G6">
+    <sortCondition ref="B1:B6"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{19D818B5-BCFA-46E0-9471-293C1526FBFE}" name="codigo"/>
+    <tableColumn id="2" xr3:uid="{8D23CB7C-A514-4DDD-B24A-84FC2BD4348C}" name="Descripcion"/>
+    <tableColumn id="5" xr3:uid="{537A129A-9889-46D9-8F7B-AF31B4ECDA4F}" name="Categoria"/>
+    <tableColumn id="6" xr3:uid="{B207637B-3D2B-4A4A-BC6D-E88E8AF9C86F}" name="Marca"/>
+    <tableColumn id="3" xr3:uid="{AC6F69EE-E287-486C-93CE-CB4F0DFE213C}" name="precio" dataDxfId="6" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{2810369F-142D-4CC6-B71E-B4100767C960}" name="Stock"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{46713EBC-B864-45CC-8B85-091131957A0F}" name="Tabla_ventas" displayName="Tabla_ventas" ref="B1:I12" totalsRowCount="1" headerRowDxfId="7" dataDxfId="8" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
+  <autoFilter ref="B1:I11" xr:uid="{8CD3FF01-9040-4806-AC6E-6DE86411CAF8}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I11">
+    <sortCondition ref="B1:B11"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{639A0A80-9D3F-4E73-A08F-D95A9C1525BD}" name="codigo" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{B5B3A760-4E23-4C46-A4D9-83EB9C7AA444}" name="vendedor"/>
+    <tableColumn id="3" xr3:uid="{2BCCB3FC-114B-4ABF-8B8A-4699E7E05B7A}" name="producto"/>
+    <tableColumn id="4" xr3:uid="{382CB23A-8AA8-4F37-A270-4ECBE08338DF}" name="cant"/>
+    <tableColumn id="5" xr3:uid="{0E820465-6116-42AB-B3CF-5577B88E0317}" name="precio" totalsRowFunction="countNums" dataDxfId="10" totalsRowDxfId="2" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{99144CA1-4D07-4C46-89AF-C64FF2EC5C32}" name="total" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="0" dataCellStyle="Moneda">
+      <calculatedColumnFormula>cant*precio</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5B78A9FD-6297-4C03-91CC-D40B43A95930}" name="iva" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Moneda">
+      <calculatedColumnFormula>Tabla_ventas[[#This Row],[total]]*iva</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{ED091CDD-F115-4839-B377-BE458A5E65A1}" name="final" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
+      <calculatedColumnFormula>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2756,17 +3504,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="H1" s="33" t="s">
+      <c r="A1" s="33"/>
+      <c r="H1" s="32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="29" t="s">
         <v>98</v>
       </c>
@@ -2785,22 +3533,22 @@
       <c r="G2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="29" t="s">
         <v>103</v>
       </c>
@@ -2819,7 +3567,7 @@
       <c r="G4" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2852,7 +3600,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,7 +3625,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B1" t="s">
@@ -3003,7 +3751,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,7 +3772,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B1" t="s">
@@ -3093,52 +3841,52 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
-        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <f>TRIM(Tabla_presentismo[[#This Row],[Empleado]])</f>
         <v>racedo; cristian Damian</v>
       </c>
       <c r="C2" t="str">
-        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>racedo</v>
       </c>
       <c r="D2" t="str">
-        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[largo]] - Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>cristian Damian</v>
       </c>
       <c r="E2" s="1">
         <v>33346</v>
       </c>
       <c r="F2" s="23" cm="1">
-        <f t="array" aca="1" ref="F2" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <f t="array" aca="1" ref="F2" ca="1">tiempo[AÑO]-YEAR(Tabla_datos[[#This Row],[NACIMIENTO]])</f>
         <v>31</v>
       </c>
       <c r="G2" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <f ca="1">(hoy-Tabla_datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>31.684931506849313</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="6" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
       <c r="J2" s="6" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <f>MID(Tabla_datos[[#This Row],[CUIL]],4,8)</f>
         <v>35336446</v>
       </c>
       <c r="K2" s="7" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[CUIL]],1)</f>
         <v>5</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>76</v>
       </c>
       <c r="M2" s="26">
-        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <f>FIND(Tabla_datos[[#This Row],[char]],Tabla_datos[[#This Row],[empleado]])</f>
         <v>7</v>
       </c>
       <c r="N2" s="26">
-        <f>LEN(datos[[#This Row],[empleado]])</f>
+        <f>LEN(Tabla_datos[[#This Row],[empleado]])</f>
         <v>23</v>
       </c>
       <c r="P2" s="1">
@@ -3147,7 +3895,7 @@
       </c>
       <c r="Q2" s="22">
         <f ca="1">NOW()</f>
-        <v>44911.487448842592</v>
+        <v>44911.539798148151</v>
       </c>
       <c r="R2">
         <f ca="1">YEAR(hoy)</f>
@@ -3163,218 +3911,218 @@
       </c>
       <c r="U2">
         <f ca="1">HOUR(ahora)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V2">
         <f ca="1">MINUTE(ahora)</f>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="W2">
         <f ca="1">SECOND(ahora)</f>
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
-        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <f>TRIM(Tabla_presentismo[[#This Row],[Empleado]])</f>
         <v>racedo; Abel Alejandro</v>
       </c>
       <c r="C3" t="str">
-        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>racedo</v>
       </c>
       <c r="D3" t="str">
-        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[largo]] - Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>Abel Alejandro</v>
       </c>
       <c r="E3" s="1">
         <v>34254</v>
       </c>
       <c r="F3" s="23" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <f t="array" aca="1" ref="F3" ca="1">tiempo[AÑO]-YEAR(Tabla_datos[[#This Row],[NACIMIENTO]])</f>
         <v>29</v>
       </c>
       <c r="G3" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <f ca="1">(hoy-Tabla_datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>29.197260273972603</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
       <c r="J3" s="8" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <f>MID(Tabla_datos[[#This Row],[CUIL]],4,8)</f>
         <v>38558443</v>
       </c>
       <c r="K3" s="9" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[CUIL]],1)</f>
         <v>6</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>76</v>
       </c>
       <c r="M3" s="27">
-        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <f>FIND(Tabla_datos[[#This Row],[char]],Tabla_datos[[#This Row],[empleado]])</f>
         <v>7</v>
       </c>
       <c r="N3" s="27">
-        <f>LEN(datos[[#This Row],[empleado]])</f>
+        <f>LEN(Tabla_datos[[#This Row],[empleado]])</f>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
-        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <f>TRIM(Tabla_presentismo[[#This Row],[Empleado]])</f>
         <v>Aguilera; Cristina</v>
       </c>
       <c r="C4" t="str">
-        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>Aguilera</v>
       </c>
       <c r="D4" t="str">
-        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[largo]] - Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>Cristina</v>
       </c>
       <c r="E4" s="1">
         <v>29573</v>
       </c>
       <c r="F4" s="23" cm="1">
-        <f t="array" aca="1" ref="F4" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <f t="array" aca="1" ref="F4" ca="1">tiempo[AÑO]-YEAR(Tabla_datos[[#This Row],[NACIMIENTO]])</f>
         <v>42</v>
       </c>
       <c r="G4" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <f ca="1">(hoy-Tabla_datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>42.021917808219179</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="6" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
       <c r="J4" s="6" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <f>MID(Tabla_datos[[#This Row],[CUIL]],4,8)</f>
         <v>14093915</v>
       </c>
       <c r="K4" s="7" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[CUIL]],1)</f>
         <v>9</v>
       </c>
       <c r="L4" s="26" t="s">
         <v>76</v>
       </c>
       <c r="M4" s="26">
-        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <f>FIND(Tabla_datos[[#This Row],[char]],Tabla_datos[[#This Row],[empleado]])</f>
         <v>9</v>
       </c>
       <c r="N4" s="26">
-        <f>LEN(datos[[#This Row],[empleado]])</f>
+        <f>LEN(Tabla_datos[[#This Row],[empleado]])</f>
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
-        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <f>TRIM(Tabla_presentismo[[#This Row],[Empleado]])</f>
         <v>Osses; Shakira Alejandra</v>
       </c>
       <c r="C5" t="str">
-        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>Osses</v>
       </c>
       <c r="D5" t="str">
-        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[largo]] - Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>Shakira Alejandra</v>
       </c>
       <c r="E5" s="1">
         <v>28158</v>
       </c>
       <c r="F5" s="23" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <f t="array" aca="1" ref="F5" ca="1">tiempo[AÑO]-YEAR(Tabla_datos[[#This Row],[NACIMIENTO]])</f>
         <v>45</v>
       </c>
       <c r="G5" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <f ca="1">(hoy-Tabla_datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>45.898630136986299</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <f>MID(Tabla_datos[[#This Row],[CUIL]],4,8)</f>
         <v>45241471</v>
       </c>
       <c r="K5" s="9" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[CUIL]],1)</f>
         <v>1</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>76</v>
       </c>
       <c r="M5" s="27">
-        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <f>FIND(Tabla_datos[[#This Row],[char]],Tabla_datos[[#This Row],[empleado]])</f>
         <v>6</v>
       </c>
       <c r="N5" s="27">
-        <f>LEN(datos[[#This Row],[empleado]])</f>
+        <f>LEN(Tabla_datos[[#This Row],[empleado]])</f>
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
-        <f>TRIM(presentismo[[#This Row],[Empleado]])</f>
+        <f>TRIM(Tabla_presentismo[[#This Row],[Empleado]])</f>
         <v>Messi; Lionel Andres</v>
       </c>
       <c r="C6" t="str">
-        <f>LEFT(datos[[#This Row],[empleado]],datos[[#This Row],[p]] - 1)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>Messi</v>
       </c>
       <c r="D6" t="str">
-        <f>RIGHT(datos[[#This Row],[empleado]],datos[[#This Row],[largo]] - datos[[#This Row],[p]] - 1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[empleado]],Tabla_datos[[#This Row],[largo]] - Tabla_datos[[#This Row],[p]] - 1)</f>
         <v>Lionel Andres</v>
       </c>
       <c r="E6" s="1">
         <v>31952</v>
       </c>
       <c r="F6" s="23" cm="1">
-        <f t="array" aca="1" ref="F6" ca="1">tiempo[AÑO]-YEAR(datos[[#This Row],[NACIMIENTO]])</f>
+        <f t="array" aca="1" ref="F6" ca="1">tiempo[AÑO]-YEAR(Tabla_datos[[#This Row],[NACIMIENTO]])</f>
         <v>35</v>
       </c>
       <c r="G6" s="24">
-        <f ca="1">(hoy-datos[[#This Row],[NACIMIENTO]])/365</f>
+        <f ca="1">(hoy-Tabla_datos[[#This Row],[NACIMIENTO]])/365</f>
         <v>35.504109589041093</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f>LEFT(datos[[#This Row],[CUIL]],2)</f>
+        <f>LEFT(Tabla_datos[[#This Row],[CUIL]],2)</f>
         <v>23</v>
       </c>
       <c r="J6" s="6" t="str">
-        <f>MID(datos[[#This Row],[CUIL]],4,8)</f>
+        <f>MID(Tabla_datos[[#This Row],[CUIL]],4,8)</f>
         <v>33016244</v>
       </c>
       <c r="K6" s="7" t="str">
-        <f>RIGHT(datos[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(Tabla_datos[[#This Row],[CUIL]],1)</f>
         <v>9</v>
       </c>
       <c r="L6" s="26" t="s">
         <v>76</v>
       </c>
       <c r="M6" s="26">
-        <f>FIND(datos[[#This Row],[char]],datos[[#This Row],[empleado]])</f>
+        <f>FIND(Tabla_datos[[#This Row],[char]],Tabla_datos[[#This Row],[empleado]])</f>
         <v>6</v>
       </c>
       <c r="N6" s="26">
-        <f>LEN(datos[[#This Row],[empleado]])</f>
+        <f>LEN(Tabla_datos[[#This Row],[empleado]])</f>
         <v>20</v>
       </c>
     </row>
@@ -3399,7 +4147,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,7 +4168,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>110</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3534,7 +4282,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <f>_xlfn.CONCAT(Tabla_empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;Tabla_empleados[[#This Row],[NOMBRE]])</f>
         <v>racedo; cristian Damian</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -3617,17 +4365,17 @@
         <v>58</v>
       </c>
       <c r="AK2">
-        <f>SUM(presentismo[ASIST])</f>
+        <f>SUM(Tabla_presentismo[ASIST])</f>
         <v>88</v>
       </c>
       <c r="AL2">
-        <f>SUM(presentismo[AUS])</f>
+        <f>SUM(Tabla_presentismo[AUS])</f>
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <f>_xlfn.CONCAT(Tabla_empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;Tabla_empleados[[#This Row],[NOMBRE]])</f>
         <v>racedo; Abel Alejandro</v>
       </c>
       <c r="C3" s="14"/>
@@ -3694,17 +4442,17 @@
         <v>53</v>
       </c>
       <c r="AK3">
-        <f>MAX(presentismo[ASIST])</f>
+        <f>MAX(Tabla_presentismo[ASIST])</f>
         <v>19</v>
       </c>
       <c r="AL3">
-        <f>MAX(presentismo[AUS])</f>
+        <f>MAX(Tabla_presentismo[AUS])</f>
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <f>_xlfn.CONCAT(Tabla_empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;Tabla_empleados[[#This Row],[NOMBRE]])</f>
         <v>Aguilera; Cristina</v>
       </c>
       <c r="C4" s="14"/>
@@ -3778,17 +4526,17 @@
         <v>54</v>
       </c>
       <c r="AK4">
-        <f>MIN(presentismo[ASIST])</f>
+        <f>MIN(Tabla_presentismo[ASIST])</f>
         <v>16</v>
       </c>
       <c r="AL4">
-        <f>MIN(presentismo[AUS])</f>
+        <f>MIN(Tabla_presentismo[AUS])</f>
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <f>_xlfn.CONCAT(Tabla_empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;Tabla_empleados[[#This Row],[NOMBRE]])</f>
         <v>Osses; Shakira Alejandra</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -3855,17 +4603,17 @@
         <v>55</v>
       </c>
       <c r="AK5" s="19">
-        <f>AVERAGE(presentismo[ASIST])</f>
+        <f>AVERAGE(Tabla_presentismo[ASIST])</f>
         <v>17.600000000000001</v>
       </c>
       <c r="AL5" s="19">
-        <f>AVERAGE(presentismo[AUS])</f>
+        <f>AVERAGE(Tabla_presentismo[AUS])</f>
         <v>12.4</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="str">
-        <f>_xlfn.CONCAT(empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;empleados[[#This Row],[NOMBRE]])</f>
+        <f>_xlfn.CONCAT(Tabla_empleados[[#This Row],[APELLIDO]]&amp;"; "&amp;Tabla_empleados[[#This Row],[NOMBRE]])</f>
         <v>Messi; Lionel Andres</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -3938,11 +4686,11 @@
         <v>56</v>
       </c>
       <c r="AK6">
-        <f>MEDIAN(presentismo[ASIST])</f>
+        <f>MEDIAN(Tabla_presentismo[ASIST])</f>
         <v>18</v>
       </c>
       <c r="AL6">
-        <f>MEDIAN(presentismo[AUS])</f>
+        <f>MEDIAN(Tabla_presentismo[AUS])</f>
         <v>12</v>
       </c>
     </row>
@@ -3952,11 +4700,11 @@
         <v>57</v>
       </c>
       <c r="AK7">
-        <f>MODE(presentismo[ASIST])</f>
+        <f>MODE(Tabla_presentismo[ASIST])</f>
         <v>19</v>
       </c>
       <c r="AL7">
-        <f>MODE(presentismo[AUS])</f>
+        <f>MODE(Tabla_presentismo[AUS])</f>
         <v>11</v>
       </c>
     </row>
@@ -4046,18 +4794,224 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BCF59A-9D0C-4ADD-8102-A58A6DC81599}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G2">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="3">
+        <v>600</v>
+      </c>
+      <c r="G4">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G5">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G6">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="3">
+        <v>600</v>
+      </c>
+      <c r="G7">
+        <v>9920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45999.99</v>
+      </c>
+      <c r="G8">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="3">
+        <v>32500</v>
+      </c>
+      <c r="G9">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="3">
+        <v>120000</v>
+      </c>
+      <c r="G10">
+        <v>10500</v>
       </c>
     </row>
   </sheetData>
@@ -4066,30 +5020,44 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FF01-9040-4806-AC6E-6DE86411CAF8}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B1" t="s">
@@ -4120,7 +5088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -4137,22 +5105,22 @@
         <v>15000</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G11" si="0">cant*precio</f>
+        <f>cant*precio</f>
         <v>30000</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H11" si="1">total*iva</f>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>6300</v>
       </c>
       <c r="I2" s="3">
-        <f>total +precio_iva</f>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>36300</v>
       </c>
       <c r="K2" s="2">
         <v>0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -4169,19 +5137,22 @@
         <v>5400</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>21600</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="1"/>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>4536</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I2:I11" si="2">total +precio_iva</f>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>26136</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -4198,19 +5169,26 @@
         <v>3800</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>11400</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>2394</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="2"/>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>13794</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="35">
+        <f>COUNT(total)</f>
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -4227,19 +5205,26 @@
         <v>600</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>600</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>126</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="2"/>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>726</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="34">
+        <f>SUM(total)</f>
+        <v>340600</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -4256,19 +5241,26 @@
         <v>8800</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>52800</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>11088</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="2"/>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>63888</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="34">
+        <f>AVERAGE(total)</f>
+        <v>30963.636363636364</v>
+      </c>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -4285,19 +5277,26 @@
         <v>8800</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>88000</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>18480</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="2"/>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>106480</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="34">
+        <f>MEDIAN(total)</f>
+        <v>18000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -4314,19 +5313,26 @@
         <v>600</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>18000</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>3780</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>21780</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="35">
+        <f>MODE(C:C)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -4343,19 +5349,26 @@
         <v>3800</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>7600</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>1596</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="2"/>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>9196</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="35">
+        <f>MODE(D:D)</f>
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -4372,19 +5385,19 @@
         <v>15000</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>15000</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>3150</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="2"/>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>18150</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -4401,17 +5414,87 @@
         <v>3800</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f>cant*precio</f>
         <v>7600</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f>Tabla_ventas[[#This Row],[total]]*iva</f>
         <v>1596</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="2"/>
+        <f>Tabla_ventas[[#This Row],[total]] +Tabla_ventas[[#This Row],[iva]]</f>
         <v>9196</v>
       </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="39">
+        <f>SUBTOTAL(102,Tabla_ventas[precio])</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="40">
+        <f>SUBTOTAL(109,Tabla_ventas[total])</f>
+        <v>88000</v>
+      </c>
+      <c r="H12" s="40">
+        <f>SUBTOTAL(109,Tabla_ventas[iva])</f>
+        <v>18480</v>
+      </c>
+      <c r="I12" s="38">
+        <f>SUBTOTAL(109,Tabla_ventas[final])</f>
+        <v>106480</v>
+      </c>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4419,6 +5502,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4434,7 +5527,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>110</v>
       </c>
     </row>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-mjv13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B21792-60C1-4E7A-85B4-17345710BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAD15ED-45FF-4782-8AA6-A1A665F9B3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="487" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="487" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="6" r:id="rId1"/>
@@ -23,12 +23,27 @@
   </sheets>
   <definedNames>
     <definedName name="año_actual">empleados!$O$2</definedName>
-    <definedName name="char">Datos!$H$2</definedName>
+    <definedName name="char">Datos!$K$2</definedName>
     <definedName name="fecha_actual">empleados!$M$2</definedName>
     <definedName name="iva_ventas">ventas!$K$1</definedName>
+    <definedName name="SegmentaciónDeDatos_Categoria">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Empleado">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Marca">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Producto">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -43,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="172">
   <si>
     <t>Apellido</t>
   </si>
@@ -168,30 +183,6 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>Microondas</t>
-  </si>
-  <si>
-    <t>Secarropas</t>
-  </si>
-  <si>
-    <t>Televisor</t>
-  </si>
-  <si>
-    <t>Impresora</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>Sillas</t>
-  </si>
-  <si>
-    <t>Aire Acondicionado</t>
-  </si>
-  <si>
-    <t>Notebook</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -276,24 +267,6 @@
     <t>valor</t>
   </si>
   <si>
-    <t>Producto Mas vendido</t>
-  </si>
-  <si>
-    <t>Empleado Mas Ventas</t>
-  </si>
-  <si>
-    <t>Cantidad de Ventas</t>
-  </si>
-  <si>
-    <t>Total Recaudado</t>
-  </si>
-  <si>
-    <t>Mediana de Ventas</t>
-  </si>
-  <si>
-    <t>Media de Ventas</t>
-  </si>
-  <si>
     <t>Empleados</t>
   </si>
   <si>
@@ -502,6 +475,105 @@
   </si>
   <si>
     <t>Intro</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Atma</t>
+  </si>
+  <si>
+    <t>Drean</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Top House</t>
+  </si>
+  <si>
+    <t>Mesa de melamina 180x120</t>
+  </si>
+  <si>
+    <t>Impresora SmartTank 510 series</t>
+  </si>
+  <si>
+    <t>Televisor 49'' Smart TV</t>
+  </si>
+  <si>
+    <t>Secarropas 5L Carga Superior</t>
+  </si>
+  <si>
+    <t>Microondas 15L</t>
+  </si>
+  <si>
+    <t>Sillas de madera 100x60</t>
+  </si>
+  <si>
+    <t>Notebook Elitebook 8500 series</t>
+  </si>
+  <si>
+    <t>Lavarropas Carga Frontal 8Kg</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Notebook Thinkpad 3800 series</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Sedal</t>
+  </si>
+  <si>
+    <t>Acondicionador 500ml anticaspa</t>
+  </si>
+  <si>
+    <t>Shampoo 1L cabellos fragiles</t>
+  </si>
+  <si>
+    <t>Televisor 32'' AMOLED</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Jabon humentacte x 3</t>
+  </si>
+  <si>
+    <t>Estetica</t>
+  </si>
+  <si>
+    <t>Liliana</t>
+  </si>
+  <si>
+    <t>Secador de Pelo 3800rpm</t>
+  </si>
+  <si>
+    <t>Aire Acondicionado 3800 frigorias</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>Contar</t>
   </si>
 </sst>
 </file>
@@ -512,7 +584,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -595,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -671,6 +743,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -680,10 +761,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -706,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,9 +817,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
@@ -754,6 +831,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Énfasis1" xfId="3" builtinId="29"/>
@@ -763,9 +848,9 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="29">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -784,6 +869,226 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -883,30 +1188,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1061,6 +1342,30 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1084,7 +1389,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
@@ -1100,6 +1405,1894 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>productos!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>productos!$C$2:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Microondas 15L</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Secarropas 5L Carga Superior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Televisor 49'' Smart TV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Impresora SmartTank 510 series</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mesa de melamina 180x120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sillas de madera 100x60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Aire Acondicionado 3800 frigorias</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Notebook Elitebook 8500 series</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lavarropas Carga Frontal 8Kg</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Notebook Thinkpad 3800 series</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Acondicionador 500ml anticaspa</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Shampoo 1L cabellos fragiles</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Televisor 32'' AMOLED</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jabon humentacte x 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Secador de Pelo 3800rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>productos!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9540</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D387-4747-BFB3-1AB8AA3F5634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="729900031"/>
+        <c:axId val="729902527"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="729900031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729902527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="729902527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729900031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Estadisticas de Ventas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ventas!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estadisticas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>ventas!$J$4:$J$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>ventas!$J$5:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mediana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Minimo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maximo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>ventas!$K$4:$K$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>ventas!$K$5:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>150949.99599999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>499999.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D67-442F-8E24-32854E50BAC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="858466399"/>
+        <c:axId val="858468479"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="858466399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858468479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858468479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858466399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1329,7 +3522,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3357493" y="1011621"/>
+          <a:off x="3356987" y="1011621"/>
           <a:ext cx="648000" cy="650327"/>
           <a:chOff x="2596243" y="1011621"/>
           <a:chExt cx="648000" cy="650327"/>
@@ -1562,59 +3755,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>623252</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>727212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>41252</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>145212</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Gráfico 18" descr="Atrás con relleno sólido">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF686EA2-8158-4431-8FB1-20E9B3F6A720}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5825873" y="727212"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>43239</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1629,7 +3769,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="Gráfico 20" descr="Lápiz con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A014007C-0406-4B24-9F57-575E92F2ECF0}"/>
@@ -1641,13 +3781,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1683,7 +3823,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="Gráfico 22" descr="Correo electrónico con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD08A190-9E70-4AFF-A8B3-45B09D1B7BA2}"/>
@@ -1695,13 +3835,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1737,7 +3877,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="Gráfico 24" descr="Documento con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1FFC59-70E4-48E4-943C-13B3CDA4CBEC}"/>
@@ -1749,13 +3889,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1791,7 +3931,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="27" name="Gráfico 26" descr="Tendencia al alza con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AD432C-FCC0-417E-A9D4-37F00040CBEB}"/>
@@ -1803,13 +3943,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1845,7 +3985,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="29" name="Gráfico 28" descr="Dinero con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6084AA-F53F-468A-9B32-1E695426584A}"/>
@@ -1857,13 +3997,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1899,7 +4039,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="31" name="Gráfico 30" descr="Camión con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA7C475-B37A-4CCE-B2D4-940C1D262ACF}"/>
@@ -1911,13 +4051,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1953,7 +4093,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="33" name="Gráfico 32" descr="Lista con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F3F5FD-BAC2-44B2-BB0B-6FFDFEBE3E1F}"/>
@@ -1965,13 +4105,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2007,7 +4147,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="35" name="Gráfico 34" descr="Identificación de empleado con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05D4C4E-113F-4FC2-A953-6E2C58AEB2CE}"/>
@@ -2019,13 +4159,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2061,7 +4201,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="37" name="Gráfico 36" descr="Maestro con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EC6615-3B9D-4625-963F-E79BA1A97CBB}"/>
@@ -2073,13 +4213,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId36"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2115,7 +4255,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="39" name="Gráfico 38" descr="Base de datos con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5AC3CF-96E8-4D64-933D-5F14965FCE03}"/>
@@ -2127,13 +4267,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId41"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2389,6 +4529,162 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470451</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213276</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118027</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Categoria">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26125B25-1D7F-422D-B0C8-AD9A94072069}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Categoria"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7353299" y="0"/>
+              <a:ext cx="1266825" cy="2238375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252619</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>757444</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118027</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Marca">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB6FFCD-4B52-4761-8F83-BE2D8AFD51AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Marca"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8659467" y="0"/>
+              <a:ext cx="1266825" cy="2238375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2446,6 +4742,162 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20509</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576637</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22777</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Empleado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E2AA26-0C85-4C34-AA08-61871E79F54C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Empleado"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9214205" y="0"/>
+              <a:ext cx="1318128" cy="1952625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665019</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>319415</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22777</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Producto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86688E13-B778-4F17-81A6-B200C98A5800}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Producto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10620715" y="0"/>
+              <a:ext cx="1178396" cy="1952625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2507,7 +4959,137 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89F9B60-E571-458C-A0CC-1262221FB3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>745435</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E35531D-9680-479D-81C6-A34E4372EFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Categoria" xr10:uid="{08C1BA63-FB4B-4B37-BCB8-C59309AE4B91}" sourceName="Categoria">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="7" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Marca" xr10:uid="{FA10C232-3EA4-4485-B0EB-D299D06B3064}" sourceName="Marca">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="7" column="6"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Empleado" xr10:uid="{15E8E944-7428-473E-9557-6A187ABA2838}" sourceName="Empleado">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="5" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Producto" xr10:uid="{9CBA62A1-8EBF-4BE8-9A7F-F7228BE4E172}" sourceName="Producto">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="5" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Categoria" xr10:uid="{6E441EB7-F6DE-4F6A-B6D8-00AA726D0F77}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" rowHeight="241300"/>
+  <slicer name="Marca" xr10:uid="{06939A73-CF39-48F1-9DCA-B7ED514D2495}" cache="SegmentaciónDeDatos_Marca" caption="Marca" startItem="3" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Empleado" xr10:uid="{F0A3EAD6-38A8-44D3-B735-B9848CED9562}" cache="SegmentaciónDeDatos_Empleado" caption="Empleado" startItem="1" rowHeight="241300"/>
+  <slicer name="Producto" xr10:uid="{4E70F67D-9C31-45B5-A470-342FB74F1837}" cache="SegmentaciónDeDatos_Producto" caption="Producto" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2517,18 +5099,18 @@
     <tableColumn id="9" xr3:uid="{A3DC2312-AD47-4AAC-8E22-E8B427243A5B}" name="Codigo"/>
     <tableColumn id="1" xr3:uid="{645ADEB6-B8E8-42E8-AA74-3CE57DF4BF08}" name="Nombre"/>
     <tableColumn id="8" xr3:uid="{D35B55AE-2BA9-492C-82D5-C765C90247E4}" name="Apellido"/>
-    <tableColumn id="2" xr3:uid="{2B468B38-0B14-4C36-8324-49C05B2F071E}" name="Nacimiento" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{D4533D99-3030-48D8-95FA-AB65ECFD7909}" name="Edad" dataDxfId="18" dataCellStyle="Millares">
+    <tableColumn id="2" xr3:uid="{2B468B38-0B14-4C36-8324-49C05B2F071E}" name="Nacimiento" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{D4533D99-3030-48D8-95FA-AB65ECFD7909}" name="Edad" dataDxfId="27" dataCellStyle="Millares">
       <calculatedColumnFormula>año_actual-YEAR(tabla_empleados[[#This Row],[Nacimiento]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B8337F0C-C37F-4DFD-94E6-26A12D426265}" name="CUIL"/>
-    <tableColumn id="12" xr3:uid="{887DDF5F-2191-4315-9EF2-3C899D0F4A1A}" name="G" dataDxfId="17">
+    <tableColumn id="12" xr3:uid="{887DDF5F-2191-4315-9EF2-3C899D0F4A1A}" name="G" dataDxfId="26">
       <calculatedColumnFormula>LEFT(tabla_empleados[[#This Row],[CUIL]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FC13B777-A483-475A-8B84-2A386013D7AE}" name="DU" dataDxfId="16" dataCellStyle="Millares">
+    <tableColumn id="11" xr3:uid="{FC13B777-A483-475A-8B84-2A386013D7AE}" name="DU" dataDxfId="25" dataCellStyle="Millares">
       <calculatedColumnFormula>MID(tabla_empleados[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F4046EF-FE5C-48DC-A976-96DB774EC283}" name="V" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{8F4046EF-FE5C-48DC-A976-96DB774EC283}" name="V" dataDxfId="24">
       <calculatedColumnFormula>RIGHT(tabla_empleados[[#This Row],[CUIL]],1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{81BCC680-E3A8-445F-A127-EA969D0EB07D}" name="Telefono"/>
@@ -2538,23 +5120,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}" name="tabla_datos" displayName="tabla_datos" comment="Tabla con extraccion de Nombre y apellido de Empleados" ref="B1:F9" totalsRowShown="0">
-  <autoFilter ref="B1:F9" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}" name="tabla_datos" displayName="tabla_datos" comment="Tabla con extraccion de Nombre y apellido de Empleados" ref="B1:I9" totalsRowShown="0">
+  <autoFilter ref="B1:I9" xr:uid="{CADF3F30-502A-4F21-BCA4-ECFD83EEB22A}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{29B4FC90-C2F0-4B58-BFFA-F95ED0272441}" name="Empleado">
       <calculatedColumnFormula>TRIM(presentismo!B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D3F48162-106C-421E-BE38-BF662E293D6F}" name="Nombre" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{D80479C4-D809-4CDB-91A7-BD696031D3A2}" name="Codigo"/>
+    <tableColumn id="2" xr3:uid="{D3F48162-106C-421E-BE38-BF662E293D6F}" name="Nombre" dataDxfId="23">
       <calculatedColumnFormula>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E129AACC-862D-4EED-B93F-0A6B9FDD5B4F}" name="Apellido" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{E129AACC-862D-4EED-B93F-0A6B9FDD5B4F}" name="Apellido" dataDxfId="22">
       <calculatedColumnFormula>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A2B9009-32C3-43F8-B562-B70931954ACA}" name="posicion" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{2A2B9009-32C3-43F8-B562-B70931954ACA}" name="posicion" dataDxfId="21">
       <calculatedColumnFormula>FIND(char,tabla_datos[[#This Row],[Empleado]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D1BEFD8D-0CE7-4A41-AA4D-42AF9EBA799E}" name="largo" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{D1BEFD8D-0CE7-4A41-AA4D-42AF9EBA799E}" name="largo" dataDxfId="20">
       <calculatedColumnFormula>LEN(tabla_datos[[#This Row],[Empleado]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6B6D30C1-3F3F-4F3E-ADFA-2254F14415E5}" name="Ventas" dataDxfId="10">
+      <calculatedColumnFormula>COUNTIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6BDDF0CB-3B6F-45A4-9838-E9A224BE1A5C}" name="Total" dataDxfId="9">
+      <calculatedColumnFormula>SUMIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]],tabla_ventas[Total])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2562,12 +5151,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{ADDAA7C3-8992-47A2-86C7-7945438D7830}" name="tabla_productos" displayName="tabla_productos" ref="B1:F9" totalsRowShown="0">
-  <autoFilter ref="B1:F9" xr:uid="{ADDAA7C3-8992-47A2-86C7-7945438D7830}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{ADDAA7C3-8992-47A2-86C7-7945438D7830}" name="tabla_productos" displayName="tabla_productos" ref="B1:G16" totalsRowShown="0">
+  <autoFilter ref="B1:G16" xr:uid="{ADDAA7C3-8992-47A2-86C7-7945438D7830}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4ABE1E0B-2321-402D-B77C-D35A85000D90}" name="Codigo"/>
     <tableColumn id="2" xr3:uid="{85DA45E6-DF47-4D7E-8852-828F57868EED}" name="Descripcion"/>
     <tableColumn id="3" xr3:uid="{2F7F3367-F8E5-4640-AE13-CFE343CF9EAE}" name="Categoria"/>
+    <tableColumn id="6" xr3:uid="{8AD67E95-33F4-4917-8010-B9B9BE92932A}" name="Marca"/>
     <tableColumn id="4" xr3:uid="{209B8B63-279F-4DFD-BA4F-BF7824FD5CDB}" name="Precio" dataDxfId="1" dataCellStyle="Moneda"/>
     <tableColumn id="5" xr3:uid="{7135D432-720D-459D-9195-F6688B903E57}" name="Stock" dataDxfId="0"/>
   </tableColumns>
@@ -2576,18 +5166,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B7BE9E3-1F6B-4C52-A712-203172B63C6D}" name="tabla_ventas" displayName="tabla_ventas" comment="Ventas de Productos por Vendedores" ref="B1:H16" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B7BE9E3-1F6B-4C52-A712-203172B63C6D}" name="tabla_ventas" displayName="tabla_ventas" comment="Ventas de Productos por Vendedores" ref="B1:H16" headerRowDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B1:H16" xr:uid="{5B7BE9E3-1F6B-4C52-A712-203172B63C6D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H16">
+    <sortCondition ref="B1:B16"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{31B77BF3-F71D-4B5D-AF5C-A28560ECDE55}" name="Factura" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4C658C36-B580-4A21-A06E-0956BA203137}" name="Empleado" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{A5C8E11D-5A43-413B-9D24-FAD6A6614655}" name="Producto" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{3BDB2312-175F-4B61-B51F-A882480AF1A8}" name="Cantidad" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E161D830-809F-44B0-A151-6F8E4CE0FCD6}" name="Precio" dataDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{D9028267-BECA-428C-9F0D-876734E3BF87}" name="Total" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{31B77BF3-F71D-4B5D-AF5C-A28560ECDE55}" name="Factura" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4C658C36-B580-4A21-A06E-0956BA203137}" name="Empleado" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A5C8E11D-5A43-413B-9D24-FAD6A6614655}" name="Producto" dataDxfId="15" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3BDB2312-175F-4B61-B51F-A882480AF1A8}" name="Cantidad" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E161D830-809F-44B0-A151-6F8E4CE0FCD6}" name="Precio" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="6" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{D9028267-BECA-428C-9F0D-876734E3BF87}" name="Total" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="7">
       <calculatedColumnFormula>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{160839D5-6282-48BE-AE1D-FFDF6A0A18B3}" name="final" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="7" xr3:uid="{160839D5-6282-48BE-AE1D-FFDF6A0A18B3}" name="final" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>tabla_ventas[[#This Row],[Total]]*iva_ventas</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2894,7 +5487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B73CBFC-728A-4FAD-AF56-CCF163A7BEB8}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -2905,66 +5498,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="46"/>
+      <c r="A1" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="46"/>
+      <c r="A3" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="46"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2986,7 +5579,8 @@
     <hyperlink ref="D4" r:id="rId6" xr:uid="{F43857B0-7367-48EA-A3C3-68B996FAA8A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2994,9 +5588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,9 +5602,9 @@
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="23" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.85546875" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
@@ -3024,8 +5618,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>150</v>
+      <c r="A1" s="45" t="s">
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3045,41 +5639,41 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>104</v>
+      <c r="H1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>101</v>
+      <c r="M1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3095,59 +5689,59 @@
       <c r="E2" s="1">
         <v>33346</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <f ca="1">año_actual-YEAR(tabla_empleados[[#This Row],[Nacimiento]])</f>
         <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="24" t="str">
+      <c r="H2" s="23" t="str">
         <f>LEFT(tabla_empleados[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="I2" s="25" t="str">
+      <c r="I2" s="24" t="str">
         <f>MID(tabla_empleados[[#This Row],[CUIL]],4,8)</f>
         <v>35336336</v>
       </c>
-      <c r="J2" s="24" t="str">
+      <c r="J2" s="23" t="str">
         <f>RIGHT(tabla_empleados[[#This Row],[CUIL]],1)</f>
         <v>5</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="41">
         <f ca="1">TODAY()</f>
-        <v>44910</v>
-      </c>
-      <c r="N2" s="43">
+        <v>44911</v>
+      </c>
+      <c r="N2" s="42">
         <f ca="1">NOW()</f>
-        <v>44910.750106481479</v>
-      </c>
-      <c r="O2" s="6">
+        <v>44911.596351736109</v>
+      </c>
+      <c r="O2" s="5">
         <f ca="1">YEAR(fecha_actual)</f>
         <v>2022</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <f ca="1">MONTH(fecha_actual)</f>
         <v>12</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <f ca="1">DAY(fecha_actual)</f>
-        <v>15</v>
-      </c>
-      <c r="R2" s="6">
+        <v>16</v>
+      </c>
+      <c r="R2" s="5">
         <f ca="1">HOUR(N2)</f>
+        <v>14</v>
+      </c>
+      <c r="S2" s="5">
+        <f ca="1">MINUTE(N2)</f>
         <v>18</v>
       </c>
-      <c r="S2" s="6">
-        <f ca="1">MINUTE(N2)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="19">
+      <c r="T2" s="18">
         <f ca="1">SECOND(N2)</f>
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3163,22 +5757,22 @@
       <c r="E3" s="1">
         <v>34254</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <f ca="1">año_actual-YEAR(tabla_empleados[[#This Row],[Nacimiento]])</f>
         <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="24" t="str">
+      <c r="H3" s="23" t="str">
         <f>LEFT(tabla_empleados[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="I3" s="25" t="str">
+      <c r="I3" s="24" t="str">
         <f>MID(tabla_empleados[[#This Row],[CUIL]],4,8)</f>
         <v>38883443</v>
       </c>
-      <c r="J3" s="24" t="str">
+      <c r="J3" s="23" t="str">
         <f>RIGHT(tabla_empleados[[#This Row],[CUIL]],1)</f>
         <v>5</v>
       </c>
@@ -3199,22 +5793,22 @@
       <c r="E4" s="1">
         <v>36613</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <f ca="1">año_actual-YEAR(tabla_empleados[[#This Row],[Nacimiento]])</f>
         <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="24" t="str">
+      <c r="H4" s="23" t="str">
         <f>LEFT(tabla_empleados[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="str">
+      <c r="I4" s="24" t="str">
         <f>MID(tabla_empleados[[#This Row],[CUIL]],4,8)</f>
         <v>91028301</v>
       </c>
-      <c r="J4" s="24" t="str">
+      <c r="J4" s="23" t="str">
         <f>RIGHT(tabla_empleados[[#This Row],[CUIL]],1)</f>
         <v>3</v>
       </c>
@@ -3235,22 +5829,22 @@
       <c r="E5" s="1">
         <v>31612</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <f ca="1">año_actual-YEAR(tabla_empleados[[#This Row],[Nacimiento]])</f>
         <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="24" t="str">
+      <c r="H5" s="23" t="str">
         <f>LEFT(tabla_empleados[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="I5" s="25" t="str">
+      <c r="I5" s="24" t="str">
         <f>MID(tabla_empleados[[#This Row],[CUIL]],4,8)</f>
         <v>18273913</v>
       </c>
-      <c r="J5" s="24" t="str">
+      <c r="J5" s="23" t="str">
         <f>RIGHT(tabla_empleados[[#This Row],[CUIL]],1)</f>
         <v>5</v>
       </c>
@@ -3271,22 +5865,22 @@
       <c r="E6" s="1">
         <v>36453</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <f ca="1">año_actual-YEAR(tabla_empleados[[#This Row],[Nacimiento]])</f>
         <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="24" t="str">
+      <c r="H6" s="23" t="str">
         <f>LEFT(tabla_empleados[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="I6" s="25" t="str">
+      <c r="I6" s="24" t="str">
         <f>MID(tabla_empleados[[#This Row],[CUIL]],4,8)</f>
         <v>19023885</v>
       </c>
-      <c r="J6" s="24" t="str">
+      <c r="J6" s="23" t="str">
         <f>RIGHT(tabla_empleados[[#This Row],[CUIL]],1)</f>
         <v>2</v>
       </c>
@@ -3307,22 +5901,22 @@
       <c r="E7" s="1">
         <v>37265</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <f ca="1">año_actual-YEAR(tabla_empleados[[#This Row],[Nacimiento]])</f>
         <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="24" t="str">
+      <c r="H7" s="23" t="str">
         <f>LEFT(tabla_empleados[[#This Row],[CUIL]],2)</f>
         <v>27</v>
       </c>
-      <c r="I7" s="25" t="str">
+      <c r="I7" s="24" t="str">
         <f>MID(tabla_empleados[[#This Row],[CUIL]],4,8)</f>
         <v>40279384</v>
       </c>
-      <c r="J7" s="24" t="str">
+      <c r="J7" s="23" t="str">
         <f>RIGHT(tabla_empleados[[#This Row],[CUIL]],1)</f>
         <v>2</v>
       </c>
@@ -3343,22 +5937,22 @@
       <c r="E8" s="1">
         <v>30529</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <f ca="1">año_actual-YEAR(tabla_empleados[[#This Row],[Nacimiento]])</f>
         <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>LEFT(tabla_empleados[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="I8" s="25" t="str">
+      <c r="I8" s="24" t="str">
         <f>MID(tabla_empleados[[#This Row],[CUIL]],4,8)</f>
         <v>84973329</v>
       </c>
-      <c r="J8" s="24" t="str">
+      <c r="J8" s="23" t="str">
         <f>RIGHT(tabla_empleados[[#This Row],[CUIL]],1)</f>
         <v>3</v>
       </c>
@@ -3379,22 +5973,22 @@
       <c r="E9" s="1">
         <v>34057</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <f ca="1">año_actual-YEAR(tabla_empleados[[#This Row],[Nacimiento]])</f>
         <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="24" t="str">
+      <c r="H9" s="23" t="str">
         <f>LEFT(tabla_empleados[[#This Row],[CUIL]],2)</f>
         <v>20</v>
       </c>
-      <c r="I9" s="25" t="str">
+      <c r="I9" s="24" t="str">
         <f>MID(tabla_empleados[[#This Row],[CUIL]],4,8)</f>
         <v>37891223</v>
       </c>
-      <c r="J9" s="24" t="str">
+      <c r="J9" s="23" t="str">
         <f>RIGHT(tabla_empleados[[#This Row],[CUIL]],1)</f>
         <v>2</v>
       </c>
@@ -3452,222 +6046,327 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C368CA-EC1F-4C28-88F2-7559A5997862}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="50"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>150</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>107</v>
-      </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>TRIM(presentismo!B2)</f>
         <v>Racedo, Cristian</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Cristian</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Racedo</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="51">
+        <f>COUNTIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]])</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="50">
+        <f>SUMIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]],tabla_ventas[Total])</f>
+        <v>392000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>TRIM(presentismo!B3)</f>
         <v>Racedo, Abel</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Abel</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Racedo</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="51">
+        <f>COUNTIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]])</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="50">
+        <f>SUMIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]],tabla_ventas[Total])</f>
+        <v>678749.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>TRIM(presentismo!B4)</f>
         <v>Maldonado, Alejandra</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Alejandra</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Maldonado</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="51">
+        <f>COUNTIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]])</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="50">
+        <f>SUMIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]],tabla_ventas[Total])</f>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>TRIM(presentismo!B5)</f>
         <v>Juarez, Alberto</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Alberto</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Juarez</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="51">
+        <f>COUNTIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]])</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="50">
+        <f>SUMIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]],tabla_ventas[Total])</f>
+        <v>499999.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>TRIM(presentismo!B6)</f>
         <v>Martinez, Mariana</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Mariana</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Martinez</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>9</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="51">
+        <f>COUNTIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]])</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="50">
+        <f>SUMIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]],tabla_ventas[Total])</f>
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>TRIM(presentismo!B7)</f>
         <v>Gomez, Graciela</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Graciela</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Gomez</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="51">
+        <f>COUNTIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]])</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="50">
+        <f>SUMIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]],tabla_ventas[Total])</f>
+        <v>131500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>TRIM(presentismo!B8)</f>
         <v>Garcia, Demetrio</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Demetrio</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Garcia</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="51">
+        <f>COUNTIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]])</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="50">
+        <f>SUMIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]],tabla_ventas[Total])</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>TRIM(presentismo!B9)</f>
         <v>Cabello, Camila</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="str">
         <f>RIGHT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[largo]]-(tabla_datos[[#This Row],[posicion]] + 1))</f>
         <v>Camila</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <f>LEFT(tabla_datos[[#This Row],[Empleado]],tabla_datos[[#This Row],[posicion]]-1)</f>
         <v>Cabello</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>FIND(char,tabla_datos[[#This Row],[Empleado]])</f>
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f>LEN(tabla_datos[[#This Row],[Empleado]])</f>
         <v>15</v>
       </c>
+      <c r="H9" s="51">
+        <f>COUNTIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]])</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="50">
+        <f>SUMIF(tabla_ventas[Empleado],tabla_datos[[#This Row],[Codigo]],tabla_ventas[Total])</f>
+        <v>246500</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="menu!A1" display="atrás" xr:uid="{52F5A465-28D2-48CE-B5A6-F404D2F6AE0E}"/>
   </hyperlinks>
@@ -3683,7 +6382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3692,16 +6391,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="43" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="23" max="28" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="3" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="2.85546875" customWidth="1"/>
@@ -3710,826 +6409,826 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="R1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="S1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="T1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="U1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="V1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="W1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="X1" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="Y1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="Z1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="AA1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="AB1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="AC1" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="AD1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="AE1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="AF1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB1" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD1" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE1" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>84</v>
+      <c r="AG1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="9" t="str">
         <f>_xlfn.CONCAT(empleados!D2,", ",empleados!C2)</f>
         <v>Racedo, Cristian</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="11">
+      <c r="C2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="10">
         <f>COUNTBLANK($B2:$AF2)</f>
         <v>10</v>
       </c>
-      <c r="AH2" s="33">
+      <c r="AH2" s="32">
         <f>COUNTA($C2:$AF2)</f>
         <v>20</v>
       </c>
-      <c r="AJ2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK2" s="11">
+      <c r="AJ2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="10">
         <f>SUM(AG$2:AG$9)</f>
         <v>93</v>
       </c>
-      <c r="AL2" s="33">
+      <c r="AL2" s="32">
         <f>SUM(AH$2:AH$9)</f>
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="str">
+      <c r="B3" s="13" t="str">
         <f>_xlfn.CONCAT(empleados!D3,", ",empleados!C3)</f>
         <v>Racedo, Abel</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3" s="15">
+      <c r="C3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="36"/>
+      <c r="W3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG3" s="14">
         <f t="shared" ref="AG3:AG8" si="0">COUNTBLANK($B3:$AF3)</f>
         <v>8</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="27">
         <f t="shared" ref="AH3:AH9" si="1">COUNTA($C3:$AF3)</f>
         <v>22</v>
       </c>
-      <c r="AJ3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK3" s="15">
+      <c r="AJ3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" s="14">
         <f>MIN(AG$2:AG$9)</f>
         <v>8</v>
       </c>
-      <c r="AL3" s="28">
+      <c r="AL3" s="27">
         <f>MIN(AH$2:AH$9)</f>
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="9" t="str">
         <f>_xlfn.CONCAT(empleados!D4,", ",empleados!C4)</f>
         <v>Maldonado, Alejandra</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11">
+      <c r="C4" s="35"/>
+      <c r="D4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AH4" s="32">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AJ4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="11">
+      <c r="AJ4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="10">
         <f>MAX(AG2:AG9)</f>
         <v>13</v>
       </c>
-      <c r="AL4" s="33">
+      <c r="AL4" s="32">
         <f>MAX(AH2:AH9)</f>
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="str">
+      <c r="B5" s="13" t="str">
         <f>_xlfn.CONCAT(empleados!D5,", ",empleados!C5)</f>
         <v>Juarez, Alberto</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" s="37"/>
-      <c r="W5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG5" s="15">
+      <c r="C5" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="36"/>
+      <c r="P5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="36"/>
+      <c r="W5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AH5" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AJ5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK5" s="15">
+      <c r="AJ5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK5" s="14">
         <f>AVERAGE(AG$2:AG$9)</f>
         <v>11.625</v>
       </c>
-      <c r="AL5" s="28">
+      <c r="AL5" s="27">
         <f>AVERAGE(AH$2:AH$9)</f>
         <v>18.375</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="9" t="str">
         <f>_xlfn.CONCAT(empleados!D6,", ",empleados!C6)</f>
         <v>Martinez, Mariana</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V6" s="37"/>
-      <c r="W6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG6" s="11">
+      <c r="C6" s="35"/>
+      <c r="D6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="36"/>
+      <c r="W6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG6" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AH6" s="33">
+      <c r="AH6" s="32">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AJ6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK6" s="11">
+      <c r="AJ6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK6" s="10">
         <f>MEDIAN(AG$2:AG$9)</f>
         <v>12.5</v>
       </c>
-      <c r="AL6" s="33">
+      <c r="AL6" s="32">
         <f>MEDIAN(AH$2:AH$9)</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="str">
+      <c r="B7" s="13" t="str">
         <f>_xlfn.CONCAT(empleados!D7,", ",empleados!C7)</f>
         <v>Gomez, Graciela</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15">
+      <c r="C7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" s="14"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AH7" s="28">
+      <c r="AH7" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AJ7" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK7" s="21">
+      <c r="AJ7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK7" s="20">
         <f>MODE(AG$2:AG$9)</f>
         <v>13</v>
       </c>
-      <c r="AL7" s="22">
+      <c r="AL7" s="21">
         <f>MODE(AH$2:AH$9)</f>
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="9" t="str">
         <f>_xlfn.CONCAT(empleados!D8,", ",empleados!C8)</f>
         <v>Garcia, Demetrio</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" s="37"/>
-      <c r="W8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG8" s="11">
+      <c r="C8" s="35"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="36"/>
+      <c r="P8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" s="36"/>
+      <c r="W8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AH8" s="33">
+      <c r="AH8" s="32">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="str">
+      <c r="B9" s="19" t="str">
         <f>_xlfn.CONCAT(empleados!D9,", ",empleados!C9)</f>
         <v>Cabello, Camila</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21">
+      <c r="C9" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" s="39"/>
+      <c r="W9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20">
         <f>COUNTBLANK($B9:$AF9)</f>
         <v>13</v>
       </c>
-      <c r="AH9" s="22">
+      <c r="AH9" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -4612,26 +7311,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C1" activeCellId="1" sqref="F1:F16 C1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>150</v>
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -4640,149 +7340,316 @@
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="2">
         <v>25000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="52">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="2">
         <v>56000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="52">
         <v>5399</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="2">
         <v>124999.99</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="52">
         <v>2380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="2">
         <v>35500</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="52">
         <v>4500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="2">
         <v>85750</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="52">
         <v>13599</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="3">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="2">
         <v>8599.99</v>
       </c>
-      <c r="F7" s="2">
-        <v>28390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="52">
+        <v>18390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="2">
         <v>165800</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="52">
         <v>2890</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="2">
         <v>200530</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="52">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="2">
+        <v>156000</v>
+      </c>
+      <c r="G10" s="52">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="2">
+        <v>189500</v>
+      </c>
+      <c r="G11" s="52">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1650</v>
+      </c>
+      <c r="G12" s="52">
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3200</v>
+      </c>
+      <c r="G13" s="52">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="2">
+        <v>95600</v>
+      </c>
+      <c r="G14" s="52">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1800</v>
+      </c>
+      <c r="G15" s="52">
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="2">
+        <v>28500</v>
+      </c>
+      <c r="G16" s="52">
+        <v>5490</v>
       </c>
     </row>
   </sheetData>
@@ -4794,6 +7661,13 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4801,9 +7675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4814,464 +7688,478 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="29" t="s">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>109</v>
+      <c r="G1" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>56000</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>112000</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>135520</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>76</v>
+      <c r="J2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14">
         <v>2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>5</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>85750</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>85750</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>103757.5</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="28">
+      <c r="J3" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="27">
         <f>COUNT($C:$C)</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
         <v>4</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>3</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>35500</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>106500</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>128865</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="J4" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="12">
         <f>SUM($G:$G)</f>
         <v>2264249.94</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="14">
         <v>4</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>3</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>124999.99</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>499999.96</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>604999.95160000003</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="J5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="16">
         <f>AVERAGE($G:$G)</f>
         <v>150949.99599999998</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>56000</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>112000</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>135520</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="J6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="12">
         <f>MEDIAN($G:$G)</f>
         <v>112000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>25000</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>25000</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>30250</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="28">
+      <c r="J7" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="2">
+        <f>MIN(tabla_ventas[Total])</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>56000</v>
+      </c>
+      <c r="G8" s="30">
+        <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
+        <v>168000</v>
+      </c>
+      <c r="H8" s="11">
+        <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
+        <v>203280</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="54">
+        <f>MAX(tabla_ventas[Total])</f>
+        <v>499999.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15">
+        <v>124999.99</v>
+      </c>
+      <c r="G9" s="30">
+        <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
+        <v>249999.98</v>
+      </c>
+      <c r="H9" s="15">
+        <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
+        <v>302499.97580000001</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="27">
         <f>MODE($C:$C)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="11">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12">
-        <v>56000</v>
-      </c>
-      <c r="G8" s="31">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>35500</v>
+      </c>
+      <c r="G10" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
-        <v>168000</v>
-      </c>
-      <c r="H8" s="12">
+        <v>35500</v>
+      </c>
+      <c r="H10" s="11">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
-        <v>203280</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="19">
+        <v>42955</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="18">
         <f>MODE($D:$D)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="14">
         <v>2</v>
       </c>
-      <c r="D9" s="15">
-        <v>3</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16">
-        <v>124999.99</v>
-      </c>
-      <c r="G9" s="31">
-        <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
-        <v>249999.98</v>
-      </c>
-      <c r="H9" s="16">
-        <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
-        <v>302499.97580000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="D11" s="14">
         <v>5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E11" s="14">
         <v>4</v>
       </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12">
-        <v>35500</v>
-      </c>
-      <c r="G10" s="31">
-        <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
-        <v>35500</v>
-      </c>
-      <c r="H10" s="12">
-        <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
-        <v>42955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="15">
-        <v>2</v>
-      </c>
-      <c r="D11" s="15">
-        <v>5</v>
-      </c>
-      <c r="E11" s="15">
-        <v>4</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>85750</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>343000</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>415030</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="10">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>56000</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>112000</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>135520</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="14">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>3</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>25000</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>75000</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>90750</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>1</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>56000</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>56000</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>67760</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="14">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14">
+        <v>5</v>
+      </c>
+      <c r="E15" s="14">
         <v>2</v>
       </c>
-      <c r="D15" s="15">
-        <v>5</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>85750</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>171500</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>207515</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="10">
         <v>1</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>56000</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <f>tabla_ventas[[#This Row],[Cantidad]]*tabla_ventas[[#This Row],[Precio]]</f>
         <v>112000</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <f>tabla_ventas[[#This Row],[Total]]*iva_ventas</f>
         <v>135520</v>
       </c>
@@ -5282,10 +8170,18 @@
     <hyperlink ref="A1" location="menu!A1" display="Volver" xr:uid="{261F7D50-C145-4C27-AC5E-50FB264B982C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5293,9 +8189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956760E-99C3-4188-ABA4-1CAAD0DD9EC6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5304,8 +8200,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>150</v>
+      <c r="A1" s="45" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-mjv13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAD15ED-45FF-4782-8AA6-A1A665F9B3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B3CCE0-40F7-4601-8CF2-003CDFAA7A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="487" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="487" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="180">
   <si>
     <t>Apellido</t>
   </si>
@@ -574,19 +574,45 @@
   </si>
   <si>
     <t>Contar</t>
+  </si>
+  <si>
+    <t>Vendidos</t>
+  </si>
+  <si>
+    <t>Recaudado</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>a-016</t>
+  </si>
+  <si>
+    <t>recaudado</t>
+  </si>
+  <si>
+    <t>vendidos</t>
+  </si>
+  <si>
+    <t>a-0017</t>
+  </si>
+  <si>
+    <t>a0018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +652,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -761,7 +795,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -839,6 +873,24 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Énfasis1" xfId="3" builtinId="29"/>
@@ -848,7 +900,13 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -2040,7 +2098,7 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>150949.99599999998</c:v>
+                  <c:v>205819.44111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>112000</c:v>
@@ -2049,7 +2107,7 @@
                   <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>499999.96</c:v>
+                  <c:v>947500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,6 +2285,3047 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22870654550222319"/>
+          <c:y val="0.18523349529433697"/>
+          <c:w val="0.57686091074838552"/>
+          <c:h val="0.69906949642373983"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Datos!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D139-4F4D-BEB3-13EE2732335A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D139-4F4D-BEB3-13EE2732335A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D139-4F4D-BEB3-13EE2732335A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D139-4F4D-BEB3-13EE2732335A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D139-4F4D-BEB3-13EE2732335A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D139-4F4D-BEB3-13EE2732335A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D139-4F4D-BEB3-13EE2732335A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D139-4F4D-BEB3-13EE2732335A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8470585642386775E-2"/>
+                  <c:y val="-0.10729871067122061"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -64882"/>
+                        <a:gd name="adj2" fmla="val 160841"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D139-4F4D-BEB3-13EE2732335A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.5441485800465488E-2"/>
+                  <c:y val="-0.11075995940255032"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -142671"/>
+                        <a:gd name="adj2" fmla="val -44833"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D139-4F4D-BEB3-13EE2732335A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.24563034589529473"/>
+                  <c:y val="-1.7306243656648488E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -169304"/>
+                        <a:gd name="adj2" fmla="val -94402"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D139-4F4D-BEB3-13EE2732335A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5705501314623867E-2"/>
+                  <c:y val="2.7689989850637579E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 70295"/>
+                        <a:gd name="adj2" fmla="val -117186"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D139-4F4D-BEB3-13EE2732335A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12567133976038336"/>
+                  <c:y val="-1.0383746193989218E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 174835"/>
+                        <a:gd name="adj2" fmla="val -71057"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D139-4F4D-BEB3-13EE2732335A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.5685004382079558E-3"/>
+                  <c:y val="1.730624365664836E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 118144"/>
+                        <a:gd name="adj2" fmla="val -27751"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D139-4F4D-BEB3-13EE2732335A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1610387811229412E-2"/>
+                  <c:y val="-8.6531218283242464E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 90196"/>
+                        <a:gd name="adj2" fmla="val 168750"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-D139-4F4D-BEB3-13EE2732335A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8561668127359851E-3"/>
+                  <c:y val="-5.8841228432604864E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 77402"/>
+                        <a:gd name="adj2" fmla="val 224270"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-D139-4F4D-BEB3-13EE2732335A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Datos!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Racedo, Cristian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Racedo, Abel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maldonado, Alejandra</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juarez, Alberto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Martinez, Mariana</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gomez, Graciela</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garcia, Demetrio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cabello, Camila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-D139-4F4D-BEB3-13EE2732335A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9693290708329708E-2"/>
+          <c:y val="0.15589925611630154"/>
+          <c:w val="0.49543837825958958"/>
+          <c:h val="0.81246759958114045"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Datos!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Datos!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Racedo, Cristian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Racedo, Abel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maldonado, Alejandra</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juarez, Alberto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Martinez, Mariana</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gomez, Graciela</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garcia, Demetrio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cabello, Camila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-554E-49EE-A0D3-51AC370B9507}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Datos!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-554E-49EE-A0D3-51AC370B9507}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Datos!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Racedo, Cristian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Racedo, Abel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maldonado, Alejandra</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juarez, Alberto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Martinez, Mariana</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gomez, Graciela</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garcia, Demetrio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cabello, Camila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1339500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>678749.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>779999.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>344500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>246500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-554E-49EE-A0D3-51AC370B9507}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62852690807014056"/>
+          <c:y val="0.13380659023839636"/>
+          <c:w val="0.35883486128215014"/>
+          <c:h val="0.8290188078821753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>presentismo!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>presentismo!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Racedo, Cristian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Racedo, Abel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maldonado, Alejandra</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juarez, Alberto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Martinez, Mariana</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gomez, Graciela</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garcia, Demetrio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cabello, Camila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>presentismo!$AG$2:$AG$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50C6-42F4-B57F-1BD1581533B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>presentismo!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>presentismo!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Racedo, Cristian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Racedo, Abel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maldonado, Alejandra</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juarez, Alberto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Martinez, Mariana</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gomez, Graciela</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garcia, Demetrio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cabello, Camila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>presentismo!$AH$2:$AH$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50C6-42F4-B57F-1BD1581533B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="95"/>
+        <c:overlap val="100"/>
+        <c:axId val="859789103"/>
+        <c:axId val="859787439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="859789103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="859787439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="859787439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="859789103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Estadisticas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> de Ventas</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Datos!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Datos!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Racedo, Cristian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Racedo, Abel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maldonado, Alejandra</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juarez, Alberto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Martinez, Mariana</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gomez, Graciela</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garcia, Demetrio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cabello, Camila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0964-4A3C-9689-497E33E477D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="958147935"/>
+        <c:axId val="958145023"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Datos!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Datos!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Racedo, Cristian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Racedo, Abel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maldonado, Alejandra</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juarez, Alberto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Martinez, Mariana</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gomez, Graciela</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garcia, Demetrio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cabello, Camila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1339500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>678749.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>779999.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>344500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>246500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0964-4A3C-9689-497E33E477D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="958159999"/>
+        <c:axId val="958159583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="958147935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958145023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="958145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958147935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="958159583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958159999"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="958159999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="958159583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2307,6 +5406,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -3181,6 +6440,2147 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+     